--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PythonProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184F3E62-F96C-4C96-8B54-71FD390548F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF410626-04C2-4A61-8137-D466F8EC7F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="116">
   <si>
     <t>Years</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Export</t>
   </si>
   <si>
-    <t xml:space="preserve">Conversion factor used </t>
-  </si>
-  <si>
     <t>Normalized X</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://excalidraw.com/#json=Lj-sDbAMDNeaA9bmCep8J,9nZyAhAf-Q5KkiQ4syeq1w </t>
-  </si>
-  <si>
-    <t>absolute (SWE), relative (%)</t>
   </si>
   <si>
     <t>SWE</t>
@@ -318,31 +312,7 @@
     </r>
   </si>
   <si>
-    <t>Source_process*</t>
-  </si>
-  <si>
     <t>Transformation_Stage*</t>
-  </si>
-  <si>
-    <t>Source_process_location*</t>
-  </si>
-  <si>
-    <t>Target_process*</t>
-  </si>
-  <si>
-    <t>Target_process_location*</t>
-  </si>
-  <si>
-    <t>Source _ID*</t>
-  </si>
-  <si>
-    <t>Target_ID*</t>
-  </si>
-  <si>
-    <t>Value*</t>
-  </si>
-  <si>
-    <t>Year*</t>
   </si>
   <si>
     <t xml:space="preserve">Must filled in cells </t>
@@ -480,6 +450,57 @@
       </rPr>
       <t xml:space="preserve"> (e.g. P3:EU -&gt; P5:EU with value: 100%)  </t>
     </r>
+  </si>
+  <si>
+    <t>m3, kg, %</t>
+  </si>
+  <si>
+    <t>2 columns needed for each indicator (value and comment)</t>
+  </si>
+  <si>
+    <t>Source_process</t>
+  </si>
+  <si>
+    <t>Transformation_Stage</t>
+  </si>
+  <si>
+    <t>Source_process_location</t>
+  </si>
+  <si>
+    <t>Target_process</t>
+  </si>
+  <si>
+    <t>Target_process_location</t>
+  </si>
+  <si>
+    <t>Source _ID</t>
+  </si>
+  <si>
+    <t>Target_ID</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Data_source_comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversion_factor_used </t>
+  </si>
+  <si>
+    <t>Carbon_content_factor</t>
+  </si>
+  <si>
+    <t>Carbon_content_source</t>
+  </si>
+  <si>
+    <t>Indicator0</t>
+  </si>
+  <si>
+    <t>Indicator1</t>
   </si>
 </sst>
 </file>
@@ -571,7 +592,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -579,12 +600,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -594,9 +656,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -628,18 +687,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -655,15 +702,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -825,7 +890,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1417501</xdr:colOff>
+      <xdr:colOff>1398451</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>164512</xdr:rowOff>
     </xdr:to>
@@ -1162,165 +1227,165 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240816D1-B4FF-41BE-B292-8CF7D349FFB2}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="29" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="29" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="26"/>
+    <col min="5" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="21"/>
+      <c r="C2" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="25"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" s="22" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" s="22" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:5" s="27" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" s="27" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="28"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1390,7 +1455,7 @@
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>12</v>
@@ -1410,7 +1475,7 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="9"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1428,28 +1493,28 @@
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>17</v>
@@ -1467,16 +1532,16 @@
         <v>21</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="R3" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
@@ -1484,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -1507,13 +1572,13 @@
       </c>
       <c r="M4" s="5"/>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="Q4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
@@ -1521,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -1544,13 +1609,13 @@
       </c>
       <c r="M5" s="5"/>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="Q5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1558,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -1580,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Q6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="R6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1594,7 +1659,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -1616,13 +1681,13 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="R7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1630,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1640,7 +1705,7 @@
         <v>P5:EU</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1652,13 +1717,13 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" t="s">
         <v>93</v>
-      </c>
-      <c r="R8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1666,7 +1731,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -1688,13 +1753,13 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" t="s">
         <v>94</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>95</v>
-      </c>
-      <c r="R9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1702,7 +1767,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -1724,13 +1789,13 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="Q10" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="R10" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1741,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B692AEE8-68EE-4B81-A49D-50BF066DFFE7}">
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:U88"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,12 +1827,13 @@
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" customWidth="1"/>
     <col min="13" max="13" width="40.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1803,8 +1869,32 @@
       <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1818,58 +1908,87 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="S3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T3" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="U3" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="str">
         <f>+_xlfn.XLOOKUP(H4,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -1879,7 +1998,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="str">
         <f>+_xlfn.XLOOKUP(I4,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -1900,15 +2019,18 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="str">
         <f>+_xlfn.XLOOKUP(H5,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -1918,7 +2040,7 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="str">
         <f>+_xlfn.XLOOKUP(I5,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -1939,15 +2061,18 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L5">
         <v>2021</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="str">
         <f>+_xlfn.XLOOKUP(H6,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -1957,7 +2082,7 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="str">
         <f>+_xlfn.XLOOKUP(I6,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -1978,16 +2103,19 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L6">
         <v>2021</v>
       </c>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N6" s="7"/>
+      <c r="P6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="str">
         <f>+_xlfn.XLOOKUP(H7,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -1997,7 +2125,7 @@
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" t="str">
         <f>+_xlfn.XLOOKUP(I7,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2018,16 +2146,19 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L7">
         <v>2021</v>
       </c>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N7" s="7"/>
+      <c r="P7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="str">
         <f>+_xlfn.XLOOKUP(H8,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2037,7 +2168,7 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="str">
         <f>+_xlfn.XLOOKUP(I8,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2063,11 +2194,14 @@
       <c r="L8">
         <v>2021</v>
       </c>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N8" s="7"/>
+      <c r="P8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="str">
         <f>+_xlfn.XLOOKUP(H9,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2077,7 +2211,7 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" t="str">
         <f>+_xlfn.XLOOKUP(I9,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2103,11 +2237,14 @@
       <c r="L9">
         <v>2021</v>
       </c>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N9" s="7"/>
+      <c r="P9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" t="str">
         <f>+_xlfn.XLOOKUP(H10,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2117,7 +2254,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" t="str">
         <f>+_xlfn.XLOOKUP(I10,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2138,15 +2275,18 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" t="str">
         <f>+_xlfn.XLOOKUP(H11,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2156,7 +2296,7 @@
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
@@ -2176,19 +2316,22 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L11">
         <v>2021</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="str">
         <f>+_xlfn.XLOOKUP(H13,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2198,7 +2341,7 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="str">
         <f>+_xlfn.XLOOKUP(I13,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2219,15 +2362,18 @@
         <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L13">
         <v>2022</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="str">
         <f>+_xlfn.XLOOKUP(H14,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2237,7 +2383,7 @@
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" t="str">
         <f>+_xlfn.XLOOKUP(I14,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2258,15 +2404,18 @@
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L14">
         <v>2022</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="str">
         <f>+_xlfn.XLOOKUP(H15,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2276,7 +2425,7 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" t="str">
         <f>+_xlfn.XLOOKUP(I15,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2297,16 +2446,19 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L15">
         <v>2022</v>
       </c>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N15" s="7"/>
+      <c r="P15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="str">
         <f>+_xlfn.XLOOKUP(H16,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2316,7 +2468,7 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" t="str">
         <f>+_xlfn.XLOOKUP(I16,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2337,16 +2489,19 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L16">
         <v>2022</v>
       </c>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N16" s="7"/>
+      <c r="P16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="str">
         <f>+_xlfn.XLOOKUP(H17,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2356,7 +2511,7 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" t="str">
         <f>+_xlfn.XLOOKUP(I17,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2382,11 +2537,14 @@
       <c r="L17">
         <v>2022</v>
       </c>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="7"/>
+      <c r="P17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="str">
         <f>+_xlfn.XLOOKUP(H18,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2396,7 +2554,7 @@
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" t="str">
         <f>+_xlfn.XLOOKUP(I18,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2417,15 +2575,18 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L18">
         <v>2022</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="str">
         <f>+_xlfn.XLOOKUP(H19,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
@@ -2435,7 +2596,7 @@
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
@@ -2455,62 +2616,65 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L19">
         <v>2022</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="O31"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
@@ -2569,8 +2733,8 @@
       <c r="O41"/>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C42" s="10" t="s">
-        <v>52</v>
+      <c r="C42" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -2857,11 +3021,6 @@
       <c r="O88"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:M86" xr:uid="{B692AEE8-68EE-4B81-A49D-50BF066DFFE7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:M20">
-      <sortCondition ref="L3"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C42" r:id="rId1" location="json=Lj-sDbAMDNeaA9bmCep8J,9nZyAhAf-Q5KkiQ4syeq1w " xr:uid="{37B4E084-5E8C-4C2B-AC88-5E1F4296DCE7}"/>
@@ -2882,6 +3041,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
+    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100806C55B750152A459818B636E97A41C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="74fd9cb75cef04cf26a1ff9ddef01b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xmlns:ns3="145cc194-9bea-4db6-b116-a042a4529fcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afbcbfdd38894bc2ff0644b00c8ec680" ns2:_="" ns3:_="">
     <xsd:import namespace="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
@@ -3144,18 +3315,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
-    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
   <ds:schemaRefs>
@@ -3165,6 +3324,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D60021C7-CA75-4673-96EA-55284BF81134}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3181,21 +3357,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PythonProjects\aiphoria\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClOrfani\PycharmProjects\aiphoria-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF410626-04C2-4A61-8137-D466F8EC7F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7D2FDB-D454-443C-863A-DD0BC8016068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
     <sheet name="Processes" sheetId="6" r:id="rId2"/>
     <sheet name="Flows" sheetId="1" r:id="rId3"/>
+    <sheet name="DMFA results (example)" sheetId="8" r:id="rId4"/>
+    <sheet name="Carbon fraction (will be moved)" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flows!$B$3:$M$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flows!$B$3:$M$91</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,8 +42,93 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Cleo Orfanidou</author>
+    <author>tc={1B6F1B95-29AC-4426-A9A6-A75A9B9B488B}</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{4F87BADA-B913-41B7-B317-C704547E4CF7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cleo Orfanidou:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{432842A1-CFD3-49BE-B074-C4172C77AFF2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cleo Orfanidou:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+dev</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{1B6F1B95-29AC-4426-A9A6-A75A9B9B488B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Sankey diagram process positioning</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A1233539-2DE7-4EBD-8A76-0466F733D277}</author>
+  </authors>
+  <commentList>
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{A1233539-2DE7-4EBD-8A76-0466F733D277}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Conversion to ODMT not carbon!</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="157">
   <si>
     <t>Years</t>
   </si>
@@ -112,9 +199,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>EU</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -130,9 +214,6 @@
     <t>Data_source</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
     <t>Import</t>
   </si>
   <si>
@@ -151,24 +232,6 @@
     <t xml:space="preserve">float </t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>Third</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scenarios </t>
   </si>
   <si>
@@ -194,12 +257,6 @@
   </si>
   <si>
     <t>Unbalanced system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://excalidraw.com/#json=Lj-sDbAMDNeaA9bmCep8J,9nZyAhAf-Q5KkiQ4syeq1w </t>
-  </si>
-  <si>
-    <t>SWE</t>
   </si>
   <si>
     <t xml:space="preserve">Units of flows </t>
@@ -252,6 +309,321 @@
       </rPr>
       <t>Columns B to I need be filled in for aiphoria to run.</t>
     </r>
+  </si>
+  <si>
+    <t>Transformation_Stage*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must filled in cells </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cells to fill for running aiphoria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please check the starred (*) cells on the processes and flows sheets. </t>
+  </si>
+  <si>
+    <t>General information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About aiphoria </t>
+  </si>
+  <si>
+    <t>Process*</t>
+  </si>
+  <si>
+    <t>Process_location*</t>
+  </si>
+  <si>
+    <t>Process_ID*</t>
+  </si>
+  <si>
+    <t>Lifetime*</t>
+  </si>
+  <si>
+    <t>Uncertainty_distribution_type *</t>
+  </si>
+  <si>
+    <t>Distribution_parameters*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positioning of flows in the sankey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columns P and Q in the process sheet give the possibility to the user to automatically position the processes and flows in the sankey diagram. Firstly, the user needs to run aiphoria, then when the sankey diagram pops up the user should manually position the processes and flows to the preferred position; get the x and y information from the graph, then paste them into excel and run again. </t>
+  </si>
+  <si>
+    <t>Label shown in graph</t>
+  </si>
+  <si>
+    <t>Process sheet: Normalized x and y columns</t>
+  </si>
+  <si>
+    <t>m3, kg, %</t>
+  </si>
+  <si>
+    <t>2 columns needed for each indicator (value and comment)</t>
+  </si>
+  <si>
+    <t>Source_process</t>
+  </si>
+  <si>
+    <t>Transformation_Stage</t>
+  </si>
+  <si>
+    <t>Source_process_location</t>
+  </si>
+  <si>
+    <t>Target_process</t>
+  </si>
+  <si>
+    <t>Target_process_location</t>
+  </si>
+  <si>
+    <t>Source _ID</t>
+  </si>
+  <si>
+    <t>Target_ID</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Data_source_comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversion_factor_used </t>
+  </si>
+  <si>
+    <t>Carbon_content_factor</t>
+  </si>
+  <si>
+    <t>Carbon_content_source</t>
+  </si>
+  <si>
+    <t>Indicator0</t>
+  </si>
+  <si>
+    <t>Indicator1</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>Industrial_roundwood</t>
+  </si>
+  <si>
+    <t>Sawnwood</t>
+  </si>
+  <si>
+    <t>Sawmilling</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>https://excalidraw.com/#json=XTpmhzuJw-3ozVbASdSZz,QuLhsga6HJSHN0nM7kMAMA</t>
+  </si>
+  <si>
+    <t>m3 SWE</t>
+  </si>
+  <si>
+    <t>Residues</t>
+  </si>
+  <si>
+    <t>Incineration</t>
+  </si>
+  <si>
+    <t>EoL</t>
+  </si>
+  <si>
+    <t>by_prod</t>
+  </si>
+  <si>
+    <t>VAM</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.resconrec.2024.107476</t>
+  </si>
+  <si>
+    <t>Assumed density of CLT 480 kg/m3</t>
+  </si>
+  <si>
+    <t>Assumer density of a furniture product 450 kg/m3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.resconrec.2024.107476, assumed average conversion factor 80% soft 20% hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random input values </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 Roundwood </t>
+  </si>
+  <si>
+    <t>1 Sawmilling</t>
+  </si>
+  <si>
+    <t>2 By products</t>
+  </si>
+  <si>
+    <t>3 Sawnwood</t>
+  </si>
+  <si>
+    <t>4 Construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Furnitute </t>
+  </si>
+  <si>
+    <t>8 Incineration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Import </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 Export </t>
+  </si>
+  <si>
+    <t>Carbon OC</t>
+  </si>
+  <si>
+    <t>Carbon SC</t>
+  </si>
+  <si>
+    <t>Industrial_roundwood:FI Sawmilling:FI</t>
+  </si>
+  <si>
+    <t>Industrial_roundwood:FI</t>
+  </si>
+  <si>
+    <t>Sawmilling:FI</t>
+  </si>
+  <si>
+    <t>Sawmilling:FI Sawnwood:FI</t>
+  </si>
+  <si>
+    <t>Sawnwood:FI</t>
+  </si>
+  <si>
+    <t>Sawmilling:FI Residues:FI</t>
+  </si>
+  <si>
+    <t>Residues:FI</t>
+  </si>
+  <si>
+    <t>Sawnwood:FI Construction:FI</t>
+  </si>
+  <si>
+    <t>Construction:FI</t>
+  </si>
+  <si>
+    <t>Sawnwood:FI Furniture:FI</t>
+  </si>
+  <si>
+    <t>Furniture:FI</t>
+  </si>
+  <si>
+    <t>Construction:FI Sawmilling:FI</t>
+  </si>
+  <si>
+    <t>Construction:FI Incineration:FI</t>
+  </si>
+  <si>
+    <t>Incineration:FI</t>
+  </si>
+  <si>
+    <t>Furniture:FI Incineration:FI</t>
+  </si>
+  <si>
+    <t>Sawnwood:FI Sawnwood:Export</t>
+  </si>
+  <si>
+    <t>Sawnwood:Export</t>
+  </si>
+  <si>
+    <t>Sawnwood:Import Sawnwood:FI</t>
+  </si>
+  <si>
+    <t>Sawnwood:Import</t>
+  </si>
+  <si>
+    <t>Flow ID</t>
+  </si>
+  <si>
+    <t>Source Process ID</t>
+  </si>
+  <si>
+    <t>Targer Process ID</t>
+  </si>
+  <si>
+    <t>Value (Mm3 SWE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value (Tonnes of carbon) </t>
+  </si>
+  <si>
+    <t>Process ID</t>
+  </si>
+  <si>
+    <t>Total inflows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total ouflows </t>
+  </si>
+  <si>
+    <t>SWE Mm3 OC</t>
+  </si>
+  <si>
+    <t>SWE Mm3 sC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only for Furniture </t>
+  </si>
+  <si>
+    <t>Values pasted from aiphoria results</t>
+  </si>
+  <si>
+    <t>Outflow per year</t>
+  </si>
+  <si>
+    <t>Stock inflow per year</t>
+  </si>
+  <si>
+    <t>Stock change per year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In-use stock per year </t>
+  </si>
+  <si>
+    <t>DMFA results (example) sheet</t>
+  </si>
+  <si>
+    <t>The DMFA results content is pasted here to illustrate the results deriving from the demo case taken place in the example.ipynb</t>
+  </si>
+  <si>
+    <t>Carbon fraction (will be moved) sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon accounting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The carbon fraction sheet is only temproary here and it is being used by thte Flows sheet. In the next version of aiphoria this will be moved somewhere else. </t>
+  </si>
+  <si>
+    <t>Carbon fraction</t>
   </si>
   <si>
     <r>
@@ -308,122 +680,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Columns B to I  and L need be filled in for aiphoria to run.</t>
+      <t>Columns B to L need be filled in for aiphoria to run.</t>
     </r>
   </si>
   <si>
-    <t>Transformation_Stage*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must filled in cells </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cells to fill for running aiphoria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please check the starred (*) cells on the processes and flows sheets. </t>
-  </si>
-  <si>
-    <t>General information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">About aiphoria </t>
-  </si>
-  <si>
-    <t>Process*</t>
-  </si>
-  <si>
-    <t>Process_location*</t>
-  </si>
-  <si>
-    <t>Process_ID*</t>
-  </si>
-  <si>
-    <t>Lifetime*</t>
-  </si>
-  <si>
-    <t>Uncertainty_distribution_type *</t>
-  </si>
-  <si>
-    <t>Distribution_parameters*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positioning of flows in the sankey </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Columns P and Q in the process sheet give the possibility to the user to automatically position the processes and flows in the sankey diagram. Firstly, the user needs to run aiphoria, then when the sankey diagram pops up the user should manually position the processes and flows to the preferred position; get the x and y information from the graph, then paste them into excel and run again. </t>
-  </si>
-  <si>
-    <t>0.044</t>
-  </si>
-  <si>
-    <t>0.117</t>
-  </si>
-  <si>
-    <t>0.339</t>
-  </si>
-  <si>
-    <t>0.277</t>
-  </si>
-  <si>
-    <t>0.672</t>
-  </si>
-  <si>
-    <t>0.107</t>
-  </si>
-  <si>
-    <t>0.669</t>
-  </si>
-  <si>
-    <t>0.572</t>
-  </si>
-  <si>
-    <t>0.923</t>
-  </si>
-  <si>
-    <t>0.509</t>
-  </si>
-  <si>
-    <t>0.048</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>0.491</t>
-  </si>
-  <si>
-    <t>0.288</t>
-  </si>
-  <si>
-    <t>Label shown in graph</t>
-  </si>
-  <si>
-    <t>Source process</t>
-  </si>
-  <si>
-    <t>Process 2</t>
-  </si>
-  <si>
-    <t>Process 3</t>
-  </si>
-  <si>
-    <t>Process 4</t>
-  </si>
-  <si>
-    <t>Process 5</t>
-  </si>
-  <si>
-    <t>Import from RoW</t>
-  </si>
-  <si>
-    <t>Export to RoW</t>
-  </si>
-  <si>
-    <t>Process sheet: Normalized x and y columns</t>
-  </si>
-  <si>
-    <t>This is the input file of aiphoria where the user defines the processes/nodes and flows/arrows/edges within the preferred system. Aiphoria helps visualizing the system in the form of a sankey diagram and later passes the information to ODYM to conduct material flows analysis. aiphoria supports both static and dynamic assessments (e.g from 2021 to 2050). If can be used to assess any system but as an initial development it aims to support dynamic wood material flows analysis (i.e. tracking of wood product flows throughtout the value chain and life cycle stage) and temporary carbon accounting (functionality to be added).</t>
+    <t>This is the input file of aiphoria where the user defines the processes/nodes and flows/arrows/edges within the preferred system. Aiphoria helps visualizing the system in the form of a sankey diagram and later passes the information to ODYM to conduct material flows analysis. aiphoria supports both static and dynamic assessments (e.g from 2021 to 2050). If can be used to assess any system but as an initial development it aims to support dynamic wood material flows analysis (i.e. tracking of wood product flows throughtout the value chain and life cycle stage) and temporary carbon accounting.</t>
   </si>
   <si>
     <r>
@@ -438,7 +699,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>repeating the value given for the first year</t>
+      <t>repeating the value given for the last year</t>
     </r>
     <r>
       <rPr>
@@ -451,63 +712,17 @@
       <t xml:space="preserve"> (e.g. P3:EU -&gt; P5:EU with value: 100%)  </t>
     </r>
   </si>
-  <si>
-    <t>m3, kg, %</t>
-  </si>
-  <si>
-    <t>2 columns needed for each indicator (value and comment)</t>
-  </si>
-  <si>
-    <t>Source_process</t>
-  </si>
-  <si>
-    <t>Transformation_Stage</t>
-  </si>
-  <si>
-    <t>Source_process_location</t>
-  </si>
-  <si>
-    <t>Target_process</t>
-  </si>
-  <si>
-    <t>Target_process_location</t>
-  </si>
-  <si>
-    <t>Source _ID</t>
-  </si>
-  <si>
-    <t>Target_ID</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Data_source_comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conversion_factor_used </t>
-  </si>
-  <si>
-    <t>Carbon_content_factor</t>
-  </si>
-  <si>
-    <t>Carbon_content_source</t>
-  </si>
-  <si>
-    <t>Indicator0</t>
-  </si>
-  <si>
-    <t>Indicator1</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
+    <numFmt numFmtId="171" formatCode="0.00000000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,8 +780,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,6 +822,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,7 +886,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -708,27 +948,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -751,23 +997,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>283323</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104028</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>712859</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1076138</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>69287</xdr:rowOff>
+      <xdr:rowOff>122408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="4" name="Graphic 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BED63B-94D2-60E7-7CF5-DA37FBA85190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{186AA4F2-8439-0B6B-4F97-D26DA395FC6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -776,147 +1022,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8161058" y="3832411"/>
-          <a:ext cx="6832951" cy="3587935"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>638736</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1380708</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>161337</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915A299A-6DA3-06C3-6C52-B9D389C7D5BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1367118" y="3854823"/>
-          <a:ext cx="6423355" cy="3114835"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>316941</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>64060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>749652</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>66112</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458BED11-6DAC-16D0-8E7C-B5988B23921D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8194676" y="3829236"/>
-          <a:ext cx="6839301" cy="3591110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>669179</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104027</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1398451</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>164512</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342C7F59-B497-3E75-A53C-C31F40FF9DCA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1397561" y="3869203"/>
-          <a:ext cx="6426530" cy="3105310"/>
+          <a:off x="9606616" y="4874560"/>
+          <a:ext cx="7766050" cy="2606938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -926,6 +1046,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Cleo Orfanidou" id="{10F4E90A-0171-4D8D-A06D-5391EEA853D3}" userId="S::Cleo.Orfanidou@efi.int::9264b753-0990-44b3-870f-f7cf7fbafcd9" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1223,169 +1349,211 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="P3" dT="2024-07-11T08:34:08.99" personId="{10F4E90A-0171-4D8D-A06D-5391EEA853D3}" id="{1B6F1B95-29AC-4426-A9A6-A75A9B9B488B}">
+    <text>Sankey diagram process positioning</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="P3" dT="2024-07-05T06:41:30.02" personId="{10F4E90A-0171-4D8D-A06D-5391EEA853D3}" id="{A1233539-2DE7-4EBD-8A76-0466F733D277}">
+    <text>Conversion to ODMT not carbon!</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240816D1-B4FF-41BE-B292-8CF7D349FFB2}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="37.81640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="23" customWidth="1"/>
     <col min="3" max="3" width="29" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="21"/>
+    <col min="4" max="4" width="69.54296875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="34"/>
+    </row>
+    <row r="2" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="25"/>
+      <c r="C2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="33"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="203.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" s="22" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="1:5" s="22" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:5" s="22" customFormat="1" ht="96.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="32"/>
+    </row>
+    <row r="6" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="1:5" s="22" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="D8" s="31"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="28"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C11" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="31"/>
+    </row>
+    <row r="12" spans="1:5" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:5" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C11:D11"/>
+  <mergeCells count="13">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1393,32 +1561,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0D592-75C1-4AD1-84F0-2AAE25CA0097}">
-  <dimension ref="A1:R10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0D592-75C1-4AD1-84F0-2AAE25CA0097}">
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="C1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" customWidth="1"/>
+    <col min="9" max="9" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.453125" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" customWidth="1"/>
+    <col min="17" max="17" width="13.7265625" customWidth="1"/>
+    <col min="18" max="18" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -1455,7 +1623,7 @@
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>12</v>
@@ -1464,7 +1632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1490,31 +1658,31 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>17</v>
@@ -1532,308 +1700,382 @@
         <v>21</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="D4" t="str">
         <f>_xlfn.CONCAT(B4,":",C4)</f>
-        <v>P1:EU</v>
+        <v>Industrial_roundwood:FI</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="P4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>75</v>
+      <c r="P4">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="Q4">
+        <v>0.34699999999999998</v>
       </c>
       <c r="R4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D10" si="0">_xlfn.CONCAT(B5,":",C5)</f>
-        <v>P2:EU</v>
+        <f t="shared" ref="D5:D12" si="0">_xlfn.CONCAT(B5,":",C5)</f>
+        <v>Sawmilling:FI</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="P5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>77</v>
+      <c r="P5">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.39200000000000002</v>
       </c>
       <c r="R5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>P3:EU</v>
+        <v>Residues:FI</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="P6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>79</v>
+      <c r="P6">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="Q6">
+        <v>0.10100000000000001</v>
       </c>
       <c r="R6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ref="D7" si="1">_xlfn.CONCAT(B7,":",C7)</f>
-        <v>P4:EU</v>
+        <v>Sawnwood:FI</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="P7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>81</v>
+      <c r="P7">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="Q7">
+        <v>0.53200000000000003</v>
       </c>
       <c r="R7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>P5:EU</v>
+        <v>Construction:FI</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="P8" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>83</v>
+      <c r="P8">
+        <v>0.752</v>
+      </c>
+      <c r="Q8">
+        <v>0.44400000000000001</v>
       </c>
       <c r="R8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>P2:Import</v>
+        <v>Furniture:FI</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="P9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>85</v>
+      <c r="P9">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="Q9">
+        <v>0.77300000000000002</v>
       </c>
       <c r="R9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>P2:Export</v>
+        <v>Sawnwood:Import</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="P10" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>87</v>
+      <c r="P10">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="Q10">
+        <v>0.81899999999999995</v>
       </c>
       <c r="R10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Sawnwood:Export</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>95</v>
       </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="Q11">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="R11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>Incineration:FI</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="Q12">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="R12" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B692AEE8-68EE-4B81-A49D-50BF066DFFE7}">
-  <dimension ref="A1:U88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B692AEE8-68EE-4B81-A49D-50BF066DFFE7}">
+  <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="40.85546875" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.54296875" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" customWidth="1"/>
+    <col min="13" max="13" width="40.81640625" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1894,7 +2136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1908,7 +2150,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -1917,276 +2159,317 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" s="30" t="s">
+      <c r="B3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="S3" s="33" t="s">
+      <c r="L3" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="U3" s="33" t="s">
+      <c r="T3" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C4" t="str">
-        <f>+_xlfn.XLOOKUP(H4,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
+        <f>+_xlfn.XLOOKUP(H4,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Source</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F4" t="str">
-        <f>+_xlfn.XLOOKUP(I4,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
+        <f>+_xlfn.XLOOKUP(I4,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="H4" s="4" t="str">
-        <f t="shared" ref="H4:H11" si="0">_xlfn.CONCAT(B4,":",D4)</f>
-        <v>P1:EU</v>
+        <f t="shared" ref="H4:H25" si="0">_xlfn.CONCAT(B4,":",D4)</f>
+        <v>Industrial_roundwood:FI</v>
       </c>
       <c r="I4" s="4" t="str">
-        <f t="shared" ref="I4:I11" si="1">_xlfn.CONCAT(E4,":",G4)</f>
-        <v>P2:EU</v>
+        <f t="shared" ref="I4:I25" si="1">_xlfn.CONCAT(E4,":",G4)</f>
+        <v>Sawmilling:FI</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L4">
         <v>2021</v>
       </c>
+      <c r="N4" t="s">
+        <v>100</v>
+      </c>
       <c r="P4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.20342399999999999</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C5" t="str">
-        <f>+_xlfn.XLOOKUP(H5,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
+        <f>+_xlfn.XLOOKUP(H5,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F5" t="str">
-        <f>+_xlfn.XLOOKUP(I5,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>First</v>
+        <f>+_xlfn.XLOOKUP(I5,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>Second</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>P2:EU</v>
+        <v>Sawmilling:FI</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>P3:EU</v>
+        <v>Sawnwood:FI</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L5">
         <v>2021</v>
       </c>
+      <c r="N5" t="s">
+        <v>100</v>
+      </c>
       <c r="P5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <f>0.4238*'Carbon fraction (will be moved)'!C2</f>
+        <v>0.20342399999999999</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C6" t="str">
-        <f>+_xlfn.XLOOKUP(H6,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
+        <f>+_xlfn.XLOOKUP(H6,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="F6" t="str">
-        <f>+_xlfn.XLOOKUP(I6,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>Second</v>
+        <f>+_xlfn.XLOOKUP(I6,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>by_prod</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>P2:EU</v>
+        <v>Sawmilling:FI</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>P4:EU</v>
+        <v>Residues:FI</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>19.5</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L6">
         <v>2021</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" t="s">
+        <v>100</v>
+      </c>
       <c r="P6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <f>0.395*'Carbon fraction (will be moved)'!C2</f>
+        <v>0.18959999999999999</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C7" t="str">
-        <f>+_xlfn.XLOOKUP(H7,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>First</v>
+        <f>+_xlfn.XLOOKUP(H7,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>Second</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="F7" t="str">
-        <f>+_xlfn.XLOOKUP(I7,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>Third</v>
+        <f>+_xlfn.XLOOKUP(I7,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>VAM</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>P3:EU</v>
+        <v>Sawnwood:FI</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>P5:EU</v>
+        <v>Construction:FI</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="L7">
         <v>2021</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
       <c r="P7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5</v>
+      </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C8" t="str">
-        <f>+_xlfn.XLOOKUP(H8,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
+        <f>+_xlfn.XLOOKUP(H8,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="str">
+        <f>+_xlfn.XLOOKUP(I8,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>VAM</v>
+      </c>
+      <c r="G8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f>_xlfn.CONCAT(B8,":",D8)</f>
+        <v>Sawnwood:FI</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f>_xlfn.CONCAT(E8,":",G8)</f>
+        <v>Furniture:FI</v>
+      </c>
+      <c r="J8">
         <v>40</v>
-      </c>
-      <c r="F8" t="str">
-        <f>+_xlfn.XLOOKUP(I8,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>Third</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>P4:EU</v>
-      </c>
-      <c r="I8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>P5:EU</v>
-      </c>
-      <c r="J8">
-        <v>100</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -2194,42 +2477,51 @@
       <c r="L8">
         <v>2021</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
       <c r="P8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.216</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>6</v>
+      </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C9" t="str">
-        <f>+_xlfn.XLOOKUP(H9,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>Third</v>
+        <f>+_xlfn.XLOOKUP(H9,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>VAM</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F9" t="str">
-        <f>+_xlfn.XLOOKUP(I9,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
+        <f>+_xlfn.XLOOKUP(I9,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>P5:EU</v>
+        <v>Construction:FI</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>P2:EU</v>
+        <v>Sawmilling:FI</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
@@ -2237,810 +2529,5925 @@
       <c r="L9">
         <v>2021</v>
       </c>
-      <c r="N9" s="7"/>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
       <c r="P9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>7</v>
+      </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C10" t="str">
-        <f>+_xlfn.XLOOKUP(H10,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>First</v>
+        <f>+_xlfn.XLOOKUP(H10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>VAM</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="F10" t="str">
-        <f>+_xlfn.XLOOKUP(I10,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>RoW</v>
+        <f>+_xlfn.XLOOKUP(I10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>EoL</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>P2:EU</v>
+        <v>Construction:FI</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>P2:Export</v>
+        <v>Incineration:FI</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="L10">
         <v>2021</v>
       </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
       <c r="P10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.216</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>8</v>
+      </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="str">
-        <f>+_xlfn.XLOOKUP(H11,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>RoW</v>
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
+        <v>91</v>
+      </c>
+      <c r="F11" t="str">
+        <f>+_xlfn.XLOOKUP(I11,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>EoL</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>P2:Import</v>
+        <v>Furniture:FI</v>
       </c>
       <c r="I11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>P2:EU</v>
+        <v>Incineration:FI</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="L11">
         <v>2021</v>
       </c>
+      <c r="N11" t="s">
+        <v>100</v>
+      </c>
       <c r="P11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.216</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="str">
+        <f>+_xlfn.XLOOKUP(H12,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>Second</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="str">
+        <f>+_xlfn.XLOOKUP(I12,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>RoW</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Sawnwood:FI</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Sawnwood:Export</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12">
+        <v>2021</v>
+      </c>
+      <c r="N12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12">
+        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.20342399999999999</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>10</v>
+      </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C13" t="str">
-        <f>+_xlfn.XLOOKUP(H13,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
+        <f>+_xlfn.XLOOKUP(H13,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>RoW</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Sawnwood:Import</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Sawnwood:FI</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13">
+        <v>2021</v>
+      </c>
+      <c r="N13" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13">
+        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.20342399999999999</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="str">
+        <f>+_xlfn.XLOOKUP(H16,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Source</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="str">
-        <f>+_xlfn.XLOOKUP(I13,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="str">
+        <f>+_xlfn.XLOOKUP(I16,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="4" t="str">
-        <f t="shared" ref="H13:H19" si="2">_xlfn.CONCAT(B13,":",D13)</f>
-        <v>P1:EU</v>
-      </c>
-      <c r="I13" s="4" t="str">
-        <f t="shared" ref="I13:I19" si="3">_xlfn.CONCAT(E13,":",G13)</f>
-        <v>P2:EU</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13">
-        <v>2022</v>
-      </c>
-      <c r="P13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="str">
-        <f>+_xlfn.XLOOKUP(H14,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>First</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" t="str">
-        <f>+_xlfn.XLOOKUP(I14,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>First</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>P2:EU</v>
-      </c>
-      <c r="I14" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>P3:EU</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14">
-        <v>2022</v>
-      </c>
-      <c r="P14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="str">
-        <f>+_xlfn.XLOOKUP(H15,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>First</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="str">
-        <f>+_xlfn.XLOOKUP(I15,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>Second</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>P2:EU</v>
-      </c>
-      <c r="I15" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>P4:EU</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15">
-        <v>2022</v>
-      </c>
-      <c r="N15" s="7"/>
-      <c r="P15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="str">
-        <f>+_xlfn.XLOOKUP(H16,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>First</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="str">
-        <f>+_xlfn.XLOOKUP(I16,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>Third</v>
-      </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="H16" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>P3:EU</v>
+        <f t="shared" si="0"/>
+        <v>Industrial_roundwood:FI</v>
       </c>
       <c r="I16" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>P5:EU</v>
+        <f t="shared" si="1"/>
+        <v>Sawmilling:FI</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L16">
         <v>2022</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" t="s">
+        <v>100</v>
+      </c>
       <c r="P16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.20342399999999999</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C17" t="str">
-        <f>+_xlfn.XLOOKUP(H17,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>Third</v>
+        <f>+_xlfn.XLOOKUP(H17,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>First</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="F17" t="str">
-        <f>+_xlfn.XLOOKUP(I17,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>First</v>
+        <f>+_xlfn.XLOOKUP(I17,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>Second</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="H17" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>P5:EU</v>
+        <f t="shared" si="0"/>
+        <v>Sawmilling:FI</v>
       </c>
       <c r="I17" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>P2:EU</v>
+        <f t="shared" si="1"/>
+        <v>Sawnwood:FI</v>
       </c>
       <c r="J17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="L17">
         <v>2022</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" t="s">
+        <v>100</v>
+      </c>
       <c r="P17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.20342399999999999</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C18" t="str">
-        <f>+_xlfn.XLOOKUP(H18,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
+        <f>+_xlfn.XLOOKUP(H18,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="F18" t="str">
-        <f>+_xlfn.XLOOKUP(I18,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>RoW</v>
+        <f>+_xlfn.XLOOKUP(I18,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>by_prod</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="H18" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>P2:EU</v>
+        <f t="shared" si="0"/>
+        <v>Sawmilling:FI</v>
       </c>
       <c r="I18" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>P2:Export</v>
+        <f t="shared" si="1"/>
+        <v>Residues:FI</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>19.5</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L18">
         <v>2022</v>
       </c>
+      <c r="N18" t="s">
+        <v>100</v>
+      </c>
       <c r="P18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+        <f>0.395*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.18959999999999999</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C19" t="str">
-        <f>+_xlfn.XLOOKUP(H19,Processes!$D$4:$D$46,Processes!$E$4:$E$46)</f>
-        <v>RoW</v>
+        <f>+_xlfn.XLOOKUP(H19,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>Second</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>27</v>
+        <v>86</v>
+      </c>
+      <c r="F19" t="str">
+        <f>+_xlfn.XLOOKUP(I19,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>VAM</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="H19" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>P2:Import</v>
+        <f t="shared" si="0"/>
+        <v>Sawnwood:FI</v>
       </c>
       <c r="I19" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>P2:EU</v>
+        <f t="shared" si="1"/>
+        <v>Construction:FI</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="L19">
         <v>2022</v>
       </c>
+      <c r="N19" t="s">
+        <v>100</v>
+      </c>
       <c r="P19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+        <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="str">
+        <f>+_xlfn.XLOOKUP(H20,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>Second</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" t="str">
+        <f>+_xlfn.XLOOKUP(I20,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>VAM</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f>_xlfn.CONCAT(B20,":",D20)</f>
+        <v>Sawnwood:FI</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <f>_xlfn.CONCAT(E20,":",G20)</f>
+        <v>Furniture:FI</v>
+      </c>
+      <c r="J20">
+        <v>40</v>
+      </c>
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20">
+        <v>2022</v>
+      </c>
+      <c r="N20" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20">
+        <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.216</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="str">
+        <f>+_xlfn.XLOOKUP(H21,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>VAM</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="str">
+        <f>+_xlfn.XLOOKUP(I21,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>First</v>
+      </c>
+      <c r="G21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Construction:FI</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Sawmilling:FI</v>
+      </c>
+      <c r="J21">
+        <v>40</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21">
+        <v>2022</v>
+      </c>
+      <c r="N21" t="s">
+        <v>100</v>
+      </c>
+      <c r="P21">
+        <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="str">
+        <f>+_xlfn.XLOOKUP(H22,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>VAM</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="str">
+        <f>+_xlfn.XLOOKUP(I22,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>EoL</v>
+      </c>
+      <c r="G22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f t="shared" ref="H22" si="2">_xlfn.CONCAT(B22,":",D22)</f>
+        <v>Construction:FI</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <f t="shared" ref="I22" si="3">_xlfn.CONCAT(E22,":",G22)</f>
+        <v>Incineration:FI</v>
+      </c>
+      <c r="J22">
+        <v>60</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22">
+        <v>2022</v>
+      </c>
+      <c r="N22" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22">
+        <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.216</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="str">
+        <f>+_xlfn.XLOOKUP(I23,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>EoL</v>
+      </c>
+      <c r="G23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <f t="shared" ref="H23" si="4">_xlfn.CONCAT(B23,":",D23)</f>
+        <v>Furniture:FI</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f t="shared" ref="I23" si="5">_xlfn.CONCAT(E23,":",G23)</f>
+        <v>Incineration:FI</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23">
+        <v>2022</v>
+      </c>
+      <c r="N23" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23">
+        <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.216</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="str">
+        <f>+_xlfn.XLOOKUP(H24,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>Second</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" t="str">
+        <f>+_xlfn.XLOOKUP(I24,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>RoW</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Sawnwood:FI</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Sawnwood:Export</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24">
+        <v>2022</v>
+      </c>
+      <c r="N24" t="s">
+        <v>100</v>
+      </c>
+      <c r="P24">
+        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.20342399999999999</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="str">
+        <f>+_xlfn.XLOOKUP(H25,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>RoW</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" t="str">
+        <f>+_xlfn.XLOOKUP(I25,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>Second</v>
+      </c>
+      <c r="G25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Sawnwood:Import</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Sawnwood:FI</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25">
+        <v>2022</v>
+      </c>
+      <c r="N25" t="s">
+        <v>100</v>
+      </c>
+      <c r="P25">
+        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.20342399999999999</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="O31"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="N33"/>
-      <c r="O33"/>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="N34"/>
-      <c r="O34"/>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="N35"/>
-      <c r="O35"/>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="N36"/>
-      <c r="O36"/>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="N37"/>
-      <c r="O37"/>
-    </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="N38"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="N39"/>
       <c r="O39"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="N40"/>
       <c r="O40"/>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="N41"/>
       <c r="O41"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C42" s="9" t="s">
-        <v>51</v>
-      </c>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="N42"/>
       <c r="O42"/>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="N43"/>
       <c r="O43"/>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="N44"/>
       <c r="O44"/>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="N45"/>
       <c r="O45"/>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="N46"/>
       <c r="O46"/>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C47" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="N47"/>
       <c r="O47"/>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="N48"/>
       <c r="O48"/>
     </row>
-    <row r="49" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="N49"/>
       <c r="O49"/>
     </row>
-    <row r="50" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="N50"/>
       <c r="O50"/>
     </row>
-    <row r="51" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="N51"/>
       <c r="O51"/>
     </row>
-    <row r="52" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="N52"/>
       <c r="O52"/>
     </row>
-    <row r="53" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="N53"/>
       <c r="O53"/>
     </row>
-    <row r="54" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="N54"/>
       <c r="O54"/>
     </row>
-    <row r="55" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="N55"/>
       <c r="O55"/>
     </row>
-    <row r="56" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="N56"/>
       <c r="O56"/>
     </row>
-    <row r="57" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="N57"/>
       <c r="O57"/>
     </row>
-    <row r="58" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="N58"/>
       <c r="O58"/>
     </row>
-    <row r="59" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="N59"/>
       <c r="O59"/>
     </row>
-    <row r="60" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="N60"/>
       <c r="O60"/>
     </row>
-    <row r="61" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="N61"/>
       <c r="O61"/>
     </row>
-    <row r="62" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="N62"/>
       <c r="O62"/>
     </row>
-    <row r="63" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="N63"/>
       <c r="O63"/>
     </row>
-    <row r="64" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="N64"/>
       <c r="O64"/>
     </row>
-    <row r="65" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="N65"/>
       <c r="O65"/>
     </row>
-    <row r="66" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="N66"/>
       <c r="O66"/>
     </row>
-    <row r="67" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="N67"/>
       <c r="O67"/>
     </row>
-    <row r="68" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="N68"/>
       <c r="O68"/>
     </row>
-    <row r="69" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="N69"/>
       <c r="O69"/>
     </row>
-    <row r="70" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="N70"/>
       <c r="O70"/>
     </row>
-    <row r="71" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="N71"/>
       <c r="O71"/>
     </row>
-    <row r="72" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="N72"/>
       <c r="O72"/>
     </row>
-    <row r="73" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="N75"/>
       <c r="O75"/>
     </row>
-    <row r="76" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="N76"/>
       <c r="O76"/>
     </row>
-    <row r="77" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="N77"/>
       <c r="O77"/>
     </row>
-    <row r="78" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="N78"/>
       <c r="O78"/>
     </row>
-    <row r="79" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="N79"/>
       <c r="O79"/>
     </row>
-    <row r="80" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="N80"/>
       <c r="O80"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="N81"/>
       <c r="O81"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="N82"/>
       <c r="O82"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
       <c r="N83"/>
       <c r="O83"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="G84" s="4"/>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="M84" s="4"/>
       <c r="N84"/>
       <c r="O84"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="N85"/>
       <c r="O85"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="N86"/>
       <c r="O86"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="N87"/>
       <c r="O87"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
       <c r="N88"/>
       <c r="O88"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89"/>
+      <c r="O89"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="N90"/>
+      <c r="O90"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="N91"/>
+      <c r="O91"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="N92"/>
+      <c r="O92"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="N93"/>
+      <c r="O93"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C42" r:id="rId1" location="json=Lj-sDbAMDNeaA9bmCep8J,9nZyAhAf-Q5KkiQ4syeq1w " xr:uid="{37B4E084-5E8C-4C2B-AC88-5E1F4296DCE7}"/>
+    <hyperlink ref="Q4" r:id="rId1" xr:uid="{44BDC3E8-14C2-47A6-9A94-576E28D9D557}"/>
+    <hyperlink ref="Q11:Q13" r:id="rId2" display="https://doi.org/10.1016/j.resconrec.2024.107476, assumed average conversion factor 80% soft 20% hard" xr:uid="{09224BB8-3720-400B-909A-BF395F73FAE2}"/>
+    <hyperlink ref="Q13" r:id="rId3" xr:uid="{3D605790-367C-4E01-9AE5-AEF809643374}"/>
+    <hyperlink ref="Q23:Q25" r:id="rId4" display="https://doi.org/10.1016/j.resconrec.2024.107476, assumed average conversion factor 80% soft 20% hard" xr:uid="{2CCB2B74-FB50-4507-B000-BC908D2BE0F5}"/>
+    <hyperlink ref="Q16:Q20" r:id="rId5" display="https://doi.org/10.1016/j.resconrec.2024.107476, assumed average conversion factor 80% soft 20% hard" xr:uid="{1319AB96-3E14-46DA-82C5-62302A8D0AD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E839B9F-9E6A-42D1-BF39-12023C14C5F8}">
+  <dimension ref="A1:AG102"/>
+  <sheetViews>
+    <sheetView topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.81640625" customWidth="1"/>
+    <col min="2" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.08984375" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" customWidth="1"/>
+    <col min="16" max="16" width="15.26953125" customWidth="1"/>
+    <col min="17" max="17" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.6328125" customWidth="1"/>
+    <col min="28" max="28" width="21.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A2" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="35">
+        <v>2021</v>
+      </c>
+      <c r="D2" s="35">
+        <v>2022</v>
+      </c>
+      <c r="E2" s="35">
+        <v>2023</v>
+      </c>
+      <c r="F2" s="35">
+        <v>2024</v>
+      </c>
+      <c r="G2" s="35">
+        <v>2025</v>
+      </c>
+      <c r="H2" s="35">
+        <v>2026</v>
+      </c>
+      <c r="I2" s="35">
+        <v>2027</v>
+      </c>
+      <c r="J2" s="35">
+        <v>2028</v>
+      </c>
+      <c r="K2" s="35">
+        <v>2029</v>
+      </c>
+      <c r="L2" s="35">
+        <v>2030</v>
+      </c>
+      <c r="N2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>145</v>
+      </c>
+      <c r="S2" t="s">
+        <v>146</v>
+      </c>
+      <c r="X2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B3" s="35">
+        <v>2021</v>
+      </c>
+      <c r="C3" s="38">
+        <v>4.5864251507765596E-6</v>
+      </c>
+      <c r="D3" s="36">
+        <v>0</v>
+      </c>
+      <c r="E3" s="36">
+        <v>0</v>
+      </c>
+      <c r="F3" s="36">
+        <v>0</v>
+      </c>
+      <c r="G3" s="36">
+        <v>0</v>
+      </c>
+      <c r="H3" s="36">
+        <v>0</v>
+      </c>
+      <c r="I3" s="36">
+        <v>0</v>
+      </c>
+      <c r="J3" s="36">
+        <v>0</v>
+      </c>
+      <c r="K3" s="36">
+        <v>0</v>
+      </c>
+      <c r="L3" s="36">
+        <v>0</v>
+      </c>
+      <c r="N3" s="37">
+        <f>SUM(C3:L3)</f>
+        <v>4.5864251507765596E-6</v>
+      </c>
+      <c r="P3">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="37">
+        <f>P3-N3</f>
+        <v>15.999995413574849</v>
+      </c>
+      <c r="S3" s="37">
+        <f>Q3</f>
+        <v>15.999995413574849</v>
+      </c>
+      <c r="W3">
+        <v>2021</v>
+      </c>
+      <c r="X3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA3">
+        <v>60</v>
+      </c>
+      <c r="AB3">
+        <v>12.205439999999999</v>
+      </c>
+      <c r="AD3">
+        <v>2021</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B4" s="35">
+        <v>2022</v>
+      </c>
+      <c r="C4" s="38">
+        <v>5.0215344417914299E-4</v>
+      </c>
+      <c r="D4" s="38">
+        <v>4.5864251507765596E-6</v>
+      </c>
+      <c r="E4" s="36">
+        <v>0</v>
+      </c>
+      <c r="F4" s="36">
+        <v>0</v>
+      </c>
+      <c r="G4" s="36">
+        <v>0</v>
+      </c>
+      <c r="H4" s="36">
+        <v>0</v>
+      </c>
+      <c r="I4" s="36">
+        <v>0</v>
+      </c>
+      <c r="J4" s="36">
+        <v>0</v>
+      </c>
+      <c r="K4" s="36">
+        <v>0</v>
+      </c>
+      <c r="L4" s="36">
+        <v>0</v>
+      </c>
+      <c r="N4" s="37">
+        <f>SUM(C4:L4)</f>
+        <v>5.0673986932991955E-4</v>
+      </c>
+      <c r="P4">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="37">
+        <f>P4-N4</f>
+        <v>15.99949326013067</v>
+      </c>
+      <c r="S4" s="37">
+        <f>SUM(Q3:Q4)</f>
+        <v>31.999488673705521</v>
+      </c>
+      <c r="W4">
+        <v>2021</v>
+      </c>
+      <c r="X4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA4">
+        <v>50</v>
+      </c>
+      <c r="AB4">
+        <v>10.171200000000001</v>
+      </c>
+      <c r="AD4">
+        <v>2021</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF4">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AG4">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B5" s="35">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="38">
+        <v>2.1091628636751701E-2</v>
+      </c>
+      <c r="D5" s="38">
+        <v>5.0215344417914299E-4</v>
+      </c>
+      <c r="E5" s="38">
+        <v>4.5864251507765596E-6</v>
+      </c>
+      <c r="F5" s="36">
+        <v>0</v>
+      </c>
+      <c r="G5" s="36">
+        <v>0</v>
+      </c>
+      <c r="H5" s="36">
+        <v>0</v>
+      </c>
+      <c r="I5" s="36">
+        <v>0</v>
+      </c>
+      <c r="J5" s="36">
+        <v>0</v>
+      </c>
+      <c r="K5" s="36">
+        <v>0</v>
+      </c>
+      <c r="L5" s="36">
+        <v>0</v>
+      </c>
+      <c r="N5" s="37">
+        <f>SUM(C5:L5)</f>
+        <v>2.1598368506081621E-2</v>
+      </c>
+      <c r="P5">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="37">
+        <f>P5-N5</f>
+        <v>15.978401631493918</v>
+      </c>
+      <c r="S5" s="37">
+        <f>SUM(Q3:Q5)</f>
+        <v>47.977890305199438</v>
+      </c>
+      <c r="W5">
+        <v>2021</v>
+      </c>
+      <c r="X5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA5">
+        <v>19.5</v>
+      </c>
+      <c r="AB5">
+        <v>3.6972</v>
+      </c>
+      <c r="AD5">
+        <v>2021</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF5">
+        <v>19.5</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B6" s="35">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="38">
+        <v>0.34240374266478502</v>
+      </c>
+      <c r="D6" s="38">
+        <v>2.1091628636751701E-2</v>
+      </c>
+      <c r="E6" s="38">
+        <v>5.0215344417914299E-4</v>
+      </c>
+      <c r="F6" s="38">
+        <v>4.5864251507765596E-6</v>
+      </c>
+      <c r="G6" s="36">
+        <v>0</v>
+      </c>
+      <c r="H6" s="36">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36">
+        <v>0</v>
+      </c>
+      <c r="J6" s="36">
+        <v>0</v>
+      </c>
+      <c r="K6" s="36">
+        <v>0</v>
+      </c>
+      <c r="L6" s="36">
+        <v>0</v>
+      </c>
+      <c r="N6" s="37">
+        <f>SUM(C6:L6)</f>
+        <v>0.36400211117086662</v>
+      </c>
+      <c r="P6">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="37">
+        <f>P6-N6</f>
+        <v>15.635997888829133</v>
+      </c>
+      <c r="S6" s="37">
+        <f>SUM($Q$3:Q6)</f>
+        <v>63.613888194028569</v>
+      </c>
+      <c r="W6">
+        <v>2021</v>
+      </c>
+      <c r="X6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA6">
+        <v>24</v>
+      </c>
+      <c r="AB6">
+        <v>5.5296000000000003</v>
+      </c>
+      <c r="AD6">
+        <v>2021</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF6">
+        <v>60</v>
+      </c>
+      <c r="AG6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B7" s="35">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="38">
+        <v>2.1744819517324401</v>
+      </c>
+      <c r="D7" s="38">
+        <v>0.34240374266478502</v>
+      </c>
+      <c r="E7" s="38">
+        <v>2.1091628636751701E-2</v>
+      </c>
+      <c r="F7" s="38">
+        <v>5.0215344417914299E-4</v>
+      </c>
+      <c r="G7" s="38">
+        <v>4.5864251507765596E-6</v>
+      </c>
+      <c r="H7" s="36">
+        <v>0</v>
+      </c>
+      <c r="I7" s="36">
+        <v>0</v>
+      </c>
+      <c r="J7" s="36">
+        <v>0</v>
+      </c>
+      <c r="K7" s="36">
+        <v>0</v>
+      </c>
+      <c r="L7" s="36">
+        <v>0</v>
+      </c>
+      <c r="N7" s="37">
+        <f>SUM(C7:L7)</f>
+        <v>2.538484062903307</v>
+      </c>
+      <c r="P7">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="37">
+        <f>P7-N7</f>
+        <v>13.461515937096692</v>
+      </c>
+      <c r="S7" s="37">
+        <f>SUM($Q$3:Q7)</f>
+        <v>77.075404131125254</v>
+      </c>
+      <c r="W7">
+        <v>2021</v>
+      </c>
+      <c r="X7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA7">
+        <v>16</v>
+      </c>
+      <c r="AB7">
+        <v>3.456</v>
+      </c>
+      <c r="AD7">
+        <v>2021</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF7">
+        <v>24</v>
+      </c>
+      <c r="AG7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B8" s="35">
+        <v>2026</v>
+      </c>
+      <c r="C8" s="38">
+        <v>5.4615159370966797</v>
+      </c>
+      <c r="D8" s="38">
+        <v>2.1744819517324401</v>
+      </c>
+      <c r="E8" s="38">
+        <v>0.34240374266478502</v>
+      </c>
+      <c r="F8" s="38">
+        <v>2.1091628636751701E-2</v>
+      </c>
+      <c r="G8" s="38">
+        <v>5.0215344417914299E-4</v>
+      </c>
+      <c r="H8" s="38">
+        <v>4.5864251507765596E-6</v>
+      </c>
+      <c r="I8" s="36">
+        <v>0</v>
+      </c>
+      <c r="J8" s="36">
+        <v>0</v>
+      </c>
+      <c r="K8" s="36">
+        <v>0</v>
+      </c>
+      <c r="L8" s="36">
+        <v>0</v>
+      </c>
+      <c r="N8" s="37">
+        <f>SUM(C8:L8)</f>
+        <v>7.9999999999999867</v>
+      </c>
+      <c r="P8">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="37">
+        <f>P8-N8</f>
+        <v>8.0000000000000142</v>
+      </c>
+      <c r="S8" s="37">
+        <f>SUM($Q$3:Q8)</f>
+        <v>85.075404131125268</v>
+      </c>
+      <c r="W8">
+        <v>2021</v>
+      </c>
+      <c r="X8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA8">
+        <v>9.6</v>
+      </c>
+      <c r="AB8">
+        <v>2.21184</v>
+      </c>
+      <c r="AD8">
+        <v>2021</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF8">
+        <v>16</v>
+      </c>
+      <c r="AG8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B9" s="35">
+        <v>2027</v>
+      </c>
+      <c r="C9" s="38">
+        <v>5.4615159370966797</v>
+      </c>
+      <c r="D9" s="38">
+        <v>5.4615159370966797</v>
+      </c>
+      <c r="E9" s="38">
+        <v>2.1744819517324401</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0.34240374266478502</v>
+      </c>
+      <c r="G9" s="38">
+        <v>2.1091628636751701E-2</v>
+      </c>
+      <c r="H9" s="38">
+        <v>5.0215344417914299E-4</v>
+      </c>
+      <c r="I9" s="38">
+        <v>4.5864251507765596E-6</v>
+      </c>
+      <c r="J9" s="36">
+        <v>0</v>
+      </c>
+      <c r="K9" s="36">
+        <v>0</v>
+      </c>
+      <c r="L9" s="36">
+        <v>0</v>
+      </c>
+      <c r="N9" s="37">
+        <f>SUM(C9:L9)</f>
+        <v>13.461515937096667</v>
+      </c>
+      <c r="P9">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="37">
+        <f>P9-N9</f>
+        <v>2.5384840629033327</v>
+      </c>
+      <c r="S9" s="37">
+        <f>SUM($Q$3:Q9)</f>
+        <v>87.613888194028604</v>
+      </c>
+      <c r="W9">
+        <v>2021</v>
+      </c>
+      <c r="X9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA9">
+        <v>14.4</v>
+      </c>
+      <c r="AB9">
+        <v>3.1103999999999998</v>
+      </c>
+      <c r="AD9">
+        <v>2021</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B10" s="35">
+        <v>2028</v>
+      </c>
+      <c r="C10" s="38">
+        <v>2.1744819517324401</v>
+      </c>
+      <c r="D10" s="38">
+        <v>5.4615159370966797</v>
+      </c>
+      <c r="E10" s="38">
+        <v>5.4615159370966797</v>
+      </c>
+      <c r="F10" s="38">
+        <v>2.1744819517324401</v>
+      </c>
+      <c r="G10" s="38">
+        <v>0.34240374266478502</v>
+      </c>
+      <c r="H10" s="38">
+        <v>2.1091628636751701E-2</v>
+      </c>
+      <c r="I10" s="38">
+        <v>5.0215344417914299E-4</v>
+      </c>
+      <c r="J10" s="38">
+        <v>4.5864251507765596E-6</v>
+      </c>
+      <c r="K10" s="36">
+        <v>0</v>
+      </c>
+      <c r="L10" s="36">
+        <v>0</v>
+      </c>
+      <c r="N10" s="37">
+        <f>SUM(C10:L10)</f>
+        <v>15.635997888829108</v>
+      </c>
+      <c r="P10">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="37">
+        <f>P10-N10</f>
+        <v>0.36400211117089221</v>
+      </c>
+      <c r="S10" s="37">
+        <f>SUM($Q$3:Q10)</f>
+        <v>87.977890305199494</v>
+      </c>
+      <c r="W10">
+        <v>2021</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA10">
+        <v>16</v>
+      </c>
+      <c r="AB10">
+        <v>3.456</v>
+      </c>
+      <c r="AD10">
+        <v>2021</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF10">
+        <v>20</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B11" s="35">
+        <v>2029</v>
+      </c>
+      <c r="C11" s="38">
+        <v>0.34240374266478502</v>
+      </c>
+      <c r="D11" s="38">
+        <v>2.1744819517324401</v>
+      </c>
+      <c r="E11" s="38">
+        <v>5.4615159370966797</v>
+      </c>
+      <c r="F11" s="38">
+        <v>5.4615159370966797</v>
+      </c>
+      <c r="G11" s="38">
+        <v>2.1744819517324401</v>
+      </c>
+      <c r="H11" s="38">
+        <v>0.34240374266478502</v>
+      </c>
+      <c r="I11" s="38">
+        <v>2.1091628636751701E-2</v>
+      </c>
+      <c r="J11" s="38">
+        <v>5.0215344417914299E-4</v>
+      </c>
+      <c r="K11" s="38">
+        <v>4.5864251507765596E-6</v>
+      </c>
+      <c r="L11" s="36">
+        <v>0</v>
+      </c>
+      <c r="N11" s="37">
+        <f>SUM(C11:L11)</f>
+        <v>15.978401631493892</v>
+      </c>
+      <c r="P11">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="37">
+        <f>P11-N11</f>
+        <v>2.1598368506108301E-2</v>
+      </c>
+      <c r="S11" s="37">
+        <f>SUM($Q$3:Q11)</f>
+        <v>87.999488673705599</v>
+      </c>
+      <c r="W11">
+        <v>2021</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA11">
+        <v>20</v>
+      </c>
+      <c r="AB11">
+        <v>4.0684800000000001</v>
+      </c>
+      <c r="AD11">
+        <v>2021</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF11">
+        <v>30.4</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B12" s="35">
+        <v>2030</v>
+      </c>
+      <c r="C12" s="38">
+        <v>2.10916286367515E-2</v>
+      </c>
+      <c r="D12" s="38">
+        <v>0.34240374266478502</v>
+      </c>
+      <c r="E12" s="38">
+        <v>2.1744819517324401</v>
+      </c>
+      <c r="F12" s="38">
+        <v>5.4615159370966797</v>
+      </c>
+      <c r="G12" s="38">
+        <v>5.4615159370966797</v>
+      </c>
+      <c r="H12" s="38">
+        <v>2.1744819517324401</v>
+      </c>
+      <c r="I12" s="38">
+        <v>0.34240374266478502</v>
+      </c>
+      <c r="J12" s="38">
+        <v>2.1091628636751701E-2</v>
+      </c>
+      <c r="K12" s="38">
+        <v>5.0215344417914299E-4</v>
+      </c>
+      <c r="L12" s="38">
+        <v>4.5864251507765596E-6</v>
+      </c>
+      <c r="N12" s="37">
+        <f>SUM(C12:L12)</f>
+        <v>15.999493260130643</v>
+      </c>
+      <c r="P12">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="37">
+        <f>P12-N12</f>
+        <v>5.0673986935656501E-4</v>
+      </c>
+      <c r="S12" s="37">
+        <f>SUM($Q$3:Q12)</f>
+        <v>87.99999541357495</v>
+      </c>
+      <c r="W12">
+        <v>2021</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA12">
+        <v>10</v>
+      </c>
+      <c r="AB12">
+        <v>2.03424</v>
+      </c>
+      <c r="AD12">
+        <v>2022</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="W13">
+        <v>2022</v>
+      </c>
+      <c r="X13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA13">
+        <v>60</v>
+      </c>
+      <c r="AB13">
+        <v>12.205439999999999</v>
+      </c>
+      <c r="AD13">
+        <v>2022</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF13">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AG13">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B14" s="38"/>
+      <c r="C14" s="35">
+        <v>2021</v>
+      </c>
+      <c r="D14" s="35">
+        <v>2022</v>
+      </c>
+      <c r="E14" s="35">
+        <v>2023</v>
+      </c>
+      <c r="F14" s="35">
+        <v>2024</v>
+      </c>
+      <c r="G14" s="35">
+        <v>2025</v>
+      </c>
+      <c r="H14" s="35">
+        <v>2026</v>
+      </c>
+      <c r="I14" s="35">
+        <v>2027</v>
+      </c>
+      <c r="J14" s="35">
+        <v>2028</v>
+      </c>
+      <c r="K14" s="35">
+        <v>2029</v>
+      </c>
+      <c r="L14" s="35">
+        <v>2030</v>
+      </c>
+      <c r="W14">
+        <v>2022</v>
+      </c>
+      <c r="X14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA14">
+        <v>50</v>
+      </c>
+      <c r="AB14">
+        <v>10.171200000000001</v>
+      </c>
+      <c r="AD14">
+        <v>2022</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF14">
+        <v>19.5</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B15" s="35">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="38">
+        <v>15.999995413574799</v>
+      </c>
+      <c r="D15" s="36">
+        <v>0</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0</v>
+      </c>
+      <c r="F15" s="36">
+        <v>0</v>
+      </c>
+      <c r="G15" s="36">
+        <v>0</v>
+      </c>
+      <c r="H15" s="36">
+        <v>0</v>
+      </c>
+      <c r="I15" s="36">
+        <v>0</v>
+      </c>
+      <c r="J15" s="36">
+        <v>0</v>
+      </c>
+      <c r="K15" s="36">
+        <v>0</v>
+      </c>
+      <c r="L15" s="36">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>2022</v>
+      </c>
+      <c r="X15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA15">
+        <v>19.5</v>
+      </c>
+      <c r="AB15">
+        <v>3.6972</v>
+      </c>
+      <c r="AD15">
+        <v>2022</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF15">
+        <v>60</v>
+      </c>
+      <c r="AG15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B16" s="35">
+        <v>2022</v>
+      </c>
+      <c r="C16" s="38">
+        <v>15.999493260130601</v>
+      </c>
+      <c r="D16" s="38">
+        <v>15.999995413574799</v>
+      </c>
+      <c r="E16" s="36">
+        <v>0</v>
+      </c>
+      <c r="F16" s="36">
+        <v>0</v>
+      </c>
+      <c r="G16" s="36">
+        <v>0</v>
+      </c>
+      <c r="H16" s="36">
+        <v>0</v>
+      </c>
+      <c r="I16" s="36">
+        <v>0</v>
+      </c>
+      <c r="J16" s="36">
+        <v>0</v>
+      </c>
+      <c r="K16" s="36">
+        <v>0</v>
+      </c>
+      <c r="L16" s="36">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>2022</v>
+      </c>
+      <c r="X16" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA16">
+        <v>24</v>
+      </c>
+      <c r="AB16">
+        <v>5.5296000000000003</v>
+      </c>
+      <c r="AD16">
+        <v>2022</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF16">
+        <v>24</v>
+      </c>
+      <c r="AG16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B17" s="35">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="38">
+        <v>15.978401631493901</v>
+      </c>
+      <c r="D17" s="38">
+        <v>15.999493260130601</v>
+      </c>
+      <c r="E17" s="38">
+        <v>15.999995413574799</v>
+      </c>
+      <c r="F17" s="36">
+        <v>0</v>
+      </c>
+      <c r="G17" s="36">
+        <v>0</v>
+      </c>
+      <c r="H17" s="36">
+        <v>0</v>
+      </c>
+      <c r="I17" s="36">
+        <v>0</v>
+      </c>
+      <c r="J17" s="36">
+        <v>0</v>
+      </c>
+      <c r="K17" s="36">
+        <v>0</v>
+      </c>
+      <c r="L17" s="36">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>2022</v>
+      </c>
+      <c r="X17" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA17">
+        <v>16</v>
+      </c>
+      <c r="AB17">
+        <v>3.456</v>
+      </c>
+      <c r="AD17">
+        <v>2022</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF17">
+        <v>16</v>
+      </c>
+      <c r="AG17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B18" s="35">
+        <v>2024</v>
+      </c>
+      <c r="C18" s="38">
+        <v>15.635997888829101</v>
+      </c>
+      <c r="D18" s="38">
+        <v>15.978401631493901</v>
+      </c>
+      <c r="E18" s="38">
+        <v>15.999493260130601</v>
+      </c>
+      <c r="F18" s="38">
+        <v>15.999995413574799</v>
+      </c>
+      <c r="G18" s="36">
+        <v>0</v>
+      </c>
+      <c r="H18" s="36">
+        <v>0</v>
+      </c>
+      <c r="I18" s="36">
+        <v>0</v>
+      </c>
+      <c r="J18" s="36">
+        <v>0</v>
+      </c>
+      <c r="K18" s="36">
+        <v>0</v>
+      </c>
+      <c r="L18" s="36">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>2022</v>
+      </c>
+      <c r="X18" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA18">
+        <v>9.6</v>
+      </c>
+      <c r="AB18">
+        <v>2.21184</v>
+      </c>
+      <c r="AD18">
+        <v>2022</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B19" s="35">
+        <v>2025</v>
+      </c>
+      <c r="C19" s="38">
+        <v>13.4615159370966</v>
+      </c>
+      <c r="D19" s="38">
+        <v>15.635997888829101</v>
+      </c>
+      <c r="E19" s="38">
+        <v>15.978401631493901</v>
+      </c>
+      <c r="F19" s="38">
+        <v>15.999493260130601</v>
+      </c>
+      <c r="G19" s="38">
+        <v>15.999995413574799</v>
+      </c>
+      <c r="H19" s="36">
+        <v>0</v>
+      </c>
+      <c r="I19" s="36">
+        <v>0</v>
+      </c>
+      <c r="J19" s="36">
+        <v>0</v>
+      </c>
+      <c r="K19" s="36">
+        <v>0</v>
+      </c>
+      <c r="L19" s="36">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>2022</v>
+      </c>
+      <c r="X19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA19">
+        <v>14.4</v>
+      </c>
+      <c r="AB19">
+        <v>3.1103999999999998</v>
+      </c>
+      <c r="AD19">
+        <v>2022</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF19">
+        <v>20</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B20" s="35">
+        <v>2026</v>
+      </c>
+      <c r="C20" s="38">
+        <v>8</v>
+      </c>
+      <c r="D20" s="38">
+        <v>13.4615159370966</v>
+      </c>
+      <c r="E20" s="38">
+        <v>15.635997888829101</v>
+      </c>
+      <c r="F20" s="38">
+        <v>15.978401631493901</v>
+      </c>
+      <c r="G20" s="38">
+        <v>15.999493260130601</v>
+      </c>
+      <c r="H20" s="38">
+        <v>15.999995413574799</v>
+      </c>
+      <c r="I20" s="36">
+        <v>0</v>
+      </c>
+      <c r="J20" s="36">
+        <v>0</v>
+      </c>
+      <c r="K20" s="36">
+        <v>0</v>
+      </c>
+      <c r="L20" s="36">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>2022</v>
+      </c>
+      <c r="X20" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA20">
+        <v>16</v>
+      </c>
+      <c r="AB20">
+        <v>3.456</v>
+      </c>
+      <c r="AD20">
+        <v>2022</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF20">
+        <v>30.4</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B21" s="35">
+        <v>2027</v>
+      </c>
+      <c r="C21" s="38">
+        <v>2.5384840629033101</v>
+      </c>
+      <c r="D21" s="38">
+        <v>8</v>
+      </c>
+      <c r="E21" s="38">
+        <v>13.4615159370966</v>
+      </c>
+      <c r="F21" s="38">
+        <v>15.635997888829101</v>
+      </c>
+      <c r="G21" s="38">
+        <v>15.978401631493901</v>
+      </c>
+      <c r="H21" s="38">
+        <v>15.999493260130601</v>
+      </c>
+      <c r="I21" s="38">
+        <v>15.999995413574799</v>
+      </c>
+      <c r="J21" s="36">
+        <v>0</v>
+      </c>
+      <c r="K21" s="36">
+        <v>0</v>
+      </c>
+      <c r="L21" s="36">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>2022</v>
+      </c>
+      <c r="X21" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA21">
+        <v>20</v>
+      </c>
+      <c r="AB21">
+        <v>4.0684800000000001</v>
+      </c>
+      <c r="AD21">
+        <v>2023</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B22" s="35">
+        <v>2028</v>
+      </c>
+      <c r="C22" s="38">
+        <v>0.364002111170867</v>
+      </c>
+      <c r="D22" s="38">
+        <v>2.5384840629033101</v>
+      </c>
+      <c r="E22" s="38">
+        <v>8</v>
+      </c>
+      <c r="F22" s="38">
+        <v>13.4615159370966</v>
+      </c>
+      <c r="G22" s="38">
+        <v>15.635997888829101</v>
+      </c>
+      <c r="H22" s="38">
+        <v>15.978401631493901</v>
+      </c>
+      <c r="I22" s="38">
+        <v>15.999493260130601</v>
+      </c>
+      <c r="J22" s="38">
+        <v>15.999995413574799</v>
+      </c>
+      <c r="K22" s="36">
+        <v>0</v>
+      </c>
+      <c r="L22" s="36">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>2022</v>
+      </c>
+      <c r="X22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA22">
+        <v>10</v>
+      </c>
+      <c r="AB22">
+        <v>2.03424</v>
+      </c>
+      <c r="AD22">
+        <v>2023</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF22">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AG22">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B23" s="35">
+        <v>2029</v>
+      </c>
+      <c r="C23" s="38">
+        <v>2.1598368506081399E-2</v>
+      </c>
+      <c r="D23" s="38">
+        <v>0.364002111170867</v>
+      </c>
+      <c r="E23" s="38">
+        <v>2.5384840629033101</v>
+      </c>
+      <c r="F23" s="38">
+        <v>8</v>
+      </c>
+      <c r="G23" s="38">
+        <v>13.4615159370966</v>
+      </c>
+      <c r="H23" s="38">
+        <v>15.635997888829101</v>
+      </c>
+      <c r="I23" s="38">
+        <v>15.978401631493901</v>
+      </c>
+      <c r="J23" s="38">
+        <v>15.999493260130601</v>
+      </c>
+      <c r="K23" s="38">
+        <v>15.999995413574799</v>
+      </c>
+      <c r="L23" s="36">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>2023</v>
+      </c>
+      <c r="X23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA23">
+        <v>60</v>
+      </c>
+      <c r="AB23">
+        <v>12.205439999999999</v>
+      </c>
+      <c r="AD23">
+        <v>2023</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF23">
+        <v>19.5</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B24" s="35">
+        <v>2030</v>
+      </c>
+      <c r="C24" s="38">
+        <v>5.0673986932991695E-4</v>
+      </c>
+      <c r="D24" s="38">
+        <v>2.1598368506081399E-2</v>
+      </c>
+      <c r="E24" s="38">
+        <v>0.364002111170867</v>
+      </c>
+      <c r="F24" s="38">
+        <v>2.5384840629033101</v>
+      </c>
+      <c r="G24" s="38">
+        <v>8</v>
+      </c>
+      <c r="H24" s="38">
+        <v>13.4615159370966</v>
+      </c>
+      <c r="I24" s="38">
+        <v>15.635997888829101</v>
+      </c>
+      <c r="J24" s="38">
+        <v>15.978401631493901</v>
+      </c>
+      <c r="K24" s="38">
+        <v>15.999493260130601</v>
+      </c>
+      <c r="L24">
+        <v>15.999995413574799</v>
+      </c>
+      <c r="W24">
+        <v>2023</v>
+      </c>
+      <c r="X24" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA24">
+        <v>50</v>
+      </c>
+      <c r="AB24">
+        <v>10.171200000000001</v>
+      </c>
+      <c r="AD24">
+        <v>2023</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF24">
+        <v>60</v>
+      </c>
+      <c r="AG24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="W25">
+        <v>2023</v>
+      </c>
+      <c r="X25" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA25">
+        <v>19.5</v>
+      </c>
+      <c r="AB25">
+        <v>3.6972</v>
+      </c>
+      <c r="AD25">
+        <v>2023</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF25">
+        <v>24</v>
+      </c>
+      <c r="AG25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B26" s="38"/>
+      <c r="C26" s="35">
+        <v>2021</v>
+      </c>
+      <c r="D26" s="35">
+        <v>2022</v>
+      </c>
+      <c r="E26" s="35">
+        <v>2023</v>
+      </c>
+      <c r="F26" s="35">
+        <v>2024</v>
+      </c>
+      <c r="G26" s="35">
+        <v>2025</v>
+      </c>
+      <c r="H26" s="35">
+        <v>2026</v>
+      </c>
+      <c r="I26" s="35">
+        <v>2027</v>
+      </c>
+      <c r="J26" s="35">
+        <v>2028</v>
+      </c>
+      <c r="K26" s="35">
+        <v>2029</v>
+      </c>
+      <c r="L26" s="35">
+        <v>2030</v>
+      </c>
+      <c r="W26">
+        <v>2023</v>
+      </c>
+      <c r="X26" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA26">
+        <v>24</v>
+      </c>
+      <c r="AB26">
+        <v>5.5296000000000003</v>
+      </c>
+      <c r="AD26">
+        <v>2023</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF26">
+        <v>16</v>
+      </c>
+      <c r="AG26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B27" s="35">
+        <v>2021</v>
+      </c>
+      <c r="C27" s="38">
+        <v>9.9066783265655502E-7</v>
+      </c>
+      <c r="D27" s="36">
+        <v>0</v>
+      </c>
+      <c r="E27" s="36">
+        <v>0</v>
+      </c>
+      <c r="F27" s="36">
+        <v>0</v>
+      </c>
+      <c r="G27" s="36">
+        <v>0</v>
+      </c>
+      <c r="H27" s="36">
+        <v>0</v>
+      </c>
+      <c r="I27" s="36">
+        <v>0</v>
+      </c>
+      <c r="J27" s="36">
+        <v>0</v>
+      </c>
+      <c r="K27" s="36">
+        <v>0</v>
+      </c>
+      <c r="L27" s="36">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>2023</v>
+      </c>
+      <c r="X27" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA27">
+        <v>16</v>
+      </c>
+      <c r="AB27">
+        <v>3.456</v>
+      </c>
+      <c r="AD27">
+        <v>2023</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B28" s="35">
+        <v>2022</v>
+      </c>
+      <c r="C28" s="38">
+        <v>1.0846514394247101E-4</v>
+      </c>
+      <c r="D28" s="38">
+        <v>9.9066783265655502E-7</v>
+      </c>
+      <c r="E28" s="36">
+        <v>0</v>
+      </c>
+      <c r="F28" s="36">
+        <v>0</v>
+      </c>
+      <c r="G28" s="36">
+        <v>0</v>
+      </c>
+      <c r="H28" s="36">
+        <v>0</v>
+      </c>
+      <c r="I28" s="36">
+        <v>0</v>
+      </c>
+      <c r="J28" s="36">
+        <v>0</v>
+      </c>
+      <c r="K28" s="36">
+        <v>0</v>
+      </c>
+      <c r="L28" s="36">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>2023</v>
+      </c>
+      <c r="X28" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA28">
+        <v>9.6</v>
+      </c>
+      <c r="AB28">
+        <v>2.21184</v>
+      </c>
+      <c r="AD28">
+        <v>2023</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF28">
+        <v>20</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B29" s="35">
+        <v>2023</v>
+      </c>
+      <c r="C29" s="38">
+        <v>4.5557917855383297E-3</v>
+      </c>
+      <c r="D29" s="38">
+        <v>1.0846514394247101E-4</v>
+      </c>
+      <c r="E29" s="38">
+        <v>9.9066783265655502E-7</v>
+      </c>
+      <c r="F29" s="36">
+        <v>0</v>
+      </c>
+      <c r="G29" s="36">
+        <v>0</v>
+      </c>
+      <c r="H29" s="36">
+        <v>0</v>
+      </c>
+      <c r="I29" s="36">
+        <v>0</v>
+      </c>
+      <c r="J29" s="36">
+        <v>0</v>
+      </c>
+      <c r="K29" s="36">
+        <v>0</v>
+      </c>
+      <c r="L29" s="36">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>2023</v>
+      </c>
+      <c r="X29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA29">
+        <v>14.4</v>
+      </c>
+      <c r="AB29">
+        <v>3.1103999999999998</v>
+      </c>
+      <c r="AD29">
+        <v>2023</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF29">
+        <v>30.4</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B30" s="35">
+        <v>2024</v>
+      </c>
+      <c r="C30" s="38">
+        <v>7.3959208415594002E-2</v>
+      </c>
+      <c r="D30" s="38">
+        <v>4.5557917855383297E-3</v>
+      </c>
+      <c r="E30" s="38">
+        <v>1.0846514394247101E-4</v>
+      </c>
+      <c r="F30" s="38">
+        <v>9.9066783265655502E-7</v>
+      </c>
+      <c r="G30" s="36">
+        <v>0</v>
+      </c>
+      <c r="H30" s="36">
+        <v>0</v>
+      </c>
+      <c r="I30" s="36">
+        <v>0</v>
+      </c>
+      <c r="J30" s="36">
+        <v>0</v>
+      </c>
+      <c r="K30" s="36">
+        <v>0</v>
+      </c>
+      <c r="L30" s="36">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>2023</v>
+      </c>
+      <c r="X30" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA30">
+        <v>16</v>
+      </c>
+      <c r="AB30">
+        <v>3.456</v>
+      </c>
+      <c r="AD30">
+        <v>2024</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B31" s="35">
+        <v>2025</v>
+      </c>
+      <c r="C31" s="38">
+        <v>0.46968810157420798</v>
+      </c>
+      <c r="D31" s="38">
+        <v>7.3959208415594002E-2</v>
+      </c>
+      <c r="E31" s="38">
+        <v>4.5557917855383297E-3</v>
+      </c>
+      <c r="F31" s="38">
+        <v>1.0846514394247101E-4</v>
+      </c>
+      <c r="G31" s="38">
+        <v>9.9066783265655502E-7</v>
+      </c>
+      <c r="H31" s="36">
+        <v>0</v>
+      </c>
+      <c r="I31" s="36">
+        <v>0</v>
+      </c>
+      <c r="J31" s="36">
+        <v>0</v>
+      </c>
+      <c r="K31" s="36">
+        <v>0</v>
+      </c>
+      <c r="L31" s="36">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>2023</v>
+      </c>
+      <c r="X31" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA31">
+        <v>20</v>
+      </c>
+      <c r="AB31">
+        <v>4.0684800000000001</v>
+      </c>
+      <c r="AD31">
+        <v>2024</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF31">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AG31">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B32" s="35">
+        <v>2026</v>
+      </c>
+      <c r="C32" s="38">
+        <v>1.17968744241288</v>
+      </c>
+      <c r="D32" s="38">
+        <v>0.46968810157420798</v>
+      </c>
+      <c r="E32" s="38">
+        <v>7.3959208415594002E-2</v>
+      </c>
+      <c r="F32" s="38">
+        <v>4.5557917855383297E-3</v>
+      </c>
+      <c r="G32" s="38">
+        <v>1.0846514394247101E-4</v>
+      </c>
+      <c r="H32" s="38">
+        <v>9.9066783265655502E-7</v>
+      </c>
+      <c r="I32" s="36">
+        <v>0</v>
+      </c>
+      <c r="J32" s="36">
+        <v>0</v>
+      </c>
+      <c r="K32" s="36">
+        <v>0</v>
+      </c>
+      <c r="L32" s="36">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>2023</v>
+      </c>
+      <c r="X32" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA32">
+        <v>10</v>
+      </c>
+      <c r="AB32">
+        <v>2.03424</v>
+      </c>
+      <c r="AD32">
+        <v>2024</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF32">
+        <v>19.5</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B33" s="35">
+        <v>2027</v>
+      </c>
+      <c r="C33" s="38">
+        <v>1.17968744241288</v>
+      </c>
+      <c r="D33" s="38">
+        <v>1.17968744241288</v>
+      </c>
+      <c r="E33" s="38">
+        <v>0.46968810157420798</v>
+      </c>
+      <c r="F33" s="38">
+        <v>7.3959208415594002E-2</v>
+      </c>
+      <c r="G33" s="38">
+        <v>4.5557917855383297E-3</v>
+      </c>
+      <c r="H33" s="38">
+        <v>1.0846514394247101E-4</v>
+      </c>
+      <c r="I33" s="38">
+        <v>9.9066783265655502E-7</v>
+      </c>
+      <c r="J33" s="36">
+        <v>0</v>
+      </c>
+      <c r="K33" s="36">
+        <v>0</v>
+      </c>
+      <c r="L33" s="36">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>2024</v>
+      </c>
+      <c r="X33" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA33">
+        <v>60</v>
+      </c>
+      <c r="AB33">
+        <v>12.205439999999999</v>
+      </c>
+      <c r="AD33">
+        <v>2024</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF33">
+        <v>60</v>
+      </c>
+      <c r="AG33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B34" s="35">
+        <v>2028</v>
+      </c>
+      <c r="C34" s="38">
+        <v>0.46968810157420798</v>
+      </c>
+      <c r="D34" s="38">
+        <v>1.17968744241288</v>
+      </c>
+      <c r="E34" s="38">
+        <v>1.17968744241288</v>
+      </c>
+      <c r="F34" s="38">
+        <v>0.46968810157420798</v>
+      </c>
+      <c r="G34" s="38">
+        <v>7.3959208415594002E-2</v>
+      </c>
+      <c r="H34" s="38">
+        <v>4.5557917855383297E-3</v>
+      </c>
+      <c r="I34" s="38">
+        <v>1.0846514394247101E-4</v>
+      </c>
+      <c r="J34" s="38">
+        <v>9.9066783265655502E-7</v>
+      </c>
+      <c r="K34" s="36">
+        <v>0</v>
+      </c>
+      <c r="L34" s="36">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>2024</v>
+      </c>
+      <c r="X34" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA34">
+        <v>50</v>
+      </c>
+      <c r="AB34">
+        <v>10.171200000000001</v>
+      </c>
+      <c r="AD34">
+        <v>2024</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF34">
+        <v>24</v>
+      </c>
+      <c r="AG34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B35" s="35">
+        <v>2029</v>
+      </c>
+      <c r="C35" s="38">
+        <v>7.3959208415593697E-2</v>
+      </c>
+      <c r="D35" s="38">
+        <v>0.46968810157420798</v>
+      </c>
+      <c r="E35" s="38">
+        <v>1.17968744241288</v>
+      </c>
+      <c r="F35" s="38">
+        <v>1.17968744241288</v>
+      </c>
+      <c r="G35" s="38">
+        <v>0.46968810157420798</v>
+      </c>
+      <c r="H35" s="38">
+        <v>7.3959208415594002E-2</v>
+      </c>
+      <c r="I35" s="38">
+        <v>4.5557917855383297E-3</v>
+      </c>
+      <c r="J35" s="38">
+        <v>1.0846514394247101E-4</v>
+      </c>
+      <c r="K35" s="38">
+        <v>9.9066783265655502E-7</v>
+      </c>
+      <c r="L35" s="36">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>2024</v>
+      </c>
+      <c r="X35" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA35">
+        <v>19.5</v>
+      </c>
+      <c r="AB35">
+        <v>3.6972</v>
+      </c>
+      <c r="AD35">
+        <v>2024</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF35">
+        <v>16</v>
+      </c>
+      <c r="AG35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B36" s="35">
+        <v>2030</v>
+      </c>
+      <c r="C36" s="38">
+        <v>4.5557917855383297E-3</v>
+      </c>
+      <c r="D36" s="38">
+        <v>7.3959208415593697E-2</v>
+      </c>
+      <c r="E36" s="38">
+        <v>0.46968810157420798</v>
+      </c>
+      <c r="F36" s="38">
+        <v>1.17968744241288</v>
+      </c>
+      <c r="G36" s="38">
+        <v>1.17968744241288</v>
+      </c>
+      <c r="H36" s="38">
+        <v>0.46968810157420798</v>
+      </c>
+      <c r="I36" s="38">
+        <v>7.3959208415594002E-2</v>
+      </c>
+      <c r="J36" s="38">
+        <v>4.5557917855383297E-3</v>
+      </c>
+      <c r="K36" s="38">
+        <v>1.0846514394247101E-4</v>
+      </c>
+      <c r="L36" s="38">
+        <v>9.9066783265655502E-7</v>
+      </c>
+      <c r="W36">
+        <v>2024</v>
+      </c>
+      <c r="X36" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA36">
+        <v>24</v>
+      </c>
+      <c r="AB36">
+        <v>5.5296000000000003</v>
+      </c>
+      <c r="AD36">
+        <v>2024</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="W37">
+        <v>2024</v>
+      </c>
+      <c r="X37" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA37">
+        <v>16</v>
+      </c>
+      <c r="AB37">
+        <v>3.456</v>
+      </c>
+      <c r="AD37">
+        <v>2024</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF37">
+        <v>20</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B38" s="38"/>
+      <c r="C38" s="35">
+        <v>2021</v>
+      </c>
+      <c r="D38" s="35">
+        <v>2022</v>
+      </c>
+      <c r="E38" s="35">
+        <v>2023</v>
+      </c>
+      <c r="F38" s="35">
+        <v>2024</v>
+      </c>
+      <c r="G38" s="35">
+        <v>2025</v>
+      </c>
+      <c r="H38" s="35">
+        <v>2026</v>
+      </c>
+      <c r="I38" s="35">
+        <v>2027</v>
+      </c>
+      <c r="J38" s="35">
+        <v>2028</v>
+      </c>
+      <c r="K38" s="35">
+        <v>2029</v>
+      </c>
+      <c r="L38" s="35">
+        <v>2030</v>
+      </c>
+      <c r="W38">
+        <v>2024</v>
+      </c>
+      <c r="X38" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA38">
+        <v>9.6</v>
+      </c>
+      <c r="AB38">
+        <v>2.21184</v>
+      </c>
+      <c r="AD38">
+        <v>2024</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF38">
+        <v>30.4</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B39" s="35">
+        <v>2021</v>
+      </c>
+      <c r="C39" s="38">
+        <v>3.4559990093321602</v>
+      </c>
+      <c r="D39" s="36">
+        <v>0</v>
+      </c>
+      <c r="E39" s="36">
+        <v>0</v>
+      </c>
+      <c r="F39" s="36">
+        <v>0</v>
+      </c>
+      <c r="G39" s="36">
+        <v>0</v>
+      </c>
+      <c r="H39" s="36">
+        <v>0</v>
+      </c>
+      <c r="I39" s="36">
+        <v>0</v>
+      </c>
+      <c r="J39" s="36">
+        <v>0</v>
+      </c>
+      <c r="K39" s="36">
+        <v>0</v>
+      </c>
+      <c r="L39" s="36">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>2024</v>
+      </c>
+      <c r="X39" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA39">
+        <v>14.4</v>
+      </c>
+      <c r="AB39">
+        <v>3.1103999999999998</v>
+      </c>
+      <c r="AD39">
+        <v>2025</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B40" s="35">
+        <v>2022</v>
+      </c>
+      <c r="C40" s="38">
+        <v>3.4558905441882199</v>
+      </c>
+      <c r="D40" s="38">
+        <v>3.4559990093321602</v>
+      </c>
+      <c r="E40" s="36">
+        <v>0</v>
+      </c>
+      <c r="F40" s="36">
+        <v>0</v>
+      </c>
+      <c r="G40" s="36">
+        <v>0</v>
+      </c>
+      <c r="H40" s="36">
+        <v>0</v>
+      </c>
+      <c r="I40" s="36">
+        <v>0</v>
+      </c>
+      <c r="J40" s="36">
+        <v>0</v>
+      </c>
+      <c r="K40" s="36">
+        <v>0</v>
+      </c>
+      <c r="L40" s="36">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>2024</v>
+      </c>
+      <c r="X40" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA40">
+        <v>16</v>
+      </c>
+      <c r="AB40">
+        <v>3.456</v>
+      </c>
+      <c r="AD40">
+        <v>2025</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF40">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AG40">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B41" s="35">
+        <v>2023</v>
+      </c>
+      <c r="C41" s="38">
+        <v>3.4513347524026798</v>
+      </c>
+      <c r="D41" s="38">
+        <v>3.4558905441882199</v>
+      </c>
+      <c r="E41" s="38">
+        <v>3.4559990093321602</v>
+      </c>
+      <c r="F41" s="36">
+        <v>0</v>
+      </c>
+      <c r="G41" s="36">
+        <v>0</v>
+      </c>
+      <c r="H41" s="36">
+        <v>0</v>
+      </c>
+      <c r="I41" s="36">
+        <v>0</v>
+      </c>
+      <c r="J41" s="36">
+        <v>0</v>
+      </c>
+      <c r="K41" s="36">
+        <v>0</v>
+      </c>
+      <c r="L41" s="36">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>2024</v>
+      </c>
+      <c r="X41" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA41">
+        <v>20</v>
+      </c>
+      <c r="AB41">
+        <v>4.0684800000000001</v>
+      </c>
+      <c r="AD41">
+        <v>2025</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF41">
+        <v>19.5</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B42" s="35">
+        <v>2024</v>
+      </c>
+      <c r="C42" s="38">
+        <v>3.3773755439870898</v>
+      </c>
+      <c r="D42" s="38">
+        <v>3.4513347524026798</v>
+      </c>
+      <c r="E42" s="38">
+        <v>3.4558905441882199</v>
+      </c>
+      <c r="F42" s="38">
+        <v>3.4559990093321602</v>
+      </c>
+      <c r="G42" s="36">
+        <v>0</v>
+      </c>
+      <c r="H42" s="36">
+        <v>0</v>
+      </c>
+      <c r="I42" s="36">
+        <v>0</v>
+      </c>
+      <c r="J42" s="36">
+        <v>0</v>
+      </c>
+      <c r="K42" s="36">
+        <v>0</v>
+      </c>
+      <c r="L42" s="36">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>2024</v>
+      </c>
+      <c r="X42" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA42">
+        <v>10</v>
+      </c>
+      <c r="AB42">
+        <v>2.03424</v>
+      </c>
+      <c r="AD42">
+        <v>2025</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF42">
+        <v>60</v>
+      </c>
+      <c r="AG42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B43" s="35">
+        <v>2025</v>
+      </c>
+      <c r="C43" s="38">
+        <v>2.9076874424128798</v>
+      </c>
+      <c r="D43" s="38">
+        <v>3.3773755439870898</v>
+      </c>
+      <c r="E43" s="38">
+        <v>3.4513347524026798</v>
+      </c>
+      <c r="F43" s="38">
+        <v>3.4558905441882199</v>
+      </c>
+      <c r="G43" s="38">
+        <v>3.4559990093321602</v>
+      </c>
+      <c r="H43" s="36">
+        <v>0</v>
+      </c>
+      <c r="I43" s="36">
+        <v>0</v>
+      </c>
+      <c r="J43" s="36">
+        <v>0</v>
+      </c>
+      <c r="K43" s="36">
+        <v>0</v>
+      </c>
+      <c r="L43" s="36">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>2025</v>
+      </c>
+      <c r="X43" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA43">
+        <v>60</v>
+      </c>
+      <c r="AB43">
+        <v>12.205439999999999</v>
+      </c>
+      <c r="AD43">
+        <v>2025</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF43">
+        <v>24</v>
+      </c>
+      <c r="AG43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B44" s="35">
+        <v>2026</v>
+      </c>
+      <c r="C44" s="38">
+        <v>1.728</v>
+      </c>
+      <c r="D44" s="38">
+        <v>2.9076874424128798</v>
+      </c>
+      <c r="E44" s="38">
+        <v>3.3773755439870898</v>
+      </c>
+      <c r="F44" s="38">
+        <v>3.4513347524026798</v>
+      </c>
+      <c r="G44" s="38">
+        <v>3.4558905441882199</v>
+      </c>
+      <c r="H44" s="38">
+        <v>3.4559990093321602</v>
+      </c>
+      <c r="I44" s="36">
+        <v>0</v>
+      </c>
+      <c r="J44" s="36">
+        <v>0</v>
+      </c>
+      <c r="K44" s="36">
+        <v>0</v>
+      </c>
+      <c r="L44" s="36">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>2025</v>
+      </c>
+      <c r="X44" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA44">
+        <v>50</v>
+      </c>
+      <c r="AB44">
+        <v>10.171200000000001</v>
+      </c>
+      <c r="AD44">
+        <v>2025</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF44">
+        <v>16</v>
+      </c>
+      <c r="AG44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B45" s="35">
+        <v>2027</v>
+      </c>
+      <c r="C45" s="38">
+        <v>0.54831255758711495</v>
+      </c>
+      <c r="D45" s="38">
+        <v>1.728</v>
+      </c>
+      <c r="E45" s="38">
+        <v>2.9076874424128798</v>
+      </c>
+      <c r="F45" s="38">
+        <v>3.3773755439870898</v>
+      </c>
+      <c r="G45" s="38">
+        <v>3.4513347524026798</v>
+      </c>
+      <c r="H45" s="38">
+        <v>3.4558905441882199</v>
+      </c>
+      <c r="I45" s="38">
+        <v>3.4559990093321602</v>
+      </c>
+      <c r="J45" s="36">
+        <v>0</v>
+      </c>
+      <c r="K45" s="36">
+        <v>0</v>
+      </c>
+      <c r="L45" s="36">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>2025</v>
+      </c>
+      <c r="X45" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA45">
+        <v>19.5</v>
+      </c>
+      <c r="AB45">
+        <v>3.6972</v>
+      </c>
+      <c r="AD45">
+        <v>2025</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B46" s="35">
+        <v>2028</v>
+      </c>
+      <c r="C46" s="38">
+        <v>7.8624456012907296E-2</v>
+      </c>
+      <c r="D46" s="38">
+        <v>0.54831255758711495</v>
+      </c>
+      <c r="E46" s="38">
+        <v>1.728</v>
+      </c>
+      <c r="F46" s="38">
+        <v>2.9076874424128798</v>
+      </c>
+      <c r="G46" s="38">
+        <v>3.3773755439870898</v>
+      </c>
+      <c r="H46" s="38">
+        <v>3.4513347524026798</v>
+      </c>
+      <c r="I46" s="38">
+        <v>3.4558905441882199</v>
+      </c>
+      <c r="J46" s="38">
+        <v>3.4559990093321602</v>
+      </c>
+      <c r="K46" s="36">
+        <v>0</v>
+      </c>
+      <c r="L46" s="36">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>2025</v>
+      </c>
+      <c r="X46" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA46">
+        <v>24</v>
+      </c>
+      <c r="AB46">
+        <v>5.5296000000000003</v>
+      </c>
+      <c r="AD46">
+        <v>2025</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF46">
+        <v>20</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B47" s="35">
+        <v>2029</v>
+      </c>
+      <c r="C47" s="38">
+        <v>4.6652475973135996E-3</v>
+      </c>
+      <c r="D47" s="38">
+        <v>7.8624456012907296E-2</v>
+      </c>
+      <c r="E47" s="38">
+        <v>0.54831255758711495</v>
+      </c>
+      <c r="F47" s="38">
+        <v>1.728</v>
+      </c>
+      <c r="G47" s="38">
+        <v>2.9076874424128798</v>
+      </c>
+      <c r="H47" s="38">
+        <v>3.3773755439870898</v>
+      </c>
+      <c r="I47" s="38">
+        <v>3.4513347524026798</v>
+      </c>
+      <c r="J47" s="38">
+        <v>3.4558905441882199</v>
+      </c>
+      <c r="K47" s="38">
+        <v>3.4559990093321602</v>
+      </c>
+      <c r="L47" s="36">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>2025</v>
+      </c>
+      <c r="X47" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA47">
+        <v>16</v>
+      </c>
+      <c r="AB47">
+        <v>3.456</v>
+      </c>
+      <c r="AD47">
+        <v>2025</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF47">
+        <v>30.4</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B48" s="35">
+        <v>2030</v>
+      </c>
+      <c r="C48" s="38">
+        <v>1.09455811775262E-4</v>
+      </c>
+      <c r="D48" s="38">
+        <v>4.6652475973135996E-3</v>
+      </c>
+      <c r="E48" s="38">
+        <v>7.8624456012907296E-2</v>
+      </c>
+      <c r="F48" s="38">
+        <v>0.54831255758711495</v>
+      </c>
+      <c r="G48" s="38">
+        <v>1.728</v>
+      </c>
+      <c r="H48" s="38">
+        <v>2.9076874424128798</v>
+      </c>
+      <c r="I48" s="38">
+        <v>3.3773755439870898</v>
+      </c>
+      <c r="J48" s="38">
+        <v>3.4513347524026798</v>
+      </c>
+      <c r="K48" s="38">
+        <v>3.4558905441882199</v>
+      </c>
+      <c r="L48">
+        <v>3.4559990093321602</v>
+      </c>
+      <c r="W48">
+        <v>2025</v>
+      </c>
+      <c r="X48" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA48">
+        <v>9.6</v>
+      </c>
+      <c r="AB48">
+        <v>2.21184</v>
+      </c>
+      <c r="AD48">
+        <v>2026</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W49">
+        <v>2025</v>
+      </c>
+      <c r="X49" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA49">
+        <v>14.4</v>
+      </c>
+      <c r="AB49">
+        <v>3.1103999999999998</v>
+      </c>
+      <c r="AD49">
+        <v>2026</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF49">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AG49">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="50" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W50">
+        <v>2025</v>
+      </c>
+      <c r="X50" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA50">
+        <v>16</v>
+      </c>
+      <c r="AB50">
+        <v>3.456</v>
+      </c>
+      <c r="AD50">
+        <v>2026</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF50">
+        <v>19.5</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W51">
+        <v>2025</v>
+      </c>
+      <c r="X51" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA51">
+        <v>20</v>
+      </c>
+      <c r="AB51">
+        <v>4.0684800000000001</v>
+      </c>
+      <c r="AD51">
+        <v>2026</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF51">
+        <v>60</v>
+      </c>
+      <c r="AG51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W52">
+        <v>2025</v>
+      </c>
+      <c r="X52" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA52">
+        <v>10</v>
+      </c>
+      <c r="AB52">
+        <v>2.03424</v>
+      </c>
+      <c r="AD52">
+        <v>2026</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF52">
+        <v>24</v>
+      </c>
+      <c r="AG52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W53">
+        <v>2026</v>
+      </c>
+      <c r="X53" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA53">
+        <v>60</v>
+      </c>
+      <c r="AB53">
+        <v>12.205439999999999</v>
+      </c>
+      <c r="AD53">
+        <v>2026</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF53">
+        <v>16</v>
+      </c>
+      <c r="AG53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W54">
+        <v>2026</v>
+      </c>
+      <c r="X54" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA54">
+        <v>50</v>
+      </c>
+      <c r="AB54">
+        <v>10.171200000000001</v>
+      </c>
+      <c r="AD54">
+        <v>2026</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W55">
+        <v>2026</v>
+      </c>
+      <c r="X55" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA55">
+        <v>19.5</v>
+      </c>
+      <c r="AB55">
+        <v>3.6972</v>
+      </c>
+      <c r="AD55">
+        <v>2026</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF55">
+        <v>20</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W56">
+        <v>2026</v>
+      </c>
+      <c r="X56" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA56">
+        <v>24</v>
+      </c>
+      <c r="AB56">
+        <v>5.5296000000000003</v>
+      </c>
+      <c r="AD56">
+        <v>2026</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF56">
+        <v>30.4</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W57">
+        <v>2026</v>
+      </c>
+      <c r="X57" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA57">
+        <v>16</v>
+      </c>
+      <c r="AB57">
+        <v>3.456</v>
+      </c>
+      <c r="AD57">
+        <v>2027</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W58">
+        <v>2026</v>
+      </c>
+      <c r="X58" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA58">
+        <v>9.6</v>
+      </c>
+      <c r="AB58">
+        <v>2.21184</v>
+      </c>
+      <c r="AD58">
+        <v>2027</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF58">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AG58">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="59" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W59">
+        <v>2026</v>
+      </c>
+      <c r="X59" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA59">
+        <v>14.4</v>
+      </c>
+      <c r="AB59">
+        <v>3.1103999999999998</v>
+      </c>
+      <c r="AD59">
+        <v>2027</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF59">
+        <v>19.5</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W60">
+        <v>2026</v>
+      </c>
+      <c r="X60" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA60">
+        <v>16</v>
+      </c>
+      <c r="AB60">
+        <v>3.456</v>
+      </c>
+      <c r="AD60">
+        <v>2027</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF60">
+        <v>60</v>
+      </c>
+      <c r="AG60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W61">
+        <v>2026</v>
+      </c>
+      <c r="X61" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA61">
+        <v>20</v>
+      </c>
+      <c r="AB61">
+        <v>4.0684800000000001</v>
+      </c>
+      <c r="AD61">
+        <v>2027</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF61">
+        <v>24</v>
+      </c>
+      <c r="AG61">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W62">
+        <v>2026</v>
+      </c>
+      <c r="X62" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA62">
+        <v>10</v>
+      </c>
+      <c r="AB62">
+        <v>2.03424</v>
+      </c>
+      <c r="AD62">
+        <v>2027</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF62">
+        <v>16</v>
+      </c>
+      <c r="AG62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W63">
+        <v>2027</v>
+      </c>
+      <c r="X63" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA63">
+        <v>60</v>
+      </c>
+      <c r="AB63">
+        <v>12.205439999999999</v>
+      </c>
+      <c r="AD63">
+        <v>2027</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W64">
+        <v>2027</v>
+      </c>
+      <c r="X64" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA64">
+        <v>50</v>
+      </c>
+      <c r="AB64">
+        <v>10.171200000000001</v>
+      </c>
+      <c r="AD64">
+        <v>2027</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF64">
+        <v>20</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W65">
+        <v>2027</v>
+      </c>
+      <c r="X65" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA65">
+        <v>19.5</v>
+      </c>
+      <c r="AB65">
+        <v>3.6972</v>
+      </c>
+      <c r="AD65">
+        <v>2027</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF65">
+        <v>30.4</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W66">
+        <v>2027</v>
+      </c>
+      <c r="X66" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA66">
+        <v>24</v>
+      </c>
+      <c r="AB66">
+        <v>5.5296000000000003</v>
+      </c>
+      <c r="AD66">
+        <v>2028</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W67">
+        <v>2027</v>
+      </c>
+      <c r="X67" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA67">
+        <v>16</v>
+      </c>
+      <c r="AB67">
+        <v>3.456</v>
+      </c>
+      <c r="AD67">
+        <v>2028</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF67">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AG67">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="68" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W68">
+        <v>2027</v>
+      </c>
+      <c r="X68" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA68">
+        <v>9.6</v>
+      </c>
+      <c r="AB68">
+        <v>2.21184</v>
+      </c>
+      <c r="AD68">
+        <v>2028</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF68">
+        <v>19.5</v>
+      </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W69">
+        <v>2027</v>
+      </c>
+      <c r="X69" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA69">
+        <v>14.4</v>
+      </c>
+      <c r="AB69">
+        <v>3.1103999999999998</v>
+      </c>
+      <c r="AD69">
+        <v>2028</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF69">
+        <v>60</v>
+      </c>
+      <c r="AG69">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W70">
+        <v>2027</v>
+      </c>
+      <c r="X70" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA70">
+        <v>16</v>
+      </c>
+      <c r="AB70">
+        <v>3.456</v>
+      </c>
+      <c r="AD70">
+        <v>2028</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF70">
+        <v>24</v>
+      </c>
+      <c r="AG70">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W71">
+        <v>2027</v>
+      </c>
+      <c r="X71" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA71">
+        <v>20</v>
+      </c>
+      <c r="AB71">
+        <v>4.0684800000000001</v>
+      </c>
+      <c r="AD71">
+        <v>2028</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF71">
+        <v>16</v>
+      </c>
+      <c r="AG71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W72">
+        <v>2027</v>
+      </c>
+      <c r="X72" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA72">
+        <v>10</v>
+      </c>
+      <c r="AB72">
+        <v>2.03424</v>
+      </c>
+      <c r="AD72">
+        <v>2028</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W73">
+        <v>2028</v>
+      </c>
+      <c r="X73" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA73">
+        <v>60</v>
+      </c>
+      <c r="AB73">
+        <v>12.205439999999999</v>
+      </c>
+      <c r="AD73">
+        <v>2028</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF73">
+        <v>20</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W74">
+        <v>2028</v>
+      </c>
+      <c r="X74" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA74">
+        <v>50</v>
+      </c>
+      <c r="AB74">
+        <v>10.171200000000001</v>
+      </c>
+      <c r="AD74">
+        <v>2028</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF74">
+        <v>30.4</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W75">
+        <v>2028</v>
+      </c>
+      <c r="X75" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA75">
+        <v>19.5</v>
+      </c>
+      <c r="AB75">
+        <v>3.6972</v>
+      </c>
+      <c r="AD75">
+        <v>2029</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W76">
+        <v>2028</v>
+      </c>
+      <c r="X76" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA76">
+        <v>24</v>
+      </c>
+      <c r="AB76">
+        <v>5.5296000000000003</v>
+      </c>
+      <c r="AD76">
+        <v>2029</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF76">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AG76">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="77" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W77">
+        <v>2028</v>
+      </c>
+      <c r="X77" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA77">
+        <v>16</v>
+      </c>
+      <c r="AB77">
+        <v>3.456</v>
+      </c>
+      <c r="AD77">
+        <v>2029</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF77">
+        <v>19.5</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W78">
+        <v>2028</v>
+      </c>
+      <c r="X78" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA78">
+        <v>9.6</v>
+      </c>
+      <c r="AB78">
+        <v>2.21184</v>
+      </c>
+      <c r="AD78">
+        <v>2029</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF78">
+        <v>60</v>
+      </c>
+      <c r="AG78">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W79">
+        <v>2028</v>
+      </c>
+      <c r="X79" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA79">
+        <v>14.4</v>
+      </c>
+      <c r="AB79">
+        <v>3.1103999999999998</v>
+      </c>
+      <c r="AD79">
+        <v>2029</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF79">
+        <v>24</v>
+      </c>
+      <c r="AG79">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W80">
+        <v>2028</v>
+      </c>
+      <c r="X80" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA80">
+        <v>16</v>
+      </c>
+      <c r="AB80">
+        <v>3.456</v>
+      </c>
+      <c r="AD80">
+        <v>2029</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF80">
+        <v>16</v>
+      </c>
+      <c r="AG80">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W81">
+        <v>2028</v>
+      </c>
+      <c r="X81" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA81">
+        <v>20</v>
+      </c>
+      <c r="AB81">
+        <v>4.0684800000000001</v>
+      </c>
+      <c r="AD81">
+        <v>2029</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W82">
+        <v>2028</v>
+      </c>
+      <c r="X82" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA82">
+        <v>10</v>
+      </c>
+      <c r="AB82">
+        <v>2.03424</v>
+      </c>
+      <c r="AD82">
+        <v>2029</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF82">
+        <v>20</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W83">
+        <v>2029</v>
+      </c>
+      <c r="X83" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA83">
+        <v>60</v>
+      </c>
+      <c r="AB83">
+        <v>12.205439999999999</v>
+      </c>
+      <c r="AD83">
+        <v>2029</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF83">
+        <v>30.4</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W84">
+        <v>2029</v>
+      </c>
+      <c r="X84" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA84">
+        <v>50</v>
+      </c>
+      <c r="AB84">
+        <v>10.171200000000001</v>
+      </c>
+      <c r="AD84">
+        <v>2030</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W85">
+        <v>2029</v>
+      </c>
+      <c r="X85" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA85">
+        <v>19.5</v>
+      </c>
+      <c r="AB85">
+        <v>3.6972</v>
+      </c>
+      <c r="AD85">
+        <v>2030</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF85">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AG85">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="86" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W86">
+        <v>2029</v>
+      </c>
+      <c r="X86" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA86">
+        <v>24</v>
+      </c>
+      <c r="AB86">
+        <v>5.5296000000000003</v>
+      </c>
+      <c r="AD86">
+        <v>2030</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF86">
+        <v>19.5</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W87">
+        <v>2029</v>
+      </c>
+      <c r="X87" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA87">
+        <v>16</v>
+      </c>
+      <c r="AB87">
+        <v>3.456</v>
+      </c>
+      <c r="AD87">
+        <v>2030</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF87">
+        <v>60</v>
+      </c>
+      <c r="AG87">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W88">
+        <v>2029</v>
+      </c>
+      <c r="X88" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA88">
+        <v>9.6</v>
+      </c>
+      <c r="AB88">
+        <v>2.21184</v>
+      </c>
+      <c r="AD88">
+        <v>2030</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF88">
+        <v>24</v>
+      </c>
+      <c r="AG88">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W89">
+        <v>2029</v>
+      </c>
+      <c r="X89" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA89">
+        <v>14.4</v>
+      </c>
+      <c r="AB89">
+        <v>3.1103999999999998</v>
+      </c>
+      <c r="AD89">
+        <v>2030</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF89">
+        <v>16</v>
+      </c>
+      <c r="AG89">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W90">
+        <v>2029</v>
+      </c>
+      <c r="X90" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA90">
+        <v>16</v>
+      </c>
+      <c r="AB90">
+        <v>3.456</v>
+      </c>
+      <c r="AD90">
+        <v>2030</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W91">
+        <v>2029</v>
+      </c>
+      <c r="X91" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA91">
+        <v>20</v>
+      </c>
+      <c r="AB91">
+        <v>4.0684800000000001</v>
+      </c>
+      <c r="AD91">
+        <v>2030</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF91">
+        <v>20</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W92">
+        <v>2029</v>
+      </c>
+      <c r="X92" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA92">
+        <v>10</v>
+      </c>
+      <c r="AB92">
+        <v>2.03424</v>
+      </c>
+      <c r="AD92">
+        <v>2030</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF92">
+        <v>30.4</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W93">
+        <v>2030</v>
+      </c>
+      <c r="X93" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA93">
+        <v>60</v>
+      </c>
+      <c r="AB93">
+        <v>12.205439999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W94">
+        <v>2030</v>
+      </c>
+      <c r="X94" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA94">
+        <v>50</v>
+      </c>
+      <c r="AB94">
+        <v>10.171200000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W95">
+        <v>2030</v>
+      </c>
+      <c r="X95" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA95">
+        <v>19.5</v>
+      </c>
+      <c r="AB95">
+        <v>3.6972</v>
+      </c>
+    </row>
+    <row r="96" spans="23:33" x14ac:dyDescent="0.35">
+      <c r="W96">
+        <v>2030</v>
+      </c>
+      <c r="X96" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA96">
+        <v>24</v>
+      </c>
+      <c r="AB96">
+        <v>5.5296000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W97">
+        <v>2030</v>
+      </c>
+      <c r="X97" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA97">
+        <v>16</v>
+      </c>
+      <c r="AB97">
+        <v>3.456</v>
+      </c>
+    </row>
+    <row r="98" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W98">
+        <v>2030</v>
+      </c>
+      <c r="X98" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA98">
+        <v>9.6</v>
+      </c>
+      <c r="AB98">
+        <v>2.21184</v>
+      </c>
+    </row>
+    <row r="99" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W99">
+        <v>2030</v>
+      </c>
+      <c r="X99" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA99">
+        <v>14.4</v>
+      </c>
+      <c r="AB99">
+        <v>3.1103999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W100">
+        <v>2030</v>
+      </c>
+      <c r="X100" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA100">
+        <v>16</v>
+      </c>
+      <c r="AB100">
+        <v>3.456</v>
+      </c>
+    </row>
+    <row r="101" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W101">
+        <v>2030</v>
+      </c>
+      <c r="X101" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA101">
+        <v>20</v>
+      </c>
+      <c r="AB101">
+        <v>4.0684800000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W102">
+        <v>2030</v>
+      </c>
+      <c r="X102" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA102">
+        <v>10</v>
+      </c>
+      <c r="AB102">
+        <v>2.03424</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C620F7-4B8A-4ECD-9835-AFC6C4EF2431}">
+  <dimension ref="B1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2">
+        <v>0.48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
@@ -3050,6 +8457,15 @@
     <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3316,14 +8732,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -3336,6 +8744,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClOrfani\PycharmProjects\aiphoria-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7D2FDB-D454-443C-863A-DD0BC8016068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76073B73-FDC4-49AD-880F-B95954A7776D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
@@ -431,9 +431,6 @@
     <t>https://excalidraw.com/#json=XTpmhzuJw-3ozVbASdSZz,QuLhsga6HJSHN0nM7kMAMA</t>
   </si>
   <si>
-    <t>m3 SWE</t>
-  </si>
-  <si>
     <t>Residues</t>
   </si>
   <si>
@@ -712,17 +709,20 @@
       <t xml:space="preserve"> (e.g. P3:EU -&gt; P5:EU with value: 100%)  </t>
     </r>
   </si>
+  <si>
+    <t>Mm3 SWE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0000000"/>
-    <numFmt numFmtId="171" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,12 +792,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -886,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -955,13 +949,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -970,11 +962,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1369,175 +1362,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240816D1-B4FF-41BE-B292-8CF7D349FFB2}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.81640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="29" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.54296875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="21"/>
+    <col min="4" max="4" width="69.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="34"/>
-    </row>
-    <row r="2" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="36"/>
+    </row>
+    <row r="2" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="203.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:5" s="22" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:5" s="22" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="32"/>
-    </row>
-    <row r="5" spans="1:5" s="22" customFormat="1" ht="96.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="38"/>
+    </row>
+    <row r="5" spans="1:5" s="22" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="32"/>
-    </row>
-    <row r="6" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C6" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="30"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="31"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="30"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="31"/>
-    </row>
-    <row r="12" spans="1:5" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" spans="1:5" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1568,25 +1561,25 @@
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" customWidth="1"/>
-    <col min="9" max="9" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.453125" customWidth="1"/>
-    <col min="16" max="16" width="11.81640625" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" customWidth="1"/>
-    <col min="18" max="18" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.42578125" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -1632,7 +1625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1658,7 +1651,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>55</v>
@@ -1712,7 +1705,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1733,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1746,10 +1739,10 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="R4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1770,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1783,15 +1776,15 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="R5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>82</v>
@@ -1801,13 +1794,13 @@
         <v>Residues:FI</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1819,10 +1812,10 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="R6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1843,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1855,10 +1848,10 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="R7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1873,13 +1866,13 @@
         <v>Construction:FI</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1891,10 +1884,10 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="R8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1909,13 +1902,13 @@
         <v>Furniture:FI</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1927,10 +1920,10 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="R9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1951,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1963,10 +1956,10 @@
         <v>0.81899999999999995</v>
       </c>
       <c r="R10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1987,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1999,15 +1992,15 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="R11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
         <v>82</v>
@@ -2017,13 +2010,13 @@
         <v>Incineration:FI</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2035,7 +2028,7 @@
         <v>0.48299999999999998</v>
       </c>
       <c r="R12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2050,32 +2043,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B692AEE8-68EE-4B81-A49D-50BF066DFFE7}">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="26.54296875" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" customWidth="1"/>
-    <col min="13" max="13" width="40.81640625" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="40.85546875" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2136,7 +2129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -2165,7 +2158,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="25" t="s">
         <v>67</v>
@@ -2228,7 +2221,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2264,23 +2257,23 @@
         <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="L4">
         <v>2021</v>
       </c>
       <c r="N4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P4">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2316,23 +2309,23 @@
         <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="L5">
         <v>2021</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P5">
         <f>0.4238*'Carbon fraction (will be moved)'!C2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2347,7 +2340,7 @@
         <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" t="str">
         <f>+_xlfn.XLOOKUP(I6,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
@@ -2368,23 +2361,23 @@
         <v>19.5</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="L6">
         <v>2021</v>
       </c>
       <c r="N6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P6">
         <f>0.395*'Carbon fraction (will be moved)'!C2</f>
         <v>0.18959999999999999</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2426,17 +2419,17 @@
         <v>2021</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P7">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
       <c r="Q7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2478,17 +2471,17 @@
         <v>2021</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P8">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2530,17 +2523,17 @@
         <v>2021</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P9">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
       <c r="Q9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2555,7 +2548,7 @@
         <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" t="str">
         <f>+_xlfn.XLOOKUP(I10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
@@ -2582,17 +2575,17 @@
         <v>2021</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P10">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2600,13 +2593,13 @@
         <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
         <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" t="str">
         <f>+_xlfn.XLOOKUP(I11,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
@@ -2633,17 +2626,17 @@
         <v>2021</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P11">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q11" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2679,23 +2672,23 @@
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="L12">
         <v>2021</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P12">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q12" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2730,33 +2723,33 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="L13">
         <v>2021</v>
       </c>
       <c r="N13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P13">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q13" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="N14"/>
     </row>
-    <row r="15" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="N15"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>83</v>
       </c>
@@ -2789,23 +2782,23 @@
         <v>60</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="L16">
         <v>2022</v>
       </c>
       <c r="N16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P16">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>85</v>
       </c>
@@ -2838,23 +2831,23 @@
         <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="L17">
         <v>2022</v>
       </c>
       <c r="N17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P17">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q17" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>85</v>
       </c>
@@ -2866,7 +2859,7 @@
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" t="str">
         <f>+_xlfn.XLOOKUP(I18,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
@@ -2887,23 +2880,23 @@
         <v>19.5</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="L18">
         <v>2022</v>
       </c>
       <c r="N18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P18">
         <f>0.395*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.18959999999999999</v>
       </c>
       <c r="Q18" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>84</v>
       </c>
@@ -2942,17 +2935,17 @@
         <v>2022</v>
       </c>
       <c r="N19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P19">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
       <c r="Q19" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>84</v>
       </c>
@@ -2991,17 +2984,17 @@
         <v>2022</v>
       </c>
       <c r="N20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P20">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q20" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -3040,17 +3033,17 @@
         <v>2022</v>
       </c>
       <c r="N21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P21">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
       <c r="Q21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>86</v>
       </c>
@@ -3062,7 +3055,7 @@
         <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" t="str">
         <f>+_xlfn.XLOOKUP(I22,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
@@ -3089,28 +3082,28 @@
         <v>2022</v>
       </c>
       <c r="N22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P22">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
         <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23" t="str">
         <f>+_xlfn.XLOOKUP(I23,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
@@ -3137,17 +3130,17 @@
         <v>2022</v>
       </c>
       <c r="N23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P23">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>84</v>
       </c>
@@ -3180,23 +3173,23 @@
         <v>20</v>
       </c>
       <c r="K24" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="L24">
         <v>2022</v>
       </c>
       <c r="N24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P24">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>84</v>
       </c>
@@ -3229,124 +3222,124 @@
         <v>10</v>
       </c>
       <c r="K25" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="L25">
         <v>2022</v>
       </c>
       <c r="N25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P25">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="O39"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="O40"/>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="N41"/>
       <c r="O41"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="N42"/>
       <c r="O42"/>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="N43"/>
       <c r="O43"/>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="N44"/>
       <c r="O44"/>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="N45"/>
       <c r="O45"/>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="N46"/>
       <c r="O46"/>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" s="9" t="s">
         <v>88</v>
       </c>
@@ -3355,251 +3348,251 @@
       <c r="N47"/>
       <c r="O47"/>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="N48"/>
       <c r="O48"/>
     </row>
-    <row r="49" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="N49"/>
       <c r="O49"/>
     </row>
-    <row r="50" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="N50"/>
       <c r="O50"/>
     </row>
-    <row r="51" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="N51"/>
       <c r="O51"/>
     </row>
-    <row r="52" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="N52"/>
       <c r="O52"/>
     </row>
-    <row r="53" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="N53"/>
       <c r="O53"/>
     </row>
-    <row r="54" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="N54"/>
       <c r="O54"/>
     </row>
-    <row r="55" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="N55"/>
       <c r="O55"/>
     </row>
-    <row r="56" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="N56"/>
       <c r="O56"/>
     </row>
-    <row r="57" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="N57"/>
       <c r="O57"/>
     </row>
-    <row r="58" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="N58"/>
       <c r="O58"/>
     </row>
-    <row r="59" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="N59"/>
       <c r="O59"/>
     </row>
-    <row r="60" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="N60"/>
       <c r="O60"/>
     </row>
-    <row r="61" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="N61"/>
       <c r="O61"/>
     </row>
-    <row r="62" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="N62"/>
       <c r="O62"/>
     </row>
-    <row r="63" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="N63"/>
       <c r="O63"/>
     </row>
-    <row r="64" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="N64"/>
       <c r="O64"/>
     </row>
-    <row r="65" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="N65"/>
       <c r="O65"/>
     </row>
-    <row r="66" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="N66"/>
       <c r="O66"/>
     </row>
-    <row r="67" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="N67"/>
       <c r="O67"/>
     </row>
-    <row r="68" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="N68"/>
       <c r="O68"/>
     </row>
-    <row r="69" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="N69"/>
       <c r="O69"/>
     </row>
-    <row r="70" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="N70"/>
       <c r="O70"/>
     </row>
-    <row r="71" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="N71"/>
       <c r="O71"/>
     </row>
-    <row r="72" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="N72"/>
       <c r="O72"/>
     </row>
-    <row r="73" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="N75"/>
       <c r="O75"/>
     </row>
-    <row r="76" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="N76"/>
       <c r="O76"/>
     </row>
-    <row r="77" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="N77"/>
       <c r="O77"/>
     </row>
-    <row r="78" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="N78"/>
       <c r="O78"/>
     </row>
-    <row r="79" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="N79"/>
       <c r="O79"/>
     </row>
-    <row r="80" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="N80"/>
       <c r="O80"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="N81"/>
       <c r="O81"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="N82"/>
       <c r="O82"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="N83"/>
       <c r="O83"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="N84"/>
       <c r="O84"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="N85"/>
       <c r="O85"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="N86"/>
       <c r="O86"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="N87"/>
       <c r="O87"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N88"/>
       <c r="O88"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -3610,25 +3603,25 @@
       <c r="N89"/>
       <c r="O89"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="N90"/>
       <c r="O90"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="N91"/>
       <c r="O91"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="N92"/>
       <c r="O92"/>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="N93"/>
@@ -3658,148 +3651,148 @@
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.81640625" customWidth="1"/>
-    <col min="2" max="12" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.08984375" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" customWidth="1"/>
-    <col min="16" max="16" width="15.26953125" customWidth="1"/>
-    <col min="17" max="17" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.6328125" customWidth="1"/>
-    <col min="28" max="28" width="21.54296875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.5703125" customWidth="1"/>
+    <col min="28" max="28" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+      <c r="F2">
+        <v>2024</v>
+      </c>
+      <c r="G2">
+        <v>2025</v>
+      </c>
+      <c r="H2">
+        <v>2026</v>
+      </c>
+      <c r="I2">
+        <v>2027</v>
+      </c>
+      <c r="J2">
+        <v>2028</v>
+      </c>
+      <c r="K2">
+        <v>2029</v>
+      </c>
+      <c r="L2">
+        <v>2030</v>
+      </c>
+      <c r="N2" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="35">
-        <v>2021</v>
-      </c>
-      <c r="D2" s="35">
-        <v>2022</v>
-      </c>
-      <c r="E2" s="35">
-        <v>2023</v>
-      </c>
-      <c r="F2" s="35">
-        <v>2024</v>
-      </c>
-      <c r="G2" s="35">
-        <v>2025</v>
-      </c>
-      <c r="H2" s="35">
-        <v>2026</v>
-      </c>
-      <c r="I2" s="35">
-        <v>2027</v>
-      </c>
-      <c r="J2" s="35">
-        <v>2028</v>
-      </c>
-      <c r="K2" s="35">
-        <v>2029</v>
-      </c>
-      <c r="L2" s="35">
-        <v>2030</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>143</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>144</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>145</v>
       </c>
-      <c r="S2" t="s">
-        <v>146</v>
-      </c>
       <c r="X2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z2" t="s">
         <v>131</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>133</v>
       </c>
-      <c r="Z2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>134</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>135</v>
       </c>
       <c r="AD2" t="s">
         <v>75</v>
       </c>
       <c r="AE2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF2" t="s">
         <v>136</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>137</v>
       </c>
-      <c r="AG2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B3" s="35">
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>2021</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="32">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="D3" s="36">
-        <v>0</v>
-      </c>
-      <c r="E3" s="36">
-        <v>0</v>
-      </c>
-      <c r="F3" s="36">
-        <v>0</v>
-      </c>
-      <c r="G3" s="36">
-        <v>0</v>
-      </c>
-      <c r="H3" s="36">
-        <v>0</v>
-      </c>
-      <c r="I3" s="36">
-        <v>0</v>
-      </c>
-      <c r="J3" s="36">
-        <v>0</v>
-      </c>
-      <c r="K3" s="36">
-        <v>0</v>
-      </c>
-      <c r="L3" s="36">
-        <v>0</v>
-      </c>
-      <c r="N3" s="37">
-        <f>SUM(C3:L3)</f>
+      <c r="D3" s="30">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30">
+        <v>0</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="G3" s="30">
+        <v>0</v>
+      </c>
+      <c r="H3" s="30">
+        <v>0</v>
+      </c>
+      <c r="I3" s="30">
+        <v>0</v>
+      </c>
+      <c r="J3" s="30">
+        <v>0</v>
+      </c>
+      <c r="K3" s="30">
+        <v>0</v>
+      </c>
+      <c r="L3" s="30">
+        <v>0</v>
+      </c>
+      <c r="N3" s="31">
+        <f t="shared" ref="N3:N12" si="0">SUM(C3:L3)</f>
         <v>4.5864251507765596E-6</v>
       </c>
       <c r="P3">
         <v>16</v>
       </c>
-      <c r="Q3" s="37">
-        <f>P3-N3</f>
+      <c r="Q3" s="31">
+        <f t="shared" ref="Q3:Q12" si="1">P3-N3</f>
         <v>15.999995413574849</v>
       </c>
-      <c r="S3" s="37">
+      <c r="S3" s="31">
         <f>Q3</f>
         <v>15.999995413574849</v>
       </c>
@@ -3807,13 +3800,13 @@
         <v>2021</v>
       </c>
       <c r="X3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y3" t="s">
         <v>112</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>113</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>114</v>
       </c>
       <c r="AA3">
         <v>60</v>
@@ -3825,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="AE3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -3834,52 +3827,52 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B4" s="35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>2022</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="32">
         <v>5.0215344417914299E-4</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="32">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="E4" s="36">
-        <v>0</v>
-      </c>
-      <c r="F4" s="36">
-        <v>0</v>
-      </c>
-      <c r="G4" s="36">
-        <v>0</v>
-      </c>
-      <c r="H4" s="36">
-        <v>0</v>
-      </c>
-      <c r="I4" s="36">
-        <v>0</v>
-      </c>
-      <c r="J4" s="36">
-        <v>0</v>
-      </c>
-      <c r="K4" s="36">
-        <v>0</v>
-      </c>
-      <c r="L4" s="36">
-        <v>0</v>
-      </c>
-      <c r="N4" s="37">
-        <f>SUM(C4:L4)</f>
+      <c r="E4" s="30">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30">
+        <v>0</v>
+      </c>
+      <c r="H4" s="30">
+        <v>0</v>
+      </c>
+      <c r="I4" s="30">
+        <v>0</v>
+      </c>
+      <c r="J4" s="30">
+        <v>0</v>
+      </c>
+      <c r="K4" s="30">
+        <v>0</v>
+      </c>
+      <c r="L4" s="30">
+        <v>0</v>
+      </c>
+      <c r="N4" s="31">
+        <f t="shared" si="0"/>
         <v>5.0673986932991955E-4</v>
       </c>
       <c r="P4">
         <v>16</v>
       </c>
-      <c r="Q4" s="37">
-        <f>P4-N4</f>
+      <c r="Q4" s="31">
+        <f t="shared" si="1"/>
         <v>15.99949326013067</v>
       </c>
-      <c r="S4" s="37">
+      <c r="S4" s="31">
         <f>SUM(Q3:Q4)</f>
         <v>31.999488673705521</v>
       </c>
@@ -3887,13 +3880,13 @@
         <v>2021</v>
       </c>
       <c r="X4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z4" t="s">
         <v>115</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>116</v>
       </c>
       <c r="AA4">
         <v>50</v>
@@ -3905,7 +3898,7 @@
         <v>2021</v>
       </c>
       <c r="AE4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF4">
         <v>69.599999999999994</v>
@@ -3914,52 +3907,52 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B5" s="35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>2023</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="32">
         <v>2.1091628636751701E-2</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="32">
         <v>5.0215344417914299E-4</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="32">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="F5" s="36">
-        <v>0</v>
-      </c>
-      <c r="G5" s="36">
-        <v>0</v>
-      </c>
-      <c r="H5" s="36">
-        <v>0</v>
-      </c>
-      <c r="I5" s="36">
-        <v>0</v>
-      </c>
-      <c r="J5" s="36">
-        <v>0</v>
-      </c>
-      <c r="K5" s="36">
-        <v>0</v>
-      </c>
-      <c r="L5" s="36">
-        <v>0</v>
-      </c>
-      <c r="N5" s="37">
-        <f>SUM(C5:L5)</f>
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30">
+        <v>0</v>
+      </c>
+      <c r="J5" s="30">
+        <v>0</v>
+      </c>
+      <c r="K5" s="30">
+        <v>0</v>
+      </c>
+      <c r="L5" s="30">
+        <v>0</v>
+      </c>
+      <c r="N5" s="31">
+        <f t="shared" si="0"/>
         <v>2.1598368506081621E-2</v>
       </c>
       <c r="P5">
         <v>16</v>
       </c>
-      <c r="Q5" s="37">
-        <f>P5-N5</f>
+      <c r="Q5" s="31">
+        <f t="shared" si="1"/>
         <v>15.978401631493918</v>
       </c>
-      <c r="S5" s="37">
+      <c r="S5" s="31">
         <f>SUM(Q3:Q5)</f>
         <v>47.977890305199438</v>
       </c>
@@ -3967,13 +3960,13 @@
         <v>2021</v>
       </c>
       <c r="X5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z5" t="s">
         <v>117</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>118</v>
       </c>
       <c r="AA5">
         <v>19.5</v>
@@ -3985,7 +3978,7 @@
         <v>2021</v>
       </c>
       <c r="AE5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF5">
         <v>19.5</v>
@@ -3994,52 +3987,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B6" s="35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2024</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="32">
         <v>0.34240374266478502</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="32">
         <v>2.1091628636751701E-2</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="32">
         <v>5.0215344417914299E-4</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="32">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="G6" s="36">
-        <v>0</v>
-      </c>
-      <c r="H6" s="36">
-        <v>0</v>
-      </c>
-      <c r="I6" s="36">
-        <v>0</v>
-      </c>
-      <c r="J6" s="36">
-        <v>0</v>
-      </c>
-      <c r="K6" s="36">
-        <v>0</v>
-      </c>
-      <c r="L6" s="36">
-        <v>0</v>
-      </c>
-      <c r="N6" s="37">
-        <f>SUM(C6:L6)</f>
+      <c r="G6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0</v>
+      </c>
+      <c r="J6" s="30">
+        <v>0</v>
+      </c>
+      <c r="K6" s="30">
+        <v>0</v>
+      </c>
+      <c r="L6" s="30">
+        <v>0</v>
+      </c>
+      <c r="N6" s="31">
+        <f t="shared" si="0"/>
         <v>0.36400211117086662</v>
       </c>
       <c r="P6">
         <v>16</v>
       </c>
-      <c r="Q6" s="37">
-        <f>P6-N6</f>
+      <c r="Q6" s="31">
+        <f t="shared" si="1"/>
         <v>15.635997888829133</v>
       </c>
-      <c r="S6" s="37">
+      <c r="S6" s="31">
         <f>SUM($Q$3:Q6)</f>
         <v>63.613888194028569</v>
       </c>
@@ -4047,13 +4040,13 @@
         <v>2021</v>
       </c>
       <c r="X6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z6" t="s">
         <v>119</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>120</v>
       </c>
       <c r="AA6">
         <v>24</v>
@@ -4065,7 +4058,7 @@
         <v>2021</v>
       </c>
       <c r="AE6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF6">
         <v>60</v>
@@ -4074,52 +4067,52 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B7" s="35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>2025</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="32">
         <v>2.1744819517324401</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="32">
         <v>0.34240374266478502</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="32">
         <v>2.1091628636751701E-2</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="32">
         <v>5.0215344417914299E-4</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="32">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="H7" s="36">
-        <v>0</v>
-      </c>
-      <c r="I7" s="36">
-        <v>0</v>
-      </c>
-      <c r="J7" s="36">
-        <v>0</v>
-      </c>
-      <c r="K7" s="36">
-        <v>0</v>
-      </c>
-      <c r="L7" s="36">
-        <v>0</v>
-      </c>
-      <c r="N7" s="37">
-        <f>SUM(C7:L7)</f>
+      <c r="H7" s="30">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0</v>
+      </c>
+      <c r="K7" s="30">
+        <v>0</v>
+      </c>
+      <c r="L7" s="30">
+        <v>0</v>
+      </c>
+      <c r="N7" s="31">
+        <f t="shared" si="0"/>
         <v>2.538484062903307</v>
       </c>
       <c r="P7">
         <v>16</v>
       </c>
-      <c r="Q7" s="37">
-        <f>P7-N7</f>
+      <c r="Q7" s="31">
+        <f t="shared" si="1"/>
         <v>13.461515937096692</v>
       </c>
-      <c r="S7" s="37">
+      <c r="S7" s="31">
         <f>SUM($Q$3:Q7)</f>
         <v>77.075404131125254</v>
       </c>
@@ -4127,13 +4120,13 @@
         <v>2021</v>
       </c>
       <c r="X7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z7" t="s">
         <v>121</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>122</v>
       </c>
       <c r="AA7">
         <v>16</v>
@@ -4145,7 +4138,7 @@
         <v>2021</v>
       </c>
       <c r="AE7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF7">
         <v>24</v>
@@ -4154,52 +4147,52 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B8" s="35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>2026</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="32">
         <v>5.4615159370966797</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="32">
         <v>2.1744819517324401</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="32">
         <v>0.34240374266478502</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="32">
         <v>2.1091628636751701E-2</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="32">
         <v>5.0215344417914299E-4</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="32">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="I8" s="36">
-        <v>0</v>
-      </c>
-      <c r="J8" s="36">
-        <v>0</v>
-      </c>
-      <c r="K8" s="36">
-        <v>0</v>
-      </c>
-      <c r="L8" s="36">
-        <v>0</v>
-      </c>
-      <c r="N8" s="37">
-        <f>SUM(C8:L8)</f>
+      <c r="I8" s="30">
+        <v>0</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0</v>
+      </c>
+      <c r="K8" s="30">
+        <v>0</v>
+      </c>
+      <c r="L8" s="30">
+        <v>0</v>
+      </c>
+      <c r="N8" s="31">
+        <f t="shared" si="0"/>
         <v>7.9999999999999867</v>
       </c>
       <c r="P8">
         <v>16</v>
       </c>
-      <c r="Q8" s="37">
-        <f>P8-N8</f>
+      <c r="Q8" s="31">
+        <f t="shared" si="1"/>
         <v>8.0000000000000142</v>
       </c>
-      <c r="S8" s="37">
+      <c r="S8" s="31">
         <f>SUM($Q$3:Q8)</f>
         <v>85.075404131125268</v>
       </c>
@@ -4207,13 +4200,13 @@
         <v>2021</v>
       </c>
       <c r="X8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA8">
         <v>9.6</v>
@@ -4225,7 +4218,7 @@
         <v>2021</v>
       </c>
       <c r="AE8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF8">
         <v>16</v>
@@ -4234,52 +4227,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B9" s="35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>2027</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="32">
         <v>5.4615159370966797</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="32">
         <v>5.4615159370966797</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="32">
         <v>2.1744819517324401</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="32">
         <v>0.34240374266478502</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="32">
         <v>2.1091628636751701E-2</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="32">
         <v>5.0215344417914299E-4</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="32">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="J9" s="36">
-        <v>0</v>
-      </c>
-      <c r="K9" s="36">
-        <v>0</v>
-      </c>
-      <c r="L9" s="36">
-        <v>0</v>
-      </c>
-      <c r="N9" s="37">
-        <f>SUM(C9:L9)</f>
+      <c r="J9" s="30">
+        <v>0</v>
+      </c>
+      <c r="K9" s="30">
+        <v>0</v>
+      </c>
+      <c r="L9" s="30">
+        <v>0</v>
+      </c>
+      <c r="N9" s="31">
+        <f t="shared" si="0"/>
         <v>13.461515937096667</v>
       </c>
       <c r="P9">
         <v>16</v>
       </c>
-      <c r="Q9" s="37">
-        <f>P9-N9</f>
+      <c r="Q9" s="31">
+        <f t="shared" si="1"/>
         <v>2.5384840629033327</v>
       </c>
-      <c r="S9" s="37">
+      <c r="S9" s="31">
         <f>SUM($Q$3:Q9)</f>
         <v>87.613888194028604</v>
       </c>
@@ -4287,13 +4280,13 @@
         <v>2021</v>
       </c>
       <c r="X9" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z9" t="s">
         <v>124</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>125</v>
       </c>
       <c r="AA9">
         <v>14.4</v>
@@ -4305,7 +4298,7 @@
         <v>2021</v>
       </c>
       <c r="AE9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -4314,52 +4307,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B10" s="35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>2028</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="32">
         <v>2.1744819517324401</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="32">
         <v>5.4615159370966797</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="32">
         <v>5.4615159370966797</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="32">
         <v>2.1744819517324401</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="32">
         <v>0.34240374266478502</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="32">
         <v>2.1091628636751701E-2</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="32">
         <v>5.0215344417914299E-4</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="32">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="K10" s="36">
-        <v>0</v>
-      </c>
-      <c r="L10" s="36">
-        <v>0</v>
-      </c>
-      <c r="N10" s="37">
-        <f>SUM(C10:L10)</f>
+      <c r="K10" s="30">
+        <v>0</v>
+      </c>
+      <c r="L10" s="30">
+        <v>0</v>
+      </c>
+      <c r="N10" s="31">
+        <f t="shared" si="0"/>
         <v>15.635997888829108</v>
       </c>
       <c r="P10">
         <v>16</v>
       </c>
-      <c r="Q10" s="37">
-        <f>P10-N10</f>
+      <c r="Q10" s="31">
+        <f t="shared" si="1"/>
         <v>0.36400211117089221</v>
       </c>
-      <c r="S10" s="37">
+      <c r="S10" s="31">
         <f>SUM($Q$3:Q10)</f>
         <v>87.977890305199494</v>
       </c>
@@ -4367,13 +4360,13 @@
         <v>2021</v>
       </c>
       <c r="X10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA10">
         <v>16</v>
@@ -4385,7 +4378,7 @@
         <v>2021</v>
       </c>
       <c r="AE10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF10">
         <v>20</v>
@@ -4394,52 +4387,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B11" s="35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>2029</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="32">
         <v>0.34240374266478502</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="32">
         <v>2.1744819517324401</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="32">
         <v>5.4615159370966797</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="32">
         <v>5.4615159370966797</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="32">
         <v>2.1744819517324401</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="32">
         <v>0.34240374266478502</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="32">
         <v>2.1091628636751701E-2</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="32">
         <v>5.0215344417914299E-4</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="32">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="L11" s="36">
-        <v>0</v>
-      </c>
-      <c r="N11" s="37">
-        <f>SUM(C11:L11)</f>
+      <c r="L11" s="30">
+        <v>0</v>
+      </c>
+      <c r="N11" s="31">
+        <f t="shared" si="0"/>
         <v>15.978401631493892</v>
       </c>
       <c r="P11">
         <v>16</v>
       </c>
-      <c r="Q11" s="37">
-        <f>P11-N11</f>
+      <c r="Q11" s="31">
+        <f t="shared" si="1"/>
         <v>2.1598368506108301E-2</v>
       </c>
-      <c r="S11" s="37">
+      <c r="S11" s="31">
         <f>SUM($Q$3:Q11)</f>
         <v>87.999488673705599</v>
       </c>
@@ -4447,13 +4440,13 @@
         <v>2021</v>
       </c>
       <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z11" t="s">
         <v>127</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>128</v>
       </c>
       <c r="AA11">
         <v>20</v>
@@ -4465,7 +4458,7 @@
         <v>2021</v>
       </c>
       <c r="AE11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF11">
         <v>30.4</v>
@@ -4474,52 +4467,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B12" s="35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>2030</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="32">
         <v>2.10916286367515E-2</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="32">
         <v>0.34240374266478502</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="32">
         <v>2.1744819517324401</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="32">
         <v>5.4615159370966797</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="32">
         <v>5.4615159370966797</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="32">
         <v>2.1744819517324401</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="32">
         <v>0.34240374266478502</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="32">
         <v>2.1091628636751701E-2</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="32">
         <v>5.0215344417914299E-4</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="32">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="N12" s="37">
-        <f>SUM(C12:L12)</f>
+      <c r="N12" s="31">
+        <f t="shared" si="0"/>
         <v>15.999493260130643</v>
       </c>
       <c r="P12">
         <v>16</v>
       </c>
-      <c r="Q12" s="37">
-        <f>P12-N12</f>
+      <c r="Q12" s="31">
+        <f t="shared" si="1"/>
         <v>5.0673986935656501E-4</v>
       </c>
-      <c r="S12" s="37">
+      <c r="S12" s="31">
         <f>SUM($Q$3:Q12)</f>
         <v>87.99999541357495</v>
       </c>
@@ -4527,13 +4520,13 @@
         <v>2021</v>
       </c>
       <c r="X12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y12" t="s">
         <v>129</v>
       </c>
-      <c r="Y12" t="s">
-        <v>130</v>
-      </c>
       <c r="Z12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA12">
         <v>10</v>
@@ -4545,7 +4538,7 @@
         <v>2022</v>
       </c>
       <c r="AE12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -4554,21 +4547,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W13">
         <v>2022</v>
       </c>
       <c r="X13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y13" t="s">
         <v>112</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>113</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>114</v>
       </c>
       <c r="AA13">
         <v>60</v>
@@ -4580,7 +4573,7 @@
         <v>2022</v>
       </c>
       <c r="AE13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF13">
         <v>69.599999999999994</v>
@@ -4589,49 +4582,49 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B14" s="38"/>
-      <c r="C14" s="35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14">
         <v>2021</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14">
         <v>2022</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14">
         <v>2023</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14">
         <v>2024</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14">
         <v>2025</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14">
         <v>2026</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14">
         <v>2027</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14">
         <v>2028</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14">
         <v>2029</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14">
         <v>2030</v>
       </c>
       <c r="W14">
         <v>2022</v>
       </c>
       <c r="X14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z14" t="s">
         <v>115</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>116</v>
       </c>
       <c r="AA14">
         <v>50</v>
@@ -4643,7 +4636,7 @@
         <v>2022</v>
       </c>
       <c r="AE14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF14">
         <v>19.5</v>
@@ -4652,51 +4645,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B15" s="35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>2021</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="32">
         <v>15.999995413574799</v>
       </c>
-      <c r="D15" s="36">
-        <v>0</v>
-      </c>
-      <c r="E15" s="36">
-        <v>0</v>
-      </c>
-      <c r="F15" s="36">
-        <v>0</v>
-      </c>
-      <c r="G15" s="36">
-        <v>0</v>
-      </c>
-      <c r="H15" s="36">
-        <v>0</v>
-      </c>
-      <c r="I15" s="36">
-        <v>0</v>
-      </c>
-      <c r="J15" s="36">
-        <v>0</v>
-      </c>
-      <c r="K15" s="36">
-        <v>0</v>
-      </c>
-      <c r="L15" s="36">
+      <c r="D15" s="30">
+        <v>0</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0</v>
+      </c>
+      <c r="G15" s="30">
+        <v>0</v>
+      </c>
+      <c r="H15" s="30">
+        <v>0</v>
+      </c>
+      <c r="I15" s="30">
+        <v>0</v>
+      </c>
+      <c r="J15" s="30">
+        <v>0</v>
+      </c>
+      <c r="K15" s="30">
+        <v>0</v>
+      </c>
+      <c r="L15" s="30">
         <v>0</v>
       </c>
       <c r="W15">
         <v>2022</v>
       </c>
       <c r="X15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z15" t="s">
         <v>117</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>118</v>
       </c>
       <c r="AA15">
         <v>19.5</v>
@@ -4708,7 +4701,7 @@
         <v>2022</v>
       </c>
       <c r="AE15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF15">
         <v>60</v>
@@ -4717,51 +4710,51 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B16" s="35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>2022</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="32">
         <v>15.999493260130601</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="32">
         <v>15.999995413574799</v>
       </c>
-      <c r="E16" s="36">
-        <v>0</v>
-      </c>
-      <c r="F16" s="36">
-        <v>0</v>
-      </c>
-      <c r="G16" s="36">
-        <v>0</v>
-      </c>
-      <c r="H16" s="36">
-        <v>0</v>
-      </c>
-      <c r="I16" s="36">
-        <v>0</v>
-      </c>
-      <c r="J16" s="36">
-        <v>0</v>
-      </c>
-      <c r="K16" s="36">
-        <v>0</v>
-      </c>
-      <c r="L16" s="36">
+      <c r="E16" s="30">
+        <v>0</v>
+      </c>
+      <c r="F16" s="30">
+        <v>0</v>
+      </c>
+      <c r="G16" s="30">
+        <v>0</v>
+      </c>
+      <c r="H16" s="30">
+        <v>0</v>
+      </c>
+      <c r="I16" s="30">
+        <v>0</v>
+      </c>
+      <c r="J16" s="30">
+        <v>0</v>
+      </c>
+      <c r="K16" s="30">
+        <v>0</v>
+      </c>
+      <c r="L16" s="30">
         <v>0</v>
       </c>
       <c r="W16">
         <v>2022</v>
       </c>
       <c r="X16" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z16" t="s">
         <v>119</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>120</v>
       </c>
       <c r="AA16">
         <v>24</v>
@@ -4773,7 +4766,7 @@
         <v>2022</v>
       </c>
       <c r="AE16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF16">
         <v>24</v>
@@ -4782,51 +4775,51 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B17" s="35">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>2023</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="32">
         <v>15.978401631493901</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="32">
         <v>15.999493260130601</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="32">
         <v>15.999995413574799</v>
       </c>
-      <c r="F17" s="36">
-        <v>0</v>
-      </c>
-      <c r="G17" s="36">
-        <v>0</v>
-      </c>
-      <c r="H17" s="36">
-        <v>0</v>
-      </c>
-      <c r="I17" s="36">
-        <v>0</v>
-      </c>
-      <c r="J17" s="36">
-        <v>0</v>
-      </c>
-      <c r="K17" s="36">
-        <v>0</v>
-      </c>
-      <c r="L17" s="36">
+      <c r="F17" s="30">
+        <v>0</v>
+      </c>
+      <c r="G17" s="30">
+        <v>0</v>
+      </c>
+      <c r="H17" s="30">
+        <v>0</v>
+      </c>
+      <c r="I17" s="30">
+        <v>0</v>
+      </c>
+      <c r="J17" s="30">
+        <v>0</v>
+      </c>
+      <c r="K17" s="30">
+        <v>0</v>
+      </c>
+      <c r="L17" s="30">
         <v>0</v>
       </c>
       <c r="W17">
         <v>2022</v>
       </c>
       <c r="X17" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z17" t="s">
         <v>121</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>122</v>
       </c>
       <c r="AA17">
         <v>16</v>
@@ -4838,7 +4831,7 @@
         <v>2022</v>
       </c>
       <c r="AE17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF17">
         <v>16</v>
@@ -4847,51 +4840,51 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B18" s="35">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>2024</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="32">
         <v>15.635997888829101</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="32">
         <v>15.978401631493901</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="32">
         <v>15.999493260130601</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="32">
         <v>15.999995413574799</v>
       </c>
-      <c r="G18" s="36">
-        <v>0</v>
-      </c>
-      <c r="H18" s="36">
-        <v>0</v>
-      </c>
-      <c r="I18" s="36">
-        <v>0</v>
-      </c>
-      <c r="J18" s="36">
-        <v>0</v>
-      </c>
-      <c r="K18" s="36">
-        <v>0</v>
-      </c>
-      <c r="L18" s="36">
+      <c r="G18" s="30">
+        <v>0</v>
+      </c>
+      <c r="H18" s="30">
+        <v>0</v>
+      </c>
+      <c r="I18" s="30">
+        <v>0</v>
+      </c>
+      <c r="J18" s="30">
+        <v>0</v>
+      </c>
+      <c r="K18" s="30">
+        <v>0</v>
+      </c>
+      <c r="L18" s="30">
         <v>0</v>
       </c>
       <c r="W18">
         <v>2022</v>
       </c>
       <c r="X18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA18">
         <v>9.6</v>
@@ -4903,7 +4896,7 @@
         <v>2022</v>
       </c>
       <c r="AE18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -4912,51 +4905,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B19" s="35">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>2025</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="32">
         <v>13.4615159370966</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="32">
         <v>15.635997888829101</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="32">
         <v>15.978401631493901</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="32">
         <v>15.999493260130601</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="32">
         <v>15.999995413574799</v>
       </c>
-      <c r="H19" s="36">
-        <v>0</v>
-      </c>
-      <c r="I19" s="36">
-        <v>0</v>
-      </c>
-      <c r="J19" s="36">
-        <v>0</v>
-      </c>
-      <c r="K19" s="36">
-        <v>0</v>
-      </c>
-      <c r="L19" s="36">
+      <c r="H19" s="30">
+        <v>0</v>
+      </c>
+      <c r="I19" s="30">
+        <v>0</v>
+      </c>
+      <c r="J19" s="30">
+        <v>0</v>
+      </c>
+      <c r="K19" s="30">
+        <v>0</v>
+      </c>
+      <c r="L19" s="30">
         <v>0</v>
       </c>
       <c r="W19">
         <v>2022</v>
       </c>
       <c r="X19" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z19" t="s">
         <v>124</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>125</v>
       </c>
       <c r="AA19">
         <v>14.4</v>
@@ -4968,7 +4961,7 @@
         <v>2022</v>
       </c>
       <c r="AE19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF19">
         <v>20</v>
@@ -4977,51 +4970,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B20" s="35">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>2026</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="32">
         <v>8</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="32">
         <v>13.4615159370966</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="32">
         <v>15.635997888829101</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="32">
         <v>15.978401631493901</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="32">
         <v>15.999493260130601</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="32">
         <v>15.999995413574799</v>
       </c>
-      <c r="I20" s="36">
-        <v>0</v>
-      </c>
-      <c r="J20" s="36">
-        <v>0</v>
-      </c>
-      <c r="K20" s="36">
-        <v>0</v>
-      </c>
-      <c r="L20" s="36">
+      <c r="I20" s="30">
+        <v>0</v>
+      </c>
+      <c r="J20" s="30">
+        <v>0</v>
+      </c>
+      <c r="K20" s="30">
+        <v>0</v>
+      </c>
+      <c r="L20" s="30">
         <v>0</v>
       </c>
       <c r="W20">
         <v>2022</v>
       </c>
       <c r="X20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA20">
         <v>16</v>
@@ -5033,7 +5026,7 @@
         <v>2022</v>
       </c>
       <c r="AE20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF20">
         <v>30.4</v>
@@ -5042,51 +5035,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B21" s="35">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>2027</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="32">
         <v>2.5384840629033101</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="32">
         <v>8</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="32">
         <v>13.4615159370966</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="32">
         <v>15.635997888829101</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="32">
         <v>15.978401631493901</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="32">
         <v>15.999493260130601</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="32">
         <v>15.999995413574799</v>
       </c>
-      <c r="J21" s="36">
-        <v>0</v>
-      </c>
-      <c r="K21" s="36">
-        <v>0</v>
-      </c>
-      <c r="L21" s="36">
+      <c r="J21" s="30">
+        <v>0</v>
+      </c>
+      <c r="K21" s="30">
+        <v>0</v>
+      </c>
+      <c r="L21" s="30">
         <v>0</v>
       </c>
       <c r="W21">
         <v>2022</v>
       </c>
       <c r="X21" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z21" t="s">
         <v>127</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>128</v>
       </c>
       <c r="AA21">
         <v>20</v>
@@ -5098,7 +5091,7 @@
         <v>2023</v>
       </c>
       <c r="AE21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -5107,51 +5100,51 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B22" s="35">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>2028</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="32">
         <v>0.364002111170867</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="32">
         <v>2.5384840629033101</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="32">
         <v>8</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="32">
         <v>13.4615159370966</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="32">
         <v>15.635997888829101</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="32">
         <v>15.978401631493901</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="32">
         <v>15.999493260130601</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="32">
         <v>15.999995413574799</v>
       </c>
-      <c r="K22" s="36">
-        <v>0</v>
-      </c>
-      <c r="L22" s="36">
+      <c r="K22" s="30">
+        <v>0</v>
+      </c>
+      <c r="L22" s="30">
         <v>0</v>
       </c>
       <c r="W22">
         <v>2022</v>
       </c>
       <c r="X22" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y22" t="s">
         <v>129</v>
       </c>
-      <c r="Y22" t="s">
-        <v>130</v>
-      </c>
       <c r="Z22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA22">
         <v>10</v>
@@ -5163,7 +5156,7 @@
         <v>2023</v>
       </c>
       <c r="AE22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF22">
         <v>69.599999999999994</v>
@@ -5172,51 +5165,51 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B23" s="35">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>2029</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="32">
         <v>2.1598368506081399E-2</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="32">
         <v>0.364002111170867</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="32">
         <v>2.5384840629033101</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="32">
         <v>8</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="32">
         <v>13.4615159370966</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="32">
         <v>15.635997888829101</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="32">
         <v>15.978401631493901</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="32">
         <v>15.999493260130601</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="32">
         <v>15.999995413574799</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="30">
         <v>0</v>
       </c>
       <c r="W23">
         <v>2023</v>
       </c>
       <c r="X23" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y23" t="s">
         <v>112</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>113</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>114</v>
       </c>
       <c r="AA23">
         <v>60</v>
@@ -5228,7 +5221,7 @@
         <v>2023</v>
       </c>
       <c r="AE23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF23">
         <v>19.5</v>
@@ -5237,35 +5230,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B24" s="35">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>2030</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="32">
         <v>5.0673986932991695E-4</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="32">
         <v>2.1598368506081399E-2</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="32">
         <v>0.364002111170867</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="32">
         <v>2.5384840629033101</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="32">
         <v>8</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="32">
         <v>13.4615159370966</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="32">
         <v>15.635997888829101</v>
       </c>
-      <c r="J24" s="38">
+      <c r="J24" s="32">
         <v>15.978401631493901</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="32">
         <v>15.999493260130601</v>
       </c>
       <c r="L24">
@@ -5275,13 +5268,13 @@
         <v>2023</v>
       </c>
       <c r="X24" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z24" t="s">
         <v>115</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>116</v>
       </c>
       <c r="AA24">
         <v>50</v>
@@ -5293,7 +5286,7 @@
         <v>2023</v>
       </c>
       <c r="AE24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF24">
         <v>60</v>
@@ -5302,21 +5295,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W25">
         <v>2023</v>
       </c>
       <c r="X25" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z25" t="s">
         <v>117</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>118</v>
       </c>
       <c r="AA25">
         <v>19.5</v>
@@ -5328,7 +5321,7 @@
         <v>2023</v>
       </c>
       <c r="AE25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF25">
         <v>24</v>
@@ -5337,49 +5330,49 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B26" s="38"/>
-      <c r="C26" s="35">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B26" s="32"/>
+      <c r="C26">
         <v>2021</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26">
         <v>2022</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26">
         <v>2023</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26">
         <v>2024</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26">
         <v>2025</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26">
         <v>2026</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26">
         <v>2027</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26">
         <v>2028</v>
       </c>
-      <c r="K26" s="35">
+      <c r="K26">
         <v>2029</v>
       </c>
-      <c r="L26" s="35">
+      <c r="L26">
         <v>2030</v>
       </c>
       <c r="W26">
         <v>2023</v>
       </c>
       <c r="X26" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z26" t="s">
         <v>119</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>120</v>
       </c>
       <c r="AA26">
         <v>24</v>
@@ -5391,7 +5384,7 @@
         <v>2023</v>
       </c>
       <c r="AE26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF26">
         <v>16</v>
@@ -5400,51 +5393,51 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B27" s="35">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B27">
         <v>2021</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="32">
         <v>9.9066783265655502E-7</v>
       </c>
-      <c r="D27" s="36">
-        <v>0</v>
-      </c>
-      <c r="E27" s="36">
-        <v>0</v>
-      </c>
-      <c r="F27" s="36">
-        <v>0</v>
-      </c>
-      <c r="G27" s="36">
-        <v>0</v>
-      </c>
-      <c r="H27" s="36">
-        <v>0</v>
-      </c>
-      <c r="I27" s="36">
-        <v>0</v>
-      </c>
-      <c r="J27" s="36">
-        <v>0</v>
-      </c>
-      <c r="K27" s="36">
-        <v>0</v>
-      </c>
-      <c r="L27" s="36">
+      <c r="D27" s="30">
+        <v>0</v>
+      </c>
+      <c r="E27" s="30">
+        <v>0</v>
+      </c>
+      <c r="F27" s="30">
+        <v>0</v>
+      </c>
+      <c r="G27" s="30">
+        <v>0</v>
+      </c>
+      <c r="H27" s="30">
+        <v>0</v>
+      </c>
+      <c r="I27" s="30">
+        <v>0</v>
+      </c>
+      <c r="J27" s="30">
+        <v>0</v>
+      </c>
+      <c r="K27" s="30">
+        <v>0</v>
+      </c>
+      <c r="L27" s="30">
         <v>0</v>
       </c>
       <c r="W27">
         <v>2023</v>
       </c>
       <c r="X27" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z27" t="s">
         <v>121</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>122</v>
       </c>
       <c r="AA27">
         <v>16</v>
@@ -5456,7 +5449,7 @@
         <v>2023</v>
       </c>
       <c r="AE27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -5465,51 +5458,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B28" s="35">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>2022</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="32">
         <v>1.0846514394247101E-4</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="32">
         <v>9.9066783265655502E-7</v>
       </c>
-      <c r="E28" s="36">
-        <v>0</v>
-      </c>
-      <c r="F28" s="36">
-        <v>0</v>
-      </c>
-      <c r="G28" s="36">
-        <v>0</v>
-      </c>
-      <c r="H28" s="36">
-        <v>0</v>
-      </c>
-      <c r="I28" s="36">
-        <v>0</v>
-      </c>
-      <c r="J28" s="36">
-        <v>0</v>
-      </c>
-      <c r="K28" s="36">
-        <v>0</v>
-      </c>
-      <c r="L28" s="36">
+      <c r="E28" s="30">
+        <v>0</v>
+      </c>
+      <c r="F28" s="30">
+        <v>0</v>
+      </c>
+      <c r="G28" s="30">
+        <v>0</v>
+      </c>
+      <c r="H28" s="30">
+        <v>0</v>
+      </c>
+      <c r="I28" s="30">
+        <v>0</v>
+      </c>
+      <c r="J28" s="30">
+        <v>0</v>
+      </c>
+      <c r="K28" s="30">
+        <v>0</v>
+      </c>
+      <c r="L28" s="30">
         <v>0</v>
       </c>
       <c r="W28">
         <v>2023</v>
       </c>
       <c r="X28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA28">
         <v>9.6</v>
@@ -5521,7 +5514,7 @@
         <v>2023</v>
       </c>
       <c r="AE28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF28">
         <v>20</v>
@@ -5530,51 +5523,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B29" s="35">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>2023</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="32">
         <v>4.5557917855383297E-3</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="32">
         <v>1.0846514394247101E-4</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="32">
         <v>9.9066783265655502E-7</v>
       </c>
-      <c r="F29" s="36">
-        <v>0</v>
-      </c>
-      <c r="G29" s="36">
-        <v>0</v>
-      </c>
-      <c r="H29" s="36">
-        <v>0</v>
-      </c>
-      <c r="I29" s="36">
-        <v>0</v>
-      </c>
-      <c r="J29" s="36">
-        <v>0</v>
-      </c>
-      <c r="K29" s="36">
-        <v>0</v>
-      </c>
-      <c r="L29" s="36">
+      <c r="F29" s="30">
+        <v>0</v>
+      </c>
+      <c r="G29" s="30">
+        <v>0</v>
+      </c>
+      <c r="H29" s="30">
+        <v>0</v>
+      </c>
+      <c r="I29" s="30">
+        <v>0</v>
+      </c>
+      <c r="J29" s="30">
+        <v>0</v>
+      </c>
+      <c r="K29" s="30">
+        <v>0</v>
+      </c>
+      <c r="L29" s="30">
         <v>0</v>
       </c>
       <c r="W29">
         <v>2023</v>
       </c>
       <c r="X29" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z29" t="s">
         <v>124</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>125</v>
       </c>
       <c r="AA29">
         <v>14.4</v>
@@ -5586,7 +5579,7 @@
         <v>2023</v>
       </c>
       <c r="AE29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF29">
         <v>30.4</v>
@@ -5595,51 +5588,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B30" s="35">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>2024</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30" s="32">
         <v>7.3959208415594002E-2</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="32">
         <v>4.5557917855383297E-3</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="32">
         <v>1.0846514394247101E-4</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="32">
         <v>9.9066783265655502E-7</v>
       </c>
-      <c r="G30" s="36">
-        <v>0</v>
-      </c>
-      <c r="H30" s="36">
-        <v>0</v>
-      </c>
-      <c r="I30" s="36">
-        <v>0</v>
-      </c>
-      <c r="J30" s="36">
-        <v>0</v>
-      </c>
-      <c r="K30" s="36">
-        <v>0</v>
-      </c>
-      <c r="L30" s="36">
+      <c r="G30" s="30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="30">
         <v>0</v>
       </c>
       <c r="W30">
         <v>2023</v>
       </c>
       <c r="X30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA30">
         <v>16</v>
@@ -5651,7 +5644,7 @@
         <v>2024</v>
       </c>
       <c r="AE30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -5660,51 +5653,51 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B31" s="35">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B31">
         <v>2025</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="32">
         <v>0.46968810157420798</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="32">
         <v>7.3959208415594002E-2</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="32">
         <v>4.5557917855383297E-3</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="32">
         <v>1.0846514394247101E-4</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="32">
         <v>9.9066783265655502E-7</v>
       </c>
-      <c r="H31" s="36">
-        <v>0</v>
-      </c>
-      <c r="I31" s="36">
-        <v>0</v>
-      </c>
-      <c r="J31" s="36">
-        <v>0</v>
-      </c>
-      <c r="K31" s="36">
-        <v>0</v>
-      </c>
-      <c r="L31" s="36">
+      <c r="H31" s="30">
+        <v>0</v>
+      </c>
+      <c r="I31" s="30">
+        <v>0</v>
+      </c>
+      <c r="J31" s="30">
+        <v>0</v>
+      </c>
+      <c r="K31" s="30">
+        <v>0</v>
+      </c>
+      <c r="L31" s="30">
         <v>0</v>
       </c>
       <c r="W31">
         <v>2023</v>
       </c>
       <c r="X31" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z31" t="s">
         <v>127</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>128</v>
       </c>
       <c r="AA31">
         <v>20</v>
@@ -5716,7 +5709,7 @@
         <v>2024</v>
       </c>
       <c r="AE31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF31">
         <v>69.599999999999994</v>
@@ -5725,51 +5718,51 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B32" s="35">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B32">
         <v>2026</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="32">
         <v>1.17968744241288</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="32">
         <v>0.46968810157420798</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="32">
         <v>7.3959208415594002E-2</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="32">
         <v>4.5557917855383297E-3</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="32">
         <v>1.0846514394247101E-4</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="32">
         <v>9.9066783265655502E-7</v>
       </c>
-      <c r="I32" s="36">
-        <v>0</v>
-      </c>
-      <c r="J32" s="36">
-        <v>0</v>
-      </c>
-      <c r="K32" s="36">
-        <v>0</v>
-      </c>
-      <c r="L32" s="36">
+      <c r="I32" s="30">
+        <v>0</v>
+      </c>
+      <c r="J32" s="30">
+        <v>0</v>
+      </c>
+      <c r="K32" s="30">
+        <v>0</v>
+      </c>
+      <c r="L32" s="30">
         <v>0</v>
       </c>
       <c r="W32">
         <v>2023</v>
       </c>
       <c r="X32" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y32" t="s">
         <v>129</v>
       </c>
-      <c r="Y32" t="s">
-        <v>130</v>
-      </c>
       <c r="Z32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA32">
         <v>10</v>
@@ -5781,7 +5774,7 @@
         <v>2024</v>
       </c>
       <c r="AE32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF32">
         <v>19.5</v>
@@ -5790,51 +5783,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B33" s="35">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B33">
         <v>2027</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="32">
         <v>1.17968744241288</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="32">
         <v>1.17968744241288</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="32">
         <v>0.46968810157420798</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="32">
         <v>7.3959208415594002E-2</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="32">
         <v>4.5557917855383297E-3</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="32">
         <v>1.0846514394247101E-4</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="32">
         <v>9.9066783265655502E-7</v>
       </c>
-      <c r="J33" s="36">
-        <v>0</v>
-      </c>
-      <c r="K33" s="36">
-        <v>0</v>
-      </c>
-      <c r="L33" s="36">
+      <c r="J33" s="30">
+        <v>0</v>
+      </c>
+      <c r="K33" s="30">
+        <v>0</v>
+      </c>
+      <c r="L33" s="30">
         <v>0</v>
       </c>
       <c r="W33">
         <v>2024</v>
       </c>
       <c r="X33" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y33" t="s">
         <v>112</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>113</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>114</v>
       </c>
       <c r="AA33">
         <v>60</v>
@@ -5846,7 +5839,7 @@
         <v>2024</v>
       </c>
       <c r="AE33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF33">
         <v>60</v>
@@ -5855,51 +5848,51 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B34" s="35">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>2028</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34" s="32">
         <v>0.46968810157420798</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="32">
         <v>1.17968744241288</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="32">
         <v>1.17968744241288</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="32">
         <v>0.46968810157420798</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="32">
         <v>7.3959208415594002E-2</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="32">
         <v>4.5557917855383297E-3</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="32">
         <v>1.0846514394247101E-4</v>
       </c>
-      <c r="J34" s="38">
+      <c r="J34" s="32">
         <v>9.9066783265655502E-7</v>
       </c>
-      <c r="K34" s="36">
-        <v>0</v>
-      </c>
-      <c r="L34" s="36">
+      <c r="K34" s="30">
+        <v>0</v>
+      </c>
+      <c r="L34" s="30">
         <v>0</v>
       </c>
       <c r="W34">
         <v>2024</v>
       </c>
       <c r="X34" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z34" t="s">
         <v>115</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>116</v>
       </c>
       <c r="AA34">
         <v>50</v>
@@ -5911,7 +5904,7 @@
         <v>2024</v>
       </c>
       <c r="AE34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF34">
         <v>24</v>
@@ -5920,51 +5913,51 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B35" s="35">
+    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B35">
         <v>2029</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="32">
         <v>7.3959208415593697E-2</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="32">
         <v>0.46968810157420798</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="32">
         <v>1.17968744241288</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="32">
         <v>1.17968744241288</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="32">
         <v>0.46968810157420798</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="32">
         <v>7.3959208415594002E-2</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35" s="32">
         <v>4.5557917855383297E-3</v>
       </c>
-      <c r="J35" s="38">
+      <c r="J35" s="32">
         <v>1.0846514394247101E-4</v>
       </c>
-      <c r="K35" s="38">
+      <c r="K35" s="32">
         <v>9.9066783265655502E-7</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="30">
         <v>0</v>
       </c>
       <c r="W35">
         <v>2024</v>
       </c>
       <c r="X35" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z35" t="s">
         <v>117</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>118</v>
       </c>
       <c r="AA35">
         <v>19.5</v>
@@ -5976,7 +5969,7 @@
         <v>2024</v>
       </c>
       <c r="AE35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF35">
         <v>16</v>
@@ -5985,51 +5978,51 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B36" s="35">
+    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>2030</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36" s="32">
         <v>4.5557917855383297E-3</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="32">
         <v>7.3959208415593697E-2</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="32">
         <v>0.46968810157420798</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="32">
         <v>1.17968744241288</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="32">
         <v>1.17968744241288</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="32">
         <v>0.46968810157420798</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36" s="32">
         <v>7.3959208415594002E-2</v>
       </c>
-      <c r="J36" s="38">
+      <c r="J36" s="32">
         <v>4.5557917855383297E-3</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36" s="32">
         <v>1.0846514394247101E-4</v>
       </c>
-      <c r="L36" s="38">
+      <c r="L36" s="32">
         <v>9.9066783265655502E-7</v>
       </c>
       <c r="W36">
         <v>2024</v>
       </c>
       <c r="X36" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z36" t="s">
         <v>119</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>120</v>
       </c>
       <c r="AA36">
         <v>24</v>
@@ -6041,7 +6034,7 @@
         <v>2024</v>
       </c>
       <c r="AE36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -6050,21 +6043,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W37">
         <v>2024</v>
       </c>
       <c r="X37" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z37" t="s">
         <v>121</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>122</v>
       </c>
       <c r="AA37">
         <v>16</v>
@@ -6076,7 +6069,7 @@
         <v>2024</v>
       </c>
       <c r="AE37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF37">
         <v>20</v>
@@ -6085,49 +6078,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B38" s="38"/>
-      <c r="C38" s="35">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B38" s="32"/>
+      <c r="C38">
         <v>2021</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38">
         <v>2023</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38">
         <v>2024</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38">
         <v>2025</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38">
         <v>2026</v>
       </c>
-      <c r="I38" s="35">
+      <c r="I38">
         <v>2027</v>
       </c>
-      <c r="J38" s="35">
+      <c r="J38">
         <v>2028</v>
       </c>
-      <c r="K38" s="35">
+      <c r="K38">
         <v>2029</v>
       </c>
-      <c r="L38" s="35">
+      <c r="L38">
         <v>2030</v>
       </c>
       <c r="W38">
         <v>2024</v>
       </c>
       <c r="X38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA38">
         <v>9.6</v>
@@ -6139,7 +6132,7 @@
         <v>2024</v>
       </c>
       <c r="AE38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF38">
         <v>30.4</v>
@@ -6148,51 +6141,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B39" s="35">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>2021</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="32">
         <v>3.4559990093321602</v>
       </c>
-      <c r="D39" s="36">
-        <v>0</v>
-      </c>
-      <c r="E39" s="36">
-        <v>0</v>
-      </c>
-      <c r="F39" s="36">
-        <v>0</v>
-      </c>
-      <c r="G39" s="36">
-        <v>0</v>
-      </c>
-      <c r="H39" s="36">
-        <v>0</v>
-      </c>
-      <c r="I39" s="36">
-        <v>0</v>
-      </c>
-      <c r="J39" s="36">
-        <v>0</v>
-      </c>
-      <c r="K39" s="36">
-        <v>0</v>
-      </c>
-      <c r="L39" s="36">
+      <c r="D39" s="30">
+        <v>0</v>
+      </c>
+      <c r="E39" s="30">
+        <v>0</v>
+      </c>
+      <c r="F39" s="30">
+        <v>0</v>
+      </c>
+      <c r="G39" s="30">
+        <v>0</v>
+      </c>
+      <c r="H39" s="30">
+        <v>0</v>
+      </c>
+      <c r="I39" s="30">
+        <v>0</v>
+      </c>
+      <c r="J39" s="30">
+        <v>0</v>
+      </c>
+      <c r="K39" s="30">
+        <v>0</v>
+      </c>
+      <c r="L39" s="30">
         <v>0</v>
       </c>
       <c r="W39">
         <v>2024</v>
       </c>
       <c r="X39" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z39" t="s">
         <v>124</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>125</v>
       </c>
       <c r="AA39">
         <v>14.4</v>
@@ -6204,7 +6197,7 @@
         <v>2025</v>
       </c>
       <c r="AE39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -6213,51 +6206,51 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B40" s="35">
+    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B40">
         <v>2022</v>
       </c>
-      <c r="C40" s="38">
+      <c r="C40" s="32">
         <v>3.4558905441882199</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D40" s="32">
         <v>3.4559990093321602</v>
       </c>
-      <c r="E40" s="36">
-        <v>0</v>
-      </c>
-      <c r="F40" s="36">
-        <v>0</v>
-      </c>
-      <c r="G40" s="36">
-        <v>0</v>
-      </c>
-      <c r="H40" s="36">
-        <v>0</v>
-      </c>
-      <c r="I40" s="36">
-        <v>0</v>
-      </c>
-      <c r="J40" s="36">
-        <v>0</v>
-      </c>
-      <c r="K40" s="36">
-        <v>0</v>
-      </c>
-      <c r="L40" s="36">
+      <c r="E40" s="30">
+        <v>0</v>
+      </c>
+      <c r="F40" s="30">
+        <v>0</v>
+      </c>
+      <c r="G40" s="30">
+        <v>0</v>
+      </c>
+      <c r="H40" s="30">
+        <v>0</v>
+      </c>
+      <c r="I40" s="30">
+        <v>0</v>
+      </c>
+      <c r="J40" s="30">
+        <v>0</v>
+      </c>
+      <c r="K40" s="30">
+        <v>0</v>
+      </c>
+      <c r="L40" s="30">
         <v>0</v>
       </c>
       <c r="W40">
         <v>2024</v>
       </c>
       <c r="X40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA40">
         <v>16</v>
@@ -6269,7 +6262,7 @@
         <v>2025</v>
       </c>
       <c r="AE40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF40">
         <v>69.599999999999994</v>
@@ -6278,51 +6271,51 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B41" s="35">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B41">
         <v>2023</v>
       </c>
-      <c r="C41" s="38">
+      <c r="C41" s="32">
         <v>3.4513347524026798</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="32">
         <v>3.4558905441882199</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41" s="32">
         <v>3.4559990093321602</v>
       </c>
-      <c r="F41" s="36">
-        <v>0</v>
-      </c>
-      <c r="G41" s="36">
-        <v>0</v>
-      </c>
-      <c r="H41" s="36">
-        <v>0</v>
-      </c>
-      <c r="I41" s="36">
-        <v>0</v>
-      </c>
-      <c r="J41" s="36">
-        <v>0</v>
-      </c>
-      <c r="K41" s="36">
-        <v>0</v>
-      </c>
-      <c r="L41" s="36">
+      <c r="F41" s="30">
+        <v>0</v>
+      </c>
+      <c r="G41" s="30">
+        <v>0</v>
+      </c>
+      <c r="H41" s="30">
+        <v>0</v>
+      </c>
+      <c r="I41" s="30">
+        <v>0</v>
+      </c>
+      <c r="J41" s="30">
+        <v>0</v>
+      </c>
+      <c r="K41" s="30">
+        <v>0</v>
+      </c>
+      <c r="L41" s="30">
         <v>0</v>
       </c>
       <c r="W41">
         <v>2024</v>
       </c>
       <c r="X41" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z41" t="s">
         <v>127</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>128</v>
       </c>
       <c r="AA41">
         <v>20</v>
@@ -6334,7 +6327,7 @@
         <v>2025</v>
       </c>
       <c r="AE41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF41">
         <v>19.5</v>
@@ -6343,51 +6336,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B42" s="35">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B42">
         <v>2024</v>
       </c>
-      <c r="C42" s="38">
+      <c r="C42" s="32">
         <v>3.3773755439870898</v>
       </c>
-      <c r="D42" s="38">
+      <c r="D42" s="32">
         <v>3.4513347524026798</v>
       </c>
-      <c r="E42" s="38">
+      <c r="E42" s="32">
         <v>3.4558905441882199</v>
       </c>
-      <c r="F42" s="38">
+      <c r="F42" s="32">
         <v>3.4559990093321602</v>
       </c>
-      <c r="G42" s="36">
-        <v>0</v>
-      </c>
-      <c r="H42" s="36">
-        <v>0</v>
-      </c>
-      <c r="I42" s="36">
-        <v>0</v>
-      </c>
-      <c r="J42" s="36">
-        <v>0</v>
-      </c>
-      <c r="K42" s="36">
-        <v>0</v>
-      </c>
-      <c r="L42" s="36">
+      <c r="G42" s="30">
+        <v>0</v>
+      </c>
+      <c r="H42" s="30">
+        <v>0</v>
+      </c>
+      <c r="I42" s="30">
+        <v>0</v>
+      </c>
+      <c r="J42" s="30">
+        <v>0</v>
+      </c>
+      <c r="K42" s="30">
+        <v>0</v>
+      </c>
+      <c r="L42" s="30">
         <v>0</v>
       </c>
       <c r="W42">
         <v>2024</v>
       </c>
       <c r="X42" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y42" t="s">
         <v>129</v>
       </c>
-      <c r="Y42" t="s">
-        <v>130</v>
-      </c>
       <c r="Z42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA42">
         <v>10</v>
@@ -6399,7 +6392,7 @@
         <v>2025</v>
       </c>
       <c r="AE42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF42">
         <v>60</v>
@@ -6408,51 +6401,51 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B43" s="35">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B43">
         <v>2025</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C43" s="32">
         <v>2.9076874424128798</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="32">
         <v>3.3773755439870898</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="32">
         <v>3.4513347524026798</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="32">
         <v>3.4558905441882199</v>
       </c>
-      <c r="G43" s="38">
+      <c r="G43" s="32">
         <v>3.4559990093321602</v>
       </c>
-      <c r="H43" s="36">
-        <v>0</v>
-      </c>
-      <c r="I43" s="36">
-        <v>0</v>
-      </c>
-      <c r="J43" s="36">
-        <v>0</v>
-      </c>
-      <c r="K43" s="36">
-        <v>0</v>
-      </c>
-      <c r="L43" s="36">
+      <c r="H43" s="30">
+        <v>0</v>
+      </c>
+      <c r="I43" s="30">
+        <v>0</v>
+      </c>
+      <c r="J43" s="30">
+        <v>0</v>
+      </c>
+      <c r="K43" s="30">
+        <v>0</v>
+      </c>
+      <c r="L43" s="30">
         <v>0</v>
       </c>
       <c r="W43">
         <v>2025</v>
       </c>
       <c r="X43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y43" t="s">
         <v>112</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>113</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>114</v>
       </c>
       <c r="AA43">
         <v>60</v>
@@ -6464,7 +6457,7 @@
         <v>2025</v>
       </c>
       <c r="AE43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF43">
         <v>24</v>
@@ -6473,51 +6466,51 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B44" s="35">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>2026</v>
       </c>
-      <c r="C44" s="38">
+      <c r="C44" s="32">
         <v>1.728</v>
       </c>
-      <c r="D44" s="38">
+      <c r="D44" s="32">
         <v>2.9076874424128798</v>
       </c>
-      <c r="E44" s="38">
+      <c r="E44" s="32">
         <v>3.3773755439870898</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="32">
         <v>3.4513347524026798</v>
       </c>
-      <c r="G44" s="38">
+      <c r="G44" s="32">
         <v>3.4558905441882199</v>
       </c>
-      <c r="H44" s="38">
+      <c r="H44" s="32">
         <v>3.4559990093321602</v>
       </c>
-      <c r="I44" s="36">
-        <v>0</v>
-      </c>
-      <c r="J44" s="36">
-        <v>0</v>
-      </c>
-      <c r="K44" s="36">
-        <v>0</v>
-      </c>
-      <c r="L44" s="36">
+      <c r="I44" s="30">
+        <v>0</v>
+      </c>
+      <c r="J44" s="30">
+        <v>0</v>
+      </c>
+      <c r="K44" s="30">
+        <v>0</v>
+      </c>
+      <c r="L44" s="30">
         <v>0</v>
       </c>
       <c r="W44">
         <v>2025</v>
       </c>
       <c r="X44" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z44" t="s">
         <v>115</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>116</v>
       </c>
       <c r="AA44">
         <v>50</v>
@@ -6529,7 +6522,7 @@
         <v>2025</v>
       </c>
       <c r="AE44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF44">
         <v>16</v>
@@ -6538,51 +6531,51 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B45" s="35">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>2027</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="32">
         <v>0.54831255758711495</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="32">
         <v>1.728</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="32">
         <v>2.9076874424128798</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="32">
         <v>3.3773755439870898</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45" s="32">
         <v>3.4513347524026798</v>
       </c>
-      <c r="H45" s="38">
+      <c r="H45" s="32">
         <v>3.4558905441882199</v>
       </c>
-      <c r="I45" s="38">
+      <c r="I45" s="32">
         <v>3.4559990093321602</v>
       </c>
-      <c r="J45" s="36">
-        <v>0</v>
-      </c>
-      <c r="K45" s="36">
-        <v>0</v>
-      </c>
-      <c r="L45" s="36">
+      <c r="J45" s="30">
+        <v>0</v>
+      </c>
+      <c r="K45" s="30">
+        <v>0</v>
+      </c>
+      <c r="L45" s="30">
         <v>0</v>
       </c>
       <c r="W45">
         <v>2025</v>
       </c>
       <c r="X45" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z45" t="s">
         <v>117</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>118</v>
       </c>
       <c r="AA45">
         <v>19.5</v>
@@ -6594,7 +6587,7 @@
         <v>2025</v>
       </c>
       <c r="AE45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -6603,51 +6596,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B46" s="35">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B46">
         <v>2028</v>
       </c>
-      <c r="C46" s="38">
+      <c r="C46" s="32">
         <v>7.8624456012907296E-2</v>
       </c>
-      <c r="D46" s="38">
+      <c r="D46" s="32">
         <v>0.54831255758711495</v>
       </c>
-      <c r="E46" s="38">
+      <c r="E46" s="32">
         <v>1.728</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="32">
         <v>2.9076874424128798</v>
       </c>
-      <c r="G46" s="38">
+      <c r="G46" s="32">
         <v>3.3773755439870898</v>
       </c>
-      <c r="H46" s="38">
+      <c r="H46" s="32">
         <v>3.4513347524026798</v>
       </c>
-      <c r="I46" s="38">
+      <c r="I46" s="32">
         <v>3.4558905441882199</v>
       </c>
-      <c r="J46" s="38">
+      <c r="J46" s="32">
         <v>3.4559990093321602</v>
       </c>
-      <c r="K46" s="36">
-        <v>0</v>
-      </c>
-      <c r="L46" s="36">
+      <c r="K46" s="30">
+        <v>0</v>
+      </c>
+      <c r="L46" s="30">
         <v>0</v>
       </c>
       <c r="W46">
         <v>2025</v>
       </c>
       <c r="X46" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z46" t="s">
         <v>119</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>120</v>
       </c>
       <c r="AA46">
         <v>24</v>
@@ -6659,7 +6652,7 @@
         <v>2025</v>
       </c>
       <c r="AE46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF46">
         <v>20</v>
@@ -6668,51 +6661,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B47" s="35">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B47">
         <v>2029</v>
       </c>
-      <c r="C47" s="38">
+      <c r="C47" s="32">
         <v>4.6652475973135996E-3</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="32">
         <v>7.8624456012907296E-2</v>
       </c>
-      <c r="E47" s="38">
+      <c r="E47" s="32">
         <v>0.54831255758711495</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="32">
         <v>1.728</v>
       </c>
-      <c r="G47" s="38">
+      <c r="G47" s="32">
         <v>2.9076874424128798</v>
       </c>
-      <c r="H47" s="38">
+      <c r="H47" s="32">
         <v>3.3773755439870898</v>
       </c>
-      <c r="I47" s="38">
+      <c r="I47" s="32">
         <v>3.4513347524026798</v>
       </c>
-      <c r="J47" s="38">
+      <c r="J47" s="32">
         <v>3.4558905441882199</v>
       </c>
-      <c r="K47" s="38">
+      <c r="K47" s="32">
         <v>3.4559990093321602</v>
       </c>
-      <c r="L47" s="36">
+      <c r="L47" s="30">
         <v>0</v>
       </c>
       <c r="W47">
         <v>2025</v>
       </c>
       <c r="X47" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z47" t="s">
         <v>121</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>122</v>
       </c>
       <c r="AA47">
         <v>16</v>
@@ -6724,7 +6717,7 @@
         <v>2025</v>
       </c>
       <c r="AE47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF47">
         <v>30.4</v>
@@ -6733,35 +6726,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B48" s="35">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B48">
         <v>2030</v>
       </c>
-      <c r="C48" s="38">
+      <c r="C48" s="32">
         <v>1.09455811775262E-4</v>
       </c>
-      <c r="D48" s="38">
+      <c r="D48" s="32">
         <v>4.6652475973135996E-3</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E48" s="32">
         <v>7.8624456012907296E-2</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="32">
         <v>0.54831255758711495</v>
       </c>
-      <c r="G48" s="38">
+      <c r="G48" s="32">
         <v>1.728</v>
       </c>
-      <c r="H48" s="38">
+      <c r="H48" s="32">
         <v>2.9076874424128798</v>
       </c>
-      <c r="I48" s="38">
+      <c r="I48" s="32">
         <v>3.3773755439870898</v>
       </c>
-      <c r="J48" s="38">
+      <c r="J48" s="32">
         <v>3.4513347524026798</v>
       </c>
-      <c r="K48" s="38">
+      <c r="K48" s="32">
         <v>3.4558905441882199</v>
       </c>
       <c r="L48">
@@ -6771,13 +6764,13 @@
         <v>2025</v>
       </c>
       <c r="X48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA48">
         <v>9.6</v>
@@ -6789,7 +6782,7 @@
         <v>2026</v>
       </c>
       <c r="AE48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -6798,18 +6791,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W49">
         <v>2025</v>
       </c>
       <c r="X49" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z49" t="s">
         <v>124</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>125</v>
       </c>
       <c r="AA49">
         <v>14.4</v>
@@ -6821,7 +6814,7 @@
         <v>2026</v>
       </c>
       <c r="AE49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF49">
         <v>69.599999999999994</v>
@@ -6830,18 +6823,18 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="50" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W50">
         <v>2025</v>
       </c>
       <c r="X50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA50">
         <v>16</v>
@@ -6853,7 +6846,7 @@
         <v>2026</v>
       </c>
       <c r="AE50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF50">
         <v>19.5</v>
@@ -6862,18 +6855,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W51">
         <v>2025</v>
       </c>
       <c r="X51" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z51" t="s">
         <v>127</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>128</v>
       </c>
       <c r="AA51">
         <v>20</v>
@@ -6885,7 +6878,7 @@
         <v>2026</v>
       </c>
       <c r="AE51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF51">
         <v>60</v>
@@ -6894,18 +6887,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W52">
         <v>2025</v>
       </c>
       <c r="X52" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y52" t="s">
         <v>129</v>
       </c>
-      <c r="Y52" t="s">
-        <v>130</v>
-      </c>
       <c r="Z52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA52">
         <v>10</v>
@@ -6917,7 +6910,7 @@
         <v>2026</v>
       </c>
       <c r="AE52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF52">
         <v>24</v>
@@ -6926,18 +6919,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W53">
         <v>2026</v>
       </c>
       <c r="X53" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y53" t="s">
         <v>112</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>113</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>114</v>
       </c>
       <c r="AA53">
         <v>60</v>
@@ -6949,7 +6942,7 @@
         <v>2026</v>
       </c>
       <c r="AE53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF53">
         <v>16</v>
@@ -6958,18 +6951,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W54">
         <v>2026</v>
       </c>
       <c r="X54" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z54" t="s">
         <v>115</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>116</v>
       </c>
       <c r="AA54">
         <v>50</v>
@@ -6981,7 +6974,7 @@
         <v>2026</v>
       </c>
       <c r="AE54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -6990,18 +6983,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W55">
         <v>2026</v>
       </c>
       <c r="X55" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z55" t="s">
         <v>117</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>118</v>
       </c>
       <c r="AA55">
         <v>19.5</v>
@@ -7013,7 +7006,7 @@
         <v>2026</v>
       </c>
       <c r="AE55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF55">
         <v>20</v>
@@ -7022,18 +7015,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W56">
         <v>2026</v>
       </c>
       <c r="X56" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z56" t="s">
         <v>119</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>120</v>
       </c>
       <c r="AA56">
         <v>24</v>
@@ -7045,7 +7038,7 @@
         <v>2026</v>
       </c>
       <c r="AE56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF56">
         <v>30.4</v>
@@ -7054,18 +7047,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W57">
         <v>2026</v>
       </c>
       <c r="X57" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z57" t="s">
         <v>121</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>122</v>
       </c>
       <c r="AA57">
         <v>16</v>
@@ -7077,7 +7070,7 @@
         <v>2027</v>
       </c>
       <c r="AE57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -7086,18 +7079,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="58" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W58">
         <v>2026</v>
       </c>
       <c r="X58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA58">
         <v>9.6</v>
@@ -7109,7 +7102,7 @@
         <v>2027</v>
       </c>
       <c r="AE58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF58">
         <v>69.599999999999994</v>
@@ -7118,18 +7111,18 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="59" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="59" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W59">
         <v>2026</v>
       </c>
       <c r="X59" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z59" t="s">
         <v>124</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>125</v>
       </c>
       <c r="AA59">
         <v>14.4</v>
@@ -7141,7 +7134,7 @@
         <v>2027</v>
       </c>
       <c r="AE59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF59">
         <v>19.5</v>
@@ -7150,18 +7143,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="60" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W60">
         <v>2026</v>
       </c>
       <c r="X60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA60">
         <v>16</v>
@@ -7173,7 +7166,7 @@
         <v>2027</v>
       </c>
       <c r="AE60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF60">
         <v>60</v>
@@ -7182,18 +7175,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="61" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W61">
         <v>2026</v>
       </c>
       <c r="X61" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z61" t="s">
         <v>127</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>128</v>
       </c>
       <c r="AA61">
         <v>20</v>
@@ -7205,7 +7198,7 @@
         <v>2027</v>
       </c>
       <c r="AE61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF61">
         <v>24</v>
@@ -7214,18 +7207,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="62" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W62">
         <v>2026</v>
       </c>
       <c r="X62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y62" t="s">
         <v>129</v>
       </c>
-      <c r="Y62" t="s">
-        <v>130</v>
-      </c>
       <c r="Z62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA62">
         <v>10</v>
@@ -7237,7 +7230,7 @@
         <v>2027</v>
       </c>
       <c r="AE62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF62">
         <v>16</v>
@@ -7246,18 +7239,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="63" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W63">
         <v>2027</v>
       </c>
       <c r="X63" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y63" t="s">
         <v>112</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>113</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>114</v>
       </c>
       <c r="AA63">
         <v>60</v>
@@ -7269,7 +7262,7 @@
         <v>2027</v>
       </c>
       <c r="AE63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -7278,18 +7271,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="64" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W64">
         <v>2027</v>
       </c>
       <c r="X64" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z64" t="s">
         <v>115</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>116</v>
       </c>
       <c r="AA64">
         <v>50</v>
@@ -7301,7 +7294,7 @@
         <v>2027</v>
       </c>
       <c r="AE64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF64">
         <v>20</v>
@@ -7310,18 +7303,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="65" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W65">
         <v>2027</v>
       </c>
       <c r="X65" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z65" t="s">
         <v>117</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>118</v>
       </c>
       <c r="AA65">
         <v>19.5</v>
@@ -7333,7 +7326,7 @@
         <v>2027</v>
       </c>
       <c r="AE65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF65">
         <v>30.4</v>
@@ -7342,18 +7335,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="66" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W66">
         <v>2027</v>
       </c>
       <c r="X66" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z66" t="s">
         <v>119</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>120</v>
       </c>
       <c r="AA66">
         <v>24</v>
@@ -7365,7 +7358,7 @@
         <v>2028</v>
       </c>
       <c r="AE66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -7374,18 +7367,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="67" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W67">
         <v>2027</v>
       </c>
       <c r="X67" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z67" t="s">
         <v>121</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>122</v>
       </c>
       <c r="AA67">
         <v>16</v>
@@ -7397,7 +7390,7 @@
         <v>2028</v>
       </c>
       <c r="AE67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF67">
         <v>69.599999999999994</v>
@@ -7406,18 +7399,18 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="68" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="68" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W68">
         <v>2027</v>
       </c>
       <c r="X68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA68">
         <v>9.6</v>
@@ -7429,7 +7422,7 @@
         <v>2028</v>
       </c>
       <c r="AE68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF68">
         <v>19.5</v>
@@ -7438,18 +7431,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="69" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W69">
         <v>2027</v>
       </c>
       <c r="X69" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z69" t="s">
         <v>124</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>125</v>
       </c>
       <c r="AA69">
         <v>14.4</v>
@@ -7461,7 +7454,7 @@
         <v>2028</v>
       </c>
       <c r="AE69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF69">
         <v>60</v>
@@ -7470,18 +7463,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="70" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W70">
         <v>2027</v>
       </c>
       <c r="X70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA70">
         <v>16</v>
@@ -7493,7 +7486,7 @@
         <v>2028</v>
       </c>
       <c r="AE70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF70">
         <v>24</v>
@@ -7502,18 +7495,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="71" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W71">
         <v>2027</v>
       </c>
       <c r="X71" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z71" t="s">
         <v>127</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>128</v>
       </c>
       <c r="AA71">
         <v>20</v>
@@ -7525,7 +7518,7 @@
         <v>2028</v>
       </c>
       <c r="AE71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF71">
         <v>16</v>
@@ -7534,18 +7527,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="72" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W72">
         <v>2027</v>
       </c>
       <c r="X72" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y72" t="s">
         <v>129</v>
       </c>
-      <c r="Y72" t="s">
-        <v>130</v>
-      </c>
       <c r="Z72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA72">
         <v>10</v>
@@ -7557,7 +7550,7 @@
         <v>2028</v>
       </c>
       <c r="AE72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -7566,18 +7559,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="73" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W73">
         <v>2028</v>
       </c>
       <c r="X73" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y73" t="s">
         <v>112</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>113</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>114</v>
       </c>
       <c r="AA73">
         <v>60</v>
@@ -7589,7 +7582,7 @@
         <v>2028</v>
       </c>
       <c r="AE73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF73">
         <v>20</v>
@@ -7598,18 +7591,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="74" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W74">
         <v>2028</v>
       </c>
       <c r="X74" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z74" t="s">
         <v>115</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>116</v>
       </c>
       <c r="AA74">
         <v>50</v>
@@ -7621,7 +7614,7 @@
         <v>2028</v>
       </c>
       <c r="AE74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF74">
         <v>30.4</v>
@@ -7630,18 +7623,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="75" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W75">
         <v>2028</v>
       </c>
       <c r="X75" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z75" t="s">
         <v>117</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>118</v>
       </c>
       <c r="AA75">
         <v>19.5</v>
@@ -7653,7 +7646,7 @@
         <v>2029</v>
       </c>
       <c r="AE75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7662,18 +7655,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="76" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W76">
         <v>2028</v>
       </c>
       <c r="X76" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z76" t="s">
         <v>119</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>120</v>
       </c>
       <c r="AA76">
         <v>24</v>
@@ -7685,7 +7678,7 @@
         <v>2029</v>
       </c>
       <c r="AE76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF76">
         <v>69.599999999999994</v>
@@ -7694,18 +7687,18 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="77" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="77" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W77">
         <v>2028</v>
       </c>
       <c r="X77" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z77" t="s">
         <v>121</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>122</v>
       </c>
       <c r="AA77">
         <v>16</v>
@@ -7717,7 +7710,7 @@
         <v>2029</v>
       </c>
       <c r="AE77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF77">
         <v>19.5</v>
@@ -7726,18 +7719,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="78" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W78">
         <v>2028</v>
       </c>
       <c r="X78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA78">
         <v>9.6</v>
@@ -7749,7 +7742,7 @@
         <v>2029</v>
       </c>
       <c r="AE78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF78">
         <v>60</v>
@@ -7758,18 +7751,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="79" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W79">
         <v>2028</v>
       </c>
       <c r="X79" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z79" t="s">
         <v>124</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>125</v>
       </c>
       <c r="AA79">
         <v>14.4</v>
@@ -7781,7 +7774,7 @@
         <v>2029</v>
       </c>
       <c r="AE79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF79">
         <v>24</v>
@@ -7790,18 +7783,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="80" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W80">
         <v>2028</v>
       </c>
       <c r="X80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA80">
         <v>16</v>
@@ -7813,7 +7806,7 @@
         <v>2029</v>
       </c>
       <c r="AE80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF80">
         <v>16</v>
@@ -7822,18 +7815,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="81" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W81">
         <v>2028</v>
       </c>
       <c r="X81" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z81" t="s">
         <v>127</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>128</v>
       </c>
       <c r="AA81">
         <v>20</v>
@@ -7845,7 +7838,7 @@
         <v>2029</v>
       </c>
       <c r="AE81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7854,18 +7847,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="82" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W82">
         <v>2028</v>
       </c>
       <c r="X82" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y82" t="s">
         <v>129</v>
       </c>
-      <c r="Y82" t="s">
-        <v>130</v>
-      </c>
       <c r="Z82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA82">
         <v>10</v>
@@ -7877,7 +7870,7 @@
         <v>2029</v>
       </c>
       <c r="AE82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF82">
         <v>20</v>
@@ -7886,18 +7879,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W83">
         <v>2029</v>
       </c>
       <c r="X83" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y83" t="s">
         <v>112</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>113</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>114</v>
       </c>
       <c r="AA83">
         <v>60</v>
@@ -7909,7 +7902,7 @@
         <v>2029</v>
       </c>
       <c r="AE83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF83">
         <v>30.4</v>
@@ -7918,18 +7911,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="84" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W84">
         <v>2029</v>
       </c>
       <c r="X84" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z84" t="s">
         <v>115</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>116</v>
       </c>
       <c r="AA84">
         <v>50</v>
@@ -7941,7 +7934,7 @@
         <v>2030</v>
       </c>
       <c r="AE84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7950,18 +7943,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="85" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W85">
         <v>2029</v>
       </c>
       <c r="X85" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z85" t="s">
         <v>117</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>118</v>
       </c>
       <c r="AA85">
         <v>19.5</v>
@@ -7973,7 +7966,7 @@
         <v>2030</v>
       </c>
       <c r="AE85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF85">
         <v>69.599999999999994</v>
@@ -7982,18 +7975,18 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="86" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="86" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W86">
         <v>2029</v>
       </c>
       <c r="X86" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z86" t="s">
         <v>119</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>120</v>
       </c>
       <c r="AA86">
         <v>24</v>
@@ -8005,7 +7998,7 @@
         <v>2030</v>
       </c>
       <c r="AE86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF86">
         <v>19.5</v>
@@ -8014,18 +8007,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="87" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W87">
         <v>2029</v>
       </c>
       <c r="X87" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z87" t="s">
         <v>121</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>122</v>
       </c>
       <c r="AA87">
         <v>16</v>
@@ -8037,7 +8030,7 @@
         <v>2030</v>
       </c>
       <c r="AE87" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF87">
         <v>60</v>
@@ -8046,18 +8039,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="88" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W88">
         <v>2029</v>
       </c>
       <c r="X88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA88">
         <v>9.6</v>
@@ -8069,7 +8062,7 @@
         <v>2030</v>
       </c>
       <c r="AE88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF88">
         <v>24</v>
@@ -8078,18 +8071,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="89" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W89">
         <v>2029</v>
       </c>
       <c r="X89" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z89" t="s">
         <v>124</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z89" t="s">
-        <v>125</v>
       </c>
       <c r="AA89">
         <v>14.4</v>
@@ -8101,7 +8094,7 @@
         <v>2030</v>
       </c>
       <c r="AE89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF89">
         <v>16</v>
@@ -8110,18 +8103,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="90" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W90">
         <v>2029</v>
       </c>
       <c r="X90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA90">
         <v>16</v>
@@ -8133,7 +8126,7 @@
         <v>2030</v>
       </c>
       <c r="AE90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8142,18 +8135,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="91" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W91">
         <v>2029</v>
       </c>
       <c r="X91" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z91" t="s">
         <v>127</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z91" t="s">
-        <v>128</v>
       </c>
       <c r="AA91">
         <v>20</v>
@@ -8165,7 +8158,7 @@
         <v>2030</v>
       </c>
       <c r="AE91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF91">
         <v>20</v>
@@ -8174,18 +8167,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="92" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W92">
         <v>2029</v>
       </c>
       <c r="X92" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y92" t="s">
         <v>129</v>
       </c>
-      <c r="Y92" t="s">
-        <v>130</v>
-      </c>
       <c r="Z92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA92">
         <v>10</v>
@@ -8197,7 +8190,7 @@
         <v>2030</v>
       </c>
       <c r="AE92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF92">
         <v>30.4</v>
@@ -8206,18 +8199,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="93" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W93">
         <v>2030</v>
       </c>
       <c r="X93" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y93" t="s">
         <v>112</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>113</v>
-      </c>
-      <c r="Z93" t="s">
-        <v>114</v>
       </c>
       <c r="AA93">
         <v>60</v>
@@ -8226,18 +8219,18 @@
         <v>12.205439999999999</v>
       </c>
     </row>
-    <row r="94" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="94" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W94">
         <v>2030</v>
       </c>
       <c r="X94" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z94" t="s">
         <v>115</v>
-      </c>
-      <c r="Y94" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>116</v>
       </c>
       <c r="AA94">
         <v>50</v>
@@ -8246,18 +8239,18 @@
         <v>10.171200000000001</v>
       </c>
     </row>
-    <row r="95" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="95" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W95">
         <v>2030</v>
       </c>
       <c r="X95" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z95" t="s">
         <v>117</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>118</v>
       </c>
       <c r="AA95">
         <v>19.5</v>
@@ -8266,18 +8259,18 @@
         <v>3.6972</v>
       </c>
     </row>
-    <row r="96" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="96" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W96">
         <v>2030</v>
       </c>
       <c r="X96" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z96" t="s">
         <v>119</v>
-      </c>
-      <c r="Y96" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z96" t="s">
-        <v>120</v>
       </c>
       <c r="AA96">
         <v>24</v>
@@ -8286,18 +8279,18 @@
         <v>5.5296000000000003</v>
       </c>
     </row>
-    <row r="97" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="97" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W97">
         <v>2030</v>
       </c>
       <c r="X97" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z97" t="s">
         <v>121</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z97" t="s">
-        <v>122</v>
       </c>
       <c r="AA97">
         <v>16</v>
@@ -8306,18 +8299,18 @@
         <v>3.456</v>
       </c>
     </row>
-    <row r="98" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="98" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W98">
         <v>2030</v>
       </c>
       <c r="X98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y98" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA98">
         <v>9.6</v>
@@ -8326,18 +8319,18 @@
         <v>2.21184</v>
       </c>
     </row>
-    <row r="99" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="99" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W99">
         <v>2030</v>
       </c>
       <c r="X99" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z99" t="s">
         <v>124</v>
-      </c>
-      <c r="Y99" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z99" t="s">
-        <v>125</v>
       </c>
       <c r="AA99">
         <v>14.4</v>
@@ -8346,18 +8339,18 @@
         <v>3.1103999999999998</v>
       </c>
     </row>
-    <row r="100" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="100" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W100">
         <v>2030</v>
       </c>
       <c r="X100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z100" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA100">
         <v>16</v>
@@ -8366,18 +8359,18 @@
         <v>3.456</v>
       </c>
     </row>
-    <row r="101" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="101" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W101">
         <v>2030</v>
       </c>
       <c r="X101" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z101" t="s">
         <v>127</v>
-      </c>
-      <c r="Y101" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z101" t="s">
-        <v>128</v>
       </c>
       <c r="AA101">
         <v>20</v>
@@ -8386,18 +8379,18 @@
         <v>4.0684800000000001</v>
       </c>
     </row>
-    <row r="102" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="102" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W102">
         <v>2030</v>
       </c>
       <c r="X102" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y102" t="s">
         <v>129</v>
       </c>
-      <c r="Y102" t="s">
-        <v>130</v>
-      </c>
       <c r="Z102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA102">
         <v>10</v>
@@ -8419,27 +8412,27 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2">
         <v>0.48</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -8448,27 +8441,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
-    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100806C55B750152A459818B636E97A41C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="74fd9cb75cef04cf26a1ff9ddef01b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xmlns:ns3="145cc194-9bea-4db6-b116-a042a4529fcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afbcbfdd38894bc2ff0644b00c8ec680" ns2:_="" ns3:_="">
     <xsd:import namespace="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
@@ -8731,32 +8703,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
+    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D60021C7-CA75-4673-96EA-55284BF81134}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8773,4 +8741,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClOrfani\PycharmProjects\aiphoria-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClOrfani\PycharmProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76073B73-FDC4-49AD-880F-B95954A7776D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5DA656-9256-4F5A-A4DB-46579F5511BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Carbon fraction (will be moved)" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flows!$B$3:$M$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flows!$B$3:$M$89</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,59 +45,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Cleo Orfanidou</author>
     <author>tc={1B6F1B95-29AC-4426-A9A6-A75A9B9B488B}</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{4F87BADA-B913-41B7-B317-C704547E4CF7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cleo Orfanidou:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-type</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{432842A1-CFD3-49BE-B074-C4172C77AFF2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cleo Orfanidou:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-dev</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{1B6F1B95-29AC-4426-A9A6-A75A9B9B488B}">
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{1B6F1B95-29AC-4426-A9A6-A75A9B9B488B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -128,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="168">
   <si>
     <t>Years</t>
   </si>
@@ -365,30 +316,6 @@
     <t>2 columns needed for each indicator (value and comment)</t>
   </si>
   <si>
-    <t>Source_process</t>
-  </si>
-  <si>
-    <t>Transformation_Stage</t>
-  </si>
-  <si>
-    <t>Source_process_location</t>
-  </si>
-  <si>
-    <t>Target_process</t>
-  </si>
-  <si>
-    <t>Target_process_location</t>
-  </si>
-  <si>
-    <t>Source _ID</t>
-  </si>
-  <si>
-    <t>Target_ID</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -398,12 +325,6 @@
     <t xml:space="preserve">Conversion_factor_used </t>
   </si>
   <si>
-    <t>Carbon_content_factor</t>
-  </si>
-  <si>
-    <t>Carbon_content_source</t>
-  </si>
-  <si>
     <t>Indicator0</t>
   </si>
   <si>
@@ -428,9 +349,6 @@
     <t>Furniture</t>
   </si>
   <si>
-    <t>https://excalidraw.com/#json=XTpmhzuJw-3ozVbASdSZz,QuLhsga6HJSHN0nM7kMAMA</t>
-  </si>
-  <si>
     <t>Residues</t>
   </si>
   <si>
@@ -579,9 +497,6 @@
   </si>
   <si>
     <t>SWE Mm3 OC</t>
-  </si>
-  <si>
-    <t>SWE Mm3 sC</t>
   </si>
   <si>
     <t xml:space="preserve">Only for Furniture </t>
@@ -712,6 +627,75 @@
   <si>
     <t>Mm3 SWE</t>
   </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://excalidraw.com/#json=acMq06Ek074LvgJQcBgt-,_z-k-OWtxYKdxCtl_tJVQg </t>
+  </si>
+  <si>
+    <t>Source_process*</t>
+  </si>
+  <si>
+    <t>Source_process_location*</t>
+  </si>
+  <si>
+    <t>Target_process*</t>
+  </si>
+  <si>
+    <t>Target_process_location*</t>
+  </si>
+  <si>
+    <t>Source _ID*</t>
+  </si>
+  <si>
+    <t>Target_ID*</t>
+  </si>
+  <si>
+    <t>Value*</t>
+  </si>
+  <si>
+    <t>Unit*</t>
+  </si>
+  <si>
+    <t>Year*</t>
+  </si>
+  <si>
+    <t>Carbon_content_conversion*</t>
+  </si>
+  <si>
+    <t>Carbon_content_conversion_source</t>
+  </si>
+  <si>
+    <t>SWE Mm3 SC</t>
+  </si>
 </sst>
 </file>
 
@@ -722,7 +706,7 @@
     <numFmt numFmtId="165" formatCode="0.0000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,19 +763,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -880,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -953,6 +924,15 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -990,23 +970,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104028</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>496232</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>94502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1076138</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>122408</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19236</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>122678</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Graphic 3">
+        <xdr:cNvPr id="3" name="Graphic 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{186AA4F2-8439-0B6B-4F97-D26DA395FC6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0ED2165-3AD5-0D4D-BE2D-6B469A8BFDD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1028,8 +1008,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9606616" y="4874560"/>
-          <a:ext cx="7766050" cy="2606938"/>
+          <a:off x="4720850" y="4767355"/>
+          <a:ext cx="9585886" cy="2893707"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1366,171 +1346,171 @@
       <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="37.81640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="23" customWidth="1"/>
     <col min="3" max="3" width="29" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="21"/>
+    <col min="4" max="4" width="69.54296875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="36"/>
-    </row>
-    <row r="2" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="39"/>
+    </row>
+    <row r="2" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="203.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="35"/>
-    </row>
-    <row r="4" spans="1:5" s="22" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="38"/>
+    </row>
+    <row r="4" spans="1:5" s="22" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="38"/>
-    </row>
-    <row r="5" spans="1:5" s="22" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="1:5" s="22" customFormat="1" ht="96.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="38"/>
-    </row>
-    <row r="6" spans="1:5" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="34"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="37"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="34"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="37"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="40"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="37"/>
-    </row>
-    <row r="11" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="40"/>
+    </row>
+    <row r="11" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="34"/>
-    </row>
-    <row r="12" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="34"/>
-    </row>
-    <row r="13" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="37"/>
+    </row>
+    <row r="13" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="34"/>
+        <v>137</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1555,31 +1535,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0D592-75C1-4AD1-84F0-2AAE25CA0097}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" customWidth="1"/>
+    <col min="13" max="13" width="9.90625" customWidth="1"/>
+    <col min="14" max="14" width="13.36328125" customWidth="1"/>
+    <col min="15" max="15" width="17.453125" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" customWidth="1"/>
+    <col min="17" max="17" width="13.7265625" customWidth="1"/>
+    <col min="18" max="18" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -1606,15 +1588,21 @@
       <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="P1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1625,7 +1613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1651,69 +1639,69 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:18" s="36" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D4" t="str">
         <f>_xlfn.CONCAT(B4,":",C4)</f>
@@ -1726,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1739,18 +1727,18 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="R4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ref="D5:D12" si="0">_xlfn.CONCAT(B5,":",C5)</f>
@@ -1763,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1776,31 +1764,31 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="R5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>Residues:FI</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1812,18 +1800,18 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="R6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ref="D7" si="1">_xlfn.CONCAT(B7,":",C7)</f>
@@ -1836,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1848,31 +1836,31 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="R7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>Construction:FI</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1884,31 +1872,31 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="R8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>Furniture:FI</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1920,15 +1908,15 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="R9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1944,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1956,15 +1944,15 @@
         <v>0.81899999999999995</v>
       </c>
       <c r="R10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1980,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1992,31 +1980,31 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="R11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>Incineration:FI</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2028,9 +2016,10 @@
         <v>0.48299999999999998</v>
       </c>
       <c r="R12" t="s">
-        <v>106</v>
-      </c>
-    </row>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2041,48 +2030,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B692AEE8-68EE-4B81-A49D-50BF066DFFE7}">
-  <dimension ref="A1:U93"/>
+  <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:K25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="40.85546875" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.54296875" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" customWidth="1"/>
+    <col min="13" max="13" width="40.81640625" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
@@ -2129,7 +2122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -2158,144 +2151,144 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="25" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="M3" s="25" t="s">
         <v>27</v>
       </c>
       <c r="N3" s="26" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="S3" s="28" t="s">
         <v>22</v>
       </c>
       <c r="T3" s="27" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="U3" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C4" t="str">
         <f>+_xlfn.XLOOKUP(H4,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Source</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F4" t="str">
         <f>+_xlfn.XLOOKUP(I4,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H4" s="4" t="str">
-        <f t="shared" ref="H4:H25" si="0">_xlfn.CONCAT(B4,":",D4)</f>
+        <f t="shared" ref="H4:H23" si="0">_xlfn.CONCAT(B4,":",D4)</f>
         <v>Industrial_roundwood:FI</v>
       </c>
       <c r="I4" s="4" t="str">
-        <f t="shared" ref="I4:I25" si="1">_xlfn.CONCAT(E4,":",G4)</f>
+        <f t="shared" ref="I4:I23" si="1">_xlfn.CONCAT(E4,":",G4)</f>
         <v>Sawmilling:FI</v>
       </c>
       <c r="J4">
         <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L4">
         <v>2021</v>
       </c>
       <c r="N4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P4">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C5" t="str">
         <f>+_xlfn.XLOOKUP(H5,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F5" t="str">
         <f>+_xlfn.XLOOKUP(I5,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2309,45 +2302,45 @@
         <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L5">
         <v>2021</v>
       </c>
       <c r="N5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P5">
         <f>0.4238*'Carbon fraction (will be moved)'!C2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C6" t="str">
         <f>+_xlfn.XLOOKUP(H6,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F6" t="str">
         <f>+_xlfn.XLOOKUP(I6,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>by_prod</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2361,45 +2354,45 @@
         <v>19.5</v>
       </c>
       <c r="K6" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L6">
         <v>2021</v>
       </c>
       <c r="N6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P6">
         <f>0.395*'Carbon fraction (will be moved)'!C2</f>
         <v>0.18959999999999999</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C7" t="str">
         <f>+_xlfn.XLOOKUP(H7,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F7" t="str">
         <f>+_xlfn.XLOOKUP(I7,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2419,39 +2412,39 @@
         <v>2021</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P7">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
       <c r="Q7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C8" t="str">
         <f>+_xlfn.XLOOKUP(H8,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F8" t="str">
         <f>+_xlfn.XLOOKUP(I8,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H8" s="4" t="str">
         <f>_xlfn.CONCAT(B8,":",D8)</f>
@@ -2471,39 +2464,39 @@
         <v>2021</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P8">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C9" t="str">
         <f>+_xlfn.XLOOKUP(H9,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F9" t="str">
         <f>+_xlfn.XLOOKUP(I9,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2523,39 +2516,39 @@
         <v>2021</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P9">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
       <c r="Q9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C10" t="str">
         <f>+_xlfn.XLOOKUP(H10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F10" t="str">
         <f>+_xlfn.XLOOKUP(I10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>EoL</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2575,38 +2568,38 @@
         <v>2021</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P10">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F11" t="str">
         <f>+_xlfn.XLOOKUP(I11,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>EoL</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2626,32 +2619,32 @@
         <v>2021</v>
       </c>
       <c r="N11" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P11">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q11" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C12" t="str">
         <f>+_xlfn.XLOOKUP(H12,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F12" t="str">
         <f>+_xlfn.XLOOKUP(I12,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
@@ -2672,28 +2665,28 @@
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L12">
         <v>2021</v>
       </c>
       <c r="N12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P12">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q12" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C13" t="str">
         <f>+_xlfn.XLOOKUP(H13,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
@@ -2703,13 +2696,13 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2723,210 +2716,298 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L13">
         <v>2021</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P13">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q13" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="N14"/>
-    </row>
-    <row r="15" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="N15"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="str">
+        <f>+_xlfn.XLOOKUP(H14,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>Source</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="str">
+        <f>+_xlfn.XLOOKUP(I14,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>First</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Industrial_roundwood:FI</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Sawmilling:FI</v>
+      </c>
+      <c r="J14">
+        <v>60</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14">
+        <v>2022</v>
+      </c>
+      <c r="N14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14">
+        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.20342399999999999</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="str">
+        <f>+_xlfn.XLOOKUP(H15,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>First</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="str">
+        <f>+_xlfn.XLOOKUP(I15,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>Second</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Sawmilling:FI</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Sawnwood:FI</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15">
+        <v>2022</v>
+      </c>
+      <c r="N15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15">
+        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.20342399999999999</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C16" t="str">
         <f>+_xlfn.XLOOKUP(H16,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>Source</v>
+        <v>First</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F16" t="str">
         <f>+_xlfn.XLOOKUP(I16,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>First</v>
+        <v>by_prod</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Industrial_roundwood:FI</v>
+        <v>Sawmilling:FI</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Sawmilling:FI</v>
+        <v>Residues:FI</v>
       </c>
       <c r="J16">
-        <v>60</v>
+        <v>19.5</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L16">
         <v>2022</v>
       </c>
       <c r="N16" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P16">
-        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
-        <v>0.20342399999999999</v>
+        <f>0.395*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.18959999999999999</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C17" t="str">
         <f>+_xlfn.XLOOKUP(H17,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F17" t="str">
         <f>+_xlfn.XLOOKUP(I17,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>Second</v>
+        <v>VAM</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Sawmilling:FI</v>
+        <v>Sawnwood:FI</v>
       </c>
       <c r="I17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Sawnwood:FI</v>
+        <v>Construction:FI</v>
       </c>
       <c r="J17">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="L17">
         <v>2022</v>
       </c>
       <c r="N17" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P17">
-        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
-        <v>0.20342399999999999</v>
+        <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.23039999999999999</v>
       </c>
       <c r="Q17" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C18" t="str">
         <f>+_xlfn.XLOOKUP(H18,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F18" t="str">
         <f>+_xlfn.XLOOKUP(I18,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>by_prod</v>
+        <v>VAM</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Sawmilling:FI</v>
+        <f>_xlfn.CONCAT(B18,":",D18)</f>
+        <v>Sawnwood:FI</v>
       </c>
       <c r="I18" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Residues:FI</v>
+        <f>_xlfn.CONCAT(E18,":",G18)</f>
+        <v>Furniture:FI</v>
       </c>
       <c r="J18">
-        <v>19.5</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="L18">
         <v>2022</v>
       </c>
       <c r="N18" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P18">
-        <f>0.395*'Carbon fraction (will be moved)'!$C$2</f>
-        <v>0.18959999999999999</v>
+        <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.216</v>
       </c>
       <c r="Q18" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C19" t="str">
         <f>+_xlfn.XLOOKUP(H19,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>Second</v>
+        <v>VAM</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F19" t="str">
         <f>+_xlfn.XLOOKUP(I19,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>VAM</v>
+        <v>First</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Sawnwood:FI</v>
+        <v>Construction:FI</v>
       </c>
       <c r="I19" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Construction:FI</v>
+        <v>Sawmilling:FI</v>
       </c>
       <c r="J19">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K19" t="s">
         <v>14</v>
@@ -2935,47 +3016,47 @@
         <v>2022</v>
       </c>
       <c r="N19" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P19">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
-      <c r="Q19" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C20" t="str">
         <f>+_xlfn.XLOOKUP(H20,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>Second</v>
+        <v>VAM</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F20" t="str">
         <f>+_xlfn.XLOOKUP(I20,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>VAM</v>
+        <v>EoL</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H20" s="4" t="str">
-        <f>_xlfn.CONCAT(B20,":",D20)</f>
-        <v>Sawnwood:FI</v>
+        <f t="shared" ref="H20" si="2">_xlfn.CONCAT(B20,":",D20)</f>
+        <v>Construction:FI</v>
       </c>
       <c r="I20" s="4" t="str">
-        <f>_xlfn.CONCAT(E20,":",G20)</f>
-        <v>Furniture:FI</v>
+        <f t="shared" ref="I20" si="3">_xlfn.CONCAT(E20,":",G20)</f>
+        <v>Incineration:FI</v>
       </c>
       <c r="J20">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K20" t="s">
         <v>14</v>
@@ -2984,47 +3065,46 @@
         <v>2022</v>
       </c>
       <c r="N20" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P20">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
-      <c r="Q20" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="str">
-        <f>+_xlfn.XLOOKUP(H21,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>VAM</v>
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F21" t="str">
         <f>+_xlfn.XLOOKUP(I21,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>First</v>
+        <v>EoL</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Construction:FI</v>
+        <f t="shared" ref="H21" si="4">_xlfn.CONCAT(B21,":",D21)</f>
+        <v>Furniture:FI</v>
       </c>
       <c r="I21" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Sawmilling:FI</v>
+        <f t="shared" ref="I21" si="5">_xlfn.CONCAT(E21,":",G21)</f>
+        <v>Incineration:FI</v>
       </c>
       <c r="J21">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K21" t="s">
         <v>14</v>
@@ -3033,599 +3113,503 @@
         <v>2022</v>
       </c>
       <c r="N21" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P21">
-        <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
-        <v>0.23039999999999999</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+        <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.216</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C22" t="str">
         <f>+_xlfn.XLOOKUP(H22,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>VAM</v>
+        <v>Second</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F22" t="str">
         <f>+_xlfn.XLOOKUP(I22,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>EoL</v>
+        <v>RoW</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="H22" s="4" t="str">
-        <f t="shared" ref="H22" si="2">_xlfn.CONCAT(B22,":",D22)</f>
-        <v>Construction:FI</v>
+        <f t="shared" si="0"/>
+        <v>Sawnwood:FI</v>
       </c>
       <c r="I22" s="4" t="str">
-        <f t="shared" ref="I22" si="3">_xlfn.CONCAT(E22,":",G22)</f>
-        <v>Incineration:FI</v>
+        <f t="shared" si="1"/>
+        <v>Sawnwood:Export</v>
       </c>
       <c r="J22">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="L22">
         <v>2022</v>
       </c>
       <c r="N22" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P22">
-        <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
-        <v>0.216</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.20342399999999999</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
+        <v>74</v>
+      </c>
+      <c r="C23" t="str">
+        <f>+_xlfn.XLOOKUP(H23,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>RoW</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F23" t="str">
         <f>+_xlfn.XLOOKUP(I23,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>EoL</v>
+        <v>Second</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H23" s="4" t="str">
-        <f t="shared" ref="H23" si="4">_xlfn.CONCAT(B23,":",D23)</f>
-        <v>Furniture:FI</v>
+        <f t="shared" si="0"/>
+        <v>Sawnwood:Import</v>
       </c>
       <c r="I23" s="4" t="str">
-        <f t="shared" ref="I23" si="5">_xlfn.CONCAT(E23,":",G23)</f>
-        <v>Incineration:FI</v>
+        <f t="shared" si="1"/>
+        <v>Sawnwood:FI</v>
       </c>
       <c r="J23">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K23" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="L23">
         <v>2022</v>
       </c>
       <c r="N23" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P23">
-        <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
-        <v>0.216</v>
-      </c>
-      <c r="Q23" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="str">
-        <f>+_xlfn.XLOOKUP(H24,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>Second</v>
-      </c>
-      <c r="D24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" t="str">
-        <f>+_xlfn.XLOOKUP(I24,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>RoW</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Sawnwood:FI</v>
-      </c>
-      <c r="I24" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Sawnwood:Export</v>
-      </c>
-      <c r="J24">
-        <v>20</v>
-      </c>
-      <c r="K24" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24">
-        <v>2022</v>
-      </c>
-      <c r="N24" t="s">
-        <v>99</v>
-      </c>
-      <c r="P24">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
-      <c r="Q24" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" t="str">
-        <f>+_xlfn.XLOOKUP(H25,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>RoW</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" t="str">
-        <f>+_xlfn.XLOOKUP(I25,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>Second</v>
-      </c>
-      <c r="G25" t="s">
-        <v>82</v>
-      </c>
-      <c r="H25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Sawnwood:Import</v>
-      </c>
-      <c r="I25" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Sawnwood:FI</v>
-      </c>
-      <c r="J25">
-        <v>10</v>
-      </c>
-      <c r="K25" t="s">
-        <v>156</v>
-      </c>
-      <c r="L25">
-        <v>2022</v>
-      </c>
-      <c r="N25" t="s">
-        <v>99</v>
-      </c>
-      <c r="P25">
-        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
-        <v>0.20342399999999999</v>
-      </c>
-      <c r="Q25" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q23" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O37"/>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
+      <c r="N39"/>
       <c r="O39"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
+      <c r="N40"/>
       <c r="O40"/>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="N41"/>
       <c r="O41"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="N42"/>
       <c r="O42"/>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="N43"/>
       <c r="O43"/>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C44" s="29" t="s">
+        <v>155</v>
+      </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="N44"/>
       <c r="O44"/>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C45" s="9"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="N45"/>
       <c r="O45"/>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="N46"/>
       <c r="O46"/>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="9" t="s">
-        <v>88</v>
-      </c>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="N47"/>
       <c r="O47"/>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="N48"/>
       <c r="O48"/>
     </row>
-    <row r="49" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="N49"/>
       <c r="O49"/>
     </row>
-    <row r="50" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="N50"/>
       <c r="O50"/>
     </row>
-    <row r="51" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="N51"/>
       <c r="O51"/>
     </row>
-    <row r="52" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="N52"/>
       <c r="O52"/>
     </row>
-    <row r="53" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="N53"/>
       <c r="O53"/>
     </row>
-    <row r="54" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="N54"/>
       <c r="O54"/>
     </row>
-    <row r="55" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="N55"/>
       <c r="O55"/>
     </row>
-    <row r="56" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="N56"/>
       <c r="O56"/>
     </row>
-    <row r="57" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="N57"/>
       <c r="O57"/>
     </row>
-    <row r="58" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="N58"/>
       <c r="O58"/>
     </row>
-    <row r="59" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="N59"/>
       <c r="O59"/>
     </row>
-    <row r="60" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="N60"/>
       <c r="O60"/>
     </row>
-    <row r="61" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="N61"/>
       <c r="O61"/>
     </row>
-    <row r="62" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="N62"/>
       <c r="O62"/>
     </row>
-    <row r="63" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="N63"/>
       <c r="O63"/>
     </row>
-    <row r="64" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="N64"/>
       <c r="O64"/>
     </row>
-    <row r="65" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="N65"/>
       <c r="O65"/>
     </row>
-    <row r="66" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="N66"/>
       <c r="O66"/>
     </row>
-    <row r="67" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="N67"/>
       <c r="O67"/>
     </row>
-    <row r="68" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="N68"/>
       <c r="O68"/>
     </row>
-    <row r="69" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="N69"/>
       <c r="O69"/>
     </row>
-    <row r="70" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="N70"/>
       <c r="O70"/>
     </row>
-    <row r="71" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="N71"/>
       <c r="O71"/>
     </row>
-    <row r="72" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="N72"/>
       <c r="O72"/>
     </row>
-    <row r="73" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="N75"/>
       <c r="O75"/>
     </row>
-    <row r="76" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="N76"/>
       <c r="O76"/>
     </row>
-    <row r="77" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="N77"/>
       <c r="O77"/>
     </row>
-    <row r="78" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="N78"/>
       <c r="O78"/>
     </row>
-    <row r="79" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="N79"/>
       <c r="O79"/>
     </row>
-    <row r="80" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="N80"/>
       <c r="O80"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="N81"/>
       <c r="O81"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="N82"/>
       <c r="O82"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="N83"/>
       <c r="O83"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="N84"/>
       <c r="O84"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="N85"/>
       <c r="O85"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
       <c r="N86"/>
       <c r="O86"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
+      <c r="M87" s="4"/>
       <c r="N87"/>
       <c r="O87"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
       <c r="N88"/>
       <c r="O88"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="G89" s="4"/>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="M89" s="4"/>
       <c r="N89"/>
       <c r="O89"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="N90"/>
       <c r="O90"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="N91"/>
       <c r="O91"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="N92"/>
-      <c r="O92"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="N93"/>
-      <c r="O93"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3633,13 +3617,14 @@
     <hyperlink ref="Q4" r:id="rId1" xr:uid="{44BDC3E8-14C2-47A6-9A94-576E28D9D557}"/>
     <hyperlink ref="Q11:Q13" r:id="rId2" display="https://doi.org/10.1016/j.resconrec.2024.107476, assumed average conversion factor 80% soft 20% hard" xr:uid="{09224BB8-3720-400B-909A-BF395F73FAE2}"/>
     <hyperlink ref="Q13" r:id="rId3" xr:uid="{3D605790-367C-4E01-9AE5-AEF809643374}"/>
-    <hyperlink ref="Q23:Q25" r:id="rId4" display="https://doi.org/10.1016/j.resconrec.2024.107476, assumed average conversion factor 80% soft 20% hard" xr:uid="{2CCB2B74-FB50-4507-B000-BC908D2BE0F5}"/>
-    <hyperlink ref="Q16:Q20" r:id="rId5" display="https://doi.org/10.1016/j.resconrec.2024.107476, assumed average conversion factor 80% soft 20% hard" xr:uid="{1319AB96-3E14-46DA-82C5-62302A8D0AD9}"/>
+    <hyperlink ref="Q21:Q23" r:id="rId4" display="https://doi.org/10.1016/j.resconrec.2024.107476, assumed average conversion factor 80% soft 20% hard" xr:uid="{2CCB2B74-FB50-4507-B000-BC908D2BE0F5}"/>
+    <hyperlink ref="Q14:Q18" r:id="rId5" display="https://doi.org/10.1016/j.resconrec.2024.107476, assumed average conversion factor 80% soft 20% hard" xr:uid="{1319AB96-3E14-46DA-82C5-62302A8D0AD9}"/>
+    <hyperlink ref="C44" r:id="rId6" location="json=acMq06Ek074LvgJQcBgt-,_z-k-OWtxYKdxCtl_tJVQg " xr:uid="{E1E4D22F-0745-4815-82DC-5F07D3BD4B83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -3647,34 +3632,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E839B9F-9E6A-42D1-BF39-12023C14C5F8}">
   <dimension ref="A1:AG102"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.5703125" customWidth="1"/>
-    <col min="28" max="28" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" customWidth="1"/>
+    <col min="2" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1796875" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" customWidth="1"/>
+    <col min="16" max="16" width="15.26953125" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.54296875" customWidth="1"/>
+    <col min="28" max="28" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2">
@@ -3708,46 +3693,46 @@
         <v>2030</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="Q2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="S2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="X2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="Y2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="Z2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="AA2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="AB2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="AD2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AE2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="AF2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="AG2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>2021</v>
       </c>
@@ -3782,14 +3767,14 @@
         <v>0</v>
       </c>
       <c r="N3" s="31">
-        <f t="shared" ref="N3:N12" si="0">SUM(C3:L3)</f>
+        <f>SUM(C3:L3)</f>
         <v>4.5864251507765596E-6</v>
       </c>
       <c r="P3">
         <v>16</v>
       </c>
       <c r="Q3" s="31">
-        <f t="shared" ref="Q3:Q12" si="1">P3-N3</f>
+        <f t="shared" ref="Q3:Q12" si="0">P3-N3</f>
         <v>15.999995413574849</v>
       </c>
       <c r="S3" s="31">
@@ -3800,13 +3785,13 @@
         <v>2021</v>
       </c>
       <c r="X3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="Y3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Z3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA3">
         <v>60</v>
@@ -3818,7 +3803,7 @@
         <v>2021</v>
       </c>
       <c r="AE3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -3827,7 +3812,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2022</v>
       </c>
@@ -3862,14 +3847,14 @@
         <v>0</v>
       </c>
       <c r="N4" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N4:N12" si="1">SUM(C4:L4)</f>
         <v>5.0673986932991955E-4</v>
       </c>
       <c r="P4">
         <v>16</v>
       </c>
       <c r="Q4" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15.99949326013067</v>
       </c>
       <c r="S4" s="31">
@@ -3880,13 +3865,13 @@
         <v>2021</v>
       </c>
       <c r="X4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Y4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA4">
         <v>50</v>
@@ -3898,7 +3883,7 @@
         <v>2021</v>
       </c>
       <c r="AE4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF4">
         <v>69.599999999999994</v>
@@ -3907,7 +3892,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2023</v>
       </c>
@@ -3942,14 +3927,14 @@
         <v>0</v>
       </c>
       <c r="N5" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1598368506081621E-2</v>
       </c>
       <c r="P5">
         <v>16</v>
       </c>
       <c r="Q5" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15.978401631493918</v>
       </c>
       <c r="S5" s="31">
@@ -3960,13 +3945,13 @@
         <v>2021</v>
       </c>
       <c r="X5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Y5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AA5">
         <v>19.5</v>
@@ -3978,7 +3963,7 @@
         <v>2021</v>
       </c>
       <c r="AE5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AF5">
         <v>19.5</v>
@@ -3987,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2024</v>
       </c>
@@ -4022,14 +4007,14 @@
         <v>0</v>
       </c>
       <c r="N6" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36400211117086662</v>
       </c>
       <c r="P6">
         <v>16</v>
       </c>
       <c r="Q6" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15.635997888829133</v>
       </c>
       <c r="S6" s="31">
@@ -4040,13 +4025,13 @@
         <v>2021</v>
       </c>
       <c r="X6" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Y6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AA6">
         <v>24</v>
@@ -4058,7 +4043,7 @@
         <v>2021</v>
       </c>
       <c r="AE6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AF6">
         <v>60</v>
@@ -4067,7 +4052,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>2025</v>
       </c>
@@ -4102,14 +4087,14 @@
         <v>0</v>
       </c>
       <c r="N7" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.538484062903307</v>
       </c>
       <c r="P7">
         <v>16</v>
       </c>
       <c r="Q7" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13.461515937096692</v>
       </c>
       <c r="S7" s="31">
@@ -4120,13 +4105,13 @@
         <v>2021</v>
       </c>
       <c r="X7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Y7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AA7">
         <v>16</v>
@@ -4138,7 +4123,7 @@
         <v>2021</v>
       </c>
       <c r="AE7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AF7">
         <v>24</v>
@@ -4147,7 +4132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>2026</v>
       </c>
@@ -4182,14 +4167,14 @@
         <v>0</v>
       </c>
       <c r="N8" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.9999999999999867</v>
       </c>
       <c r="P8">
         <v>16</v>
       </c>
       <c r="Q8" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.0000000000000142</v>
       </c>
       <c r="S8" s="31">
@@ -4200,13 +4185,13 @@
         <v>2021</v>
       </c>
       <c r="X8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z8" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA8">
         <v>9.6</v>
@@ -4218,7 +4203,7 @@
         <v>2021</v>
       </c>
       <c r="AE8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AF8">
         <v>16</v>
@@ -4227,7 +4212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>2027</v>
       </c>
@@ -4262,14 +4247,14 @@
         <v>0</v>
       </c>
       <c r="N9" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.461515937096667</v>
       </c>
       <c r="P9">
         <v>16</v>
       </c>
       <c r="Q9" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5384840629033327</v>
       </c>
       <c r="S9" s="31">
@@ -4280,13 +4265,13 @@
         <v>2021</v>
       </c>
       <c r="X9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA9">
         <v>14.4</v>
@@ -4298,7 +4283,7 @@
         <v>2021</v>
       </c>
       <c r="AE9" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -4307,7 +4292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>2028</v>
       </c>
@@ -4342,14 +4327,14 @@
         <v>0</v>
       </c>
       <c r="N10" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.635997888829108</v>
       </c>
       <c r="P10">
         <v>16</v>
       </c>
       <c r="Q10" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.36400211117089221</v>
       </c>
       <c r="S10" s="31">
@@ -4360,13 +4345,13 @@
         <v>2021</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="Z10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA10">
         <v>16</v>
@@ -4378,7 +4363,7 @@
         <v>2021</v>
       </c>
       <c r="AE10" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AF10">
         <v>20</v>
@@ -4387,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>2029</v>
       </c>
@@ -4422,14 +4407,14 @@
         <v>0</v>
       </c>
       <c r="N11" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.978401631493892</v>
       </c>
       <c r="P11">
         <v>16</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1598368506108301E-2</v>
       </c>
       <c r="S11" s="31">
@@ -4440,13 +4425,13 @@
         <v>2021</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z11" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AA11">
         <v>20</v>
@@ -4458,7 +4443,7 @@
         <v>2021</v>
       </c>
       <c r="AE11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AF11">
         <v>30.4</v>
@@ -4467,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>2030</v>
       </c>
@@ -4502,14 +4487,14 @@
         <v>4.5864251507765596E-6</v>
       </c>
       <c r="N12" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.999493260130643</v>
       </c>
       <c r="P12">
         <v>16</v>
       </c>
       <c r="Q12" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.0673986935656501E-4</v>
       </c>
       <c r="S12" s="31">
@@ -4520,13 +4505,13 @@
         <v>2021</v>
       </c>
       <c r="X12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Z12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA12">
         <v>10</v>
@@ -4538,7 +4523,7 @@
         <v>2022</v>
       </c>
       <c r="AE12" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -4547,21 +4532,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="W13">
         <v>2022</v>
       </c>
       <c r="X13" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="Y13" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Z13" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA13">
         <v>60</v>
@@ -4573,7 +4558,7 @@
         <v>2022</v>
       </c>
       <c r="AE13" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF13">
         <v>69.599999999999994</v>
@@ -4582,7 +4567,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" s="32"/>
       <c r="C14">
         <v>2021</v>
@@ -4618,13 +4603,13 @@
         <v>2022</v>
       </c>
       <c r="X14" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Y14" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA14">
         <v>50</v>
@@ -4636,7 +4621,7 @@
         <v>2022</v>
       </c>
       <c r="AE14" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AF14">
         <v>19.5</v>
@@ -4645,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>2021</v>
       </c>
@@ -4683,13 +4668,13 @@
         <v>2022</v>
       </c>
       <c r="X15" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Y15" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z15" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AA15">
         <v>19.5</v>
@@ -4701,7 +4686,7 @@
         <v>2022</v>
       </c>
       <c r="AE15" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AF15">
         <v>60</v>
@@ -4710,7 +4695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>2022</v>
       </c>
@@ -4748,13 +4733,13 @@
         <v>2022</v>
       </c>
       <c r="X16" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Y16" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z16" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AA16">
         <v>24</v>
@@ -4766,7 +4751,7 @@
         <v>2022</v>
       </c>
       <c r="AE16" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AF16">
         <v>24</v>
@@ -4775,7 +4760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>2023</v>
       </c>
@@ -4813,13 +4798,13 @@
         <v>2022</v>
       </c>
       <c r="X17" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Y17" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z17" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AA17">
         <v>16</v>
@@ -4831,7 +4816,7 @@
         <v>2022</v>
       </c>
       <c r="AE17" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AF17">
         <v>16</v>
@@ -4840,7 +4825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>2024</v>
       </c>
@@ -4878,13 +4863,13 @@
         <v>2022</v>
       </c>
       <c r="X18" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Y18" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z18" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA18">
         <v>9.6</v>
@@ -4896,7 +4881,7 @@
         <v>2022</v>
       </c>
       <c r="AE18" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -4905,7 +4890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>2025</v>
       </c>
@@ -4943,13 +4928,13 @@
         <v>2022</v>
       </c>
       <c r="X19" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="Y19" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z19" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA19">
         <v>14.4</v>
@@ -4961,7 +4946,7 @@
         <v>2022</v>
       </c>
       <c r="AE19" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AF19">
         <v>20</v>
@@ -4970,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>2026</v>
       </c>
@@ -5008,13 +4993,13 @@
         <v>2022</v>
       </c>
       <c r="X20" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Y20" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="Z20" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA20">
         <v>16</v>
@@ -5026,7 +5011,7 @@
         <v>2022</v>
       </c>
       <c r="AE20" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AF20">
         <v>30.4</v>
@@ -5035,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>2027</v>
       </c>
@@ -5073,13 +5058,13 @@
         <v>2022</v>
       </c>
       <c r="X21" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Y21" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z21" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AA21">
         <v>20</v>
@@ -5091,7 +5076,7 @@
         <v>2023</v>
       </c>
       <c r="AE21" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -5100,7 +5085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>2028</v>
       </c>
@@ -5138,13 +5123,13 @@
         <v>2022</v>
       </c>
       <c r="X22" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="Y22" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Z22" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA22">
         <v>10</v>
@@ -5156,7 +5141,7 @@
         <v>2023</v>
       </c>
       <c r="AE22" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF22">
         <v>69.599999999999994</v>
@@ -5165,7 +5150,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>2029</v>
       </c>
@@ -5203,13 +5188,13 @@
         <v>2023</v>
       </c>
       <c r="X23" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="Y23" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Z23" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA23">
         <v>60</v>
@@ -5221,7 +5206,7 @@
         <v>2023</v>
       </c>
       <c r="AE23" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AF23">
         <v>19.5</v>
@@ -5230,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>2030</v>
       </c>
@@ -5268,13 +5253,13 @@
         <v>2023</v>
       </c>
       <c r="X24" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Y24" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z24" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA24">
         <v>50</v>
@@ -5286,7 +5271,7 @@
         <v>2023</v>
       </c>
       <c r="AE24" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AF24">
         <v>60</v>
@@ -5295,21 +5280,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="W25">
         <v>2023</v>
       </c>
       <c r="X25" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Y25" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z25" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AA25">
         <v>19.5</v>
@@ -5321,7 +5306,7 @@
         <v>2023</v>
       </c>
       <c r="AE25" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AF25">
         <v>24</v>
@@ -5330,7 +5315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B26" s="32"/>
       <c r="C26">
         <v>2021</v>
@@ -5366,13 +5351,13 @@
         <v>2023</v>
       </c>
       <c r="X26" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Y26" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z26" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AA26">
         <v>24</v>
@@ -5384,7 +5369,7 @@
         <v>2023</v>
       </c>
       <c r="AE26" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AF26">
         <v>16</v>
@@ -5393,7 +5378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>2021</v>
       </c>
@@ -5431,13 +5416,13 @@
         <v>2023</v>
       </c>
       <c r="X27" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Y27" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z27" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AA27">
         <v>16</v>
@@ -5449,7 +5434,7 @@
         <v>2023</v>
       </c>
       <c r="AE27" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -5458,7 +5443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>2022</v>
       </c>
@@ -5496,13 +5481,13 @@
         <v>2023</v>
       </c>
       <c r="X28" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Y28" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z28" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA28">
         <v>9.6</v>
@@ -5514,7 +5499,7 @@
         <v>2023</v>
       </c>
       <c r="AE28" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AF28">
         <v>20</v>
@@ -5523,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>2023</v>
       </c>
@@ -5561,13 +5546,13 @@
         <v>2023</v>
       </c>
       <c r="X29" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="Y29" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z29" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA29">
         <v>14.4</v>
@@ -5579,7 +5564,7 @@
         <v>2023</v>
       </c>
       <c r="AE29" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AF29">
         <v>30.4</v>
@@ -5588,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>2024</v>
       </c>
@@ -5626,13 +5611,13 @@
         <v>2023</v>
       </c>
       <c r="X30" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Y30" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="Z30" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA30">
         <v>16</v>
@@ -5644,7 +5629,7 @@
         <v>2024</v>
       </c>
       <c r="AE30" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -5653,7 +5638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>2025</v>
       </c>
@@ -5691,13 +5676,13 @@
         <v>2023</v>
       </c>
       <c r="X31" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Y31" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z31" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AA31">
         <v>20</v>
@@ -5709,7 +5694,7 @@
         <v>2024</v>
       </c>
       <c r="AE31" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF31">
         <v>69.599999999999994</v>
@@ -5718,7 +5703,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>2026</v>
       </c>
@@ -5756,13 +5741,13 @@
         <v>2023</v>
       </c>
       <c r="X32" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="Y32" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Z32" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA32">
         <v>10</v>
@@ -5774,7 +5759,7 @@
         <v>2024</v>
       </c>
       <c r="AE32" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AF32">
         <v>19.5</v>
@@ -5783,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>2027</v>
       </c>
@@ -5821,13 +5806,13 @@
         <v>2024</v>
       </c>
       <c r="X33" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="Y33" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Z33" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA33">
         <v>60</v>
@@ -5839,7 +5824,7 @@
         <v>2024</v>
       </c>
       <c r="AE33" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AF33">
         <v>60</v>
@@ -5848,7 +5833,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>2028</v>
       </c>
@@ -5886,13 +5871,13 @@
         <v>2024</v>
       </c>
       <c r="X34" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Y34" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z34" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA34">
         <v>50</v>
@@ -5904,7 +5889,7 @@
         <v>2024</v>
       </c>
       <c r="AE34" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AF34">
         <v>24</v>
@@ -5913,7 +5898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>2029</v>
       </c>
@@ -5951,13 +5936,13 @@
         <v>2024</v>
       </c>
       <c r="X35" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Y35" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z35" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AA35">
         <v>19.5</v>
@@ -5969,7 +5954,7 @@
         <v>2024</v>
       </c>
       <c r="AE35" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AF35">
         <v>16</v>
@@ -5978,7 +5963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>2030</v>
       </c>
@@ -6016,13 +6001,13 @@
         <v>2024</v>
       </c>
       <c r="X36" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Y36" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z36" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AA36">
         <v>24</v>
@@ -6034,7 +6019,7 @@
         <v>2024</v>
       </c>
       <c r="AE36" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -6043,21 +6028,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="W37">
         <v>2024</v>
       </c>
       <c r="X37" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Y37" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z37" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AA37">
         <v>16</v>
@@ -6069,7 +6054,7 @@
         <v>2024</v>
       </c>
       <c r="AE37" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AF37">
         <v>20</v>
@@ -6078,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B38" s="32"/>
       <c r="C38">
         <v>2021</v>
@@ -6114,13 +6099,13 @@
         <v>2024</v>
       </c>
       <c r="X38" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Y38" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z38" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA38">
         <v>9.6</v>
@@ -6132,7 +6117,7 @@
         <v>2024</v>
       </c>
       <c r="AE38" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AF38">
         <v>30.4</v>
@@ -6141,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>2021</v>
       </c>
@@ -6179,13 +6164,13 @@
         <v>2024</v>
       </c>
       <c r="X39" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="Y39" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z39" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA39">
         <v>14.4</v>
@@ -6197,7 +6182,7 @@
         <v>2025</v>
       </c>
       <c r="AE39" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -6206,7 +6191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>2022</v>
       </c>
@@ -6244,13 +6229,13 @@
         <v>2024</v>
       </c>
       <c r="X40" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Y40" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="Z40" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA40">
         <v>16</v>
@@ -6262,7 +6247,7 @@
         <v>2025</v>
       </c>
       <c r="AE40" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF40">
         <v>69.599999999999994</v>
@@ -6271,7 +6256,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>2023</v>
       </c>
@@ -6309,13 +6294,13 @@
         <v>2024</v>
       </c>
       <c r="X41" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Y41" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z41" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AA41">
         <v>20</v>
@@ -6327,7 +6312,7 @@
         <v>2025</v>
       </c>
       <c r="AE41" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AF41">
         <v>19.5</v>
@@ -6336,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>2024</v>
       </c>
@@ -6374,13 +6359,13 @@
         <v>2024</v>
       </c>
       <c r="X42" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="Y42" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Z42" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA42">
         <v>10</v>
@@ -6392,7 +6377,7 @@
         <v>2025</v>
       </c>
       <c r="AE42" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AF42">
         <v>60</v>
@@ -6401,7 +6386,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>2025</v>
       </c>
@@ -6439,13 +6424,13 @@
         <v>2025</v>
       </c>
       <c r="X43" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="Y43" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Z43" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA43">
         <v>60</v>
@@ -6457,7 +6442,7 @@
         <v>2025</v>
       </c>
       <c r="AE43" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AF43">
         <v>24</v>
@@ -6466,7 +6451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>2026</v>
       </c>
@@ -6504,13 +6489,13 @@
         <v>2025</v>
       </c>
       <c r="X44" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Y44" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z44" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA44">
         <v>50</v>
@@ -6522,7 +6507,7 @@
         <v>2025</v>
       </c>
       <c r="AE44" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AF44">
         <v>16</v>
@@ -6531,7 +6516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>2027</v>
       </c>
@@ -6569,13 +6554,13 @@
         <v>2025</v>
       </c>
       <c r="X45" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Y45" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z45" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AA45">
         <v>19.5</v>
@@ -6587,7 +6572,7 @@
         <v>2025</v>
       </c>
       <c r="AE45" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -6596,7 +6581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>2028</v>
       </c>
@@ -6634,13 +6619,13 @@
         <v>2025</v>
       </c>
       <c r="X46" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Y46" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z46" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AA46">
         <v>24</v>
@@ -6652,7 +6637,7 @@
         <v>2025</v>
       </c>
       <c r="AE46" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AF46">
         <v>20</v>
@@ -6661,7 +6646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>2029</v>
       </c>
@@ -6699,13 +6684,13 @@
         <v>2025</v>
       </c>
       <c r="X47" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Y47" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z47" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AA47">
         <v>16</v>
@@ -6717,7 +6702,7 @@
         <v>2025</v>
       </c>
       <c r="AE47" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AF47">
         <v>30.4</v>
@@ -6726,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>2030</v>
       </c>
@@ -6764,13 +6749,13 @@
         <v>2025</v>
       </c>
       <c r="X48" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Y48" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z48" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA48">
         <v>9.6</v>
@@ -6782,7 +6767,7 @@
         <v>2026</v>
       </c>
       <c r="AE48" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -6791,18 +6776,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W49">
         <v>2025</v>
       </c>
       <c r="X49" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="Y49" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z49" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA49">
         <v>14.4</v>
@@ -6814,7 +6799,7 @@
         <v>2026</v>
       </c>
       <c r="AE49" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF49">
         <v>69.599999999999994</v>
@@ -6823,18 +6808,18 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="50" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W50">
         <v>2025</v>
       </c>
       <c r="X50" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Y50" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="Z50" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA50">
         <v>16</v>
@@ -6846,7 +6831,7 @@
         <v>2026</v>
       </c>
       <c r="AE50" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AF50">
         <v>19.5</v>
@@ -6855,18 +6840,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W51">
         <v>2025</v>
       </c>
       <c r="X51" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Y51" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z51" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AA51">
         <v>20</v>
@@ -6878,7 +6863,7 @@
         <v>2026</v>
       </c>
       <c r="AE51" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AF51">
         <v>60</v>
@@ -6887,18 +6872,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W52">
         <v>2025</v>
       </c>
       <c r="X52" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="Y52" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Z52" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA52">
         <v>10</v>
@@ -6910,7 +6895,7 @@
         <v>2026</v>
       </c>
       <c r="AE52" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AF52">
         <v>24</v>
@@ -6919,18 +6904,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W53">
         <v>2026</v>
       </c>
       <c r="X53" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="Y53" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Z53" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA53">
         <v>60</v>
@@ -6942,7 +6927,7 @@
         <v>2026</v>
       </c>
       <c r="AE53" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AF53">
         <v>16</v>
@@ -6951,18 +6936,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W54">
         <v>2026</v>
       </c>
       <c r="X54" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Y54" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z54" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA54">
         <v>50</v>
@@ -6974,7 +6959,7 @@
         <v>2026</v>
       </c>
       <c r="AE54" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -6983,18 +6968,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W55">
         <v>2026</v>
       </c>
       <c r="X55" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Y55" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z55" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AA55">
         <v>19.5</v>
@@ -7006,7 +6991,7 @@
         <v>2026</v>
       </c>
       <c r="AE55" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AF55">
         <v>20</v>
@@ -7015,18 +7000,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W56">
         <v>2026</v>
       </c>
       <c r="X56" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Y56" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z56" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AA56">
         <v>24</v>
@@ -7038,7 +7023,7 @@
         <v>2026</v>
       </c>
       <c r="AE56" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AF56">
         <v>30.4</v>
@@ -7047,18 +7032,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W57">
         <v>2026</v>
       </c>
       <c r="X57" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Y57" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z57" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AA57">
         <v>16</v>
@@ -7070,7 +7055,7 @@
         <v>2027</v>
       </c>
       <c r="AE57" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -7079,18 +7064,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W58">
         <v>2026</v>
       </c>
       <c r="X58" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Y58" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z58" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA58">
         <v>9.6</v>
@@ -7102,7 +7087,7 @@
         <v>2027</v>
       </c>
       <c r="AE58" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF58">
         <v>69.599999999999994</v>
@@ -7111,18 +7096,18 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="59" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W59">
         <v>2026</v>
       </c>
       <c r="X59" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="Y59" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z59" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA59">
         <v>14.4</v>
@@ -7134,7 +7119,7 @@
         <v>2027</v>
       </c>
       <c r="AE59" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AF59">
         <v>19.5</v>
@@ -7143,18 +7128,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W60">
         <v>2026</v>
       </c>
       <c r="X60" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Y60" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="Z60" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA60">
         <v>16</v>
@@ -7166,7 +7151,7 @@
         <v>2027</v>
       </c>
       <c r="AE60" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AF60">
         <v>60</v>
@@ -7175,18 +7160,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W61">
         <v>2026</v>
       </c>
       <c r="X61" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Y61" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z61" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AA61">
         <v>20</v>
@@ -7198,7 +7183,7 @@
         <v>2027</v>
       </c>
       <c r="AE61" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AF61">
         <v>24</v>
@@ -7207,18 +7192,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W62">
         <v>2026</v>
       </c>
       <c r="X62" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="Y62" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Z62" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA62">
         <v>10</v>
@@ -7230,7 +7215,7 @@
         <v>2027</v>
       </c>
       <c r="AE62" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AF62">
         <v>16</v>
@@ -7239,18 +7224,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W63">
         <v>2027</v>
       </c>
       <c r="X63" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="Y63" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Z63" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA63">
         <v>60</v>
@@ -7262,7 +7247,7 @@
         <v>2027</v>
       </c>
       <c r="AE63" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -7271,18 +7256,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W64">
         <v>2027</v>
       </c>
       <c r="X64" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Y64" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z64" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA64">
         <v>50</v>
@@ -7294,7 +7279,7 @@
         <v>2027</v>
       </c>
       <c r="AE64" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AF64">
         <v>20</v>
@@ -7303,18 +7288,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W65">
         <v>2027</v>
       </c>
       <c r="X65" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Y65" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z65" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AA65">
         <v>19.5</v>
@@ -7326,7 +7311,7 @@
         <v>2027</v>
       </c>
       <c r="AE65" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AF65">
         <v>30.4</v>
@@ -7335,18 +7320,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W66">
         <v>2027</v>
       </c>
       <c r="X66" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Y66" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z66" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AA66">
         <v>24</v>
@@ -7358,7 +7343,7 @@
         <v>2028</v>
       </c>
       <c r="AE66" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -7367,18 +7352,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W67">
         <v>2027</v>
       </c>
       <c r="X67" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Y67" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z67" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AA67">
         <v>16</v>
@@ -7390,7 +7375,7 @@
         <v>2028</v>
       </c>
       <c r="AE67" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF67">
         <v>69.599999999999994</v>
@@ -7399,18 +7384,18 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="68" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W68">
         <v>2027</v>
       </c>
       <c r="X68" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Y68" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z68" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA68">
         <v>9.6</v>
@@ -7422,7 +7407,7 @@
         <v>2028</v>
       </c>
       <c r="AE68" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AF68">
         <v>19.5</v>
@@ -7431,18 +7416,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W69">
         <v>2027</v>
       </c>
       <c r="X69" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="Y69" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z69" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA69">
         <v>14.4</v>
@@ -7454,7 +7439,7 @@
         <v>2028</v>
       </c>
       <c r="AE69" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AF69">
         <v>60</v>
@@ -7463,18 +7448,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W70">
         <v>2027</v>
       </c>
       <c r="X70" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Y70" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="Z70" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA70">
         <v>16</v>
@@ -7486,7 +7471,7 @@
         <v>2028</v>
       </c>
       <c r="AE70" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AF70">
         <v>24</v>
@@ -7495,18 +7480,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W71">
         <v>2027</v>
       </c>
       <c r="X71" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Y71" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z71" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AA71">
         <v>20</v>
@@ -7518,7 +7503,7 @@
         <v>2028</v>
       </c>
       <c r="AE71" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AF71">
         <v>16</v>
@@ -7527,18 +7512,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W72">
         <v>2027</v>
       </c>
       <c r="X72" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="Y72" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Z72" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA72">
         <v>10</v>
@@ -7550,7 +7535,7 @@
         <v>2028</v>
       </c>
       <c r="AE72" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -7559,18 +7544,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W73">
         <v>2028</v>
       </c>
       <c r="X73" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="Y73" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Z73" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA73">
         <v>60</v>
@@ -7582,7 +7567,7 @@
         <v>2028</v>
       </c>
       <c r="AE73" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AF73">
         <v>20</v>
@@ -7591,18 +7576,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W74">
         <v>2028</v>
       </c>
       <c r="X74" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Y74" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z74" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA74">
         <v>50</v>
@@ -7614,7 +7599,7 @@
         <v>2028</v>
       </c>
       <c r="AE74" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AF74">
         <v>30.4</v>
@@ -7623,18 +7608,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W75">
         <v>2028</v>
       </c>
       <c r="X75" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Y75" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z75" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AA75">
         <v>19.5</v>
@@ -7646,7 +7631,7 @@
         <v>2029</v>
       </c>
       <c r="AE75" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7655,18 +7640,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W76">
         <v>2028</v>
       </c>
       <c r="X76" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Y76" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z76" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AA76">
         <v>24</v>
@@ -7678,7 +7663,7 @@
         <v>2029</v>
       </c>
       <c r="AE76" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF76">
         <v>69.599999999999994</v>
@@ -7687,18 +7672,18 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="77" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W77">
         <v>2028</v>
       </c>
       <c r="X77" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Y77" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z77" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AA77">
         <v>16</v>
@@ -7710,7 +7695,7 @@
         <v>2029</v>
       </c>
       <c r="AE77" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AF77">
         <v>19.5</v>
@@ -7719,18 +7704,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W78">
         <v>2028</v>
       </c>
       <c r="X78" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Y78" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z78" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA78">
         <v>9.6</v>
@@ -7742,7 +7727,7 @@
         <v>2029</v>
       </c>
       <c r="AE78" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AF78">
         <v>60</v>
@@ -7751,18 +7736,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W79">
         <v>2028</v>
       </c>
       <c r="X79" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="Y79" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z79" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA79">
         <v>14.4</v>
@@ -7774,7 +7759,7 @@
         <v>2029</v>
       </c>
       <c r="AE79" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AF79">
         <v>24</v>
@@ -7783,18 +7768,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W80">
         <v>2028</v>
       </c>
       <c r="X80" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Y80" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="Z80" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA80">
         <v>16</v>
@@ -7806,7 +7791,7 @@
         <v>2029</v>
       </c>
       <c r="AE80" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AF80">
         <v>16</v>
@@ -7815,18 +7800,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W81">
         <v>2028</v>
       </c>
       <c r="X81" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Y81" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z81" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AA81">
         <v>20</v>
@@ -7838,7 +7823,7 @@
         <v>2029</v>
       </c>
       <c r="AE81" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7847,18 +7832,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W82">
         <v>2028</v>
       </c>
       <c r="X82" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="Y82" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Z82" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA82">
         <v>10</v>
@@ -7870,7 +7855,7 @@
         <v>2029</v>
       </c>
       <c r="AE82" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AF82">
         <v>20</v>
@@ -7879,18 +7864,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W83">
         <v>2029</v>
       </c>
       <c r="X83" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="Y83" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Z83" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA83">
         <v>60</v>
@@ -7902,7 +7887,7 @@
         <v>2029</v>
       </c>
       <c r="AE83" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AF83">
         <v>30.4</v>
@@ -7911,18 +7896,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W84">
         <v>2029</v>
       </c>
       <c r="X84" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Y84" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z84" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA84">
         <v>50</v>
@@ -7934,7 +7919,7 @@
         <v>2030</v>
       </c>
       <c r="AE84" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7943,18 +7928,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W85">
         <v>2029</v>
       </c>
       <c r="X85" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Y85" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z85" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AA85">
         <v>19.5</v>
@@ -7966,7 +7951,7 @@
         <v>2030</v>
       </c>
       <c r="AE85" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF85">
         <v>69.599999999999994</v>
@@ -7975,18 +7960,18 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="86" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W86">
         <v>2029</v>
       </c>
       <c r="X86" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Y86" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z86" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AA86">
         <v>24</v>
@@ -7998,7 +7983,7 @@
         <v>2030</v>
       </c>
       <c r="AE86" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AF86">
         <v>19.5</v>
@@ -8007,18 +7992,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W87">
         <v>2029</v>
       </c>
       <c r="X87" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Y87" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z87" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AA87">
         <v>16</v>
@@ -8030,7 +8015,7 @@
         <v>2030</v>
       </c>
       <c r="AE87" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AF87">
         <v>60</v>
@@ -8039,18 +8024,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W88">
         <v>2029</v>
       </c>
       <c r="X88" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Y88" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z88" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA88">
         <v>9.6</v>
@@ -8062,7 +8047,7 @@
         <v>2030</v>
       </c>
       <c r="AE88" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AF88">
         <v>24</v>
@@ -8071,18 +8056,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W89">
         <v>2029</v>
       </c>
       <c r="X89" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="Y89" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z89" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA89">
         <v>14.4</v>
@@ -8094,7 +8079,7 @@
         <v>2030</v>
       </c>
       <c r="AE89" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AF89">
         <v>16</v>
@@ -8103,18 +8088,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W90">
         <v>2029</v>
       </c>
       <c r="X90" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Y90" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="Z90" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA90">
         <v>16</v>
@@ -8126,7 +8111,7 @@
         <v>2030</v>
       </c>
       <c r="AE90" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8135,18 +8120,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W91">
         <v>2029</v>
       </c>
       <c r="X91" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Y91" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z91" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AA91">
         <v>20</v>
@@ -8158,7 +8143,7 @@
         <v>2030</v>
       </c>
       <c r="AE91" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AF91">
         <v>20</v>
@@ -8167,18 +8152,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W92">
         <v>2029</v>
       </c>
       <c r="X92" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="Y92" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Z92" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA92">
         <v>10</v>
@@ -8190,7 +8175,7 @@
         <v>2030</v>
       </c>
       <c r="AE92" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AF92">
         <v>30.4</v>
@@ -8199,18 +8184,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W93">
         <v>2030</v>
       </c>
       <c r="X93" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="Y93" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Z93" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA93">
         <v>60</v>
@@ -8219,18 +8204,18 @@
         <v>12.205439999999999</v>
       </c>
     </row>
-    <row r="94" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W94">
         <v>2030</v>
       </c>
       <c r="X94" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Y94" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z94" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA94">
         <v>50</v>
@@ -8239,18 +8224,18 @@
         <v>10.171200000000001</v>
       </c>
     </row>
-    <row r="95" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W95">
         <v>2030</v>
       </c>
       <c r="X95" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Y95" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Z95" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AA95">
         <v>19.5</v>
@@ -8259,18 +8244,18 @@
         <v>3.6972</v>
       </c>
     </row>
-    <row r="96" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W96">
         <v>2030</v>
       </c>
       <c r="X96" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Y96" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z96" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AA96">
         <v>24</v>
@@ -8279,18 +8264,18 @@
         <v>5.5296000000000003</v>
       </c>
     </row>
-    <row r="97" spans="23:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="23:28" x14ac:dyDescent="0.35">
       <c r="W97">
         <v>2030</v>
       </c>
       <c r="X97" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Y97" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z97" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AA97">
         <v>16</v>
@@ -8299,18 +8284,18 @@
         <v>3.456</v>
       </c>
     </row>
-    <row r="98" spans="23:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="23:28" x14ac:dyDescent="0.35">
       <c r="W98">
         <v>2030</v>
       </c>
       <c r="X98" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Y98" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z98" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AA98">
         <v>9.6</v>
@@ -8319,18 +8304,18 @@
         <v>2.21184</v>
       </c>
     </row>
-    <row r="99" spans="23:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="23:28" x14ac:dyDescent="0.35">
       <c r="W99">
         <v>2030</v>
       </c>
       <c r="X99" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="Y99" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z99" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA99">
         <v>14.4</v>
@@ -8339,18 +8324,18 @@
         <v>3.1103999999999998</v>
       </c>
     </row>
-    <row r="100" spans="23:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="23:28" x14ac:dyDescent="0.35">
       <c r="W100">
         <v>2030</v>
       </c>
       <c r="X100" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Y100" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="Z100" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA100">
         <v>16</v>
@@ -8359,18 +8344,18 @@
         <v>3.456</v>
       </c>
     </row>
-    <row r="101" spans="23:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="23:28" x14ac:dyDescent="0.35">
       <c r="W101">
         <v>2030</v>
       </c>
       <c r="X101" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Y101" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z101" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AA101">
         <v>20</v>
@@ -8379,18 +8364,18 @@
         <v>4.0684800000000001</v>
       </c>
     </row>
-    <row r="102" spans="23:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="23:28" x14ac:dyDescent="0.35">
       <c r="W102">
         <v>2030</v>
       </c>
       <c r="X102" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="Y102" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Z102" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA102">
         <v>10</v>
@@ -8412,27 +8397,27 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C2">
         <v>0.48</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -8704,15 +8689,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
@@ -8722,6 +8698,15 @@
     <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8744,26 +8729,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClOrfani\PycharmProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5DA656-9256-4F5A-A4DB-46579F5511BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B805BA-9E14-42F8-93B0-230D0489FB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Flows" sheetId="1" r:id="rId3"/>
     <sheet name="DMFA results (example)" sheetId="8" r:id="rId4"/>
     <sheet name="Carbon fraction (will be moved)" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flows!$B$3:$M$89</definedName>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="172">
   <si>
     <t>Years</t>
   </si>
@@ -112,9 +113,6 @@
   </si>
   <si>
     <t>integer</t>
-  </si>
-  <si>
-    <t>tuple</t>
   </si>
   <si>
     <t>float</t>
@@ -262,9 +260,6 @@
     </r>
   </si>
   <si>
-    <t>Transformation_Stage*</t>
-  </si>
-  <si>
     <t xml:space="preserve">Must filled in cells </t>
   </si>
   <si>
@@ -278,24 +273,6 @@
   </si>
   <si>
     <t xml:space="preserve">About aiphoria </t>
-  </si>
-  <si>
-    <t>Process*</t>
-  </si>
-  <si>
-    <t>Process_location*</t>
-  </si>
-  <si>
-    <t>Process_ID*</t>
-  </si>
-  <si>
-    <t>Lifetime*</t>
-  </si>
-  <si>
-    <t>Uncertainty_distribution_type *</t>
-  </si>
-  <si>
-    <t>Distribution_parameters*</t>
   </si>
   <si>
     <t xml:space="preserve">Positioning of flows in the sankey </t>
@@ -661,40 +638,76 @@
     <t xml:space="preserve">https://excalidraw.com/#json=acMq06Ek074LvgJQcBgt-,_z-k-OWtxYKdxCtl_tJVQg </t>
   </si>
   <si>
-    <t>Source_process*</t>
-  </si>
-  <si>
-    <t>Source_process_location*</t>
-  </si>
-  <si>
-    <t>Target_process*</t>
-  </si>
-  <si>
-    <t>Target_process_location*</t>
-  </si>
-  <si>
-    <t>Source _ID*</t>
-  </si>
-  <si>
-    <t>Target_ID*</t>
-  </si>
-  <si>
-    <t>Value*</t>
-  </si>
-  <si>
     <t>Unit*</t>
   </si>
   <si>
     <t>Year*</t>
   </si>
   <si>
-    <t>Carbon_content_conversion*</t>
-  </si>
-  <si>
     <t>Carbon_content_conversion_source</t>
   </si>
   <si>
     <t>SWE Mm3 SC</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>LogNormal</t>
+  </si>
+  <si>
+    <t>Weibull</t>
+  </si>
+  <si>
+    <t>FoldedNormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution Type </t>
+  </si>
+  <si>
+    <t>Source_process</t>
+  </si>
+  <si>
+    <t>Transformation_Stage</t>
+  </si>
+  <si>
+    <t>Source_process_location</t>
+  </si>
+  <si>
+    <t>Target_process</t>
+  </si>
+  <si>
+    <t>Target_process_location</t>
+  </si>
+  <si>
+    <t>Source _ID</t>
+  </si>
+  <si>
+    <t>Target_ID</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Process_location</t>
+  </si>
+  <si>
+    <t>Process_ID</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>Distribution_type</t>
+  </si>
+  <si>
+    <t>Carbon_content_conversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuple </t>
   </si>
 </sst>
 </file>
@@ -977,9 +990,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19236</xdr:colOff>
+      <xdr:colOff>1038971</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>122678</xdr:rowOff>
+      <xdr:rowOff>125853</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1342,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240816D1-B4FF-41BE-B292-8CF7D349FFB2}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
@@ -1375,7 +1388,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="1"/>
@@ -1388,127 +1401,127 @@
         <v>7</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:5" s="22" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="41" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>40</v>
       </c>
       <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:5" s="22" customFormat="1" ht="96.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="C8" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="40" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>45</v>
       </c>
       <c r="D9" s="40"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>50</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>52</v>
       </c>
       <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D12" s="37"/>
     </row>
     <row r="13" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D13" s="37"/>
     </row>
@@ -1537,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0D592-75C1-4AD1-84F0-2AAE25CA0097}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1555,7 +1568,7 @@
     <col min="11" max="11" width="13.1796875" customWidth="1"/>
     <col min="13" max="13" width="9.90625" customWidth="1"/>
     <col min="14" max="14" width="13.36328125" customWidth="1"/>
-    <col min="15" max="15" width="17.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" customWidth="1"/>
     <col min="16" max="16" width="11.81640625" customWidth="1"/>
     <col min="17" max="17" width="13.7265625" customWidth="1"/>
     <col min="18" max="18" width="19.81640625" bestFit="1" customWidth="1"/>
@@ -1583,16 +1596,16 @@
         <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>9</v>
@@ -1604,10 +1617,10 @@
         <v>9</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>9</v>
@@ -1626,11 +1639,11 @@
       <c r="H2" s="3"/>
       <c r="I2" s="8"/>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1642,55 +1655,55 @@
     <row r="3" spans="1:18" s="36" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="34"/>
       <c r="B3" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="35" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="35" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.4">
@@ -1698,23 +1711,23 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D4" t="str">
         <f>_xlfn.CONCAT(B4,":",C4)</f>
         <v>Industrial_roundwood:FI</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1727,7 +1740,7 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="R4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.4">
@@ -1735,23 +1748,23 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ref="D5:D12" si="0">_xlfn.CONCAT(B5,":",C5)</f>
         <v>Sawmilling:FI</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1764,7 +1777,7 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="R5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -1772,23 +1785,23 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>Residues:FI</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1800,7 +1813,7 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="R6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -1808,23 +1821,23 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ref="D7" si="1">_xlfn.CONCAT(B7,":",C7)</f>
         <v>Sawnwood:FI</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1836,7 +1849,7 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="R7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1844,23 +1857,23 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>Construction:FI</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1872,7 +1885,7 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="R8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1880,23 +1893,23 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>Furniture:FI</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1908,7 +1921,7 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="R9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -1916,23 +1929,23 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>Sawnwood:Import</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1944,7 +1957,7 @@
         <v>0.81899999999999995</v>
       </c>
       <c r="R10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -1952,23 +1965,23 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>Sawnwood:Export</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1980,7 +1993,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="R11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -1988,23 +2001,23 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>Incineration:FI</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2016,15 +2029,30 @@
         <v>0.48299999999999998</v>
       </c>
       <c r="R12" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distribution parameter" prompt="tuple = number or list of parameters separated by comma. Example: for stddev only number! e.g., 1. For shape and scale list separated by comma e.g., shape=1, scale=1.5" sqref="I4:I1048576" xr:uid="{564AD8C3-F96D-40DD-BFD1-1C6E073701B7}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Distribution type" prompt="Distribution type for stock outflows (=decay). _x000a_-Fixed only uses lifetimes so no parameter is used._x000a_-Normal, LogNormal, FoldedNormal use standard deviation. _x000a_-Weibull uses shape and scale. " xr:uid="{0258C8E4-0AAB-48FF-93D5-AADF99BF39C4}">
+          <x14:formula1>
+            <xm:f>Sheet1!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4:H1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2032,27 +2060,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B692AEE8-68EE-4B81-A49D-50BF066DFFE7}">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1796875" customWidth="1"/>
     <col min="5" max="5" width="16.26953125" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="26.54296875" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="20.36328125" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" customWidth="1"/>
     <col min="11" max="11" width="15.81640625" customWidth="1"/>
     <col min="12" max="12" width="12.81640625" customWidth="1"/>
-    <col min="13" max="13" width="40.81640625" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="21.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6328125" style="6" customWidth="1"/>
     <col min="16" max="16" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2086,7 +2114,7 @@
         <v>9</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>9</v>
@@ -2104,19 +2132,19 @@
         <v>9</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>9</v>
@@ -2124,7 +2152,7 @@
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2136,7 +2164,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -2145,7 +2173,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -2154,141 +2182,141 @@
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E3" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="G3" s="25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" s="26" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="S3" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T3" s="27" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="U3" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C4" t="str">
         <f>+_xlfn.XLOOKUP(H4,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Source</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F4" t="str">
         <f>+_xlfn.XLOOKUP(I4,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H4" s="4" t="str">
-        <f t="shared" ref="H4:H23" si="0">_xlfn.CONCAT(B4,":",D4)</f>
+        <f t="shared" ref="H4:H13" si="0">_xlfn.CONCAT(B4,":",D4)</f>
         <v>Industrial_roundwood:FI</v>
       </c>
       <c r="I4" s="4" t="str">
-        <f t="shared" ref="I4:I23" si="1">_xlfn.CONCAT(E4,":",G4)</f>
+        <f t="shared" ref="I4:I13" si="1">_xlfn.CONCAT(E4,":",G4)</f>
         <v>Sawmilling:FI</v>
       </c>
       <c r="J4">
         <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="L4">
         <v>2021</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P4">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C5" t="str">
         <f>+_xlfn.XLOOKUP(H5,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F5" t="str">
         <f>+_xlfn.XLOOKUP(I5,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2302,45 +2330,45 @@
         <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="L5">
         <v>2021</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P5">
         <f>0.4238*'Carbon fraction (will be moved)'!C2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C6" t="str">
         <f>+_xlfn.XLOOKUP(H6,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F6" t="str">
         <f>+_xlfn.XLOOKUP(I6,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>by_prod</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2354,45 +2382,45 @@
         <v>19.5</v>
       </c>
       <c r="K6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="L6">
         <v>2021</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P6">
         <f>0.395*'Carbon fraction (will be moved)'!C2</f>
         <v>0.18959999999999999</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C7" t="str">
         <f>+_xlfn.XLOOKUP(H7,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F7" t="str">
         <f>+_xlfn.XLOOKUP(I7,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2406,45 +2434,45 @@
         <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7">
         <v>2021</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P7">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
       <c r="Q7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C8" t="str">
         <f>+_xlfn.XLOOKUP(H8,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F8" t="str">
         <f>+_xlfn.XLOOKUP(I8,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H8" s="4" t="str">
         <f>_xlfn.CONCAT(B8,":",D8)</f>
@@ -2458,45 +2486,45 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L8">
         <v>2021</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P8">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C9" t="str">
         <f>+_xlfn.XLOOKUP(H9,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F9" t="str">
         <f>+_xlfn.XLOOKUP(I9,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2510,45 +2538,45 @@
         <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9">
         <v>2021</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P9">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
       <c r="Q9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C10" t="str">
         <f>+_xlfn.XLOOKUP(H10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F10" t="str">
         <f>+_xlfn.XLOOKUP(I10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>EoL</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2562,44 +2590,44 @@
         <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L10">
         <v>2021</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P10">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q10" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F11" t="str">
         <f>+_xlfn.XLOOKUP(I11,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>EoL</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2613,45 +2641,45 @@
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11">
         <v>2021</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P11">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q11" s="29" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C12" t="str">
         <f>+_xlfn.XLOOKUP(H12,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F12" t="str">
         <f>+_xlfn.XLOOKUP(I12,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>RoW</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2665,44 +2693,44 @@
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="L12">
         <v>2021</v>
       </c>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P12">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q12" s="29" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C13" t="str">
         <f>+_xlfn.XLOOKUP(H13,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>RoW</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2716,546 +2744,115 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="L13">
         <v>2021</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P13">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q13" s="29" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="str">
-        <f>+_xlfn.XLOOKUP(H14,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>Source</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" t="str">
-        <f>+_xlfn.XLOOKUP(I14,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>First</v>
-      </c>
-      <c r="G14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Industrial_roundwood:FI</v>
-      </c>
-      <c r="I14" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Sawmilling:FI</v>
-      </c>
-      <c r="J14">
-        <v>60</v>
-      </c>
-      <c r="K14" t="s">
-        <v>144</v>
-      </c>
-      <c r="L14">
-        <v>2022</v>
-      </c>
-      <c r="N14" t="s">
-        <v>88</v>
-      </c>
-      <c r="P14">
-        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
-        <v>0.20342399999999999</v>
-      </c>
-      <c r="Q14" s="29" t="s">
-        <v>87</v>
-      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="N14"/>
+      <c r="Q14" s="29"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" t="str">
-        <f>+_xlfn.XLOOKUP(H15,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>First</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="str">
-        <f>+_xlfn.XLOOKUP(I15,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>Second</v>
-      </c>
-      <c r="G15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Sawmilling:FI</v>
-      </c>
-      <c r="I15" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Sawnwood:FI</v>
-      </c>
-      <c r="J15">
-        <v>50</v>
-      </c>
-      <c r="K15" t="s">
-        <v>144</v>
-      </c>
-      <c r="L15">
-        <v>2022</v>
-      </c>
-      <c r="N15" t="s">
-        <v>88</v>
-      </c>
-      <c r="P15">
-        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
-        <v>0.20342399999999999</v>
-      </c>
-      <c r="Q15" s="29" t="s">
-        <v>87</v>
-      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="N15"/>
+      <c r="Q15" s="29"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="str">
-        <f>+_xlfn.XLOOKUP(H16,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>First</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" t="str">
-        <f>+_xlfn.XLOOKUP(I16,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>by_prod</v>
-      </c>
-      <c r="G16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Sawmilling:FI</v>
-      </c>
-      <c r="I16" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Residues:FI</v>
-      </c>
-      <c r="J16">
-        <v>19.5</v>
-      </c>
-      <c r="K16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L16">
-        <v>2022</v>
-      </c>
-      <c r="N16" t="s">
-        <v>88</v>
-      </c>
-      <c r="P16">
-        <f>0.395*'Carbon fraction (will be moved)'!$C$2</f>
-        <v>0.18959999999999999</v>
-      </c>
-      <c r="Q16" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" t="str">
-        <f>+_xlfn.XLOOKUP(H17,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>Second</v>
-      </c>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" t="str">
-        <f>+_xlfn.XLOOKUP(I17,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>VAM</v>
-      </c>
-      <c r="G17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Sawnwood:FI</v>
-      </c>
-      <c r="I17" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Construction:FI</v>
-      </c>
-      <c r="J17">
-        <v>60</v>
-      </c>
-      <c r="K17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17">
-        <v>2022</v>
-      </c>
-      <c r="N17" t="s">
-        <v>88</v>
-      </c>
-      <c r="P17">
-        <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
-        <v>0.23039999999999999</v>
-      </c>
-      <c r="Q17" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="str">
-        <f>+_xlfn.XLOOKUP(H18,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>Second</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" t="str">
-        <f>+_xlfn.XLOOKUP(I18,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>VAM</v>
-      </c>
-      <c r="G18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="4" t="str">
-        <f>_xlfn.CONCAT(B18,":",D18)</f>
-        <v>Sawnwood:FI</v>
-      </c>
-      <c r="I18" s="4" t="str">
-        <f>_xlfn.CONCAT(E18,":",G18)</f>
-        <v>Furniture:FI</v>
-      </c>
-      <c r="J18">
-        <v>40</v>
-      </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18">
-        <v>2022</v>
-      </c>
-      <c r="N18" t="s">
-        <v>88</v>
-      </c>
-      <c r="P18">
-        <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
-        <v>0.216</v>
-      </c>
-      <c r="Q18" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="str">
-        <f>+_xlfn.XLOOKUP(H19,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>VAM</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" t="str">
-        <f>+_xlfn.XLOOKUP(I19,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>First</v>
-      </c>
-      <c r="G19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Construction:FI</v>
-      </c>
-      <c r="I19" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Sawmilling:FI</v>
-      </c>
-      <c r="J19">
-        <v>40</v>
-      </c>
-      <c r="K19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19">
-        <v>2022</v>
-      </c>
-      <c r="N19" t="s">
-        <v>88</v>
-      </c>
-      <c r="P19">
-        <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
-        <v>0.23039999999999999</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" t="str">
-        <f>+_xlfn.XLOOKUP(H20,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>VAM</v>
-      </c>
-      <c r="D20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" t="str">
-        <f>+_xlfn.XLOOKUP(I20,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>EoL</v>
-      </c>
-      <c r="G20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="4" t="str">
-        <f t="shared" ref="H20" si="2">_xlfn.CONCAT(B20,":",D20)</f>
-        <v>Construction:FI</v>
-      </c>
-      <c r="I20" s="4" t="str">
-        <f t="shared" ref="I20" si="3">_xlfn.CONCAT(E20,":",G20)</f>
-        <v>Incineration:FI</v>
-      </c>
-      <c r="J20">
-        <v>60</v>
-      </c>
-      <c r="K20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20">
-        <v>2022</v>
-      </c>
-      <c r="N20" t="s">
-        <v>88</v>
-      </c>
-      <c r="P20">
-        <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
-        <v>0.216</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" t="str">
-        <f>+_xlfn.XLOOKUP(I21,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>EoL</v>
-      </c>
-      <c r="G21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="4" t="str">
-        <f t="shared" ref="H21" si="4">_xlfn.CONCAT(B21,":",D21)</f>
-        <v>Furniture:FI</v>
-      </c>
-      <c r="I21" s="4" t="str">
-        <f t="shared" ref="I21" si="5">_xlfn.CONCAT(E21,":",G21)</f>
-        <v>Incineration:FI</v>
-      </c>
-      <c r="J21">
-        <v>100</v>
-      </c>
-      <c r="K21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21">
-        <v>2022</v>
-      </c>
-      <c r="N21" t="s">
-        <v>88</v>
-      </c>
-      <c r="P21">
-        <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
-        <v>0.216</v>
-      </c>
-      <c r="Q21" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="str">
-        <f>+_xlfn.XLOOKUP(H22,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>Second</v>
-      </c>
-      <c r="D22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" t="str">
-        <f>+_xlfn.XLOOKUP(I22,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>RoW</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Sawnwood:FI</v>
-      </c>
-      <c r="I22" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Sawnwood:Export</v>
-      </c>
-      <c r="J22">
-        <v>20</v>
-      </c>
-      <c r="K22" t="s">
-        <v>144</v>
-      </c>
-      <c r="L22">
-        <v>2022</v>
-      </c>
-      <c r="N22" t="s">
-        <v>88</v>
-      </c>
-      <c r="P22">
-        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
-        <v>0.20342399999999999</v>
-      </c>
-      <c r="Q22" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" t="str">
-        <f>+_xlfn.XLOOKUP(H23,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>RoW</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" t="str">
-        <f>+_xlfn.XLOOKUP(I23,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
-        <v>Second</v>
-      </c>
-      <c r="G23" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Sawnwood:Import</v>
-      </c>
-      <c r="I23" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Sawnwood:FI</v>
-      </c>
-      <c r="J23">
-        <v>10</v>
-      </c>
-      <c r="K23" t="s">
-        <v>144</v>
-      </c>
-      <c r="L23">
-        <v>2022</v>
-      </c>
-      <c r="N23" t="s">
-        <v>88</v>
-      </c>
-      <c r="P23">
-        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
-        <v>0.20342399999999999</v>
-      </c>
-      <c r="Q23" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="N16"/>
+      <c r="Q16" s="29"/>
+    </row>
+    <row r="17" spans="8:17" x14ac:dyDescent="0.35">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="N17"/>
+      <c r="Q17" s="29"/>
+    </row>
+    <row r="18" spans="8:17" x14ac:dyDescent="0.35">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="N18"/>
+      <c r="Q18" s="29"/>
+    </row>
+    <row r="19" spans="8:17" x14ac:dyDescent="0.35">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="8:17" x14ac:dyDescent="0.35">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="8:17" x14ac:dyDescent="0.35">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="N21"/>
+      <c r="Q21" s="29"/>
+    </row>
+    <row r="22" spans="8:17" x14ac:dyDescent="0.35">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="N22"/>
+      <c r="Q22" s="29"/>
+    </row>
+    <row r="23" spans="8:17" x14ac:dyDescent="0.35">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="N23"/>
+      <c r="Q23" s="29"/>
+    </row>
+    <row r="24" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
@@ -3318,7 +2915,7 @@
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C44" s="29" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -3617,14 +3214,12 @@
     <hyperlink ref="Q4" r:id="rId1" xr:uid="{44BDC3E8-14C2-47A6-9A94-576E28D9D557}"/>
     <hyperlink ref="Q11:Q13" r:id="rId2" display="https://doi.org/10.1016/j.resconrec.2024.107476, assumed average conversion factor 80% soft 20% hard" xr:uid="{09224BB8-3720-400B-909A-BF395F73FAE2}"/>
     <hyperlink ref="Q13" r:id="rId3" xr:uid="{3D605790-367C-4E01-9AE5-AEF809643374}"/>
-    <hyperlink ref="Q21:Q23" r:id="rId4" display="https://doi.org/10.1016/j.resconrec.2024.107476, assumed average conversion factor 80% soft 20% hard" xr:uid="{2CCB2B74-FB50-4507-B000-BC908D2BE0F5}"/>
-    <hyperlink ref="Q14:Q18" r:id="rId5" display="https://doi.org/10.1016/j.resconrec.2024.107476, assumed average conversion factor 80% soft 20% hard" xr:uid="{1319AB96-3E14-46DA-82C5-62302A8D0AD9}"/>
-    <hyperlink ref="C44" r:id="rId6" location="json=acMq06Ek074LvgJQcBgt-,_z-k-OWtxYKdxCtl_tJVQg " xr:uid="{E1E4D22F-0745-4815-82DC-5F07D3BD4B83}"/>
+    <hyperlink ref="C44" r:id="rId4" location="json=acMq06Ek074LvgJQcBgt-,_z-k-OWtxYKdxCtl_tJVQg " xr:uid="{E1E4D22F-0745-4815-82DC-5F07D3BD4B83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
-  <drawing r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3633,7 +3228,7 @@
   <dimension ref="A1:AG102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3651,15 +3246,15 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2">
@@ -3693,43 +3288,43 @@
         <v>2030</v>
       </c>
       <c r="N2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="S2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="X2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="Y2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="Z2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="AA2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="AB2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AD2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AE2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AF2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AG2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
@@ -3785,13 +3380,13 @@
         <v>2021</v>
       </c>
       <c r="X3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Y3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Z3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA3">
         <v>60</v>
@@ -3803,7 +3398,7 @@
         <v>2021</v>
       </c>
       <c r="AE3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -3865,13 +3460,13 @@
         <v>2021</v>
       </c>
       <c r="X4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Y4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA4">
         <v>50</v>
@@ -3883,7 +3478,7 @@
         <v>2021</v>
       </c>
       <c r="AE4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AF4">
         <v>69.599999999999994</v>
@@ -3945,13 +3540,13 @@
         <v>2021</v>
       </c>
       <c r="X5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Y5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AA5">
         <v>19.5</v>
@@ -3963,7 +3558,7 @@
         <v>2021</v>
       </c>
       <c r="AE5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AF5">
         <v>19.5</v>
@@ -4025,13 +3620,13 @@
         <v>2021</v>
       </c>
       <c r="X6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="Y6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AA6">
         <v>24</v>
@@ -4043,7 +3638,7 @@
         <v>2021</v>
       </c>
       <c r="AE6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AF6">
         <v>60</v>
@@ -4105,13 +3700,13 @@
         <v>2021</v>
       </c>
       <c r="X7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AA7">
         <v>16</v>
@@ -4123,7 +3718,7 @@
         <v>2021</v>
       </c>
       <c r="AE7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AF7">
         <v>24</v>
@@ -4185,13 +3780,13 @@
         <v>2021</v>
       </c>
       <c r="X8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA8">
         <v>9.6</v>
@@ -4203,7 +3798,7 @@
         <v>2021</v>
       </c>
       <c r="AE8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AF8">
         <v>16</v>
@@ -4265,13 +3860,13 @@
         <v>2021</v>
       </c>
       <c r="X9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA9">
         <v>14.4</v>
@@ -4283,7 +3878,7 @@
         <v>2021</v>
       </c>
       <c r="AE9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -4345,13 +3940,13 @@
         <v>2021</v>
       </c>
       <c r="X10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Z10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA10">
         <v>16</v>
@@ -4363,7 +3958,7 @@
         <v>2021</v>
       </c>
       <c r="AE10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AF10">
         <v>20</v>
@@ -4425,13 +4020,13 @@
         <v>2021</v>
       </c>
       <c r="X11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Y11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AA11">
         <v>20</v>
@@ -4443,7 +4038,7 @@
         <v>2021</v>
       </c>
       <c r="AE11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AF11">
         <v>30.4</v>
@@ -4505,13 +4100,13 @@
         <v>2021</v>
       </c>
       <c r="X12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Z12" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA12">
         <v>10</v>
@@ -4523,7 +4118,7 @@
         <v>2022</v>
       </c>
       <c r="AE12" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -4534,19 +4129,19 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="W13">
         <v>2022</v>
       </c>
       <c r="X13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Y13" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Z13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA13">
         <v>60</v>
@@ -4558,7 +4153,7 @@
         <v>2022</v>
       </c>
       <c r="AE13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AF13">
         <v>69.599999999999994</v>
@@ -4603,13 +4198,13 @@
         <v>2022</v>
       </c>
       <c r="X14" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Y14" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA14">
         <v>50</v>
@@ -4621,7 +4216,7 @@
         <v>2022</v>
       </c>
       <c r="AE14" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AF14">
         <v>19.5</v>
@@ -4631,6 +4226,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A15" s="32"/>
       <c r="B15">
         <v>2021</v>
       </c>
@@ -4668,13 +4264,13 @@
         <v>2022</v>
       </c>
       <c r="X15" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Y15" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z15" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AA15">
         <v>19.5</v>
@@ -4686,7 +4282,7 @@
         <v>2022</v>
       </c>
       <c r="AE15" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AF15">
         <v>60</v>
@@ -4733,13 +4329,13 @@
         <v>2022</v>
       </c>
       <c r="X16" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="Y16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AA16">
         <v>24</v>
@@ -4751,7 +4347,7 @@
         <v>2022</v>
       </c>
       <c r="AE16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AF16">
         <v>24</v>
@@ -4798,13 +4394,13 @@
         <v>2022</v>
       </c>
       <c r="X17" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Y17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z17" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AA17">
         <v>16</v>
@@ -4816,7 +4412,7 @@
         <v>2022</v>
       </c>
       <c r="AE17" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AF17">
         <v>16</v>
@@ -4863,13 +4459,13 @@
         <v>2022</v>
       </c>
       <c r="X18" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA18">
         <v>9.6</v>
@@ -4881,7 +4477,7 @@
         <v>2022</v>
       </c>
       <c r="AE18" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -4928,13 +4524,13 @@
         <v>2022</v>
       </c>
       <c r="X19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Y19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z19" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA19">
         <v>14.4</v>
@@ -4946,7 +4542,7 @@
         <v>2022</v>
       </c>
       <c r="AE19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AF19">
         <v>20</v>
@@ -4993,13 +4589,13 @@
         <v>2022</v>
       </c>
       <c r="X20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Y20" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Z20" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA20">
         <v>16</v>
@@ -5011,7 +4607,7 @@
         <v>2022</v>
       </c>
       <c r="AE20" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AF20">
         <v>30.4</v>
@@ -5058,13 +4654,13 @@
         <v>2022</v>
       </c>
       <c r="X21" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Y21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z21" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AA21">
         <v>20</v>
@@ -5076,7 +4672,7 @@
         <v>2023</v>
       </c>
       <c r="AE21" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -5119,17 +4715,18 @@
       <c r="L22" s="30">
         <v>0</v>
       </c>
+      <c r="M22" s="32"/>
       <c r="W22">
         <v>2022</v>
       </c>
       <c r="X22" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Y22" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Z22" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA22">
         <v>10</v>
@@ -5141,7 +4738,7 @@
         <v>2023</v>
       </c>
       <c r="AE22" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AF22">
         <v>69.599999999999994</v>
@@ -5188,13 +4785,13 @@
         <v>2023</v>
       </c>
       <c r="X23" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Y23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Z23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA23">
         <v>60</v>
@@ -5206,7 +4803,7 @@
         <v>2023</v>
       </c>
       <c r="AE23" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AF23">
         <v>19.5</v>
@@ -5253,13 +4850,13 @@
         <v>2023</v>
       </c>
       <c r="X24" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Y24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA24">
         <v>50</v>
@@ -5271,7 +4868,7 @@
         <v>2023</v>
       </c>
       <c r="AE24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AF24">
         <v>60</v>
@@ -5282,19 +4879,19 @@
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="W25">
         <v>2023</v>
       </c>
       <c r="X25" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Y25" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AA25">
         <v>19.5</v>
@@ -5306,7 +4903,7 @@
         <v>2023</v>
       </c>
       <c r="AE25" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AF25">
         <v>24</v>
@@ -5351,13 +4948,13 @@
         <v>2023</v>
       </c>
       <c r="X26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="Y26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z26" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AA26">
         <v>24</v>
@@ -5369,7 +4966,7 @@
         <v>2023</v>
       </c>
       <c r="AE26" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AF26">
         <v>16</v>
@@ -5416,13 +5013,13 @@
         <v>2023</v>
       </c>
       <c r="X27" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Y27" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z27" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AA27">
         <v>16</v>
@@ -5434,7 +5031,7 @@
         <v>2023</v>
       </c>
       <c r="AE27" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -5481,13 +5078,13 @@
         <v>2023</v>
       </c>
       <c r="X28" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y28" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z28" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA28">
         <v>9.6</v>
@@ -5499,7 +5096,7 @@
         <v>2023</v>
       </c>
       <c r="AE28" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AF28">
         <v>20</v>
@@ -5546,13 +5143,13 @@
         <v>2023</v>
       </c>
       <c r="X29" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Y29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z29" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA29">
         <v>14.4</v>
@@ -5564,7 +5161,7 @@
         <v>2023</v>
       </c>
       <c r="AE29" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AF29">
         <v>30.4</v>
@@ -5611,13 +5208,13 @@
         <v>2023</v>
       </c>
       <c r="X30" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Y30" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Z30" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA30">
         <v>16</v>
@@ -5629,7 +5226,7 @@
         <v>2024</v>
       </c>
       <c r="AE30" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -5676,13 +5273,13 @@
         <v>2023</v>
       </c>
       <c r="X31" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Y31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z31" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AA31">
         <v>20</v>
@@ -5694,7 +5291,7 @@
         <v>2024</v>
       </c>
       <c r="AE31" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AF31">
         <v>69.599999999999994</v>
@@ -5741,13 +5338,13 @@
         <v>2023</v>
       </c>
       <c r="X32" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Y32" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Z32" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA32">
         <v>10</v>
@@ -5759,7 +5356,7 @@
         <v>2024</v>
       </c>
       <c r="AE32" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AF32">
         <v>19.5</v>
@@ -5806,13 +5403,13 @@
         <v>2024</v>
       </c>
       <c r="X33" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Y33" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Z33" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA33">
         <v>60</v>
@@ -5824,7 +5421,7 @@
         <v>2024</v>
       </c>
       <c r="AE33" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AF33">
         <v>60</v>
@@ -5871,13 +5468,13 @@
         <v>2024</v>
       </c>
       <c r="X34" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Y34" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z34" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA34">
         <v>50</v>
@@ -5889,7 +5486,7 @@
         <v>2024</v>
       </c>
       <c r="AE34" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AF34">
         <v>24</v>
@@ -5936,13 +5533,13 @@
         <v>2024</v>
       </c>
       <c r="X35" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Y35" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AA35">
         <v>19.5</v>
@@ -5954,7 +5551,7 @@
         <v>2024</v>
       </c>
       <c r="AE35" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AF35">
         <v>16</v>
@@ -6001,13 +5598,13 @@
         <v>2024</v>
       </c>
       <c r="X36" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="Y36" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z36" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AA36">
         <v>24</v>
@@ -6019,7 +5616,7 @@
         <v>2024</v>
       </c>
       <c r="AE36" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -6030,19 +5627,19 @@
     </row>
     <row r="37" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="W37">
         <v>2024</v>
       </c>
       <c r="X37" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Y37" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z37" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AA37">
         <v>16</v>
@@ -6054,7 +5651,7 @@
         <v>2024</v>
       </c>
       <c r="AE37" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AF37">
         <v>20</v>
@@ -6099,13 +5696,13 @@
         <v>2024</v>
       </c>
       <c r="X38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y38" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z38" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA38">
         <v>9.6</v>
@@ -6117,7 +5714,7 @@
         <v>2024</v>
       </c>
       <c r="AE38" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AF38">
         <v>30.4</v>
@@ -6164,13 +5761,13 @@
         <v>2024</v>
       </c>
       <c r="X39" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Y39" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z39" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA39">
         <v>14.4</v>
@@ -6182,7 +5779,7 @@
         <v>2025</v>
       </c>
       <c r="AE39" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -6229,13 +5826,13 @@
         <v>2024</v>
       </c>
       <c r="X40" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Y40" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Z40" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA40">
         <v>16</v>
@@ -6247,7 +5844,7 @@
         <v>2025</v>
       </c>
       <c r="AE40" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AF40">
         <v>69.599999999999994</v>
@@ -6294,13 +5891,13 @@
         <v>2024</v>
       </c>
       <c r="X41" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Y41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z41" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AA41">
         <v>20</v>
@@ -6312,7 +5909,7 @@
         <v>2025</v>
       </c>
       <c r="AE41" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AF41">
         <v>19.5</v>
@@ -6359,13 +5956,13 @@
         <v>2024</v>
       </c>
       <c r="X42" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Y42" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Z42" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA42">
         <v>10</v>
@@ -6377,7 +5974,7 @@
         <v>2025</v>
       </c>
       <c r="AE42" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AF42">
         <v>60</v>
@@ -6424,13 +6021,13 @@
         <v>2025</v>
       </c>
       <c r="X43" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Y43" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Z43" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA43">
         <v>60</v>
@@ -6442,7 +6039,7 @@
         <v>2025</v>
       </c>
       <c r="AE43" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AF43">
         <v>24</v>
@@ -6489,13 +6086,13 @@
         <v>2025</v>
       </c>
       <c r="X44" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Y44" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z44" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA44">
         <v>50</v>
@@ -6507,7 +6104,7 @@
         <v>2025</v>
       </c>
       <c r="AE44" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AF44">
         <v>16</v>
@@ -6554,13 +6151,13 @@
         <v>2025</v>
       </c>
       <c r="X45" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Y45" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z45" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AA45">
         <v>19.5</v>
@@ -6572,7 +6169,7 @@
         <v>2025</v>
       </c>
       <c r="AE45" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -6619,13 +6216,13 @@
         <v>2025</v>
       </c>
       <c r="X46" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="Y46" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z46" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AA46">
         <v>24</v>
@@ -6637,7 +6234,7 @@
         <v>2025</v>
       </c>
       <c r="AE46" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AF46">
         <v>20</v>
@@ -6684,13 +6281,13 @@
         <v>2025</v>
       </c>
       <c r="X47" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Y47" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z47" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AA47">
         <v>16</v>
@@ -6702,7 +6299,7 @@
         <v>2025</v>
       </c>
       <c r="AE47" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AF47">
         <v>30.4</v>
@@ -6749,13 +6346,13 @@
         <v>2025</v>
       </c>
       <c r="X48" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y48" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z48" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA48">
         <v>9.6</v>
@@ -6767,7 +6364,7 @@
         <v>2026</v>
       </c>
       <c r="AE48" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -6781,13 +6378,13 @@
         <v>2025</v>
       </c>
       <c r="X49" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Y49" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z49" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA49">
         <v>14.4</v>
@@ -6799,7 +6396,7 @@
         <v>2026</v>
       </c>
       <c r="AE49" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AF49">
         <v>69.599999999999994</v>
@@ -6813,13 +6410,13 @@
         <v>2025</v>
       </c>
       <c r="X50" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Y50" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Z50" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA50">
         <v>16</v>
@@ -6831,7 +6428,7 @@
         <v>2026</v>
       </c>
       <c r="AE50" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AF50">
         <v>19.5</v>
@@ -6845,13 +6442,13 @@
         <v>2025</v>
       </c>
       <c r="X51" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Y51" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z51" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AA51">
         <v>20</v>
@@ -6863,7 +6460,7 @@
         <v>2026</v>
       </c>
       <c r="AE51" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AF51">
         <v>60</v>
@@ -6877,13 +6474,13 @@
         <v>2025</v>
       </c>
       <c r="X52" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Y52" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Z52" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA52">
         <v>10</v>
@@ -6895,7 +6492,7 @@
         <v>2026</v>
       </c>
       <c r="AE52" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AF52">
         <v>24</v>
@@ -6909,13 +6506,13 @@
         <v>2026</v>
       </c>
       <c r="X53" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Y53" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Z53" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA53">
         <v>60</v>
@@ -6927,7 +6524,7 @@
         <v>2026</v>
       </c>
       <c r="AE53" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AF53">
         <v>16</v>
@@ -6941,13 +6538,13 @@
         <v>2026</v>
       </c>
       <c r="X54" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Y54" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z54" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA54">
         <v>50</v>
@@ -6959,7 +6556,7 @@
         <v>2026</v>
       </c>
       <c r="AE54" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -6973,13 +6570,13 @@
         <v>2026</v>
       </c>
       <c r="X55" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Y55" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z55" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AA55">
         <v>19.5</v>
@@ -6991,7 +6588,7 @@
         <v>2026</v>
       </c>
       <c r="AE55" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AF55">
         <v>20</v>
@@ -7005,13 +6602,13 @@
         <v>2026</v>
       </c>
       <c r="X56" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="Y56" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z56" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AA56">
         <v>24</v>
@@ -7023,7 +6620,7 @@
         <v>2026</v>
       </c>
       <c r="AE56" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AF56">
         <v>30.4</v>
@@ -7037,13 +6634,13 @@
         <v>2026</v>
       </c>
       <c r="X57" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Y57" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z57" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AA57">
         <v>16</v>
@@ -7055,7 +6652,7 @@
         <v>2027</v>
       </c>
       <c r="AE57" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -7069,13 +6666,13 @@
         <v>2026</v>
       </c>
       <c r="X58" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y58" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z58" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA58">
         <v>9.6</v>
@@ -7087,7 +6684,7 @@
         <v>2027</v>
       </c>
       <c r="AE58" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AF58">
         <v>69.599999999999994</v>
@@ -7101,13 +6698,13 @@
         <v>2026</v>
       </c>
       <c r="X59" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Y59" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z59" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA59">
         <v>14.4</v>
@@ -7119,7 +6716,7 @@
         <v>2027</v>
       </c>
       <c r="AE59" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AF59">
         <v>19.5</v>
@@ -7133,13 +6730,13 @@
         <v>2026</v>
       </c>
       <c r="X60" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Y60" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Z60" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA60">
         <v>16</v>
@@ -7151,7 +6748,7 @@
         <v>2027</v>
       </c>
       <c r="AE60" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AF60">
         <v>60</v>
@@ -7165,13 +6762,13 @@
         <v>2026</v>
       </c>
       <c r="X61" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Y61" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z61" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AA61">
         <v>20</v>
@@ -7183,7 +6780,7 @@
         <v>2027</v>
       </c>
       <c r="AE61" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AF61">
         <v>24</v>
@@ -7197,13 +6794,13 @@
         <v>2026</v>
       </c>
       <c r="X62" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Y62" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Z62" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA62">
         <v>10</v>
@@ -7215,7 +6812,7 @@
         <v>2027</v>
       </c>
       <c r="AE62" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AF62">
         <v>16</v>
@@ -7229,13 +6826,13 @@
         <v>2027</v>
       </c>
       <c r="X63" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Y63" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Z63" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA63">
         <v>60</v>
@@ -7247,7 +6844,7 @@
         <v>2027</v>
       </c>
       <c r="AE63" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -7261,13 +6858,13 @@
         <v>2027</v>
       </c>
       <c r="X64" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Y64" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z64" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA64">
         <v>50</v>
@@ -7279,7 +6876,7 @@
         <v>2027</v>
       </c>
       <c r="AE64" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AF64">
         <v>20</v>
@@ -7293,13 +6890,13 @@
         <v>2027</v>
       </c>
       <c r="X65" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Y65" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z65" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AA65">
         <v>19.5</v>
@@ -7311,7 +6908,7 @@
         <v>2027</v>
       </c>
       <c r="AE65" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AF65">
         <v>30.4</v>
@@ -7325,13 +6922,13 @@
         <v>2027</v>
       </c>
       <c r="X66" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="Y66" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z66" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AA66">
         <v>24</v>
@@ -7343,7 +6940,7 @@
         <v>2028</v>
       </c>
       <c r="AE66" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -7357,13 +6954,13 @@
         <v>2027</v>
       </c>
       <c r="X67" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Y67" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z67" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AA67">
         <v>16</v>
@@ -7375,7 +6972,7 @@
         <v>2028</v>
       </c>
       <c r="AE67" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AF67">
         <v>69.599999999999994</v>
@@ -7389,13 +6986,13 @@
         <v>2027</v>
       </c>
       <c r="X68" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y68" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z68" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA68">
         <v>9.6</v>
@@ -7407,7 +7004,7 @@
         <v>2028</v>
       </c>
       <c r="AE68" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AF68">
         <v>19.5</v>
@@ -7421,13 +7018,13 @@
         <v>2027</v>
       </c>
       <c r="X69" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Y69" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z69" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA69">
         <v>14.4</v>
@@ -7439,7 +7036,7 @@
         <v>2028</v>
       </c>
       <c r="AE69" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AF69">
         <v>60</v>
@@ -7453,13 +7050,13 @@
         <v>2027</v>
       </c>
       <c r="X70" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Y70" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Z70" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA70">
         <v>16</v>
@@ -7471,7 +7068,7 @@
         <v>2028</v>
       </c>
       <c r="AE70" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AF70">
         <v>24</v>
@@ -7485,13 +7082,13 @@
         <v>2027</v>
       </c>
       <c r="X71" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Y71" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z71" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AA71">
         <v>20</v>
@@ -7503,7 +7100,7 @@
         <v>2028</v>
       </c>
       <c r="AE71" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AF71">
         <v>16</v>
@@ -7517,13 +7114,13 @@
         <v>2027</v>
       </c>
       <c r="X72" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Y72" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Z72" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA72">
         <v>10</v>
@@ -7535,7 +7132,7 @@
         <v>2028</v>
       </c>
       <c r="AE72" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -7549,13 +7146,13 @@
         <v>2028</v>
       </c>
       <c r="X73" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Y73" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Z73" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA73">
         <v>60</v>
@@ -7567,7 +7164,7 @@
         <v>2028</v>
       </c>
       <c r="AE73" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AF73">
         <v>20</v>
@@ -7581,13 +7178,13 @@
         <v>2028</v>
       </c>
       <c r="X74" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Y74" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z74" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA74">
         <v>50</v>
@@ -7599,7 +7196,7 @@
         <v>2028</v>
       </c>
       <c r="AE74" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AF74">
         <v>30.4</v>
@@ -7613,13 +7210,13 @@
         <v>2028</v>
       </c>
       <c r="X75" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Y75" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z75" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AA75">
         <v>19.5</v>
@@ -7631,7 +7228,7 @@
         <v>2029</v>
       </c>
       <c r="AE75" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7645,13 +7242,13 @@
         <v>2028</v>
       </c>
       <c r="X76" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="Y76" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z76" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AA76">
         <v>24</v>
@@ -7663,7 +7260,7 @@
         <v>2029</v>
       </c>
       <c r="AE76" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AF76">
         <v>69.599999999999994</v>
@@ -7677,13 +7274,13 @@
         <v>2028</v>
       </c>
       <c r="X77" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Y77" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z77" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AA77">
         <v>16</v>
@@ -7695,7 +7292,7 @@
         <v>2029</v>
       </c>
       <c r="AE77" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AF77">
         <v>19.5</v>
@@ -7709,13 +7306,13 @@
         <v>2028</v>
       </c>
       <c r="X78" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y78" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z78" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA78">
         <v>9.6</v>
@@ -7727,7 +7324,7 @@
         <v>2029</v>
       </c>
       <c r="AE78" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AF78">
         <v>60</v>
@@ -7741,13 +7338,13 @@
         <v>2028</v>
       </c>
       <c r="X79" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Y79" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z79" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA79">
         <v>14.4</v>
@@ -7759,7 +7356,7 @@
         <v>2029</v>
       </c>
       <c r="AE79" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AF79">
         <v>24</v>
@@ -7773,13 +7370,13 @@
         <v>2028</v>
       </c>
       <c r="X80" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Y80" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Z80" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA80">
         <v>16</v>
@@ -7791,7 +7388,7 @@
         <v>2029</v>
       </c>
       <c r="AE80" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AF80">
         <v>16</v>
@@ -7805,13 +7402,13 @@
         <v>2028</v>
       </c>
       <c r="X81" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Y81" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z81" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AA81">
         <v>20</v>
@@ -7823,7 +7420,7 @@
         <v>2029</v>
       </c>
       <c r="AE81" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7837,13 +7434,13 @@
         <v>2028</v>
       </c>
       <c r="X82" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Y82" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Z82" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA82">
         <v>10</v>
@@ -7855,7 +7452,7 @@
         <v>2029</v>
       </c>
       <c r="AE82" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AF82">
         <v>20</v>
@@ -7869,13 +7466,13 @@
         <v>2029</v>
       </c>
       <c r="X83" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Y83" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Z83" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA83">
         <v>60</v>
@@ -7887,7 +7484,7 @@
         <v>2029</v>
       </c>
       <c r="AE83" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AF83">
         <v>30.4</v>
@@ -7901,13 +7498,13 @@
         <v>2029</v>
       </c>
       <c r="X84" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Y84" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z84" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA84">
         <v>50</v>
@@ -7919,7 +7516,7 @@
         <v>2030</v>
       </c>
       <c r="AE84" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7933,13 +7530,13 @@
         <v>2029</v>
       </c>
       <c r="X85" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Y85" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z85" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AA85">
         <v>19.5</v>
@@ -7951,7 +7548,7 @@
         <v>2030</v>
       </c>
       <c r="AE85" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AF85">
         <v>69.599999999999994</v>
@@ -7965,13 +7562,13 @@
         <v>2029</v>
       </c>
       <c r="X86" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="Y86" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z86" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AA86">
         <v>24</v>
@@ -7983,7 +7580,7 @@
         <v>2030</v>
       </c>
       <c r="AE86" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AF86">
         <v>19.5</v>
@@ -7997,13 +7594,13 @@
         <v>2029</v>
       </c>
       <c r="X87" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Y87" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z87" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AA87">
         <v>16</v>
@@ -8015,7 +7612,7 @@
         <v>2030</v>
       </c>
       <c r="AE87" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AF87">
         <v>60</v>
@@ -8029,13 +7626,13 @@
         <v>2029</v>
       </c>
       <c r="X88" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y88" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z88" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA88">
         <v>9.6</v>
@@ -8047,7 +7644,7 @@
         <v>2030</v>
       </c>
       <c r="AE88" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AF88">
         <v>24</v>
@@ -8061,13 +7658,13 @@
         <v>2029</v>
       </c>
       <c r="X89" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Y89" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z89" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA89">
         <v>14.4</v>
@@ -8079,7 +7676,7 @@
         <v>2030</v>
       </c>
       <c r="AE89" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AF89">
         <v>16</v>
@@ -8093,13 +7690,13 @@
         <v>2029</v>
       </c>
       <c r="X90" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Y90" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Z90" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA90">
         <v>16</v>
@@ -8111,7 +7708,7 @@
         <v>2030</v>
       </c>
       <c r="AE90" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8125,13 +7722,13 @@
         <v>2029</v>
       </c>
       <c r="X91" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Y91" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z91" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AA91">
         <v>20</v>
@@ -8143,7 +7740,7 @@
         <v>2030</v>
       </c>
       <c r="AE91" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AF91">
         <v>20</v>
@@ -8157,13 +7754,13 @@
         <v>2029</v>
       </c>
       <c r="X92" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Y92" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Z92" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA92">
         <v>10</v>
@@ -8175,7 +7772,7 @@
         <v>2030</v>
       </c>
       <c r="AE92" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AF92">
         <v>30.4</v>
@@ -8189,13 +7786,13 @@
         <v>2030</v>
       </c>
       <c r="X93" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Y93" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Z93" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA93">
         <v>60</v>
@@ -8209,13 +7806,13 @@
         <v>2030</v>
       </c>
       <c r="X94" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Y94" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z94" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA94">
         <v>50</v>
@@ -8229,13 +7826,13 @@
         <v>2030</v>
       </c>
       <c r="X95" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Y95" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Z95" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AA95">
         <v>19.5</v>
@@ -8249,13 +7846,13 @@
         <v>2030</v>
       </c>
       <c r="X96" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="Y96" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z96" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AA96">
         <v>24</v>
@@ -8269,13 +7866,13 @@
         <v>2030</v>
       </c>
       <c r="X97" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Y97" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z97" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AA97">
         <v>16</v>
@@ -8289,13 +7886,13 @@
         <v>2030</v>
       </c>
       <c r="X98" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y98" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z98" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA98">
         <v>9.6</v>
@@ -8309,13 +7906,13 @@
         <v>2030</v>
       </c>
       <c r="X99" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Y99" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Z99" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA99">
         <v>14.4</v>
@@ -8329,13 +7926,13 @@
         <v>2030</v>
       </c>
       <c r="X100" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Y100" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Z100" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA100">
         <v>16</v>
@@ -8349,13 +7946,13 @@
         <v>2030</v>
       </c>
       <c r="X101" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Y101" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z101" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AA101">
         <v>20</v>
@@ -8369,13 +7966,13 @@
         <v>2030</v>
       </c>
       <c r="X102" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Y102" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Z102" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA102">
         <v>10</v>
@@ -8406,18 +8003,58 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C2">
         <v>0.48</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12935D7-39CC-4336-870D-98DAC14A69ED}">
+  <dimension ref="C2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -8426,6 +8063,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100806C55B750152A459818B636E97A41C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="74fd9cb75cef04cf26a1ff9ddef01b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xmlns:ns3="145cc194-9bea-4db6-b116-a042a4529fcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afbcbfdd38894bc2ff0644b00c8ec680" ns2:_="" ns3:_="">
     <xsd:import namespace="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
@@ -8688,7 +8334,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
@@ -8700,16 +8346,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D60021C7-CA75-4673-96EA-55284BF81134}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8728,7 +8373,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8743,12 +8388,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClOrfani\PycharmProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B805BA-9E14-42F8-93B0-230D0489FB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47B6234-13E1-44A3-9626-4F9A57C2454F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
+    <workbookView xWindow="-14505" yWindow="135" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
@@ -662,9 +662,6 @@
     <t>FoldedNormal</t>
   </si>
   <si>
-    <t xml:space="preserve">Distribution Type </t>
-  </si>
-  <si>
     <t>Source_process</t>
   </si>
   <si>
@@ -708,6 +705,9 @@
   </si>
   <si>
     <t xml:space="preserve">tuple </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution_parameters </t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1551,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1596,7 +1596,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>11</v>
@@ -1655,28 +1655,28 @@
     <row r="3" spans="1:18" s="36" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="34"/>
       <c r="B3" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="D3" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>168</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="J3" s="35" t="s">
         <v>16</v>
@@ -2036,7 +2036,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distribution parameter" prompt="tuple = number or list of parameters separated by comma. Example: for stddev only number! e.g., 1. For shape and scale list separated by comma e.g., shape=1, scale=1.5" sqref="I4:I1048576" xr:uid="{564AD8C3-F96D-40DD-BFD1-1C6E073701B7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distribution parameter" prompt="tuple = number or list of parameters separated by comma. Example: for stddev only number! e.g., 1. For shape and scale list separated by comma e.g., shape=1, scale=1.5" sqref="I5:I1048576 I4" xr:uid="{564AD8C3-F96D-40DD-BFD1-1C6E073701B7}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2060,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B692AEE8-68EE-4B81-A49D-50BF066DFFE7}">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2182,31 +2182,31 @@
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="J3" s="25" t="s">
         <v>163</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>164</v>
       </c>
       <c r="K3" s="25" t="s">
         <v>148</v>
@@ -2224,7 +2224,7 @@
         <v>61</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q3" s="26" t="s">
         <v>150</v>
@@ -8027,7 +8027,7 @@
   <dimension ref="C2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClOrfani\PycharmProjects\aiphoria\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PythonProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47B6234-13E1-44A3-9626-4F9A57C2454F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512B59A2-9EB0-4FAA-B1B1-D3ABC6AECAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="135" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
     <sheet name="Processes" sheetId="6" r:id="rId2"/>
     <sheet name="Flows" sheetId="1" r:id="rId3"/>
     <sheet name="DMFA results (example)" sheetId="8" r:id="rId4"/>
-    <sheet name="Carbon fraction (will be moved)" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
+    <sheet name="Settings" sheetId="10" r:id="rId5"/>
+    <sheet name="Carbon fraction (will be moved)" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flows!$B$3:$M$89</definedName>
+    <definedName name="Boolean">Sheet1!$D$2:$D$3</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -80,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="201">
   <si>
     <t>Years</t>
   </si>
@@ -709,6 +711,93 @@
   <si>
     <t xml:space="preserve">Distribution_parameters </t>
   </si>
+  <si>
+    <t>These are the settings for the scenario file</t>
+  </si>
+  <si>
+    <t>Parameter name</t>
+  </si>
+  <si>
+    <t>sheet_name_processes</t>
+  </si>
+  <si>
+    <t>column_range_processes</t>
+  </si>
+  <si>
+    <t>B:R</t>
+  </si>
+  <si>
+    <t>skip_num_rows_processes</t>
+  </si>
+  <si>
+    <t>sheet_name_flows</t>
+  </si>
+  <si>
+    <t>column_range_flows</t>
+  </si>
+  <si>
+    <t>skip_num_rows_flows</t>
+  </si>
+  <si>
+    <t>Sheet name that contains data for Processes, e.g. (Processes)</t>
+  </si>
+  <si>
+    <t>Number of rows to skip when reading data for Processes (e.g. 2). NOTE: Header row must be the first row to read!</t>
+  </si>
+  <si>
+    <t>Sheet name that contains data for Flows, (e.g. Flows)</t>
+  </si>
+  <si>
+    <t>Start column name and end column name separated by colon (e.g. B:R) that contain data for Flows</t>
+  </si>
+  <si>
+    <t>Start column name and end column name separated by colon (e.g. B:R) that contain data for Processes</t>
+  </si>
+  <si>
+    <t>start_year</t>
+  </si>
+  <si>
+    <t>B:U</t>
+  </si>
+  <si>
+    <t>Starting year of the model</t>
+  </si>
+  <si>
+    <t>end_year</t>
+  </si>
+  <si>
+    <t>detect_year_range</t>
+  </si>
+  <si>
+    <t>Boolean values</t>
+  </si>
+  <si>
+    <t>Detect the year range automatically from file</t>
+  </si>
+  <si>
+    <t>use_virtual_flows</t>
+  </si>
+  <si>
+    <t>Use virtual flows. If enabled, creates missing flows for Processes that have imbalance of input and output flows i.e. unreported flows</t>
+  </si>
+  <si>
+    <t>conversion_factor_c_to_co2</t>
+  </si>
+  <si>
+    <t>Conversion factor from C to CO2</t>
+  </si>
+  <si>
+    <t>Ending year of the model, included in in time range</t>
+  </si>
+  <si>
+    <t>Example: first parameter sheet_name_processes goes to cell B6 and value Processes goes to cell C6.</t>
+  </si>
+  <si>
+    <t>NOTE: The parameters are read columns B and C and from row 7 downward, including that row.</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
 </sst>
 </file>
 
@@ -719,7 +808,7 @@
     <numFmt numFmtId="165" formatCode="0.0000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,6 +862,21 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.79998168889431442"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -864,7 +968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -946,6 +1050,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -966,8 +1079,59 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1355,175 +1519,173 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240816D1-B4FF-41BE-B292-8CF7D349FFB2}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.81640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="29" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.54296875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="21"/>
+    <col min="4" max="4" width="69.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="39"/>
-    </row>
-    <row r="2" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="203.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="38"/>
-    </row>
-    <row r="4" spans="1:5" s="22" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="45"/>
+    </row>
+    <row r="4" spans="1:5" s="22" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="41"/>
-    </row>
-    <row r="5" spans="1:5" s="22" customFormat="1" ht="96.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="48"/>
+    </row>
+    <row r="5" spans="1:5" s="22" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="41"/>
-    </row>
-    <row r="6" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="48"/>
+    </row>
+    <row r="6" spans="1:5" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="37"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D6" s="44"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="40"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="47"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="37"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8" s="44"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="40"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9" s="47"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="40"/>
-    </row>
-    <row r="11" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="47"/>
+    </row>
+    <row r="11" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="37"/>
-    </row>
-    <row r="12" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="44"/>
+    </row>
+    <row r="12" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>126</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="37"/>
-    </row>
-    <row r="13" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="44"/>
+    </row>
+    <row r="13" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1550,31 +1712,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0D592-75C1-4AD1-84F0-2AAE25CA0097}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" customWidth="1"/>
-    <col min="9" max="9" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" customWidth="1"/>
-    <col min="13" max="13" width="9.90625" customWidth="1"/>
-    <col min="14" max="14" width="13.36328125" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" customWidth="1"/>
-    <col min="16" max="16" width="11.81640625" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" customWidth="1"/>
-    <col min="18" max="18" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -1626,7 +1788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1652,7 +1814,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" s="36" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="35" t="s">
         <v>164</v>
@@ -1706,7 +1868,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1743,7 +1905,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1780,7 +1942,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1816,7 +1978,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1852,7 +2014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1888,7 +2050,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1924,7 +2086,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1960,7 +2122,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1996,7 +2158,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2032,7 +2194,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -2064,28 +2226,28 @@
       <selection activeCell="D1" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="20.36328125" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.6328125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2150,7 +2312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2179,7 +2341,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="25" t="s">
         <v>156</v>
@@ -2242,7 +2404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -2294,7 +2456,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>138</v>
       </c>
@@ -2346,7 +2508,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -2398,7 +2560,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -2450,7 +2612,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -2502,7 +2664,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>141</v>
       </c>
@@ -2554,7 +2716,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -2606,7 +2768,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -2657,7 +2819,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -2709,7 +2871,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -2760,160 +2922,160 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="N14"/>
       <c r="Q14" s="29"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="N15"/>
       <c r="Q15" s="29"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="N16"/>
       <c r="Q16" s="29"/>
     </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="N17"/>
       <c r="Q17" s="29"/>
     </row>
-    <row r="18" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="N18"/>
       <c r="Q18" s="29"/>
     </row>
-    <row r="19" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="N19"/>
     </row>
-    <row r="20" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="N21"/>
       <c r="Q21" s="29"/>
     </row>
-    <row r="22" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="N22"/>
       <c r="Q22" s="29"/>
     </row>
-    <row r="23" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="N23"/>
       <c r="Q23" s="29"/>
     </row>
-    <row r="24" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="N39"/>
       <c r="O39"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="N40"/>
       <c r="O40"/>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="N41"/>
       <c r="O41"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="N42"/>
       <c r="O42"/>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="N43"/>
       <c r="O43"/>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" s="29" t="s">
         <v>147</v>
       </c>
@@ -2922,258 +3084,258 @@
       <c r="N44"/>
       <c r="O44"/>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="9"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="N45"/>
       <c r="O45"/>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="N46"/>
       <c r="O46"/>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="N47"/>
       <c r="O47"/>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="N48"/>
       <c r="O48"/>
     </row>
-    <row r="49" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="N49"/>
       <c r="O49"/>
     </row>
-    <row r="50" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="N50"/>
       <c r="O50"/>
     </row>
-    <row r="51" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="N51"/>
       <c r="O51"/>
     </row>
-    <row r="52" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="N52"/>
       <c r="O52"/>
     </row>
-    <row r="53" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="N53"/>
       <c r="O53"/>
     </row>
-    <row r="54" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="N54"/>
       <c r="O54"/>
     </row>
-    <row r="55" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="N55"/>
       <c r="O55"/>
     </row>
-    <row r="56" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="N56"/>
       <c r="O56"/>
     </row>
-    <row r="57" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="N57"/>
       <c r="O57"/>
     </row>
-    <row r="58" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="N58"/>
       <c r="O58"/>
     </row>
-    <row r="59" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="N59"/>
       <c r="O59"/>
     </row>
-    <row r="60" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="N60"/>
       <c r="O60"/>
     </row>
-    <row r="61" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="N61"/>
       <c r="O61"/>
     </row>
-    <row r="62" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="N62"/>
       <c r="O62"/>
     </row>
-    <row r="63" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="N63"/>
       <c r="O63"/>
     </row>
-    <row r="64" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="N64"/>
       <c r="O64"/>
     </row>
-    <row r="65" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="N65"/>
       <c r="O65"/>
     </row>
-    <row r="66" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="N66"/>
       <c r="O66"/>
     </row>
-    <row r="67" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="N67"/>
       <c r="O67"/>
     </row>
-    <row r="68" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="N68"/>
       <c r="O68"/>
     </row>
-    <row r="69" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="N69"/>
       <c r="O69"/>
     </row>
-    <row r="70" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="N70"/>
       <c r="O70"/>
     </row>
-    <row r="71" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="N71"/>
       <c r="O71"/>
     </row>
-    <row r="72" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="N72"/>
       <c r="O72"/>
     </row>
-    <row r="73" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="N75"/>
       <c r="O75"/>
     </row>
-    <row r="76" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="N76"/>
       <c r="O76"/>
     </row>
-    <row r="77" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="N77"/>
       <c r="O77"/>
     </row>
-    <row r="78" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="N78"/>
       <c r="O78"/>
     </row>
-    <row r="79" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="N79"/>
       <c r="O79"/>
     </row>
-    <row r="80" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="N80"/>
       <c r="O80"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="N81"/>
       <c r="O81"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="N82"/>
       <c r="O82"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="N83"/>
       <c r="O83"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="N84"/>
       <c r="O84"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="N85"/>
       <c r="O85"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N86"/>
       <c r="O86"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -3184,25 +3346,25 @@
       <c r="N87"/>
       <c r="O87"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="N88"/>
       <c r="O88"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="N89"/>
       <c r="O89"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="N90"/>
       <c r="O90"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="N91"/>
@@ -3231,20 +3393,20 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.81640625" customWidth="1"/>
-    <col min="2" max="12" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" customWidth="1"/>
-    <col min="16" max="16" width="15.26953125" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.54296875" customWidth="1"/>
-    <col min="28" max="28" width="21.54296875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.5703125" customWidth="1"/>
+    <col min="28" max="28" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>120</v>
       </c>
@@ -3252,7 +3414,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>121</v>
       </c>
@@ -3327,7 +3489,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2021</v>
       </c>
@@ -3407,7 +3569,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2022</v>
       </c>
@@ -3487,7 +3649,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2023</v>
       </c>
@@ -3567,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2024</v>
       </c>
@@ -3647,7 +3809,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2025</v>
       </c>
@@ -3727,7 +3889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2026</v>
       </c>
@@ -3807,7 +3969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2027</v>
       </c>
@@ -3887,7 +4049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2028</v>
       </c>
@@ -3967,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2029</v>
       </c>
@@ -4047,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2030</v>
       </c>
@@ -4127,7 +4289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>151</v>
       </c>
@@ -4162,7 +4324,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14">
         <v>2021</v>
@@ -4225,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15">
         <v>2021</v>
@@ -4291,7 +4453,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2022</v>
       </c>
@@ -4356,7 +4518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2023</v>
       </c>
@@ -4421,7 +4583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2024</v>
       </c>
@@ -4486,7 +4648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2025</v>
       </c>
@@ -4551,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2026</v>
       </c>
@@ -4616,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2027</v>
       </c>
@@ -4681,7 +4843,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2028</v>
       </c>
@@ -4747,7 +4909,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2029</v>
       </c>
@@ -4812,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2030</v>
       </c>
@@ -4877,7 +5039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>90</v>
       </c>
@@ -4912,7 +5074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26">
         <v>2021</v>
@@ -4975,7 +5137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2021</v>
       </c>
@@ -5040,7 +5202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2022</v>
       </c>
@@ -5105,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>2023</v>
       </c>
@@ -5170,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2024</v>
       </c>
@@ -5235,7 +5397,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2025</v>
       </c>
@@ -5300,7 +5462,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2026</v>
       </c>
@@ -5365,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2027</v>
       </c>
@@ -5430,7 +5592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>2028</v>
       </c>
@@ -5495,7 +5657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>2029</v>
       </c>
@@ -5560,7 +5722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>2030</v>
       </c>
@@ -5625,7 +5787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>91</v>
       </c>
@@ -5660,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B38" s="32"/>
       <c r="C38">
         <v>2021</v>
@@ -5723,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2021</v>
       </c>
@@ -5788,7 +5950,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2022</v>
       </c>
@@ -5853,7 +6015,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2023</v>
       </c>
@@ -5918,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2024</v>
       </c>
@@ -5983,7 +6145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>2025</v>
       </c>
@@ -6048,7 +6210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2026</v>
       </c>
@@ -6113,7 +6275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2027</v>
       </c>
@@ -6178,7 +6340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2028</v>
       </c>
@@ -6243,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>2029</v>
       </c>
@@ -6308,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>2030</v>
       </c>
@@ -6373,7 +6535,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W49">
         <v>2025</v>
       </c>
@@ -6405,7 +6567,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="50" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W50">
         <v>2025</v>
       </c>
@@ -6437,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W51">
         <v>2025</v>
       </c>
@@ -6469,7 +6631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W52">
         <v>2025</v>
       </c>
@@ -6501,7 +6663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W53">
         <v>2026</v>
       </c>
@@ -6533,7 +6695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W54">
         <v>2026</v>
       </c>
@@ -6565,7 +6727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W55">
         <v>2026</v>
       </c>
@@ -6597,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W56">
         <v>2026</v>
       </c>
@@ -6629,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W57">
         <v>2026</v>
       </c>
@@ -6661,7 +6823,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="58" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W58">
         <v>2026</v>
       </c>
@@ -6693,7 +6855,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="59" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="59" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W59">
         <v>2026</v>
       </c>
@@ -6725,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="60" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W60">
         <v>2026</v>
       </c>
@@ -6757,7 +6919,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="61" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W61">
         <v>2026</v>
       </c>
@@ -6789,7 +6951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="62" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W62">
         <v>2026</v>
       </c>
@@ -6821,7 +6983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="63" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W63">
         <v>2027</v>
       </c>
@@ -6853,7 +7015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="64" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W64">
         <v>2027</v>
       </c>
@@ -6885,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="65" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W65">
         <v>2027</v>
       </c>
@@ -6917,7 +7079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="66" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W66">
         <v>2027</v>
       </c>
@@ -6949,7 +7111,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="67" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W67">
         <v>2027</v>
       </c>
@@ -6981,7 +7143,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="68" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="68" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W68">
         <v>2027</v>
       </c>
@@ -7013,7 +7175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="69" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W69">
         <v>2027</v>
       </c>
@@ -7045,7 +7207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="70" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W70">
         <v>2027</v>
       </c>
@@ -7077,7 +7239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="71" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W71">
         <v>2027</v>
       </c>
@@ -7109,7 +7271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="72" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W72">
         <v>2027</v>
       </c>
@@ -7141,7 +7303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="73" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W73">
         <v>2028</v>
       </c>
@@ -7173,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="74" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W74">
         <v>2028</v>
       </c>
@@ -7205,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="75" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W75">
         <v>2028</v>
       </c>
@@ -7237,7 +7399,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="76" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W76">
         <v>2028</v>
       </c>
@@ -7269,7 +7431,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="77" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="77" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W77">
         <v>2028</v>
       </c>
@@ -7301,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="78" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W78">
         <v>2028</v>
       </c>
@@ -7333,7 +7495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="79" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W79">
         <v>2028</v>
       </c>
@@ -7365,7 +7527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="80" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W80">
         <v>2028</v>
       </c>
@@ -7397,7 +7559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="81" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W81">
         <v>2028</v>
       </c>
@@ -7429,7 +7591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="82" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W82">
         <v>2028</v>
       </c>
@@ -7461,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W83">
         <v>2029</v>
       </c>
@@ -7493,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="84" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W84">
         <v>2029</v>
       </c>
@@ -7525,7 +7687,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="85" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W85">
         <v>2029</v>
       </c>
@@ -7557,7 +7719,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="86" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="86" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W86">
         <v>2029</v>
       </c>
@@ -7589,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="87" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W87">
         <v>2029</v>
       </c>
@@ -7621,7 +7783,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="88" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W88">
         <v>2029</v>
       </c>
@@ -7653,7 +7815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="89" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W89">
         <v>2029</v>
       </c>
@@ -7685,7 +7847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="90" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W90">
         <v>2029</v>
       </c>
@@ -7717,7 +7879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="91" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W91">
         <v>2029</v>
       </c>
@@ -7749,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="92" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W92">
         <v>2029</v>
       </c>
@@ -7781,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="93" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W93">
         <v>2030</v>
       </c>
@@ -7801,7 +7963,7 @@
         <v>12.205439999999999</v>
       </c>
     </row>
-    <row r="94" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="94" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W94">
         <v>2030</v>
       </c>
@@ -7821,7 +7983,7 @@
         <v>10.171200000000001</v>
       </c>
     </row>
-    <row r="95" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="95" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W95">
         <v>2030</v>
       </c>
@@ -7841,7 +8003,7 @@
         <v>3.6972</v>
       </c>
     </row>
-    <row r="96" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="96" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W96">
         <v>2030</v>
       </c>
@@ -7861,7 +8023,7 @@
         <v>5.5296000000000003</v>
       </c>
     </row>
-    <row r="97" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="97" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W97">
         <v>2030</v>
       </c>
@@ -7881,7 +8043,7 @@
         <v>3.456</v>
       </c>
     </row>
-    <row r="98" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="98" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W98">
         <v>2030</v>
       </c>
@@ -7901,7 +8063,7 @@
         <v>2.21184</v>
       </c>
     </row>
-    <row r="99" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="99" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W99">
         <v>2030</v>
       </c>
@@ -7921,7 +8083,7 @@
         <v>3.1103999999999998</v>
       </c>
     </row>
-    <row r="100" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="100" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W100">
         <v>2030</v>
       </c>
@@ -7941,7 +8103,7 @@
         <v>3.456</v>
       </c>
     </row>
-    <row r="101" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="101" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W101">
         <v>2030</v>
       </c>
@@ -7961,7 +8123,7 @@
         <v>4.0684800000000001</v>
       </c>
     </row>
-    <row r="102" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="102" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W102">
         <v>2030</v>
       </c>
@@ -7987,26 +8149,223 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE76F46E-F9E0-4FFD-9C15-07511C841BF9}">
+  <dimension ref="B2:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="103.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="41">
+        <v>2</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="41">
+        <v>2</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="41">
+        <v>2021</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="41">
+        <v>2030</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="39">
+        <v>3.67</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C15:C16">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C16" xr:uid="{5D3B6C52-629A-48C0-B345-97745DEAC80B}">
+      <formula1>Boolean</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C620F7-4B8A-4ECD-9835-AFC6C4EF2431}">
   <dimension ref="B1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>132</v>
       </c>
@@ -8022,37 +8381,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12935D7-39CC-4336-870D-98DAC14A69ED}">
-  <dimension ref="C2:C6"/>
+  <dimension ref="C1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>154</v>
       </c>

--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PythonProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512B59A2-9EB0-4FAA-B1B1-D3ABC6AECAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCB440C-CAE7-4CCD-8E7D-A81CDB95CF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="203">
   <si>
     <t>Years</t>
   </si>
@@ -797,6 +797,12 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>virtual_flows_epsilon</t>
+  </si>
+  <si>
+    <t>If using virtual flows, create virtual flow to process if process total inputs and outputs difference is greater than this value</t>
   </si>
 </sst>
 </file>
@@ -1079,37 +1085,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1712,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0D592-75C1-4AD1-84F0-2AAE25CA0097}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,7 +2174,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distribution parameter" prompt="tuple = number or list of parameters separated by comma. Example: for stddev only number! e.g., 1. For shape and scale list separated by comma e.g., shape=1, scale=1.5" sqref="I5:I1048576 I4" xr:uid="{564AD8C3-F96D-40DD-BFD1-1C6E073701B7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distribution parameter" prompt="tuple = number or list of parameters separated by comma. Example: for stddev only number! e.g., 1. For shape and scale list separated by comma e.g., shape=1, scale=1.5" sqref="I4:I1048576" xr:uid="{564AD8C3-F96D-40DD-BFD1-1C6E073701B7}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2223,7 +2199,7 @@
   <dimension ref="A1:U91"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2541,7 +2517,7 @@
         <v>Residues:FI</v>
       </c>
       <c r="J6">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="K6" t="s">
         <v>136</v>
@@ -2612,7 +2588,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -8150,10 +8126,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE76F46E-F9E0-4FFD-9C15-07511C841BF9}">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8317,13 +8293,24 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>195</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C18" s="39">
         <v>3.67</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" t="s">
         <v>196</v>
       </c>
     </row>
@@ -8385,14 +8372,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12935D7-39CC-4336-870D-98DAC14A69ED}">
   <dimension ref="C1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:4" x14ac:dyDescent="0.25">
@@ -8437,12 +8423,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
+    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8709,21 +8698,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
-    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8748,18 +8743,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PythonProjects\aiphoria\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClOrfani\PycharmProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCB440C-CAE7-4CCD-8E7D-A81CDB95CF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703DEB7B-10D8-45FB-ABB2-2A52C8BD3357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
-    <sheet name="Processes" sheetId="6" r:id="rId2"/>
-    <sheet name="Flows" sheetId="1" r:id="rId3"/>
-    <sheet name="DMFA results (example)" sheetId="8" r:id="rId4"/>
-    <sheet name="Settings" sheetId="10" r:id="rId5"/>
+    <sheet name="Settings" sheetId="10" r:id="rId2"/>
+    <sheet name="Processes" sheetId="6" r:id="rId3"/>
+    <sheet name="Flows" sheetId="1" r:id="rId4"/>
+    <sheet name="DMFA results (example)" sheetId="8" r:id="rId5"/>
     <sheet name="Carbon fraction (will be moved)" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flows!$B$3:$M$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Flows!$B$3:$M$89</definedName>
     <definedName name="Boolean">Sheet1!$D$2:$D$3</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -225,43 +225,6 @@
     <t xml:space="preserve">If the system is not balanced (Inputs not equal to outputs) then aiphoria creates virtual flows to show the imbalances. Virtual flows can toggled off from the notebook. </t>
   </si>
   <si>
-    <r>
-      <t>This sheet is the starting point for aiphoria.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> User define what process/nodes to be included in the study</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. With the transformation stages it's possible to locate the nodes in a graph. Life time (LT) and LT distribution are included to consider stock distribution in ODYM. LT is not considered in the sankey diagram but in ODYM calculations. Define the name of the process, its stage within the system boundaries, location, distribution type and distribution parameters (see ODYM tutorials/guides). At the end you should have a process ID with the name and location (e.g. P1:EU). After you have described all the processes within you system, you can move to the flows spreadsheet. It is advised to visualise your system (e.g. using https://excalidraw.com/) before you start implimenting in aiphoria. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Columns B to I need be filled in for aiphoria to run.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Must filled in cells </t>
   </si>
   <si>
@@ -509,9 +472,6 @@
   </si>
   <si>
     <t xml:space="preserve">Results </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The carbon fraction sheet is only temproary here and it is being used by thte Flows sheet. In the next version of aiphoria this will be moved somewhere else. </t>
   </si>
   <si>
     <t>Carbon fraction</t>
@@ -575,7 +535,205 @@
     </r>
   </si>
   <si>
-    <t>This is the input file of aiphoria where the user defines the processes/nodes and flows/arrows/edges within the preferred system. Aiphoria helps visualizing the system in the form of a sankey diagram and later passes the information to ODYM to conduct material flows analysis. aiphoria supports both static and dynamic assessments (e.g from 2021 to 2050). If can be used to assess any system but as an initial development it aims to support dynamic wood material flows analysis (i.e. tracking of wood product flows throughtout the value chain and life cycle stage) and temporary carbon accounting.</t>
+    <t>Mm3 SWE</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://excalidraw.com/#json=acMq06Ek074LvgJQcBgt-,_z-k-OWtxYKdxCtl_tJVQg </t>
+  </si>
+  <si>
+    <t>Unit*</t>
+  </si>
+  <si>
+    <t>Year*</t>
+  </si>
+  <si>
+    <t>Carbon_content_conversion_source</t>
+  </si>
+  <si>
+    <t>SWE Mm3 SC</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>LogNormal</t>
+  </si>
+  <si>
+    <t>Weibull</t>
+  </si>
+  <si>
+    <t>FoldedNormal</t>
+  </si>
+  <si>
+    <t>Source_process</t>
+  </si>
+  <si>
+    <t>Transformation_Stage</t>
+  </si>
+  <si>
+    <t>Source_process_location</t>
+  </si>
+  <si>
+    <t>Target_process</t>
+  </si>
+  <si>
+    <t>Target_process_location</t>
+  </si>
+  <si>
+    <t>Source _ID</t>
+  </si>
+  <si>
+    <t>Target_ID</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Process_location</t>
+  </si>
+  <si>
+    <t>Process_ID</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>Distribution_type</t>
+  </si>
+  <si>
+    <t>Carbon_content_conversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuple </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution_parameters </t>
+  </si>
+  <si>
+    <t>These are the settings for the scenario file</t>
+  </si>
+  <si>
+    <t>Parameter name</t>
+  </si>
+  <si>
+    <t>sheet_name_processes</t>
+  </si>
+  <si>
+    <t>column_range_processes</t>
+  </si>
+  <si>
+    <t>B:R</t>
+  </si>
+  <si>
+    <t>skip_num_rows_processes</t>
+  </si>
+  <si>
+    <t>sheet_name_flows</t>
+  </si>
+  <si>
+    <t>column_range_flows</t>
+  </si>
+  <si>
+    <t>skip_num_rows_flows</t>
+  </si>
+  <si>
+    <t>Sheet name that contains data for Processes, e.g. (Processes)</t>
+  </si>
+  <si>
+    <t>Number of rows to skip when reading data for Processes (e.g. 2). NOTE: Header row must be the first row to read!</t>
+  </si>
+  <si>
+    <t>Sheet name that contains data for Flows, (e.g. Flows)</t>
+  </si>
+  <si>
+    <t>Start column name and end column name separated by colon (e.g. B:R) that contain data for Flows</t>
+  </si>
+  <si>
+    <t>Start column name and end column name separated by colon (e.g. B:R) that contain data for Processes</t>
+  </si>
+  <si>
+    <t>start_year</t>
+  </si>
+  <si>
+    <t>B:U</t>
+  </si>
+  <si>
+    <t>Starting year of the model</t>
+  </si>
+  <si>
+    <t>end_year</t>
+  </si>
+  <si>
+    <t>detect_year_range</t>
+  </si>
+  <si>
+    <t>Boolean values</t>
+  </si>
+  <si>
+    <t>Detect the year range automatically from file</t>
+  </si>
+  <si>
+    <t>use_virtual_flows</t>
+  </si>
+  <si>
+    <t>Use virtual flows. If enabled, creates missing flows for Processes that have imbalance of input and output flows i.e. unreported flows</t>
+  </si>
+  <si>
+    <t>conversion_factor_c_to_co2</t>
+  </si>
+  <si>
+    <t>Conversion factor from C to CO2</t>
+  </si>
+  <si>
+    <t>Ending year of the model, included in in time range</t>
+  </si>
+  <si>
+    <t>Example: first parameter sheet_name_processes goes to cell B6 and value Processes goes to cell C6.</t>
+  </si>
+  <si>
+    <t>NOTE: The parameters are read columns B and C and from row 7 downward, including that row.</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>virtual_flows_epsilon</t>
+  </si>
+  <si>
+    <t>If using virtual flows, create virtual flow to process if process total inputs and outputs difference is greater than this value</t>
   </si>
   <si>
     <r>
@@ -600,209 +758,51 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (e.g. P3:EU -&gt; P5:EU with value: 100%)  </t>
+      <t xml:space="preserve"> (e.g. P3:EU -&gt; P5:EU with value: 50%)  </t>
     </r>
   </si>
   <si>
-    <t>Mm3 SWE</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://excalidraw.com/#json=acMq06Ek074LvgJQcBgt-,_z-k-OWtxYKdxCtl_tJVQg </t>
-  </si>
-  <si>
-    <t>Unit*</t>
-  </si>
-  <si>
-    <t>Year*</t>
-  </si>
-  <si>
-    <t>Carbon_content_conversion_source</t>
-  </si>
-  <si>
-    <t>SWE Mm3 SC</t>
-  </si>
-  <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>LogNormal</t>
-  </si>
-  <si>
-    <t>Weibull</t>
-  </si>
-  <si>
-    <t>FoldedNormal</t>
-  </si>
-  <si>
-    <t>Source_process</t>
-  </si>
-  <si>
-    <t>Transformation_Stage</t>
-  </si>
-  <si>
-    <t>Source_process_location</t>
-  </si>
-  <si>
-    <t>Target_process</t>
-  </si>
-  <si>
-    <t>Target_process_location</t>
-  </si>
-  <si>
-    <t>Source _ID</t>
-  </si>
-  <si>
-    <t>Target_ID</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>Process_location</t>
-  </si>
-  <si>
-    <t>Process_ID</t>
-  </si>
-  <si>
-    <t>Lifetime</t>
-  </si>
-  <si>
-    <t>Distribution_type</t>
-  </si>
-  <si>
-    <t>Carbon_content_conversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tuple </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution_parameters </t>
-  </si>
-  <si>
-    <t>These are the settings for the scenario file</t>
-  </si>
-  <si>
-    <t>Parameter name</t>
-  </si>
-  <si>
-    <t>sheet_name_processes</t>
-  </si>
-  <si>
-    <t>column_range_processes</t>
-  </si>
-  <si>
-    <t>B:R</t>
-  </si>
-  <si>
-    <t>skip_num_rows_processes</t>
-  </si>
-  <si>
-    <t>sheet_name_flows</t>
-  </si>
-  <si>
-    <t>column_range_flows</t>
-  </si>
-  <si>
-    <t>skip_num_rows_flows</t>
-  </si>
-  <si>
-    <t>Sheet name that contains data for Processes, e.g. (Processes)</t>
-  </si>
-  <si>
-    <t>Number of rows to skip when reading data for Processes (e.g. 2). NOTE: Header row must be the first row to read!</t>
-  </si>
-  <si>
-    <t>Sheet name that contains data for Flows, (e.g. Flows)</t>
-  </si>
-  <si>
-    <t>Start column name and end column name separated by colon (e.g. B:R) that contain data for Flows</t>
-  </si>
-  <si>
-    <t>Start column name and end column name separated by colon (e.g. B:R) that contain data for Processes</t>
-  </si>
-  <si>
-    <t>start_year</t>
-  </si>
-  <si>
-    <t>B:U</t>
-  </si>
-  <si>
-    <t>Starting year of the model</t>
-  </si>
-  <si>
-    <t>end_year</t>
-  </si>
-  <si>
-    <t>detect_year_range</t>
-  </si>
-  <si>
-    <t>Boolean values</t>
-  </si>
-  <si>
-    <t>Detect the year range automatically from file</t>
-  </si>
-  <si>
-    <t>use_virtual_flows</t>
-  </si>
-  <si>
-    <t>Use virtual flows. If enabled, creates missing flows for Processes that have imbalance of input and output flows i.e. unreported flows</t>
-  </si>
-  <si>
-    <t>conversion_factor_c_to_co2</t>
-  </si>
-  <si>
-    <t>Conversion factor from C to CO2</t>
-  </si>
-  <si>
-    <t>Ending year of the model, included in in time range</t>
-  </si>
-  <si>
-    <t>Example: first parameter sheet_name_processes goes to cell B6 and value Processes goes to cell C6.</t>
-  </si>
-  <si>
-    <t>NOTE: The parameters are read columns B and C and from row 7 downward, including that row.</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>virtual_flows_epsilon</t>
-  </si>
-  <si>
-    <t>If using virtual flows, create virtual flow to process if process total inputs and outputs difference is greater than this value</t>
+    <t xml:space="preserve">The carbon fraction sheet is only temprorary here and it is being used by thee Flows sheet. In the next version of aiphoria this will be moved. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the input file of aiphoria where the user defines the processes/nodes and flows/arrows/edges within the preferred system. aiphoria supports both static and dynamic assessments (e.g from 2021 to 2050). If can be used to assess any system and both product or process based MFAs. </t>
+  </si>
+  <si>
+    <r>
+      <t>This sheet is the starting point for aiphoria.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> User define what process/nodes to be included in the study</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. With the transformation stages it's possible to locate the nodes in a graph. Life time (LT) and LT distribution are included to consider stock distribution in ODYM. Define the name of the process, its stage within the system boundaries, location, distribution type and distribution parameters (see ODYM tutorials/guides). At the end you should have a process ID with the name and location (e.g. P1:EU). After you have described all the processes within you system, you can move to the flows spreadsheet. It is advised to visualise your system (e.g. using https://excalidraw.com/) before you start implimenting in aiphoria. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Columns B to I need be filled in for aiphoria to run.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -974,7 +974,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -992,31 +992,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1079,6 +1064,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1495,173 +1486,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240816D1-B4FF-41BE-B292-8CF7D349FFB2}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="29" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="37.81640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="29" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.54296875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="203.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="40"/>
+    </row>
+    <row r="4" spans="1:5" s="17" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="43"/>
+    </row>
+    <row r="5" spans="1:5" s="17" customFormat="1" ht="96.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="43"/>
+    </row>
+    <row r="6" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="42"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="45"/>
-    </row>
-    <row r="4" spans="1:5" s="22" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="48"/>
-    </row>
-    <row r="5" spans="1:5" s="22" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="B10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="42"/>
+    </row>
+    <row r="11" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="48"/>
-    </row>
-    <row r="6" spans="1:5" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="44"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="47"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="44"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="47"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="47"/>
-    </row>
-    <row r="11" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="44"/>
-    </row>
-    <row r="12" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="D11" s="39"/>
+    </row>
+    <row r="12" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="44" t="s">
+      <c r="D12" s="39"/>
+    </row>
+    <row r="13" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="44"/>
-    </row>
-    <row r="13" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="44"/>
+      <c r="C13" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1685,34 +1678,242 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE76F46E-F9E0-4FFD-9C15-07511C841BF9}">
+  <dimension ref="B2:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="33.81640625" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="103.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.5">
+      <c r="B2" s="33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="36">
+        <v>2</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="36">
+        <v>2</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="36">
+        <v>2021</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="36">
+        <v>2030</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="34">
+        <v>3.67</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C15:C16">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C16" xr:uid="{5D3B6C52-629A-48C0-B345-97745DEAC80B}">
+      <formula1>Boolean</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0D592-75C1-4AD1-84F0-2AAE25CA0097}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" customWidth="1"/>
+    <col min="14" max="14" width="13.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" customWidth="1"/>
+    <col min="17" max="17" width="13.7265625" customWidth="1"/>
+    <col min="18" max="18" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -1734,7 +1935,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>11</v>
@@ -1764,7 +1965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1790,69 +1991,69 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35" t="s">
+    <row r="3" spans="1:18" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="35" t="s">
+      <c r="I3" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="O3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="P3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="R3" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="str">
         <f>_xlfn.CONCAT(B4,":",C4)</f>
@@ -1865,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1878,18 +2079,18 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="R4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ref="D5:D12" si="0">_xlfn.CONCAT(B5,":",C5)</f>
@@ -1902,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1915,31 +2116,31 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="R5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>Residues:FI</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1951,18 +2152,18 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="R6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ref="D7" si="1">_xlfn.CONCAT(B7,":",C7)</f>
@@ -1975,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1987,31 +2188,31 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="R7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>Construction:FI</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2023,31 +2224,31 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="R8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>Furniture:FI</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2059,15 +2260,15 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="R9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -2083,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2095,15 +2296,15 @@
         <v>0.81899999999999995</v>
       </c>
       <c r="R10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -2119,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2131,31 +2332,31 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="R11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>Incineration:FI</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2167,10 +2368,10 @@
         <v>0.48299999999999998</v>
       </c>
       <c r="R12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -2194,7 +2395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B692AEE8-68EE-4B81-A49D-50BF066DFFE7}">
   <dimension ref="A1:U91"/>
   <sheetViews>
@@ -2202,28 +2403,28 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.54296875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2288,7 +2489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2302,7 +2503,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -2311,98 +2512,98 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="H3" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="I3" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="J3" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="M3" s="25" t="s">
+      <c r="K3" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="P3" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="R3" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="R3" s="27" t="s">
+      <c r="S3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="U3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" s="28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="str">
         <f>+_xlfn.XLOOKUP(H4,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Source</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" t="str">
         <f>+_xlfn.XLOOKUP(I4,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" ref="H4:H13" si="0">_xlfn.CONCAT(B4,":",D4)</f>
@@ -2416,45 +2617,45 @@
         <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L4">
         <v>2021</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P4">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
-      <c r="Q4" s="29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q4" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="str">
         <f>+_xlfn.XLOOKUP(H5,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" t="str">
         <f>+_xlfn.XLOOKUP(I5,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2468,45 +2669,45 @@
         <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L5">
         <v>2021</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P5">
         <f>0.4238*'Carbon fraction (will be moved)'!C2</f>
         <v>0.20342399999999999</v>
       </c>
-      <c r="Q5" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q5" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="str">
         <f>+_xlfn.XLOOKUP(H6,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" t="str">
         <f>+_xlfn.XLOOKUP(I6,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>by_prod</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2520,45 +2721,45 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L6">
         <v>2021</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P6">
         <f>0.395*'Carbon fraction (will be moved)'!C2</f>
         <v>0.18959999999999999</v>
       </c>
-      <c r="Q6" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q6" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" t="str">
         <f>+_xlfn.XLOOKUP(H7,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" t="str">
         <f>+_xlfn.XLOOKUP(I7,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2578,39 +2779,39 @@
         <v>2021</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P7">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
       <c r="Q7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="str">
         <f>+_xlfn.XLOOKUP(H8,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" t="str">
         <f>+_xlfn.XLOOKUP(I8,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="4" t="str">
         <f>_xlfn.CONCAT(B8,":",D8)</f>
@@ -2630,39 +2831,39 @@
         <v>2021</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P8">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" t="str">
         <f>+_xlfn.XLOOKUP(H9,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" t="str">
         <f>+_xlfn.XLOOKUP(I9,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2682,39 +2883,39 @@
         <v>2021</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P9">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
       <c r="Q9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="str">
         <f>+_xlfn.XLOOKUP(H10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" t="str">
         <f>+_xlfn.XLOOKUP(I10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>EoL</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2734,38 +2935,38 @@
         <v>2021</v>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P10">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" t="str">
         <f>+_xlfn.XLOOKUP(I11,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>EoL</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2785,32 +2986,32 @@
         <v>2021</v>
       </c>
       <c r="N11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P11">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
-      <c r="Q11" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q11" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" t="str">
         <f>+_xlfn.XLOOKUP(H12,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" t="str">
         <f>+_xlfn.XLOOKUP(I12,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
@@ -2831,28 +3032,28 @@
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L12">
         <v>2021</v>
       </c>
       <c r="N12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P12">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
-      <c r="Q12" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q12" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" t="str">
         <f>+_xlfn.XLOOKUP(H13,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
@@ -2862,13 +3063,13 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2882,436 +3083,436 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L13">
         <v>2021</v>
       </c>
       <c r="N13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P13">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
-      <c r="Q13" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q13" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="N14"/>
-      <c r="Q14" s="29"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q14" s="24"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="N15"/>
-      <c r="Q15" s="29"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q15" s="24"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="N16"/>
-      <c r="Q16" s="29"/>
-    </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="Q16" s="24"/>
+    </row>
+    <row r="17" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="N17"/>
-      <c r="Q17" s="29"/>
-    </row>
-    <row r="18" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="Q17" s="24"/>
+    </row>
+    <row r="18" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="N18"/>
-      <c r="Q18" s="29"/>
-    </row>
-    <row r="19" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="Q18" s="24"/>
+    </row>
+    <row r="19" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="N19"/>
     </row>
-    <row r="20" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="N21"/>
-      <c r="Q21" s="29"/>
-    </row>
-    <row r="22" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="Q21" s="24"/>
+    </row>
+    <row r="22" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="N22"/>
-      <c r="Q22" s="29"/>
-    </row>
-    <row r="23" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="Q22" s="24"/>
+    </row>
+    <row r="23" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="N23"/>
-      <c r="Q23" s="29"/>
-    </row>
-    <row r="24" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="Q23" s="24"/>
+    </row>
+    <row r="24" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="N39"/>
       <c r="O39"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="N40"/>
       <c r="O40"/>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="N41"/>
       <c r="O41"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="N42"/>
       <c r="O42"/>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="N43"/>
       <c r="O43"/>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="29" t="s">
-        <v>147</v>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C44" s="24" t="s">
+        <v>143</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="N44"/>
       <c r="O44"/>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C45" s="9"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="N45"/>
       <c r="O45"/>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="N46"/>
       <c r="O46"/>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="N47"/>
       <c r="O47"/>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="N48"/>
       <c r="O48"/>
     </row>
-    <row r="49" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="N49"/>
       <c r="O49"/>
     </row>
-    <row r="50" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="N50"/>
       <c r="O50"/>
     </row>
-    <row r="51" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="N51"/>
       <c r="O51"/>
     </row>
-    <row r="52" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="N52"/>
       <c r="O52"/>
     </row>
-    <row r="53" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="N53"/>
       <c r="O53"/>
     </row>
-    <row r="54" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="N54"/>
       <c r="O54"/>
     </row>
-    <row r="55" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="N55"/>
       <c r="O55"/>
     </row>
-    <row r="56" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="N56"/>
       <c r="O56"/>
     </row>
-    <row r="57" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="N57"/>
       <c r="O57"/>
     </row>
-    <row r="58" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="N58"/>
       <c r="O58"/>
     </row>
-    <row r="59" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="N59"/>
       <c r="O59"/>
     </row>
-    <row r="60" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="N60"/>
       <c r="O60"/>
     </row>
-    <row r="61" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="N61"/>
       <c r="O61"/>
     </row>
-    <row r="62" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="N62"/>
       <c r="O62"/>
     </row>
-    <row r="63" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="N63"/>
       <c r="O63"/>
     </row>
-    <row r="64" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="N64"/>
       <c r="O64"/>
     </row>
-    <row r="65" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="N65"/>
       <c r="O65"/>
     </row>
-    <row r="66" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="N66"/>
       <c r="O66"/>
     </row>
-    <row r="67" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="N67"/>
       <c r="O67"/>
     </row>
-    <row r="68" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="N68"/>
       <c r="O68"/>
     </row>
-    <row r="69" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="N69"/>
       <c r="O69"/>
     </row>
-    <row r="70" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="N70"/>
       <c r="O70"/>
     </row>
-    <row r="71" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="N71"/>
       <c r="O71"/>
     </row>
-    <row r="72" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="N72"/>
       <c r="O72"/>
     </row>
-    <row r="73" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="N75"/>
       <c r="O75"/>
     </row>
-    <row r="76" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="N76"/>
       <c r="O76"/>
     </row>
-    <row r="77" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="N77"/>
       <c r="O77"/>
     </row>
-    <row r="78" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="N78"/>
       <c r="O78"/>
     </row>
-    <row r="79" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="N79"/>
       <c r="O79"/>
     </row>
-    <row r="80" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="N80"/>
       <c r="O80"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="N81"/>
       <c r="O81"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="N82"/>
       <c r="O82"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="N83"/>
       <c r="O83"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="N84"/>
       <c r="O84"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="N85"/>
       <c r="O85"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
       <c r="N86"/>
       <c r="O86"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -3322,25 +3523,25 @@
       <c r="N87"/>
       <c r="O87"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="N88"/>
       <c r="O88"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="N89"/>
       <c r="O89"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="N90"/>
       <c r="O90"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="N91"/>
@@ -3361,7 +3562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E839B9F-9E6A-42D1-BF39-12023C14C5F8}">
   <dimension ref="A1:AG102"/>
   <sheetViews>
@@ -3369,32 +3570,32 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.5703125" customWidth="1"/>
-    <col min="28" max="28" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" customWidth="1"/>
+    <col min="2" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1796875" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" customWidth="1"/>
+    <col min="16" max="16" width="15.26953125" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.54296875" customWidth="1"/>
+    <col min="28" max="28" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="27"/>
       <c r="C2">
         <v>2021</v>
       </c>
@@ -3426,91 +3627,91 @@
         <v>2030</v>
       </c>
       <c r="N2" t="s">
+        <v>121</v>
+      </c>
+      <c r="P2" t="s">
         <v>122</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>123</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>124</v>
       </c>
-      <c r="S2" t="s">
-        <v>125</v>
-      </c>
       <c r="X2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z2" t="s">
         <v>111</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>113</v>
       </c>
-      <c r="Z2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>114</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" t="s">
         <v>115</v>
       </c>
-      <c r="AD2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>116</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>117</v>
       </c>
-      <c r="AG2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>2021</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="27">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="D3" s="30">
-        <v>0</v>
-      </c>
-      <c r="E3" s="30">
-        <v>0</v>
-      </c>
-      <c r="F3" s="30">
-        <v>0</v>
-      </c>
-      <c r="G3" s="30">
-        <v>0</v>
-      </c>
-      <c r="H3" s="30">
-        <v>0</v>
-      </c>
-      <c r="I3" s="30">
-        <v>0</v>
-      </c>
-      <c r="J3" s="30">
-        <v>0</v>
-      </c>
-      <c r="K3" s="30">
-        <v>0</v>
-      </c>
-      <c r="L3" s="30">
-        <v>0</v>
-      </c>
-      <c r="N3" s="31">
+      <c r="D3" s="25">
+        <v>0</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25">
+        <v>0</v>
+      </c>
+      <c r="J3" s="25">
+        <v>0</v>
+      </c>
+      <c r="K3" s="25">
+        <v>0</v>
+      </c>
+      <c r="L3" s="25">
+        <v>0</v>
+      </c>
+      <c r="N3" s="26">
         <f>SUM(C3:L3)</f>
         <v>4.5864251507765596E-6</v>
       </c>
       <c r="P3">
         <v>16</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="26">
         <f t="shared" ref="Q3:Q12" si="0">P3-N3</f>
         <v>15.999995413574849</v>
       </c>
-      <c r="S3" s="31">
+      <c r="S3" s="26">
         <f>Q3</f>
         <v>15.999995413574849</v>
       </c>
@@ -3518,13 +3719,13 @@
         <v>2021</v>
       </c>
       <c r="X3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y3" t="s">
         <v>92</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>93</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>94</v>
       </c>
       <c r="AA3">
         <v>60</v>
@@ -3536,7 +3737,7 @@
         <v>2021</v>
       </c>
       <c r="AE3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -3545,52 +3746,52 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2022</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="27">
         <v>5.0215344417914299E-4</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="27">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="E4" s="30">
-        <v>0</v>
-      </c>
-      <c r="F4" s="30">
-        <v>0</v>
-      </c>
-      <c r="G4" s="30">
-        <v>0</v>
-      </c>
-      <c r="H4" s="30">
-        <v>0</v>
-      </c>
-      <c r="I4" s="30">
-        <v>0</v>
-      </c>
-      <c r="J4" s="30">
-        <v>0</v>
-      </c>
-      <c r="K4" s="30">
-        <v>0</v>
-      </c>
-      <c r="L4" s="30">
-        <v>0</v>
-      </c>
-      <c r="N4" s="31">
+      <c r="E4" s="25">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0</v>
+      </c>
+      <c r="N4" s="26">
         <f t="shared" ref="N4:N12" si="1">SUM(C4:L4)</f>
         <v>5.0673986932991955E-4</v>
       </c>
       <c r="P4">
         <v>16</v>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q4" s="26">
         <f t="shared" si="0"/>
         <v>15.99949326013067</v>
       </c>
-      <c r="S4" s="31">
+      <c r="S4" s="26">
         <f>SUM(Q3:Q4)</f>
         <v>31.999488673705521</v>
       </c>
@@ -3598,13 +3799,13 @@
         <v>2021</v>
       </c>
       <c r="X4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z4" t="s">
         <v>95</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>96</v>
       </c>
       <c r="AA4">
         <v>50</v>
@@ -3616,7 +3817,7 @@
         <v>2021</v>
       </c>
       <c r="AE4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF4">
         <v>69.599999999999994</v>
@@ -3625,52 +3826,52 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2023</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="27">
         <v>2.1091628636751701E-2</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="27">
         <v>5.0215344417914299E-4</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="27">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="F5" s="30">
-        <v>0</v>
-      </c>
-      <c r="G5" s="30">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30">
-        <v>0</v>
-      </c>
-      <c r="I5" s="30">
-        <v>0</v>
-      </c>
-      <c r="J5" s="30">
-        <v>0</v>
-      </c>
-      <c r="K5" s="30">
-        <v>0</v>
-      </c>
-      <c r="L5" s="30">
-        <v>0</v>
-      </c>
-      <c r="N5" s="31">
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0</v>
+      </c>
+      <c r="N5" s="26">
         <f t="shared" si="1"/>
         <v>2.1598368506081621E-2</v>
       </c>
       <c r="P5">
         <v>16</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="26">
         <f t="shared" si="0"/>
         <v>15.978401631493918</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="26">
         <f>SUM(Q3:Q5)</f>
         <v>47.977890305199438</v>
       </c>
@@ -3678,13 +3879,13 @@
         <v>2021</v>
       </c>
       <c r="X5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z5" t="s">
         <v>97</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>98</v>
       </c>
       <c r="AA5">
         <v>19.5</v>
@@ -3696,7 +3897,7 @@
         <v>2021</v>
       </c>
       <c r="AE5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF5">
         <v>19.5</v>
@@ -3705,52 +3906,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2024</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="27">
         <v>0.34240374266478502</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="27">
         <v>2.1091628636751701E-2</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="27">
         <v>5.0215344417914299E-4</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="27">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="G6" s="30">
-        <v>0</v>
-      </c>
-      <c r="H6" s="30">
-        <v>0</v>
-      </c>
-      <c r="I6" s="30">
-        <v>0</v>
-      </c>
-      <c r="J6" s="30">
-        <v>0</v>
-      </c>
-      <c r="K6" s="30">
-        <v>0</v>
-      </c>
-      <c r="L6" s="30">
-        <v>0</v>
-      </c>
-      <c r="N6" s="31">
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0</v>
+      </c>
+      <c r="N6" s="26">
         <f t="shared" si="1"/>
         <v>0.36400211117086662</v>
       </c>
       <c r="P6">
         <v>16</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="26">
         <f t="shared" si="0"/>
         <v>15.635997888829133</v>
       </c>
-      <c r="S6" s="31">
+      <c r="S6" s="26">
         <f>SUM($Q$3:Q6)</f>
         <v>63.613888194028569</v>
       </c>
@@ -3758,13 +3959,13 @@
         <v>2021</v>
       </c>
       <c r="X6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z6" t="s">
         <v>99</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>100</v>
       </c>
       <c r="AA6">
         <v>24</v>
@@ -3776,7 +3977,7 @@
         <v>2021</v>
       </c>
       <c r="AE6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF6">
         <v>60</v>
@@ -3785,52 +3986,52 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>2025</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="27">
         <v>2.1744819517324401</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="27">
         <v>0.34240374266478502</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="27">
         <v>2.1091628636751701E-2</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="27">
         <v>5.0215344417914299E-4</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="27">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="H7" s="30">
-        <v>0</v>
-      </c>
-      <c r="I7" s="30">
-        <v>0</v>
-      </c>
-      <c r="J7" s="30">
-        <v>0</v>
-      </c>
-      <c r="K7" s="30">
-        <v>0</v>
-      </c>
-      <c r="L7" s="30">
-        <v>0</v>
-      </c>
-      <c r="N7" s="31">
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0</v>
+      </c>
+      <c r="N7" s="26">
         <f t="shared" si="1"/>
         <v>2.538484062903307</v>
       </c>
       <c r="P7">
         <v>16</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="26">
         <f t="shared" si="0"/>
         <v>13.461515937096692</v>
       </c>
-      <c r="S7" s="31">
+      <c r="S7" s="26">
         <f>SUM($Q$3:Q7)</f>
         <v>77.075404131125254</v>
       </c>
@@ -3838,13 +4039,13 @@
         <v>2021</v>
       </c>
       <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z7" t="s">
         <v>101</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>102</v>
       </c>
       <c r="AA7">
         <v>16</v>
@@ -3856,7 +4057,7 @@
         <v>2021</v>
       </c>
       <c r="AE7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF7">
         <v>24</v>
@@ -3865,52 +4066,52 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>2026</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="27">
         <v>5.4615159370966797</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="27">
         <v>2.1744819517324401</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="27">
         <v>0.34240374266478502</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="27">
         <v>2.1091628636751701E-2</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="27">
         <v>5.0215344417914299E-4</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="27">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="I8" s="30">
-        <v>0</v>
-      </c>
-      <c r="J8" s="30">
-        <v>0</v>
-      </c>
-      <c r="K8" s="30">
-        <v>0</v>
-      </c>
-      <c r="L8" s="30">
-        <v>0</v>
-      </c>
-      <c r="N8" s="31">
+      <c r="I8" s="25">
+        <v>0</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0</v>
+      </c>
+      <c r="N8" s="26">
         <f t="shared" si="1"/>
         <v>7.9999999999999867</v>
       </c>
       <c r="P8">
         <v>16</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="26">
         <f t="shared" si="0"/>
         <v>8.0000000000000142</v>
       </c>
-      <c r="S8" s="31">
+      <c r="S8" s="26">
         <f>SUM($Q$3:Q8)</f>
         <v>85.075404131125268</v>
       </c>
@@ -3918,13 +4119,13 @@
         <v>2021</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA8">
         <v>9.6</v>
@@ -3936,7 +4137,7 @@
         <v>2021</v>
       </c>
       <c r="AE8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF8">
         <v>16</v>
@@ -3945,52 +4146,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>2027</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="27">
         <v>5.4615159370966797</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="27">
         <v>5.4615159370966797</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="27">
         <v>2.1744819517324401</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="27">
         <v>0.34240374266478502</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="27">
         <v>2.1091628636751701E-2</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="27">
         <v>5.0215344417914299E-4</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="27">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="J9" s="30">
-        <v>0</v>
-      </c>
-      <c r="K9" s="30">
-        <v>0</v>
-      </c>
-      <c r="L9" s="30">
-        <v>0</v>
-      </c>
-      <c r="N9" s="31">
+      <c r="J9" s="25">
+        <v>0</v>
+      </c>
+      <c r="K9" s="25">
+        <v>0</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0</v>
+      </c>
+      <c r="N9" s="26">
         <f t="shared" si="1"/>
         <v>13.461515937096667</v>
       </c>
       <c r="P9">
         <v>16</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="26">
         <f t="shared" si="0"/>
         <v>2.5384840629033327</v>
       </c>
-      <c r="S9" s="31">
+      <c r="S9" s="26">
         <f>SUM($Q$3:Q9)</f>
         <v>87.613888194028604</v>
       </c>
@@ -3998,13 +4199,13 @@
         <v>2021</v>
       </c>
       <c r="X9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z9" t="s">
         <v>104</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>105</v>
       </c>
       <c r="AA9">
         <v>14.4</v>
@@ -4016,7 +4217,7 @@
         <v>2021</v>
       </c>
       <c r="AE9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -4025,52 +4226,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>2028</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="27">
         <v>2.1744819517324401</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="27">
         <v>5.4615159370966797</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="27">
         <v>5.4615159370966797</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="27">
         <v>2.1744819517324401</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="27">
         <v>0.34240374266478502</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="27">
         <v>2.1091628636751701E-2</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="27">
         <v>5.0215344417914299E-4</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="27">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="K10" s="30">
-        <v>0</v>
-      </c>
-      <c r="L10" s="30">
-        <v>0</v>
-      </c>
-      <c r="N10" s="31">
+      <c r="K10" s="25">
+        <v>0</v>
+      </c>
+      <c r="L10" s="25">
+        <v>0</v>
+      </c>
+      <c r="N10" s="26">
         <f t="shared" si="1"/>
         <v>15.635997888829108</v>
       </c>
       <c r="P10">
         <v>16</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="26">
         <f t="shared" si="0"/>
         <v>0.36400211117089221</v>
       </c>
-      <c r="S10" s="31">
+      <c r="S10" s="26">
         <f>SUM($Q$3:Q10)</f>
         <v>87.977890305199494</v>
       </c>
@@ -4078,13 +4279,13 @@
         <v>2021</v>
       </c>
       <c r="X10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA10">
         <v>16</v>
@@ -4096,7 +4297,7 @@
         <v>2021</v>
       </c>
       <c r="AE10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF10">
         <v>20</v>
@@ -4105,52 +4306,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>2029</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="27">
         <v>0.34240374266478502</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="27">
         <v>2.1744819517324401</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="27">
         <v>5.4615159370966797</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="27">
         <v>5.4615159370966797</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="27">
         <v>2.1744819517324401</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="27">
         <v>0.34240374266478502</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="27">
         <v>2.1091628636751701E-2</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="27">
         <v>5.0215344417914299E-4</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="27">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="L11" s="30">
-        <v>0</v>
-      </c>
-      <c r="N11" s="31">
+      <c r="L11" s="25">
+        <v>0</v>
+      </c>
+      <c r="N11" s="26">
         <f t="shared" si="1"/>
         <v>15.978401631493892</v>
       </c>
       <c r="P11">
         <v>16</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="26">
         <f t="shared" si="0"/>
         <v>2.1598368506108301E-2</v>
       </c>
-      <c r="S11" s="31">
+      <c r="S11" s="26">
         <f>SUM($Q$3:Q11)</f>
         <v>87.999488673705599</v>
       </c>
@@ -4158,13 +4359,13 @@
         <v>2021</v>
       </c>
       <c r="X11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z11" t="s">
         <v>107</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>108</v>
       </c>
       <c r="AA11">
         <v>20</v>
@@ -4176,7 +4377,7 @@
         <v>2021</v>
       </c>
       <c r="AE11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF11">
         <v>30.4</v>
@@ -4185,52 +4386,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>2030</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="27">
         <v>2.10916286367515E-2</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="27">
         <v>0.34240374266478502</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="27">
         <v>2.1744819517324401</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="27">
         <v>5.4615159370966797</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="27">
         <v>5.4615159370966797</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="27">
         <v>2.1744819517324401</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="27">
         <v>0.34240374266478502</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="27">
         <v>2.1091628636751701E-2</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="27">
         <v>5.0215344417914299E-4</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="27">
         <v>4.5864251507765596E-6</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="26">
         <f t="shared" si="1"/>
         <v>15.999493260130643</v>
       </c>
       <c r="P12">
         <v>16</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="26">
         <f t="shared" si="0"/>
         <v>5.0673986935656501E-4</v>
       </c>
-      <c r="S12" s="31">
+      <c r="S12" s="26">
         <f>SUM($Q$3:Q12)</f>
         <v>87.99999541357495</v>
       </c>
@@ -4238,13 +4439,13 @@
         <v>2021</v>
       </c>
       <c r="X12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y12" t="s">
         <v>109</v>
       </c>
-      <c r="Y12" t="s">
-        <v>110</v>
-      </c>
       <c r="Z12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA12">
         <v>10</v>
@@ -4256,7 +4457,7 @@
         <v>2022</v>
       </c>
       <c r="AE12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -4265,21 +4466,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="W13">
         <v>2022</v>
       </c>
       <c r="X13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y13" t="s">
         <v>92</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>93</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>94</v>
       </c>
       <c r="AA13">
         <v>60</v>
@@ -4291,7 +4492,7 @@
         <v>2022</v>
       </c>
       <c r="AE13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF13">
         <v>69.599999999999994</v>
@@ -4300,8 +4501,8 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B14" s="27"/>
       <c r="C14">
         <v>2021</v>
       </c>
@@ -4336,13 +4537,13 @@
         <v>2022</v>
       </c>
       <c r="X14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z14" t="s">
         <v>95</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>96</v>
       </c>
       <c r="AA14">
         <v>50</v>
@@ -4354,7 +4555,7 @@
         <v>2022</v>
       </c>
       <c r="AE14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF14">
         <v>19.5</v>
@@ -4363,52 +4564,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A15" s="27"/>
       <c r="B15">
         <v>2021</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="27">
         <v>15.999995413574799</v>
       </c>
-      <c r="D15" s="30">
-        <v>0</v>
-      </c>
-      <c r="E15" s="30">
-        <v>0</v>
-      </c>
-      <c r="F15" s="30">
-        <v>0</v>
-      </c>
-      <c r="G15" s="30">
-        <v>0</v>
-      </c>
-      <c r="H15" s="30">
-        <v>0</v>
-      </c>
-      <c r="I15" s="30">
-        <v>0</v>
-      </c>
-      <c r="J15" s="30">
-        <v>0</v>
-      </c>
-      <c r="K15" s="30">
-        <v>0</v>
-      </c>
-      <c r="L15" s="30">
+      <c r="D15" s="25">
+        <v>0</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0</v>
+      </c>
+      <c r="K15" s="25">
+        <v>0</v>
+      </c>
+      <c r="L15" s="25">
         <v>0</v>
       </c>
       <c r="W15">
         <v>2022</v>
       </c>
       <c r="X15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z15" t="s">
         <v>97</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>98</v>
       </c>
       <c r="AA15">
         <v>19.5</v>
@@ -4420,7 +4621,7 @@
         <v>2022</v>
       </c>
       <c r="AE15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF15">
         <v>60</v>
@@ -4429,51 +4630,51 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>2022</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="27">
         <v>15.999493260130601</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="27">
         <v>15.999995413574799</v>
       </c>
-      <c r="E16" s="30">
-        <v>0</v>
-      </c>
-      <c r="F16" s="30">
-        <v>0</v>
-      </c>
-      <c r="G16" s="30">
-        <v>0</v>
-      </c>
-      <c r="H16" s="30">
-        <v>0</v>
-      </c>
-      <c r="I16" s="30">
-        <v>0</v>
-      </c>
-      <c r="J16" s="30">
-        <v>0</v>
-      </c>
-      <c r="K16" s="30">
-        <v>0</v>
-      </c>
-      <c r="L16" s="30">
+      <c r="E16" s="25">
+        <v>0</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0</v>
+      </c>
+      <c r="K16" s="25">
+        <v>0</v>
+      </c>
+      <c r="L16" s="25">
         <v>0</v>
       </c>
       <c r="W16">
         <v>2022</v>
       </c>
       <c r="X16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z16" t="s">
         <v>99</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>100</v>
       </c>
       <c r="AA16">
         <v>24</v>
@@ -4485,7 +4686,7 @@
         <v>2022</v>
       </c>
       <c r="AE16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF16">
         <v>24</v>
@@ -4494,51 +4695,51 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>2023</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="27">
         <v>15.978401631493901</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="27">
         <v>15.999493260130601</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="27">
         <v>15.999995413574799</v>
       </c>
-      <c r="F17" s="30">
-        <v>0</v>
-      </c>
-      <c r="G17" s="30">
-        <v>0</v>
-      </c>
-      <c r="H17" s="30">
-        <v>0</v>
-      </c>
-      <c r="I17" s="30">
-        <v>0</v>
-      </c>
-      <c r="J17" s="30">
-        <v>0</v>
-      </c>
-      <c r="K17" s="30">
-        <v>0</v>
-      </c>
-      <c r="L17" s="30">
+      <c r="F17" s="25">
+        <v>0</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
+        <v>0</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0</v>
+      </c>
+      <c r="K17" s="25">
+        <v>0</v>
+      </c>
+      <c r="L17" s="25">
         <v>0</v>
       </c>
       <c r="W17">
         <v>2022</v>
       </c>
       <c r="X17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z17" t="s">
         <v>101</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>102</v>
       </c>
       <c r="AA17">
         <v>16</v>
@@ -4550,7 +4751,7 @@
         <v>2022</v>
       </c>
       <c r="AE17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF17">
         <v>16</v>
@@ -4559,51 +4760,51 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>2024</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="27">
         <v>15.635997888829101</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="27">
         <v>15.978401631493901</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="27">
         <v>15.999493260130601</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="27">
         <v>15.999995413574799</v>
       </c>
-      <c r="G18" s="30">
-        <v>0</v>
-      </c>
-      <c r="H18" s="30">
-        <v>0</v>
-      </c>
-      <c r="I18" s="30">
-        <v>0</v>
-      </c>
-      <c r="J18" s="30">
-        <v>0</v>
-      </c>
-      <c r="K18" s="30">
-        <v>0</v>
-      </c>
-      <c r="L18" s="30">
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0</v>
+      </c>
+      <c r="J18" s="25">
+        <v>0</v>
+      </c>
+      <c r="K18" s="25">
+        <v>0</v>
+      </c>
+      <c r="L18" s="25">
         <v>0</v>
       </c>
       <c r="W18">
         <v>2022</v>
       </c>
       <c r="X18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA18">
         <v>9.6</v>
@@ -4615,7 +4816,7 @@
         <v>2022</v>
       </c>
       <c r="AE18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -4624,51 +4825,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>2025</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="27">
         <v>13.4615159370966</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="27">
         <v>15.635997888829101</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="27">
         <v>15.978401631493901</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="27">
         <v>15.999493260130601</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="27">
         <v>15.999995413574799</v>
       </c>
-      <c r="H19" s="30">
-        <v>0</v>
-      </c>
-      <c r="I19" s="30">
-        <v>0</v>
-      </c>
-      <c r="J19" s="30">
-        <v>0</v>
-      </c>
-      <c r="K19" s="30">
-        <v>0</v>
-      </c>
-      <c r="L19" s="30">
+      <c r="H19" s="25">
+        <v>0</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0</v>
+      </c>
+      <c r="J19" s="25">
+        <v>0</v>
+      </c>
+      <c r="K19" s="25">
+        <v>0</v>
+      </c>
+      <c r="L19" s="25">
         <v>0</v>
       </c>
       <c r="W19">
         <v>2022</v>
       </c>
       <c r="X19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z19" t="s">
         <v>104</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>105</v>
       </c>
       <c r="AA19">
         <v>14.4</v>
@@ -4680,7 +4881,7 @@
         <v>2022</v>
       </c>
       <c r="AE19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF19">
         <v>20</v>
@@ -4689,51 +4890,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>2026</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="27">
         <v>8</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="27">
         <v>13.4615159370966</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="27">
         <v>15.635997888829101</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="27">
         <v>15.978401631493901</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="27">
         <v>15.999493260130601</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="27">
         <v>15.999995413574799</v>
       </c>
-      <c r="I20" s="30">
-        <v>0</v>
-      </c>
-      <c r="J20" s="30">
-        <v>0</v>
-      </c>
-      <c r="K20" s="30">
-        <v>0</v>
-      </c>
-      <c r="L20" s="30">
+      <c r="I20" s="25">
+        <v>0</v>
+      </c>
+      <c r="J20" s="25">
+        <v>0</v>
+      </c>
+      <c r="K20" s="25">
+        <v>0</v>
+      </c>
+      <c r="L20" s="25">
         <v>0</v>
       </c>
       <c r="W20">
         <v>2022</v>
       </c>
       <c r="X20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA20">
         <v>16</v>
@@ -4745,7 +4946,7 @@
         <v>2022</v>
       </c>
       <c r="AE20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF20">
         <v>30.4</v>
@@ -4754,51 +4955,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>2027</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="27">
         <v>2.5384840629033101</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="27">
         <v>8</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="27">
         <v>13.4615159370966</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="27">
         <v>15.635997888829101</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="27">
         <v>15.978401631493901</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="27">
         <v>15.999493260130601</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="27">
         <v>15.999995413574799</v>
       </c>
-      <c r="J21" s="30">
-        <v>0</v>
-      </c>
-      <c r="K21" s="30">
-        <v>0</v>
-      </c>
-      <c r="L21" s="30">
+      <c r="J21" s="25">
+        <v>0</v>
+      </c>
+      <c r="K21" s="25">
+        <v>0</v>
+      </c>
+      <c r="L21" s="25">
         <v>0</v>
       </c>
       <c r="W21">
         <v>2022</v>
       </c>
       <c r="X21" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z21" t="s">
         <v>107</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>108</v>
       </c>
       <c r="AA21">
         <v>20</v>
@@ -4810,7 +5011,7 @@
         <v>2023</v>
       </c>
       <c r="AE21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -4819,52 +5020,52 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>2028</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="27">
         <v>0.364002111170867</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="27">
         <v>2.5384840629033101</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="27">
         <v>8</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="27">
         <v>13.4615159370966</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="27">
         <v>15.635997888829101</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="27">
         <v>15.978401631493901</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="27">
         <v>15.999493260130601</v>
       </c>
-      <c r="J22" s="32">
+      <c r="J22" s="27">
         <v>15.999995413574799</v>
       </c>
-      <c r="K22" s="30">
-        <v>0</v>
-      </c>
-      <c r="L22" s="30">
-        <v>0</v>
-      </c>
-      <c r="M22" s="32"/>
+      <c r="K22" s="25">
+        <v>0</v>
+      </c>
+      <c r="L22" s="25">
+        <v>0</v>
+      </c>
+      <c r="M22" s="27"/>
       <c r="W22">
         <v>2022</v>
       </c>
       <c r="X22" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y22" t="s">
         <v>109</v>
       </c>
-      <c r="Y22" t="s">
-        <v>110</v>
-      </c>
       <c r="Z22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA22">
         <v>10</v>
@@ -4876,7 +5077,7 @@
         <v>2023</v>
       </c>
       <c r="AE22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF22">
         <v>69.599999999999994</v>
@@ -4885,51 +5086,51 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>2029</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="27">
         <v>2.1598368506081399E-2</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="27">
         <v>0.364002111170867</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="27">
         <v>2.5384840629033101</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="27">
         <v>8</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="27">
         <v>13.4615159370966</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="27">
         <v>15.635997888829101</v>
       </c>
-      <c r="I23" s="32">
+      <c r="I23" s="27">
         <v>15.978401631493901</v>
       </c>
-      <c r="J23" s="32">
+      <c r="J23" s="27">
         <v>15.999493260130601</v>
       </c>
-      <c r="K23" s="32">
+      <c r="K23" s="27">
         <v>15.999995413574799</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="25">
         <v>0</v>
       </c>
       <c r="W23">
         <v>2023</v>
       </c>
       <c r="X23" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y23" t="s">
         <v>92</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>93</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>94</v>
       </c>
       <c r="AA23">
         <v>60</v>
@@ -4941,7 +5142,7 @@
         <v>2023</v>
       </c>
       <c r="AE23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF23">
         <v>19.5</v>
@@ -4950,35 +5151,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>2030</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="27">
         <v>5.0673986932991695E-4</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="27">
         <v>2.1598368506081399E-2</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="27">
         <v>0.364002111170867</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="27">
         <v>2.5384840629033101</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="27">
         <v>8</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="27">
         <v>13.4615159370966</v>
       </c>
-      <c r="I24" s="32">
+      <c r="I24" s="27">
         <v>15.635997888829101</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J24" s="27">
         <v>15.978401631493901</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K24" s="27">
         <v>15.999493260130601</v>
       </c>
       <c r="L24">
@@ -4988,13 +5189,13 @@
         <v>2023</v>
       </c>
       <c r="X24" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z24" t="s">
         <v>95</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>96</v>
       </c>
       <c r="AA24">
         <v>50</v>
@@ -5006,7 +5207,7 @@
         <v>2023</v>
       </c>
       <c r="AE24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF24">
         <v>60</v>
@@ -5015,21 +5216,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W25">
         <v>2023</v>
       </c>
       <c r="X25" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z25" t="s">
         <v>97</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>98</v>
       </c>
       <c r="AA25">
         <v>19.5</v>
@@ -5041,7 +5242,7 @@
         <v>2023</v>
       </c>
       <c r="AE25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF25">
         <v>24</v>
@@ -5050,8 +5251,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B26" s="27"/>
       <c r="C26">
         <v>2021</v>
       </c>
@@ -5086,13 +5287,13 @@
         <v>2023</v>
       </c>
       <c r="X26" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z26" t="s">
         <v>99</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>100</v>
       </c>
       <c r="AA26">
         <v>24</v>
@@ -5104,7 +5305,7 @@
         <v>2023</v>
       </c>
       <c r="AE26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF26">
         <v>16</v>
@@ -5113,51 +5314,51 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>2021</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="27">
         <v>9.9066783265655502E-7</v>
       </c>
-      <c r="D27" s="30">
-        <v>0</v>
-      </c>
-      <c r="E27" s="30">
-        <v>0</v>
-      </c>
-      <c r="F27" s="30">
-        <v>0</v>
-      </c>
-      <c r="G27" s="30">
-        <v>0</v>
-      </c>
-      <c r="H27" s="30">
-        <v>0</v>
-      </c>
-      <c r="I27" s="30">
-        <v>0</v>
-      </c>
-      <c r="J27" s="30">
-        <v>0</v>
-      </c>
-      <c r="K27" s="30">
-        <v>0</v>
-      </c>
-      <c r="L27" s="30">
+      <c r="D27" s="25">
+        <v>0</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0</v>
+      </c>
+      <c r="F27" s="25">
+        <v>0</v>
+      </c>
+      <c r="G27" s="25">
+        <v>0</v>
+      </c>
+      <c r="H27" s="25">
+        <v>0</v>
+      </c>
+      <c r="I27" s="25">
+        <v>0</v>
+      </c>
+      <c r="J27" s="25">
+        <v>0</v>
+      </c>
+      <c r="K27" s="25">
+        <v>0</v>
+      </c>
+      <c r="L27" s="25">
         <v>0</v>
       </c>
       <c r="W27">
         <v>2023</v>
       </c>
       <c r="X27" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z27" t="s">
         <v>101</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>102</v>
       </c>
       <c r="AA27">
         <v>16</v>
@@ -5169,7 +5370,7 @@
         <v>2023</v>
       </c>
       <c r="AE27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -5178,51 +5379,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>2022</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="27">
         <v>1.0846514394247101E-4</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="27">
         <v>9.9066783265655502E-7</v>
       </c>
-      <c r="E28" s="30">
-        <v>0</v>
-      </c>
-      <c r="F28" s="30">
-        <v>0</v>
-      </c>
-      <c r="G28" s="30">
-        <v>0</v>
-      </c>
-      <c r="H28" s="30">
-        <v>0</v>
-      </c>
-      <c r="I28" s="30">
-        <v>0</v>
-      </c>
-      <c r="J28" s="30">
-        <v>0</v>
-      </c>
-      <c r="K28" s="30">
-        <v>0</v>
-      </c>
-      <c r="L28" s="30">
+      <c r="E28" s="25">
+        <v>0</v>
+      </c>
+      <c r="F28" s="25">
+        <v>0</v>
+      </c>
+      <c r="G28" s="25">
+        <v>0</v>
+      </c>
+      <c r="H28" s="25">
+        <v>0</v>
+      </c>
+      <c r="I28" s="25">
+        <v>0</v>
+      </c>
+      <c r="J28" s="25">
+        <v>0</v>
+      </c>
+      <c r="K28" s="25">
+        <v>0</v>
+      </c>
+      <c r="L28" s="25">
         <v>0</v>
       </c>
       <c r="W28">
         <v>2023</v>
       </c>
       <c r="X28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA28">
         <v>9.6</v>
@@ -5234,7 +5435,7 @@
         <v>2023</v>
       </c>
       <c r="AE28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF28">
         <v>20</v>
@@ -5243,51 +5444,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>2023</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="27">
         <v>4.5557917855383297E-3</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="27">
         <v>1.0846514394247101E-4</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="27">
         <v>9.9066783265655502E-7</v>
       </c>
-      <c r="F29" s="30">
-        <v>0</v>
-      </c>
-      <c r="G29" s="30">
-        <v>0</v>
-      </c>
-      <c r="H29" s="30">
-        <v>0</v>
-      </c>
-      <c r="I29" s="30">
-        <v>0</v>
-      </c>
-      <c r="J29" s="30">
-        <v>0</v>
-      </c>
-      <c r="K29" s="30">
-        <v>0</v>
-      </c>
-      <c r="L29" s="30">
+      <c r="F29" s="25">
+        <v>0</v>
+      </c>
+      <c r="G29" s="25">
+        <v>0</v>
+      </c>
+      <c r="H29" s="25">
+        <v>0</v>
+      </c>
+      <c r="I29" s="25">
+        <v>0</v>
+      </c>
+      <c r="J29" s="25">
+        <v>0</v>
+      </c>
+      <c r="K29" s="25">
+        <v>0</v>
+      </c>
+      <c r="L29" s="25">
         <v>0</v>
       </c>
       <c r="W29">
         <v>2023</v>
       </c>
       <c r="X29" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z29" t="s">
         <v>104</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>105</v>
       </c>
       <c r="AA29">
         <v>14.4</v>
@@ -5299,7 +5500,7 @@
         <v>2023</v>
       </c>
       <c r="AE29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF29">
         <v>30.4</v>
@@ -5308,51 +5509,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>2024</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="27">
         <v>7.3959208415594002E-2</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="27">
         <v>4.5557917855383297E-3</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="27">
         <v>1.0846514394247101E-4</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="27">
         <v>9.9066783265655502E-7</v>
       </c>
-      <c r="G30" s="30">
-        <v>0</v>
-      </c>
-      <c r="H30" s="30">
-        <v>0</v>
-      </c>
-      <c r="I30" s="30">
-        <v>0</v>
-      </c>
-      <c r="J30" s="30">
-        <v>0</v>
-      </c>
-      <c r="K30" s="30">
-        <v>0</v>
-      </c>
-      <c r="L30" s="30">
+      <c r="G30" s="25">
+        <v>0</v>
+      </c>
+      <c r="H30" s="25">
+        <v>0</v>
+      </c>
+      <c r="I30" s="25">
+        <v>0</v>
+      </c>
+      <c r="J30" s="25">
+        <v>0</v>
+      </c>
+      <c r="K30" s="25">
+        <v>0</v>
+      </c>
+      <c r="L30" s="25">
         <v>0</v>
       </c>
       <c r="W30">
         <v>2023</v>
       </c>
       <c r="X30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA30">
         <v>16</v>
@@ -5364,7 +5565,7 @@
         <v>2024</v>
       </c>
       <c r="AE30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -5373,51 +5574,51 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>2025</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="27">
         <v>0.46968810157420798</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="27">
         <v>7.3959208415594002E-2</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="27">
         <v>4.5557917855383297E-3</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="27">
         <v>1.0846514394247101E-4</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="27">
         <v>9.9066783265655502E-7</v>
       </c>
-      <c r="H31" s="30">
-        <v>0</v>
-      </c>
-      <c r="I31" s="30">
-        <v>0</v>
-      </c>
-      <c r="J31" s="30">
-        <v>0</v>
-      </c>
-      <c r="K31" s="30">
-        <v>0</v>
-      </c>
-      <c r="L31" s="30">
+      <c r="H31" s="25">
+        <v>0</v>
+      </c>
+      <c r="I31" s="25">
+        <v>0</v>
+      </c>
+      <c r="J31" s="25">
+        <v>0</v>
+      </c>
+      <c r="K31" s="25">
+        <v>0</v>
+      </c>
+      <c r="L31" s="25">
         <v>0</v>
       </c>
       <c r="W31">
         <v>2023</v>
       </c>
       <c r="X31" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z31" t="s">
         <v>107</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>108</v>
       </c>
       <c r="AA31">
         <v>20</v>
@@ -5429,7 +5630,7 @@
         <v>2024</v>
       </c>
       <c r="AE31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF31">
         <v>69.599999999999994</v>
@@ -5438,51 +5639,51 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>2026</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="27">
         <v>1.17968744241288</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="27">
         <v>0.46968810157420798</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="27">
         <v>7.3959208415594002E-2</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="27">
         <v>4.5557917855383297E-3</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="27">
         <v>1.0846514394247101E-4</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="27">
         <v>9.9066783265655502E-7</v>
       </c>
-      <c r="I32" s="30">
-        <v>0</v>
-      </c>
-      <c r="J32" s="30">
-        <v>0</v>
-      </c>
-      <c r="K32" s="30">
-        <v>0</v>
-      </c>
-      <c r="L32" s="30">
+      <c r="I32" s="25">
+        <v>0</v>
+      </c>
+      <c r="J32" s="25">
+        <v>0</v>
+      </c>
+      <c r="K32" s="25">
+        <v>0</v>
+      </c>
+      <c r="L32" s="25">
         <v>0</v>
       </c>
       <c r="W32">
         <v>2023</v>
       </c>
       <c r="X32" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y32" t="s">
         <v>109</v>
       </c>
-      <c r="Y32" t="s">
-        <v>110</v>
-      </c>
       <c r="Z32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA32">
         <v>10</v>
@@ -5494,7 +5695,7 @@
         <v>2024</v>
       </c>
       <c r="AE32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF32">
         <v>19.5</v>
@@ -5503,51 +5704,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>2027</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="27">
         <v>1.17968744241288</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="27">
         <v>1.17968744241288</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="27">
         <v>0.46968810157420798</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="27">
         <v>7.3959208415594002E-2</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="27">
         <v>4.5557917855383297E-3</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="27">
         <v>1.0846514394247101E-4</v>
       </c>
-      <c r="I33" s="32">
+      <c r="I33" s="27">
         <v>9.9066783265655502E-7</v>
       </c>
-      <c r="J33" s="30">
-        <v>0</v>
-      </c>
-      <c r="K33" s="30">
-        <v>0</v>
-      </c>
-      <c r="L33" s="30">
+      <c r="J33" s="25">
+        <v>0</v>
+      </c>
+      <c r="K33" s="25">
+        <v>0</v>
+      </c>
+      <c r="L33" s="25">
         <v>0</v>
       </c>
       <c r="W33">
         <v>2024</v>
       </c>
       <c r="X33" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y33" t="s">
         <v>92</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>93</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>94</v>
       </c>
       <c r="AA33">
         <v>60</v>
@@ -5559,7 +5760,7 @@
         <v>2024</v>
       </c>
       <c r="AE33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF33">
         <v>60</v>
@@ -5568,51 +5769,51 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>2028</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="27">
         <v>0.46968810157420798</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="27">
         <v>1.17968744241288</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="27">
         <v>1.17968744241288</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="27">
         <v>0.46968810157420798</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="27">
         <v>7.3959208415594002E-2</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="27">
         <v>4.5557917855383297E-3</v>
       </c>
-      <c r="I34" s="32">
+      <c r="I34" s="27">
         <v>1.0846514394247101E-4</v>
       </c>
-      <c r="J34" s="32">
+      <c r="J34" s="27">
         <v>9.9066783265655502E-7</v>
       </c>
-      <c r="K34" s="30">
-        <v>0</v>
-      </c>
-      <c r="L34" s="30">
+      <c r="K34" s="25">
+        <v>0</v>
+      </c>
+      <c r="L34" s="25">
         <v>0</v>
       </c>
       <c r="W34">
         <v>2024</v>
       </c>
       <c r="X34" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z34" t="s">
         <v>95</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>96</v>
       </c>
       <c r="AA34">
         <v>50</v>
@@ -5624,7 +5825,7 @@
         <v>2024</v>
       </c>
       <c r="AE34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF34">
         <v>24</v>
@@ -5633,51 +5834,51 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>2029</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="27">
         <v>7.3959208415593697E-2</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="27">
         <v>0.46968810157420798</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="27">
         <v>1.17968744241288</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="27">
         <v>1.17968744241288</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G35" s="27">
         <v>0.46968810157420798</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="27">
         <v>7.3959208415594002E-2</v>
       </c>
-      <c r="I35" s="32">
+      <c r="I35" s="27">
         <v>4.5557917855383297E-3</v>
       </c>
-      <c r="J35" s="32">
+      <c r="J35" s="27">
         <v>1.0846514394247101E-4</v>
       </c>
-      <c r="K35" s="32">
+      <c r="K35" s="27">
         <v>9.9066783265655502E-7</v>
       </c>
-      <c r="L35" s="30">
+      <c r="L35" s="25">
         <v>0</v>
       </c>
       <c r="W35">
         <v>2024</v>
       </c>
       <c r="X35" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z35" t="s">
         <v>97</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>98</v>
       </c>
       <c r="AA35">
         <v>19.5</v>
@@ -5689,7 +5890,7 @@
         <v>2024</v>
       </c>
       <c r="AE35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF35">
         <v>16</v>
@@ -5698,51 +5899,51 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>2030</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="27">
         <v>4.5557917855383297E-3</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="27">
         <v>7.3959208415593697E-2</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="27">
         <v>0.46968810157420798</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="27">
         <v>1.17968744241288</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="27">
         <v>1.17968744241288</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="27">
         <v>0.46968810157420798</v>
       </c>
-      <c r="I36" s="32">
+      <c r="I36" s="27">
         <v>7.3959208415594002E-2</v>
       </c>
-      <c r="J36" s="32">
+      <c r="J36" s="27">
         <v>4.5557917855383297E-3</v>
       </c>
-      <c r="K36" s="32">
+      <c r="K36" s="27">
         <v>1.0846514394247101E-4</v>
       </c>
-      <c r="L36" s="32">
+      <c r="L36" s="27">
         <v>9.9066783265655502E-7</v>
       </c>
       <c r="W36">
         <v>2024</v>
       </c>
       <c r="X36" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z36" t="s">
         <v>99</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>100</v>
       </c>
       <c r="AA36">
         <v>24</v>
@@ -5754,7 +5955,7 @@
         <v>2024</v>
       </c>
       <c r="AE36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -5763,21 +5964,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37">
         <v>2024</v>
       </c>
       <c r="X37" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z37" t="s">
         <v>101</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>102</v>
       </c>
       <c r="AA37">
         <v>16</v>
@@ -5789,7 +5990,7 @@
         <v>2024</v>
       </c>
       <c r="AE37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF37">
         <v>20</v>
@@ -5798,8 +5999,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B38" s="32"/>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B38" s="27"/>
       <c r="C38">
         <v>2021</v>
       </c>
@@ -5834,13 +6035,13 @@
         <v>2024</v>
       </c>
       <c r="X38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA38">
         <v>9.6</v>
@@ -5852,7 +6053,7 @@
         <v>2024</v>
       </c>
       <c r="AE38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF38">
         <v>30.4</v>
@@ -5861,51 +6062,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>2021</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="27">
         <v>3.4559990093321602</v>
       </c>
-      <c r="D39" s="30">
-        <v>0</v>
-      </c>
-      <c r="E39" s="30">
-        <v>0</v>
-      </c>
-      <c r="F39" s="30">
-        <v>0</v>
-      </c>
-      <c r="G39" s="30">
-        <v>0</v>
-      </c>
-      <c r="H39" s="30">
-        <v>0</v>
-      </c>
-      <c r="I39" s="30">
-        <v>0</v>
-      </c>
-      <c r="J39" s="30">
-        <v>0</v>
-      </c>
-      <c r="K39" s="30">
-        <v>0</v>
-      </c>
-      <c r="L39" s="30">
+      <c r="D39" s="25">
+        <v>0</v>
+      </c>
+      <c r="E39" s="25">
+        <v>0</v>
+      </c>
+      <c r="F39" s="25">
+        <v>0</v>
+      </c>
+      <c r="G39" s="25">
+        <v>0</v>
+      </c>
+      <c r="H39" s="25">
+        <v>0</v>
+      </c>
+      <c r="I39" s="25">
+        <v>0</v>
+      </c>
+      <c r="J39" s="25">
+        <v>0</v>
+      </c>
+      <c r="K39" s="25">
+        <v>0</v>
+      </c>
+      <c r="L39" s="25">
         <v>0</v>
       </c>
       <c r="W39">
         <v>2024</v>
       </c>
       <c r="X39" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z39" t="s">
         <v>104</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>105</v>
       </c>
       <c r="AA39">
         <v>14.4</v>
@@ -5917,7 +6118,7 @@
         <v>2025</v>
       </c>
       <c r="AE39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -5926,51 +6127,51 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>2022</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="27">
         <v>3.4558905441882199</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="27">
         <v>3.4559990093321602</v>
       </c>
-      <c r="E40" s="30">
-        <v>0</v>
-      </c>
-      <c r="F40" s="30">
-        <v>0</v>
-      </c>
-      <c r="G40" s="30">
-        <v>0</v>
-      </c>
-      <c r="H40" s="30">
-        <v>0</v>
-      </c>
-      <c r="I40" s="30">
-        <v>0</v>
-      </c>
-      <c r="J40" s="30">
-        <v>0</v>
-      </c>
-      <c r="K40" s="30">
-        <v>0</v>
-      </c>
-      <c r="L40" s="30">
+      <c r="E40" s="25">
+        <v>0</v>
+      </c>
+      <c r="F40" s="25">
+        <v>0</v>
+      </c>
+      <c r="G40" s="25">
+        <v>0</v>
+      </c>
+      <c r="H40" s="25">
+        <v>0</v>
+      </c>
+      <c r="I40" s="25">
+        <v>0</v>
+      </c>
+      <c r="J40" s="25">
+        <v>0</v>
+      </c>
+      <c r="K40" s="25">
+        <v>0</v>
+      </c>
+      <c r="L40" s="25">
         <v>0</v>
       </c>
       <c r="W40">
         <v>2024</v>
       </c>
       <c r="X40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA40">
         <v>16</v>
@@ -5982,7 +6183,7 @@
         <v>2025</v>
       </c>
       <c r="AE40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF40">
         <v>69.599999999999994</v>
@@ -5991,51 +6192,51 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>2023</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="27">
         <v>3.4513347524026798</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="27">
         <v>3.4558905441882199</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="27">
         <v>3.4559990093321602</v>
       </c>
-      <c r="F41" s="30">
-        <v>0</v>
-      </c>
-      <c r="G41" s="30">
-        <v>0</v>
-      </c>
-      <c r="H41" s="30">
-        <v>0</v>
-      </c>
-      <c r="I41" s="30">
-        <v>0</v>
-      </c>
-      <c r="J41" s="30">
-        <v>0</v>
-      </c>
-      <c r="K41" s="30">
-        <v>0</v>
-      </c>
-      <c r="L41" s="30">
+      <c r="F41" s="25">
+        <v>0</v>
+      </c>
+      <c r="G41" s="25">
+        <v>0</v>
+      </c>
+      <c r="H41" s="25">
+        <v>0</v>
+      </c>
+      <c r="I41" s="25">
+        <v>0</v>
+      </c>
+      <c r="J41" s="25">
+        <v>0</v>
+      </c>
+      <c r="K41" s="25">
+        <v>0</v>
+      </c>
+      <c r="L41" s="25">
         <v>0</v>
       </c>
       <c r="W41">
         <v>2024</v>
       </c>
       <c r="X41" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z41" t="s">
         <v>107</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>108</v>
       </c>
       <c r="AA41">
         <v>20</v>
@@ -6047,7 +6248,7 @@
         <v>2025</v>
       </c>
       <c r="AE41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF41">
         <v>19.5</v>
@@ -6056,51 +6257,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>2024</v>
       </c>
-      <c r="C42" s="32">
+      <c r="C42" s="27">
         <v>3.3773755439870898</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="27">
         <v>3.4513347524026798</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="27">
         <v>3.4558905441882199</v>
       </c>
-      <c r="F42" s="32">
+      <c r="F42" s="27">
         <v>3.4559990093321602</v>
       </c>
-      <c r="G42" s="30">
-        <v>0</v>
-      </c>
-      <c r="H42" s="30">
-        <v>0</v>
-      </c>
-      <c r="I42" s="30">
-        <v>0</v>
-      </c>
-      <c r="J42" s="30">
-        <v>0</v>
-      </c>
-      <c r="K42" s="30">
-        <v>0</v>
-      </c>
-      <c r="L42" s="30">
+      <c r="G42" s="25">
+        <v>0</v>
+      </c>
+      <c r="H42" s="25">
+        <v>0</v>
+      </c>
+      <c r="I42" s="25">
+        <v>0</v>
+      </c>
+      <c r="J42" s="25">
+        <v>0</v>
+      </c>
+      <c r="K42" s="25">
+        <v>0</v>
+      </c>
+      <c r="L42" s="25">
         <v>0</v>
       </c>
       <c r="W42">
         <v>2024</v>
       </c>
       <c r="X42" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y42" t="s">
         <v>109</v>
       </c>
-      <c r="Y42" t="s">
-        <v>110</v>
-      </c>
       <c r="Z42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA42">
         <v>10</v>
@@ -6112,7 +6313,7 @@
         <v>2025</v>
       </c>
       <c r="AE42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF42">
         <v>60</v>
@@ -6121,51 +6322,51 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>2025</v>
       </c>
-      <c r="C43" s="32">
+      <c r="C43" s="27">
         <v>2.9076874424128798</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="27">
         <v>3.3773755439870898</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="27">
         <v>3.4513347524026798</v>
       </c>
-      <c r="F43" s="32">
+      <c r="F43" s="27">
         <v>3.4558905441882199</v>
       </c>
-      <c r="G43" s="32">
+      <c r="G43" s="27">
         <v>3.4559990093321602</v>
       </c>
-      <c r="H43" s="30">
-        <v>0</v>
-      </c>
-      <c r="I43" s="30">
-        <v>0</v>
-      </c>
-      <c r="J43" s="30">
-        <v>0</v>
-      </c>
-      <c r="K43" s="30">
-        <v>0</v>
-      </c>
-      <c r="L43" s="30">
+      <c r="H43" s="25">
+        <v>0</v>
+      </c>
+      <c r="I43" s="25">
+        <v>0</v>
+      </c>
+      <c r="J43" s="25">
+        <v>0</v>
+      </c>
+      <c r="K43" s="25">
+        <v>0</v>
+      </c>
+      <c r="L43" s="25">
         <v>0</v>
       </c>
       <c r="W43">
         <v>2025</v>
       </c>
       <c r="X43" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y43" t="s">
         <v>92</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>93</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>94</v>
       </c>
       <c r="AA43">
         <v>60</v>
@@ -6177,7 +6378,7 @@
         <v>2025</v>
       </c>
       <c r="AE43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF43">
         <v>24</v>
@@ -6186,51 +6387,51 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>2026</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="27">
         <v>1.728</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="27">
         <v>2.9076874424128798</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="27">
         <v>3.3773755439870898</v>
       </c>
-      <c r="F44" s="32">
+      <c r="F44" s="27">
         <v>3.4513347524026798</v>
       </c>
-      <c r="G44" s="32">
+      <c r="G44" s="27">
         <v>3.4558905441882199</v>
       </c>
-      <c r="H44" s="32">
+      <c r="H44" s="27">
         <v>3.4559990093321602</v>
       </c>
-      <c r="I44" s="30">
-        <v>0</v>
-      </c>
-      <c r="J44" s="30">
-        <v>0</v>
-      </c>
-      <c r="K44" s="30">
-        <v>0</v>
-      </c>
-      <c r="L44" s="30">
+      <c r="I44" s="25">
+        <v>0</v>
+      </c>
+      <c r="J44" s="25">
+        <v>0</v>
+      </c>
+      <c r="K44" s="25">
+        <v>0</v>
+      </c>
+      <c r="L44" s="25">
         <v>0</v>
       </c>
       <c r="W44">
         <v>2025</v>
       </c>
       <c r="X44" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z44" t="s">
         <v>95</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>96</v>
       </c>
       <c r="AA44">
         <v>50</v>
@@ -6242,7 +6443,7 @@
         <v>2025</v>
       </c>
       <c r="AE44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF44">
         <v>16</v>
@@ -6251,51 +6452,51 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>2027</v>
       </c>
-      <c r="C45" s="32">
+      <c r="C45" s="27">
         <v>0.54831255758711495</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="27">
         <v>1.728</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E45" s="27">
         <v>2.9076874424128798</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F45" s="27">
         <v>3.3773755439870898</v>
       </c>
-      <c r="G45" s="32">
+      <c r="G45" s="27">
         <v>3.4513347524026798</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="27">
         <v>3.4558905441882199</v>
       </c>
-      <c r="I45" s="32">
+      <c r="I45" s="27">
         <v>3.4559990093321602</v>
       </c>
-      <c r="J45" s="30">
-        <v>0</v>
-      </c>
-      <c r="K45" s="30">
-        <v>0</v>
-      </c>
-      <c r="L45" s="30">
+      <c r="J45" s="25">
+        <v>0</v>
+      </c>
+      <c r="K45" s="25">
+        <v>0</v>
+      </c>
+      <c r="L45" s="25">
         <v>0</v>
       </c>
       <c r="W45">
         <v>2025</v>
       </c>
       <c r="X45" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z45" t="s">
         <v>97</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>98</v>
       </c>
       <c r="AA45">
         <v>19.5</v>
@@ -6307,7 +6508,7 @@
         <v>2025</v>
       </c>
       <c r="AE45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -6316,51 +6517,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>2028</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C46" s="27">
         <v>7.8624456012907296E-2</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D46" s="27">
         <v>0.54831255758711495</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E46" s="27">
         <v>1.728</v>
       </c>
-      <c r="F46" s="32">
+      <c r="F46" s="27">
         <v>2.9076874424128798</v>
       </c>
-      <c r="G46" s="32">
+      <c r="G46" s="27">
         <v>3.3773755439870898</v>
       </c>
-      <c r="H46" s="32">
+      <c r="H46" s="27">
         <v>3.4513347524026798</v>
       </c>
-      <c r="I46" s="32">
+      <c r="I46" s="27">
         <v>3.4558905441882199</v>
       </c>
-      <c r="J46" s="32">
+      <c r="J46" s="27">
         <v>3.4559990093321602</v>
       </c>
-      <c r="K46" s="30">
-        <v>0</v>
-      </c>
-      <c r="L46" s="30">
+      <c r="K46" s="25">
+        <v>0</v>
+      </c>
+      <c r="L46" s="25">
         <v>0</v>
       </c>
       <c r="W46">
         <v>2025</v>
       </c>
       <c r="X46" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z46" t="s">
         <v>99</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>100</v>
       </c>
       <c r="AA46">
         <v>24</v>
@@ -6372,7 +6573,7 @@
         <v>2025</v>
       </c>
       <c r="AE46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF46">
         <v>20</v>
@@ -6381,51 +6582,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>2029</v>
       </c>
-      <c r="C47" s="32">
+      <c r="C47" s="27">
         <v>4.6652475973135996E-3</v>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="27">
         <v>7.8624456012907296E-2</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E47" s="27">
         <v>0.54831255758711495</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F47" s="27">
         <v>1.728</v>
       </c>
-      <c r="G47" s="32">
+      <c r="G47" s="27">
         <v>2.9076874424128798</v>
       </c>
-      <c r="H47" s="32">
+      <c r="H47" s="27">
         <v>3.3773755439870898</v>
       </c>
-      <c r="I47" s="32">
+      <c r="I47" s="27">
         <v>3.4513347524026798</v>
       </c>
-      <c r="J47" s="32">
+      <c r="J47" s="27">
         <v>3.4558905441882199</v>
       </c>
-      <c r="K47" s="32">
+      <c r="K47" s="27">
         <v>3.4559990093321602</v>
       </c>
-      <c r="L47" s="30">
+      <c r="L47" s="25">
         <v>0</v>
       </c>
       <c r="W47">
         <v>2025</v>
       </c>
       <c r="X47" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z47" t="s">
         <v>101</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>102</v>
       </c>
       <c r="AA47">
         <v>16</v>
@@ -6437,7 +6638,7 @@
         <v>2025</v>
       </c>
       <c r="AE47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF47">
         <v>30.4</v>
@@ -6446,35 +6647,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>2030</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C48" s="27">
         <v>1.09455811775262E-4</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="27">
         <v>4.6652475973135996E-3</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="27">
         <v>7.8624456012907296E-2</v>
       </c>
-      <c r="F48" s="32">
+      <c r="F48" s="27">
         <v>0.54831255758711495</v>
       </c>
-      <c r="G48" s="32">
+      <c r="G48" s="27">
         <v>1.728</v>
       </c>
-      <c r="H48" s="32">
+      <c r="H48" s="27">
         <v>2.9076874424128798</v>
       </c>
-      <c r="I48" s="32">
+      <c r="I48" s="27">
         <v>3.3773755439870898</v>
       </c>
-      <c r="J48" s="32">
+      <c r="J48" s="27">
         <v>3.4513347524026798</v>
       </c>
-      <c r="K48" s="32">
+      <c r="K48" s="27">
         <v>3.4558905441882199</v>
       </c>
       <c r="L48">
@@ -6484,13 +6685,13 @@
         <v>2025</v>
       </c>
       <c r="X48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA48">
         <v>9.6</v>
@@ -6502,7 +6703,7 @@
         <v>2026</v>
       </c>
       <c r="AE48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -6511,18 +6712,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W49">
         <v>2025</v>
       </c>
       <c r="X49" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z49" t="s">
         <v>104</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>105</v>
       </c>
       <c r="AA49">
         <v>14.4</v>
@@ -6534,7 +6735,7 @@
         <v>2026</v>
       </c>
       <c r="AE49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF49">
         <v>69.599999999999994</v>
@@ -6543,18 +6744,18 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="50" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W50">
         <v>2025</v>
       </c>
       <c r="X50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA50">
         <v>16</v>
@@ -6566,7 +6767,7 @@
         <v>2026</v>
       </c>
       <c r="AE50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF50">
         <v>19.5</v>
@@ -6575,18 +6776,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W51">
         <v>2025</v>
       </c>
       <c r="X51" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z51" t="s">
         <v>107</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>108</v>
       </c>
       <c r="AA51">
         <v>20</v>
@@ -6598,7 +6799,7 @@
         <v>2026</v>
       </c>
       <c r="AE51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF51">
         <v>60</v>
@@ -6607,18 +6808,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W52">
         <v>2025</v>
       </c>
       <c r="X52" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y52" t="s">
         <v>109</v>
       </c>
-      <c r="Y52" t="s">
-        <v>110</v>
-      </c>
       <c r="Z52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA52">
         <v>10</v>
@@ -6630,7 +6831,7 @@
         <v>2026</v>
       </c>
       <c r="AE52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF52">
         <v>24</v>
@@ -6639,18 +6840,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W53">
         <v>2026</v>
       </c>
       <c r="X53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y53" t="s">
         <v>92</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>93</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>94</v>
       </c>
       <c r="AA53">
         <v>60</v>
@@ -6662,7 +6863,7 @@
         <v>2026</v>
       </c>
       <c r="AE53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF53">
         <v>16</v>
@@ -6671,18 +6872,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W54">
         <v>2026</v>
       </c>
       <c r="X54" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z54" t="s">
         <v>95</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>96</v>
       </c>
       <c r="AA54">
         <v>50</v>
@@ -6694,7 +6895,7 @@
         <v>2026</v>
       </c>
       <c r="AE54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -6703,18 +6904,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W55">
         <v>2026</v>
       </c>
       <c r="X55" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z55" t="s">
         <v>97</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>98</v>
       </c>
       <c r="AA55">
         <v>19.5</v>
@@ -6726,7 +6927,7 @@
         <v>2026</v>
       </c>
       <c r="AE55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF55">
         <v>20</v>
@@ -6735,18 +6936,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W56">
         <v>2026</v>
       </c>
       <c r="X56" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z56" t="s">
         <v>99</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>100</v>
       </c>
       <c r="AA56">
         <v>24</v>
@@ -6758,7 +6959,7 @@
         <v>2026</v>
       </c>
       <c r="AE56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF56">
         <v>30.4</v>
@@ -6767,18 +6968,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W57">
         <v>2026</v>
       </c>
       <c r="X57" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z57" t="s">
         <v>101</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>102</v>
       </c>
       <c r="AA57">
         <v>16</v>
@@ -6790,7 +6991,7 @@
         <v>2027</v>
       </c>
       <c r="AE57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -6799,18 +7000,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W58">
         <v>2026</v>
       </c>
       <c r="X58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA58">
         <v>9.6</v>
@@ -6822,7 +7023,7 @@
         <v>2027</v>
       </c>
       <c r="AE58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF58">
         <v>69.599999999999994</v>
@@ -6831,18 +7032,18 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="59" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W59">
         <v>2026</v>
       </c>
       <c r="X59" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z59" t="s">
         <v>104</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>105</v>
       </c>
       <c r="AA59">
         <v>14.4</v>
@@ -6854,7 +7055,7 @@
         <v>2027</v>
       </c>
       <c r="AE59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF59">
         <v>19.5</v>
@@ -6863,18 +7064,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W60">
         <v>2026</v>
       </c>
       <c r="X60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA60">
         <v>16</v>
@@ -6886,7 +7087,7 @@
         <v>2027</v>
       </c>
       <c r="AE60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF60">
         <v>60</v>
@@ -6895,18 +7096,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W61">
         <v>2026</v>
       </c>
       <c r="X61" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z61" t="s">
         <v>107</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>108</v>
       </c>
       <c r="AA61">
         <v>20</v>
@@ -6918,7 +7119,7 @@
         <v>2027</v>
       </c>
       <c r="AE61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF61">
         <v>24</v>
@@ -6927,18 +7128,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W62">
         <v>2026</v>
       </c>
       <c r="X62" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y62" t="s">
         <v>109</v>
       </c>
-      <c r="Y62" t="s">
-        <v>110</v>
-      </c>
       <c r="Z62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA62">
         <v>10</v>
@@ -6950,7 +7151,7 @@
         <v>2027</v>
       </c>
       <c r="AE62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF62">
         <v>16</v>
@@ -6959,18 +7160,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W63">
         <v>2027</v>
       </c>
       <c r="X63" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y63" t="s">
         <v>92</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>93</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>94</v>
       </c>
       <c r="AA63">
         <v>60</v>
@@ -6982,7 +7183,7 @@
         <v>2027</v>
       </c>
       <c r="AE63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6991,18 +7192,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W64">
         <v>2027</v>
       </c>
       <c r="X64" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z64" t="s">
         <v>95</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>96</v>
       </c>
       <c r="AA64">
         <v>50</v>
@@ -7014,7 +7215,7 @@
         <v>2027</v>
       </c>
       <c r="AE64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF64">
         <v>20</v>
@@ -7023,18 +7224,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W65">
         <v>2027</v>
       </c>
       <c r="X65" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z65" t="s">
         <v>97</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>98</v>
       </c>
       <c r="AA65">
         <v>19.5</v>
@@ -7046,7 +7247,7 @@
         <v>2027</v>
       </c>
       <c r="AE65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF65">
         <v>30.4</v>
@@ -7055,18 +7256,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W66">
         <v>2027</v>
       </c>
       <c r="X66" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z66" t="s">
         <v>99</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>100</v>
       </c>
       <c r="AA66">
         <v>24</v>
@@ -7078,7 +7279,7 @@
         <v>2028</v>
       </c>
       <c r="AE66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -7087,18 +7288,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W67">
         <v>2027</v>
       </c>
       <c r="X67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z67" t="s">
         <v>101</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>102</v>
       </c>
       <c r="AA67">
         <v>16</v>
@@ -7110,7 +7311,7 @@
         <v>2028</v>
       </c>
       <c r="AE67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF67">
         <v>69.599999999999994</v>
@@ -7119,18 +7320,18 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="68" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W68">
         <v>2027</v>
       </c>
       <c r="X68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA68">
         <v>9.6</v>
@@ -7142,7 +7343,7 @@
         <v>2028</v>
       </c>
       <c r="AE68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF68">
         <v>19.5</v>
@@ -7151,18 +7352,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W69">
         <v>2027</v>
       </c>
       <c r="X69" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z69" t="s">
         <v>104</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>105</v>
       </c>
       <c r="AA69">
         <v>14.4</v>
@@ -7174,7 +7375,7 @@
         <v>2028</v>
       </c>
       <c r="AE69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF69">
         <v>60</v>
@@ -7183,18 +7384,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W70">
         <v>2027</v>
       </c>
       <c r="X70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA70">
         <v>16</v>
@@ -7206,7 +7407,7 @@
         <v>2028</v>
       </c>
       <c r="AE70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF70">
         <v>24</v>
@@ -7215,18 +7416,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W71">
         <v>2027</v>
       </c>
       <c r="X71" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z71" t="s">
         <v>107</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>108</v>
       </c>
       <c r="AA71">
         <v>20</v>
@@ -7238,7 +7439,7 @@
         <v>2028</v>
       </c>
       <c r="AE71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF71">
         <v>16</v>
@@ -7247,18 +7448,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W72">
         <v>2027</v>
       </c>
       <c r="X72" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y72" t="s">
         <v>109</v>
       </c>
-      <c r="Y72" t="s">
-        <v>110</v>
-      </c>
       <c r="Z72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA72">
         <v>10</v>
@@ -7270,7 +7471,7 @@
         <v>2028</v>
       </c>
       <c r="AE72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -7279,18 +7480,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W73">
         <v>2028</v>
       </c>
       <c r="X73" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y73" t="s">
         <v>92</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>93</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>94</v>
       </c>
       <c r="AA73">
         <v>60</v>
@@ -7302,7 +7503,7 @@
         <v>2028</v>
       </c>
       <c r="AE73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF73">
         <v>20</v>
@@ -7311,18 +7512,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W74">
         <v>2028</v>
       </c>
       <c r="X74" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z74" t="s">
         <v>95</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>96</v>
       </c>
       <c r="AA74">
         <v>50</v>
@@ -7334,7 +7535,7 @@
         <v>2028</v>
       </c>
       <c r="AE74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF74">
         <v>30.4</v>
@@ -7343,18 +7544,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W75">
         <v>2028</v>
       </c>
       <c r="X75" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z75" t="s">
         <v>97</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>98</v>
       </c>
       <c r="AA75">
         <v>19.5</v>
@@ -7366,7 +7567,7 @@
         <v>2029</v>
       </c>
       <c r="AE75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7375,18 +7576,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W76">
         <v>2028</v>
       </c>
       <c r="X76" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z76" t="s">
         <v>99</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>100</v>
       </c>
       <c r="AA76">
         <v>24</v>
@@ -7398,7 +7599,7 @@
         <v>2029</v>
       </c>
       <c r="AE76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF76">
         <v>69.599999999999994</v>
@@ -7407,18 +7608,18 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="77" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W77">
         <v>2028</v>
       </c>
       <c r="X77" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z77" t="s">
         <v>101</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>102</v>
       </c>
       <c r="AA77">
         <v>16</v>
@@ -7430,7 +7631,7 @@
         <v>2029</v>
       </c>
       <c r="AE77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF77">
         <v>19.5</v>
@@ -7439,18 +7640,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W78">
         <v>2028</v>
       </c>
       <c r="X78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA78">
         <v>9.6</v>
@@ -7462,7 +7663,7 @@
         <v>2029</v>
       </c>
       <c r="AE78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF78">
         <v>60</v>
@@ -7471,18 +7672,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W79">
         <v>2028</v>
       </c>
       <c r="X79" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z79" t="s">
         <v>104</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>105</v>
       </c>
       <c r="AA79">
         <v>14.4</v>
@@ -7494,7 +7695,7 @@
         <v>2029</v>
       </c>
       <c r="AE79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF79">
         <v>24</v>
@@ -7503,18 +7704,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W80">
         <v>2028</v>
       </c>
       <c r="X80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA80">
         <v>16</v>
@@ -7526,7 +7727,7 @@
         <v>2029</v>
       </c>
       <c r="AE80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF80">
         <v>16</v>
@@ -7535,18 +7736,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W81">
         <v>2028</v>
       </c>
       <c r="X81" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z81" t="s">
         <v>107</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>108</v>
       </c>
       <c r="AA81">
         <v>20</v>
@@ -7558,7 +7759,7 @@
         <v>2029</v>
       </c>
       <c r="AE81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7567,18 +7768,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W82">
         <v>2028</v>
       </c>
       <c r="X82" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y82" t="s">
         <v>109</v>
       </c>
-      <c r="Y82" t="s">
-        <v>110</v>
-      </c>
       <c r="Z82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA82">
         <v>10</v>
@@ -7590,7 +7791,7 @@
         <v>2029</v>
       </c>
       <c r="AE82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF82">
         <v>20</v>
@@ -7599,18 +7800,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W83">
         <v>2029</v>
       </c>
       <c r="X83" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y83" t="s">
         <v>92</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>93</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>94</v>
       </c>
       <c r="AA83">
         <v>60</v>
@@ -7622,7 +7823,7 @@
         <v>2029</v>
       </c>
       <c r="AE83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF83">
         <v>30.4</v>
@@ -7631,18 +7832,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W84">
         <v>2029</v>
       </c>
       <c r="X84" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z84" t="s">
         <v>95</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>96</v>
       </c>
       <c r="AA84">
         <v>50</v>
@@ -7654,7 +7855,7 @@
         <v>2030</v>
       </c>
       <c r="AE84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7663,18 +7864,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W85">
         <v>2029</v>
       </c>
       <c r="X85" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z85" t="s">
         <v>97</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>98</v>
       </c>
       <c r="AA85">
         <v>19.5</v>
@@ -7686,7 +7887,7 @@
         <v>2030</v>
       </c>
       <c r="AE85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF85">
         <v>69.599999999999994</v>
@@ -7695,18 +7896,18 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="86" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W86">
         <v>2029</v>
       </c>
       <c r="X86" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z86" t="s">
         <v>99</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>100</v>
       </c>
       <c r="AA86">
         <v>24</v>
@@ -7718,7 +7919,7 @@
         <v>2030</v>
       </c>
       <c r="AE86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF86">
         <v>19.5</v>
@@ -7727,18 +7928,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W87">
         <v>2029</v>
       </c>
       <c r="X87" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z87" t="s">
         <v>101</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>102</v>
       </c>
       <c r="AA87">
         <v>16</v>
@@ -7750,7 +7951,7 @@
         <v>2030</v>
       </c>
       <c r="AE87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF87">
         <v>60</v>
@@ -7759,18 +7960,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W88">
         <v>2029</v>
       </c>
       <c r="X88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA88">
         <v>9.6</v>
@@ -7782,7 +7983,7 @@
         <v>2030</v>
       </c>
       <c r="AE88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF88">
         <v>24</v>
@@ -7791,18 +7992,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W89">
         <v>2029</v>
       </c>
       <c r="X89" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z89" t="s">
         <v>104</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z89" t="s">
-        <v>105</v>
       </c>
       <c r="AA89">
         <v>14.4</v>
@@ -7814,7 +8015,7 @@
         <v>2030</v>
       </c>
       <c r="AE89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF89">
         <v>16</v>
@@ -7823,18 +8024,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W90">
         <v>2029</v>
       </c>
       <c r="X90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA90">
         <v>16</v>
@@ -7846,7 +8047,7 @@
         <v>2030</v>
       </c>
       <c r="AE90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -7855,18 +8056,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W91">
         <v>2029</v>
       </c>
       <c r="X91" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z91" t="s">
         <v>107</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z91" t="s">
-        <v>108</v>
       </c>
       <c r="AA91">
         <v>20</v>
@@ -7878,7 +8079,7 @@
         <v>2030</v>
       </c>
       <c r="AE91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF91">
         <v>20</v>
@@ -7887,18 +8088,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W92">
         <v>2029</v>
       </c>
       <c r="X92" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y92" t="s">
         <v>109</v>
       </c>
-      <c r="Y92" t="s">
-        <v>110</v>
-      </c>
       <c r="Z92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA92">
         <v>10</v>
@@ -7910,7 +8111,7 @@
         <v>2030</v>
       </c>
       <c r="AE92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF92">
         <v>30.4</v>
@@ -7919,18 +8120,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W93">
         <v>2030</v>
       </c>
       <c r="X93" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y93" t="s">
         <v>92</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>93</v>
-      </c>
-      <c r="Z93" t="s">
-        <v>94</v>
       </c>
       <c r="AA93">
         <v>60</v>
@@ -7939,18 +8140,18 @@
         <v>12.205439999999999</v>
       </c>
     </row>
-    <row r="94" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W94">
         <v>2030</v>
       </c>
       <c r="X94" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z94" t="s">
         <v>95</v>
-      </c>
-      <c r="Y94" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>96</v>
       </c>
       <c r="AA94">
         <v>50</v>
@@ -7959,18 +8160,18 @@
         <v>10.171200000000001</v>
       </c>
     </row>
-    <row r="95" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W95">
         <v>2030</v>
       </c>
       <c r="X95" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z95" t="s">
         <v>97</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>98</v>
       </c>
       <c r="AA95">
         <v>19.5</v>
@@ -7979,18 +8180,18 @@
         <v>3.6972</v>
       </c>
     </row>
-    <row r="96" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="23:33" x14ac:dyDescent="0.35">
       <c r="W96">
         <v>2030</v>
       </c>
       <c r="X96" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z96" t="s">
         <v>99</v>
-      </c>
-      <c r="Y96" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z96" t="s">
-        <v>100</v>
       </c>
       <c r="AA96">
         <v>24</v>
@@ -7999,18 +8200,18 @@
         <v>5.5296000000000003</v>
       </c>
     </row>
-    <row r="97" spans="23:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="23:28" x14ac:dyDescent="0.35">
       <c r="W97">
         <v>2030</v>
       </c>
       <c r="X97" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z97" t="s">
         <v>101</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z97" t="s">
-        <v>102</v>
       </c>
       <c r="AA97">
         <v>16</v>
@@ -8019,18 +8220,18 @@
         <v>3.456</v>
       </c>
     </row>
-    <row r="98" spans="23:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="23:28" x14ac:dyDescent="0.35">
       <c r="W98">
         <v>2030</v>
       </c>
       <c r="X98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z98" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA98">
         <v>9.6</v>
@@ -8039,18 +8240,18 @@
         <v>2.21184</v>
       </c>
     </row>
-    <row r="99" spans="23:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="23:28" x14ac:dyDescent="0.35">
       <c r="W99">
         <v>2030</v>
       </c>
       <c r="X99" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z99" t="s">
         <v>104</v>
-      </c>
-      <c r="Y99" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z99" t="s">
-        <v>105</v>
       </c>
       <c r="AA99">
         <v>14.4</v>
@@ -8059,18 +8260,18 @@
         <v>3.1103999999999998</v>
       </c>
     </row>
-    <row r="100" spans="23:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="23:28" x14ac:dyDescent="0.35">
       <c r="W100">
         <v>2030</v>
       </c>
       <c r="X100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA100">
         <v>16</v>
@@ -8079,18 +8280,18 @@
         <v>3.456</v>
       </c>
     </row>
-    <row r="101" spans="23:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="23:28" x14ac:dyDescent="0.35">
       <c r="W101">
         <v>2030</v>
       </c>
       <c r="X101" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z101" t="s">
         <v>107</v>
-      </c>
-      <c r="Y101" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z101" t="s">
-        <v>108</v>
       </c>
       <c r="AA101">
         <v>20</v>
@@ -8099,18 +8300,18 @@
         <v>4.0684800000000001</v>
       </c>
     </row>
-    <row r="102" spans="23:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="23:28" x14ac:dyDescent="0.35">
       <c r="W102">
         <v>2030</v>
       </c>
       <c r="X102" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y102" t="s">
         <v>109</v>
       </c>
-      <c r="Y102" t="s">
-        <v>110</v>
-      </c>
       <c r="Z102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA102">
         <v>10</v>
@@ -8120,214 +8321,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE76F46E-F9E0-4FFD-9C15-07511C841BF9}">
-  <dimension ref="B2:E18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="103.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="42"/>
-      <c r="E7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="41">
-        <v>2</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="41">
-        <v>2</v>
-      </c>
-      <c r="D12" s="41"/>
-      <c r="E12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="41">
-        <v>2021</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="41">
-        <v>2030</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="39">
-        <v>3.67</v>
-      </c>
-      <c r="D18" s="39"/>
-      <c r="E18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C15:C16">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C16" xr:uid="{5D3B6C52-629A-48C0-B345-97745DEAC80B}">
-      <formula1>Boolean</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8340,27 +8333,27 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2">
         <v>0.48</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -8374,47 +8367,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="11" max="11" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D1" s="37" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D1" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -8423,18 +8416,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
-    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100806C55B750152A459818B636E97A41C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="74fd9cb75cef04cf26a1ff9ddef01b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xmlns:ns3="145cc194-9bea-4db6-b116-a042a4529fcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afbcbfdd38894bc2ff0644b00c8ec680" ns2:_="" ns3:_="">
     <xsd:import namespace="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
@@ -8697,6 +8678,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
+    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8707,23 +8700,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D60021C7-CA75-4673-96EA-55284BF81134}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8742,6 +8718,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
   <ds:schemaRefs>

--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClOrfani\PycharmProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703DEB7B-10D8-45FB-ABB2-2A52C8BD3357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6731CD4-0D19-43E4-82B9-20AD9346CFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
-    <sheet name="Settings" sheetId="10" r:id="rId2"/>
+    <sheet name="Settings" sheetId="11" r:id="rId2"/>
     <sheet name="Processes" sheetId="6" r:id="rId3"/>
     <sheet name="Flows" sheetId="1" r:id="rId4"/>
     <sheet name="DMFA results (example)" sheetId="8" r:id="rId5"/>
@@ -48,24 +48,6 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={1B6F1B95-29AC-4426-A9A6-A75A9B9B488B}</author>
-  </authors>
-  <commentList>
-    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{1B6F1B95-29AC-4426-A9A6-A75A9B9B488B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Sankey diagram process positioning</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>tc={A1233539-2DE7-4EBD-8A76-0466F733D277}</author>
   </authors>
   <commentList>
@@ -82,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="206">
   <si>
     <t>Years</t>
   </si>
@@ -418,9 +400,6 @@
   </si>
   <si>
     <t>Source Process ID</t>
-  </si>
-  <si>
-    <t>Targer Process ID</t>
   </si>
   <si>
     <t>Value (Mm3 SWE)</t>
@@ -568,9 +547,6 @@
     <t>j</t>
   </si>
   <si>
-    <t xml:space="preserve">https://excalidraw.com/#json=acMq06Ek074LvgJQcBgt-,_z-k-OWtxYKdxCtl_tJVQg </t>
-  </si>
-  <si>
     <t>Unit*</t>
   </si>
   <si>
@@ -803,6 +779,21 @@
       </rPr>
       <t>Columns B to I need be filled in for aiphoria to run.</t>
     </r>
+  </si>
+  <si>
+    <t>Distribution type</t>
+  </si>
+  <si>
+    <t>Target Process ID</t>
+  </si>
+  <si>
+    <t>df_processes</t>
+  </si>
+  <si>
+    <t>df_flows</t>
+  </si>
+  <si>
+    <t>https://excalidraw.com/#json=TH95eCDBsN1pfqczsMf84,S3TGIZvZiI-AUl8oZJcUYg</t>
   </si>
 </sst>
 </file>
@@ -974,7 +965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1050,6 +1041,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1064,12 +1062,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1114,23 +1106,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>496232</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>94502</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238497</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>162193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1038971</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>125853</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>68549</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Graphic 2">
+        <xdr:cNvPr id="4" name="Graphic 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0ED2165-3AD5-0D4D-BE2D-6B469A8BFDD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65083D5-FD42-D957-1C27-02B79123CF56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1152,8 +1144,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4720850" y="4767355"/>
-          <a:ext cx="9585886" cy="2893707"/>
+          <a:off x="5023409" y="2750752"/>
+          <a:ext cx="9443385" cy="3130475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1468,14 +1460,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="P3" dT="2024-07-11T08:34:08.99" personId="{10F4E90A-0171-4D8D-A06D-5391EEA853D3}" id="{1B6F1B95-29AC-4426-A9A6-A75A9B9B488B}">
-    <text>Sankey diagram process positioning</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="P3" dT="2024-07-05T06:41:30.02" personId="{10F4E90A-0171-4D8D-A06D-5391EEA853D3}" id="{A1233539-2DE7-4EBD-8A76-0466F733D277}">
     <text>Conversion to ODMT not carbon!</text>
   </threadedComment>
@@ -1487,7 +1471,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1506,10 +1490,10 @@
       <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="41"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -1518,47 +1502,47 @@
       <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="40"/>
+      <c r="C2" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="43"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="203.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="40"/>
+      <c r="C3" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="40" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="46"/>
     </row>
     <row r="5" spans="1:5" s="17" customFormat="1" ht="96.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="43"/>
+      <c r="C5" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="46"/>
     </row>
     <row r="6" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
@@ -1567,10 +1551,10 @@
       <c r="B6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="39"/>
+      <c r="C6" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
@@ -1579,10 +1563,10 @@
       <c r="B7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
@@ -1591,10 +1575,10 @@
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="39"/>
+      <c r="D8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
@@ -1603,10 +1587,10 @@
       <c r="B9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
@@ -1615,10 +1599,10 @@
       <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="45"/>
     </row>
     <row r="11" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
@@ -1627,34 +1611,34 @@
       <c r="B11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="42"/>
     </row>
     <row r="13" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="39"/>
+      <c r="C13" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1678,10 +1662,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE76F46E-F9E0-4FFD-9C15-07511C841BF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FFA668-DA1A-459B-BD42-D0D7F7709F0D}">
   <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1694,17 +1678,17 @@
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -1712,13 +1696,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>4</v>
@@ -1726,145 +1710,145 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" s="36">
         <v>2</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C12" s="36">
         <v>2</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C13" s="36">
         <v>2021</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C14" s="36">
         <v>2030</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C15" s="38" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C16" s="38" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="36"/>
       <c r="E16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C17" s="25">
         <v>0.1</v>
       </c>
       <c r="E17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" s="34">
         <v>3.67</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1877,7 +1861,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C16" xr:uid="{5D3B6C52-629A-48C0-B345-97745DEAC80B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C16" xr:uid="{79A7E31C-3284-4405-9B5F-03E099B07563}">
       <formula1>Boolean</formula1>
     </dataValidation>
   </dataValidations>
@@ -1886,11 +1870,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0D592-75C1-4AD1-84F0-2AAE25CA0097}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0D592-75C1-4AD1-84F0-2AAE25CA0097}">
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1935,7 +1919,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>11</v>
@@ -1994,28 +1978,28 @@
     <row r="3" spans="1:18" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="29"/>
       <c r="B3" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="E3" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>161</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>163</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J3" s="30" t="s">
         <v>16</v>
@@ -2066,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2103,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2140,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2176,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2284,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2320,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2356,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2374,12 +2358,12 @@
     <row r="18" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distribution parameter" prompt="tuple = number or list of parameters separated by comma. Example: for stddev only number! e.g., 1. For shape and scale list separated by comma e.g., shape=1, scale=1.5" sqref="I4:I1048576" xr:uid="{564AD8C3-F96D-40DD-BFD1-1C6E073701B7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sankey diagram positioning" prompt="Sankey diagram X and Y node positioning. Check / adjust positioning after you run case and see coordinates. " sqref="P4:Q1048576 Q2" xr:uid="{167D7519-74A2-4731-8D99-C2A980321CC9}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -2400,7 +2384,7 @@
   <dimension ref="A1:U91"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2521,37 +2505,37 @@
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="E3" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="F3" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="H3" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="20" t="s">
+      <c r="I3" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="J3" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="K3" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>26</v>
@@ -2563,10 +2547,10 @@
         <v>60</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R3" s="22" t="s">
         <v>61</v>
@@ -2583,7 +2567,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -2617,7 +2601,7 @@
         <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L4">
         <v>2021</v>
@@ -2635,7 +2619,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -2666,10 +2650,10 @@
         <v>Sawnwood:FI</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="L5">
         <v>2021</v>
@@ -2687,7 +2671,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -2721,7 +2705,7 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L6">
         <v>2021</v>
@@ -2739,7 +2723,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -2791,7 +2775,7 @@
     </row>
     <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -2843,7 +2827,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -2895,7 +2879,7 @@
     </row>
     <row r="10" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -2947,7 +2931,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -2998,7 +2982,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -3032,7 +3016,7 @@
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L12">
         <v>2021</v>
@@ -3050,7 +3034,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -3083,7 +3067,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L13">
         <v>2021</v>
@@ -3204,6 +3188,9 @@
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="E35" s="24" t="s">
+        <v>205</v>
+      </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
@@ -3253,9 +3240,6 @@
       <c r="O43"/>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C44" s="24" t="s">
-        <v>143</v>
-      </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="N44"/>
@@ -3553,12 +3537,11 @@
     <hyperlink ref="Q4" r:id="rId1" xr:uid="{44BDC3E8-14C2-47A6-9A94-576E28D9D557}"/>
     <hyperlink ref="Q11:Q13" r:id="rId2" display="https://doi.org/10.1016/j.resconrec.2024.107476, assumed average conversion factor 80% soft 20% hard" xr:uid="{09224BB8-3720-400B-909A-BF395F73FAE2}"/>
     <hyperlink ref="Q13" r:id="rId3" xr:uid="{3D605790-367C-4E01-9AE5-AEF809643374}"/>
-    <hyperlink ref="C44" r:id="rId4" location="json=acMq06Ek074LvgJQcBgt-,_z-k-OWtxYKdxCtl_tJVQg " xr:uid="{E1E4D22F-0745-4815-82DC-5F07D3BD4B83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3566,8 +3549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E839B9F-9E6A-42D1-BF39-12023C14C5F8}">
   <dimension ref="A1:AG102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3579,21 +3562,29 @@
     <col min="16" max="16" width="15.26953125" customWidth="1"/>
     <col min="17" max="17" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.36328125" customWidth="1"/>
+    <col min="26" max="26" width="19.36328125" customWidth="1"/>
     <col min="27" max="27" width="18.54296875" customWidth="1"/>
     <col min="28" max="28" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" t="s">
         <v>118</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD1" s="32" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2">
@@ -3627,43 +3618,43 @@
         <v>2030</v>
       </c>
       <c r="N2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" t="s">
         <v>121</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>123</v>
-      </c>
-      <c r="S2" t="s">
-        <v>124</v>
       </c>
       <c r="X2" t="s">
         <v>110</v>
       </c>
       <c r="Y2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA2" t="s">
         <v>112</v>
       </c>
-      <c r="Z2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>113</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>114</v>
       </c>
       <c r="AD2" t="s">
         <v>58</v>
       </c>
       <c r="AE2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF2" t="s">
         <v>115</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>116</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
@@ -3816,14 +3807,14 @@
       <c r="AD4">
         <v>2021</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE4" s="32" t="s">
         <v>93</v>
       </c>
       <c r="AF4">
-        <v>69.599999999999994</v>
+        <v>60</v>
       </c>
       <c r="AG4">
-        <v>69.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
@@ -3888,10 +3879,10 @@
         <v>97</v>
       </c>
       <c r="AA5">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AB5">
-        <v>3.6972</v>
+        <v>1.8959999999999999</v>
       </c>
       <c r="AD5">
         <v>2021</v>
@@ -3900,7 +3891,7 @@
         <v>97</v>
       </c>
       <c r="AF5">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -4003,7 +3994,7 @@
         <v>5.0215344417914299E-4</v>
       </c>
       <c r="G7" s="27">
-        <v>4.5864251507765596E-6</v>
+        <v>4.5864251525529198E-6</v>
       </c>
       <c r="H7" s="25">
         <v>0</v>
@@ -4022,7 +4013,7 @@
       </c>
       <c r="N7" s="26">
         <f t="shared" si="1"/>
-        <v>2.538484062903307</v>
+        <v>2.5384840629033087</v>
       </c>
       <c r="P7">
         <v>16</v>
@@ -4063,7 +4054,7 @@
         <v>24</v>
       </c>
       <c r="AG7">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
@@ -4080,13 +4071,13 @@
         <v>0.34240374266478502</v>
       </c>
       <c r="F8" s="27">
-        <v>2.1091628636751701E-2</v>
+        <v>2.10916286367588E-2</v>
       </c>
       <c r="G8" s="27">
-        <v>5.0215344417914299E-4</v>
+        <v>5.02153444298159E-4</v>
       </c>
       <c r="H8" s="27">
-        <v>4.5864251507765596E-6</v>
+        <v>4.5864254669680804E-6</v>
       </c>
       <c r="I8" s="25">
         <v>0</v>
@@ -4102,18 +4093,18 @@
       </c>
       <c r="N8" s="26">
         <f t="shared" si="1"/>
-        <v>7.9999999999999867</v>
+        <v>8.0000000000004299</v>
       </c>
       <c r="P8">
         <v>16</v>
       </c>
       <c r="Q8" s="26">
         <f t="shared" si="0"/>
-        <v>8.0000000000000142</v>
+        <v>7.9999999999995701</v>
       </c>
       <c r="S8" s="26">
         <f>SUM($Q$3:Q8)</f>
-        <v>85.075404131125268</v>
+        <v>85.075404131124827</v>
       </c>
       <c r="W8">
         <v>2021</v>
@@ -4128,10 +4119,10 @@
         <v>93</v>
       </c>
       <c r="AA8">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>2.21184</v>
+        <v>0</v>
       </c>
       <c r="AD8">
         <v>2021</v>
@@ -4143,7 +4134,7 @@
         <v>16</v>
       </c>
       <c r="AG8">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.35">
@@ -4160,16 +4151,16 @@
         <v>2.1744819517324401</v>
       </c>
       <c r="F9" s="27">
-        <v>0.34240374266478502</v>
+        <v>0.34240374266488999</v>
       </c>
       <c r="G9" s="27">
-        <v>2.1091628636751701E-2</v>
+        <v>2.1091628641744999E-2</v>
       </c>
       <c r="H9" s="27">
-        <v>5.0215344417914299E-4</v>
+        <v>5.0215347872395401E-4</v>
       </c>
       <c r="I9" s="27">
-        <v>4.5864251507765596E-6</v>
+        <v>4.5864600117795303E-6</v>
       </c>
       <c r="J9" s="25">
         <v>0</v>
@@ -4182,18 +4173,18 @@
       </c>
       <c r="N9" s="26">
         <f t="shared" si="1"/>
-        <v>13.461515937096667</v>
+        <v>13.461515937171171</v>
       </c>
       <c r="P9">
         <v>16</v>
       </c>
       <c r="Q9" s="26">
         <f t="shared" si="0"/>
-        <v>2.5384840629033327</v>
+        <v>2.5384840628288288</v>
       </c>
       <c r="S9" s="26">
         <f>SUM($Q$3:Q9)</f>
-        <v>87.613888194028604</v>
+        <v>87.613888193953656</v>
       </c>
       <c r="W9">
         <v>2021</v>
@@ -4208,10 +4199,10 @@
         <v>104</v>
       </c>
       <c r="AA9">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>3.1103999999999998</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <v>2021</v>
@@ -4240,19 +4231,19 @@
         <v>5.4615159370966797</v>
       </c>
       <c r="F10" s="27">
-        <v>2.1744819517324401</v>
+        <v>2.1744819517331102</v>
       </c>
       <c r="G10" s="27">
-        <v>0.34240374266478502</v>
+        <v>0.34240374274586</v>
       </c>
       <c r="H10" s="27">
-        <v>2.1091628636751701E-2</v>
+        <v>2.1091630087779398E-2</v>
       </c>
       <c r="I10" s="27">
-        <v>5.0215344417914299E-4</v>
+        <v>5.0215726109748005E-4</v>
       </c>
       <c r="J10" s="27">
-        <v>4.5864251507765596E-6</v>
+        <v>4.5879110395219397E-6</v>
       </c>
       <c r="K10" s="25">
         <v>0</v>
@@ -4262,18 +4253,18 @@
       </c>
       <c r="N10" s="26">
         <f t="shared" si="1"/>
-        <v>15.635997888829108</v>
+        <v>15.635997895664687</v>
       </c>
       <c r="P10">
         <v>16</v>
       </c>
       <c r="Q10" s="26">
         <f t="shared" si="0"/>
-        <v>0.36400211117089221</v>
+        <v>0.36400210433531299</v>
       </c>
       <c r="S10" s="26">
         <f>SUM($Q$3:Q10)</f>
-        <v>87.977890305199494</v>
+        <v>87.977890298288969</v>
       </c>
       <c r="W10">
         <v>2021</v>
@@ -4288,10 +4279,10 @@
         <v>104</v>
       </c>
       <c r="AA10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>3.456</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>2021</v>
@@ -4320,40 +4311,40 @@
         <v>5.4615159370966797</v>
       </c>
       <c r="F11" s="27">
-        <v>5.4615159370966797</v>
+        <v>5.4615159370983601</v>
       </c>
       <c r="G11" s="27">
-        <v>2.1744819517324401</v>
+        <v>2.1744819522473202</v>
       </c>
       <c r="H11" s="27">
-        <v>0.34240374266478502</v>
+        <v>0.342403766220924</v>
       </c>
       <c r="I11" s="27">
-        <v>2.1091628636751701E-2</v>
+        <v>2.1091788956288899E-2</v>
       </c>
       <c r="J11" s="27">
-        <v>5.0215344417914299E-4</v>
+        <v>5.0231612960516204E-4</v>
       </c>
       <c r="K11" s="27">
-        <v>4.5864251507765596E-6</v>
+        <v>4.6114671761188203E-6</v>
       </c>
       <c r="L11" s="25">
         <v>0</v>
       </c>
       <c r="N11" s="26">
         <f t="shared" si="1"/>
-        <v>15.978401631493892</v>
+        <v>15.978402003613578</v>
       </c>
       <c r="P11">
         <v>16</v>
       </c>
       <c r="Q11" s="26">
         <f t="shared" si="0"/>
-        <v>2.1598368506108301E-2</v>
+        <v>2.1597996386422125E-2</v>
       </c>
       <c r="S11" s="26">
         <f>SUM($Q$3:Q11)</f>
-        <v>87.999488673705599</v>
+        <v>87.999488294675388</v>
       </c>
       <c r="W11">
         <v>2021</v>
@@ -4380,7 +4371,7 @@
         <v>104</v>
       </c>
       <c r="AF11">
-        <v>30.4</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -4400,40 +4391,40 @@
         <v>2.1744819517324401</v>
       </c>
       <c r="F12" s="27">
-        <v>5.4615159370966797</v>
+        <v>5.4615159370983601</v>
       </c>
       <c r="G12" s="27">
-        <v>5.4615159370966797</v>
+        <v>5.4615159383898702</v>
       </c>
       <c r="H12" s="27">
-        <v>2.1744819517324401</v>
+        <v>2.1744821013289202</v>
       </c>
       <c r="I12" s="27">
-        <v>0.34240374266478502</v>
+        <v>0.342406345309202</v>
       </c>
       <c r="J12" s="27">
-        <v>2.1091628636751701E-2</v>
+        <v>2.1098461808268298E-2</v>
       </c>
       <c r="K12" s="27">
-        <v>5.0215344417914299E-4</v>
+        <v>5.0489521788676895E-4</v>
       </c>
       <c r="L12" s="27">
-        <v>4.5864251507765596E-6</v>
+        <v>4.7610636570993796E-6</v>
       </c>
       <c r="N12" s="26">
         <f t="shared" si="1"/>
-        <v>15.999493260130643</v>
+        <v>15.99950576325014</v>
       </c>
       <c r="P12">
         <v>16</v>
       </c>
       <c r="Q12" s="26">
         <f t="shared" si="0"/>
-        <v>5.0673986935656501E-4</v>
+        <v>4.9423674986037724E-4</v>
       </c>
       <c r="S12" s="26">
         <f>SUM($Q$3:Q12)</f>
-        <v>87.99999541357495</v>
+        <v>87.999982531425246</v>
       </c>
       <c r="W12">
         <v>2021</v>
@@ -4467,26 +4458,26 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>147</v>
+      <c r="C13" s="32" t="s">
+        <v>145</v>
       </c>
       <c r="W13">
         <v>2022</v>
       </c>
       <c r="X13" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="Y13" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="Z13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AA13">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AB13">
-        <v>12.205439999999999</v>
+        <v>2.03424</v>
       </c>
       <c r="AD13">
         <v>2022</v>
@@ -4495,10 +4486,10 @@
         <v>93</v>
       </c>
       <c r="AF13">
-        <v>69.599999999999994</v>
+        <v>60</v>
       </c>
       <c r="AG13">
-        <v>69.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.35">
@@ -4537,19 +4528,19 @@
         <v>2022</v>
       </c>
       <c r="X14" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="Y14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z14" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AA14">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AB14">
-        <v>10.171200000000001</v>
+        <v>4.0684800000000001</v>
       </c>
       <c r="AD14">
         <v>2022</v>
@@ -4558,7 +4549,7 @@
         <v>97</v>
       </c>
       <c r="AF14">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -4603,19 +4594,19 @@
         <v>2022</v>
       </c>
       <c r="X15" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="Y15" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="Z15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AA15">
-        <v>19.5</v>
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="AB15">
-        <v>3.6972</v>
+        <v>1.1E-4</v>
       </c>
       <c r="AD15">
         <v>2022</v>
@@ -4668,19 +4659,19 @@
         <v>2022</v>
       </c>
       <c r="X16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Y16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z16" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA16">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>5.5296000000000003</v>
+        <v>0</v>
       </c>
       <c r="AD16">
         <v>2022</v>
@@ -4692,7 +4683,7 @@
         <v>24</v>
       </c>
       <c r="AG16">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.35">
@@ -4733,19 +4724,19 @@
         <v>2022</v>
       </c>
       <c r="X17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Y17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z17" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AA17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>3.456</v>
+        <v>0</v>
       </c>
       <c r="AD17">
         <v>2022</v>
@@ -4757,7 +4748,7 @@
         <v>16</v>
       </c>
       <c r="AG17">
-        <v>16</v>
+        <v>5.1000000000000004E-4</v>
       </c>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.35">
@@ -4774,7 +4765,7 @@
         <v>15.999493260130601</v>
       </c>
       <c r="F18" s="27">
-        <v>15.999995413574799</v>
+        <v>15.9999954135797</v>
       </c>
       <c r="G18" s="25">
         <v>0</v>
@@ -4798,19 +4789,19 @@
         <v>2022</v>
       </c>
       <c r="X18" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z18" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AA18">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AB18">
-        <v>2.21184</v>
+        <v>1.8959999999999999</v>
       </c>
       <c r="AD18">
         <v>2022</v>
@@ -4839,10 +4830,10 @@
         <v>15.978401631493901</v>
       </c>
       <c r="F19" s="27">
-        <v>15.999493260130601</v>
+        <v>15.9994932601355</v>
       </c>
       <c r="G19" s="27">
-        <v>15.999995413574799</v>
+        <v>15.9999954173633</v>
       </c>
       <c r="H19" s="25">
         <v>0</v>
@@ -4863,19 +4854,19 @@
         <v>2022</v>
       </c>
       <c r="X19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z19" t="s">
         <v>99</v>
       </c>
-      <c r="Z19" t="s">
-        <v>104</v>
-      </c>
       <c r="AA19">
-        <v>14.4</v>
+        <v>24</v>
       </c>
       <c r="AB19">
-        <v>3.1103999999999998</v>
+        <v>5.5296000000000003</v>
       </c>
       <c r="AD19">
         <v>2022</v>
@@ -4904,13 +4895,13 @@
         <v>15.635997888829101</v>
       </c>
       <c r="F20" s="27">
-        <v>15.978401631493901</v>
+        <v>15.9784016314988</v>
       </c>
       <c r="G20" s="27">
-        <v>15.999493260130601</v>
+        <v>15.999493263919</v>
       </c>
       <c r="H20" s="27">
-        <v>15.999995413574799</v>
+        <v>15.9999965143165</v>
       </c>
       <c r="I20" s="25">
         <v>0</v>
@@ -4928,19 +4919,19 @@
         <v>2022</v>
       </c>
       <c r="X20" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="Y20" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Z20" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="AA20">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="AB20">
-        <v>3.456</v>
+        <v>10.171200000000001</v>
       </c>
       <c r="AD20">
         <v>2022</v>
@@ -4949,7 +4940,7 @@
         <v>104</v>
       </c>
       <c r="AF20">
-        <v>30.4</v>
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="AG20">
         <v>0</v>
@@ -4969,16 +4960,16 @@
         <v>13.4615159370966</v>
       </c>
       <c r="F21" s="27">
-        <v>15.635997888829101</v>
+        <v>15.6359978888339</v>
       </c>
       <c r="G21" s="27">
-        <v>15.978401631493901</v>
+        <v>15.978401635277301</v>
       </c>
       <c r="H21" s="27">
-        <v>15.999493260130601</v>
+        <v>15.999494360837801</v>
       </c>
       <c r="I21" s="27">
-        <v>15.999995413574799</v>
+        <v>16.000117031108601</v>
       </c>
       <c r="J21" s="25">
         <v>0</v>
@@ -4993,19 +4984,19 @@
         <v>2022</v>
       </c>
       <c r="X21" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="Y21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Z21" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="AA21">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AB21">
-        <v>4.0684800000000001</v>
+        <v>12.205439999999999</v>
       </c>
       <c r="AD21">
         <v>2023</v>
@@ -5034,19 +5025,19 @@
         <v>8</v>
       </c>
       <c r="F22" s="27">
-        <v>13.4615159370966</v>
+        <v>13.461515937100801</v>
       </c>
       <c r="G22" s="27">
-        <v>15.635997888829101</v>
+        <v>15.6359978925314</v>
       </c>
       <c r="H22" s="27">
-        <v>15.978401631493901</v>
+        <v>15.97840273075</v>
       </c>
       <c r="I22" s="27">
-        <v>15.999493260130601</v>
+        <v>15.9996148738475</v>
       </c>
       <c r="J22" s="27">
-        <v>15.999995413574799</v>
+        <v>16.005179020530399</v>
       </c>
       <c r="K22" s="25">
         <v>0</v>
@@ -5059,19 +5050,19 @@
         <v>2022</v>
       </c>
       <c r="X22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Y22" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="Z22" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA22">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AB22">
-        <v>2.03424</v>
+        <v>3.456</v>
       </c>
       <c r="AD22">
         <v>2023</v>
@@ -5080,10 +5071,10 @@
         <v>93</v>
       </c>
       <c r="AF22">
-        <v>69.599999999999994</v>
+        <v>60</v>
       </c>
       <c r="AG22">
-        <v>69.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.35">
@@ -5100,22 +5091,22 @@
         <v>2.5384840629033101</v>
       </c>
       <c r="F23" s="27">
-        <v>8</v>
+        <v>8.0000000000024496</v>
       </c>
       <c r="G23" s="27">
-        <v>13.4615159370966</v>
+        <v>13.4615159402841</v>
       </c>
       <c r="H23" s="27">
-        <v>15.635997888829101</v>
+        <v>15.635998964529101</v>
       </c>
       <c r="I23" s="27">
-        <v>15.978401631493901</v>
+        <v>15.978523084891201</v>
       </c>
       <c r="J23" s="27">
-        <v>15.999493260130601</v>
+        <v>16.004676704400801</v>
       </c>
       <c r="K23" s="27">
-        <v>15.999995413574799</v>
+        <v>16.0873558952138</v>
       </c>
       <c r="L23" s="25">
         <v>0</v>
@@ -5124,19 +5115,19 @@
         <v>2023</v>
       </c>
       <c r="X23" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="Y23" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Z23" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="AA23">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>12.205439999999999</v>
+        <v>0</v>
       </c>
       <c r="AD23">
         <v>2023</v>
@@ -5145,7 +5136,7 @@
         <v>97</v>
       </c>
       <c r="AF23">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AG23">
         <v>0</v>
@@ -5165,43 +5156,43 @@
         <v>0.364002111170867</v>
       </c>
       <c r="F24" s="27">
-        <v>2.5384840629033101</v>
+        <v>2.5384840629040899</v>
       </c>
       <c r="G24" s="27">
-        <v>8</v>
+        <v>8.0000000018942394</v>
       </c>
       <c r="H24" s="27">
-        <v>13.4615159370966</v>
+        <v>13.461516863200201</v>
       </c>
       <c r="I24" s="27">
-        <v>15.635997888829101</v>
+        <v>15.636116739582</v>
       </c>
       <c r="J24" s="27">
-        <v>15.978401631493901</v>
+        <v>15.9835782425925</v>
       </c>
       <c r="K24" s="27">
-        <v>15.999493260130601</v>
+        <v>16.0868509999959</v>
       </c>
       <c r="L24">
-        <v>15.999995413574799</v>
+        <v>16.609231414033101</v>
       </c>
       <c r="W24">
         <v>2023</v>
       </c>
       <c r="X24" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="Y24" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="Z24" t="s">
         <v>95</v>
       </c>
       <c r="AA24">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AB24">
-        <v>10.171200000000001</v>
+        <v>2.03424</v>
       </c>
       <c r="AD24">
         <v>2023</v>
@@ -5217,26 +5208,26 @@
       </c>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="C25" t="s">
+      <c r="C25" s="32" t="s">
         <v>89</v>
       </c>
       <c r="W25">
         <v>2023</v>
       </c>
       <c r="X25" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="Y25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z25" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AA25">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB25">
-        <v>3.6972</v>
+        <v>4.0684800000000001</v>
       </c>
       <c r="AD25">
         <v>2023</v>
@@ -5248,7 +5239,7 @@
         <v>24</v>
       </c>
       <c r="AG25">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.35">
@@ -5287,19 +5278,19 @@
         <v>2023</v>
       </c>
       <c r="X26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Y26" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z26" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA26">
-        <v>24</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="AB26">
-        <v>5.5296000000000003</v>
+        <v>4.6699999999999997E-3</v>
       </c>
       <c r="AD26">
         <v>2023</v>
@@ -5311,7 +5302,7 @@
         <v>16</v>
       </c>
       <c r="AG26">
-        <v>16</v>
+        <v>2.1600000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.35">
@@ -5348,23 +5339,24 @@
       <c r="L27" s="25">
         <v>0</v>
       </c>
+      <c r="M27" s="41"/>
       <c r="W27">
         <v>2023</v>
       </c>
       <c r="X27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Y27" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z27" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AA27">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>3.456</v>
+        <v>0</v>
       </c>
       <c r="AD27">
         <v>2023</v>
@@ -5413,23 +5405,24 @@
       <c r="L28" s="25">
         <v>0</v>
       </c>
+      <c r="N28" s="41"/>
       <c r="W28">
         <v>2023</v>
       </c>
       <c r="X28" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Y28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AA28">
-        <v>9.6</v>
+        <v>50</v>
       </c>
       <c r="AB28">
-        <v>2.21184</v>
+        <v>10.171200000000001</v>
       </c>
       <c r="AD28">
         <v>2023</v>
@@ -5478,23 +5471,24 @@
       <c r="L29" s="25">
         <v>0</v>
       </c>
+      <c r="O29" s="41"/>
       <c r="W29">
         <v>2023</v>
       </c>
       <c r="X29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y29" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z29" t="s">
         <v>99</v>
       </c>
-      <c r="Z29" t="s">
-        <v>104</v>
-      </c>
       <c r="AA29">
-        <v>14.4</v>
+        <v>24</v>
       </c>
       <c r="AB29">
-        <v>3.1103999999999998</v>
+        <v>5.5296000000000003</v>
       </c>
       <c r="AD29">
         <v>2023</v>
@@ -5503,7 +5497,7 @@
         <v>104</v>
       </c>
       <c r="AF29">
-        <v>30.4</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -5543,23 +5537,24 @@
       <c r="L30" s="25">
         <v>0</v>
       </c>
+      <c r="P30" s="41"/>
       <c r="W30">
         <v>2023</v>
       </c>
       <c r="X30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="Y30" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Z30" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AA30">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AB30">
-        <v>3.456</v>
+        <v>1.8959999999999999</v>
       </c>
       <c r="AD30">
         <v>2024</v>
@@ -5608,23 +5603,24 @@
       <c r="L31" s="25">
         <v>0</v>
       </c>
+      <c r="Q31" s="41"/>
       <c r="W31">
         <v>2023</v>
       </c>
       <c r="X31" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="Y31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Z31" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="AA31">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AB31">
-        <v>4.0684800000000001</v>
+        <v>12.205439999999999</v>
       </c>
       <c r="AD31">
         <v>2024</v>
@@ -5633,10 +5629,10 @@
         <v>93</v>
       </c>
       <c r="AF31">
-        <v>69.599999999999994</v>
+        <v>60</v>
       </c>
       <c r="AG31">
-        <v>69.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.35">
@@ -5653,13 +5649,13 @@
         <v>7.3959208415594002E-2</v>
       </c>
       <c r="F32" s="27">
-        <v>4.5557917855383297E-3</v>
+        <v>4.5557917855401E-3</v>
       </c>
       <c r="G32" s="27">
-        <v>1.0846514394247101E-4</v>
+        <v>1.08465143968672E-4</v>
       </c>
       <c r="H32" s="27">
-        <v>9.9066783265655502E-7</v>
+        <v>9.9066790060220392E-7</v>
       </c>
       <c r="I32" s="25">
         <v>0</v>
@@ -5673,23 +5669,24 @@
       <c r="L32" s="25">
         <v>0</v>
       </c>
+      <c r="R32" s="41"/>
       <c r="W32">
         <v>2023</v>
       </c>
       <c r="X32" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Y32" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="Z32" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA32">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AB32">
-        <v>2.03424</v>
+        <v>3.456</v>
       </c>
       <c r="AD32">
         <v>2024</v>
@@ -5698,7 +5695,7 @@
         <v>97</v>
       </c>
       <c r="AF32">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AG32">
         <v>0</v>
@@ -5718,16 +5715,16 @@
         <v>0.46968810157420798</v>
       </c>
       <c r="F33" s="27">
-        <v>7.3959208415594002E-2</v>
+        <v>7.3959208415616207E-2</v>
       </c>
       <c r="G33" s="27">
-        <v>4.5557917855383297E-3</v>
+        <v>4.5557917866170198E-3</v>
       </c>
       <c r="H33" s="27">
-        <v>1.0846514394247101E-4</v>
-      </c>
-      <c r="I33" s="27">
-        <v>9.9066783265655502E-7</v>
+        <v>1.0846515140494599E-4</v>
+      </c>
+      <c r="I33" s="25">
+        <v>9.9067536263319703E-7</v>
       </c>
       <c r="J33" s="25">
         <v>0</v>
@@ -5738,23 +5735,24 @@
       <c r="L33" s="25">
         <v>0</v>
       </c>
+      <c r="S33" s="41"/>
       <c r="W33">
         <v>2024</v>
       </c>
       <c r="X33" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="Y33" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="Z33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AA33">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AB33">
-        <v>12.205439999999999</v>
+        <v>2.03424</v>
       </c>
       <c r="AD33">
         <v>2024</v>
@@ -5783,19 +5781,19 @@
         <v>1.17968744241288</v>
       </c>
       <c r="F34" s="27">
-        <v>0.46968810157420798</v>
+        <v>0.46968810157435198</v>
       </c>
       <c r="G34" s="27">
-        <v>7.3959208415594002E-2</v>
+        <v>7.3959208433105703E-2</v>
       </c>
       <c r="H34" s="27">
-        <v>4.5557917855383297E-3</v>
+        <v>4.5557920989600601E-3</v>
       </c>
       <c r="I34" s="27">
-        <v>1.0846514394247101E-4</v>
-      </c>
-      <c r="J34" s="27">
-        <v>9.9066783265655502E-7</v>
+        <v>1.08465968397197E-4</v>
+      </c>
+      <c r="J34" s="25">
+        <v>9.9098878481029807E-7</v>
       </c>
       <c r="K34" s="25">
         <v>0</v>
@@ -5803,23 +5801,24 @@
       <c r="L34" s="25">
         <v>0</v>
       </c>
+      <c r="T34" s="41"/>
       <c r="W34">
         <v>2024</v>
       </c>
       <c r="X34" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="Y34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z34" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AA34">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AB34">
-        <v>10.171200000000001</v>
+        <v>4.0684800000000001</v>
       </c>
       <c r="AD34">
         <v>2024</v>
@@ -5831,7 +5830,7 @@
         <v>24</v>
       </c>
       <c r="AG34">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:33" x14ac:dyDescent="0.35">
@@ -5848,43 +5847,44 @@
         <v>1.17968744241288</v>
       </c>
       <c r="F35" s="27">
-        <v>1.17968744241288</v>
+        <v>1.17968744241324</v>
       </c>
       <c r="G35" s="27">
-        <v>0.46968810157420798</v>
+        <v>0.46968810168542102</v>
       </c>
       <c r="H35" s="27">
-        <v>7.3959208415594002E-2</v>
+        <v>7.3959213503719395E-2</v>
       </c>
       <c r="I35" s="27">
-        <v>4.5557917855383297E-3</v>
+        <v>4.5558264145579798E-3</v>
       </c>
       <c r="J35" s="27">
-        <v>1.0846514394247101E-4</v>
-      </c>
-      <c r="K35" s="27">
-        <v>9.9066783265655502E-7</v>
+        <v>1.08500283994672E-4</v>
+      </c>
+      <c r="K35" s="25">
+        <v>9.9607691028680194E-7</v>
       </c>
       <c r="L35" s="25">
         <v>0</v>
       </c>
+      <c r="U35" s="41"/>
       <c r="W35">
         <v>2024</v>
       </c>
       <c r="X35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="Y35" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="Z35" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AA35">
-        <v>19.5</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="AB35">
-        <v>3.6972</v>
+        <v>7.8619999999999995E-2</v>
       </c>
       <c r="AD35">
         <v>2024</v>
@@ -5896,7 +5896,7 @@
         <v>16</v>
       </c>
       <c r="AG35">
-        <v>16</v>
+        <v>0.36399999999999999</v>
       </c>
     </row>
     <row r="36" spans="2:33" x14ac:dyDescent="0.35">
@@ -5913,43 +5913,44 @@
         <v>0.46968810157420798</v>
       </c>
       <c r="F36" s="27">
-        <v>1.17968744241288</v>
+        <v>1.17968744241324</v>
       </c>
       <c r="G36" s="27">
-        <v>1.17968744241288</v>
+        <v>1.1796874426922099</v>
       </c>
       <c r="H36" s="27">
-        <v>0.46968810157420798</v>
+        <v>0.469688133887048</v>
       </c>
       <c r="I36" s="27">
-        <v>7.3959208415594002E-2</v>
+        <v>7.3959770586788001E-2</v>
       </c>
       <c r="J36" s="27">
-        <v>4.5557917855383297E-3</v>
+        <v>4.5572677505858403E-3</v>
       </c>
       <c r="K36" s="27">
-        <v>1.0846514394247101E-4</v>
+        <v>1.0905736706368E-4</v>
       </c>
       <c r="L36" s="27">
-        <v>9.9066783265655502E-7</v>
-      </c>
+        <v>1.0283897502461E-6</v>
+      </c>
+      <c r="V36" s="41"/>
       <c r="W36">
         <v>2024</v>
       </c>
       <c r="X36" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Y36" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z36" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA36">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>5.5296000000000003</v>
+        <v>0</v>
       </c>
       <c r="AD36">
         <v>2024</v>
@@ -5965,26 +5966,26 @@
       </c>
     </row>
     <row r="37" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="C37" t="s">
+      <c r="C37" s="32" t="s">
         <v>90</v>
       </c>
       <c r="W37">
         <v>2024</v>
       </c>
       <c r="X37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Y37" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z37" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AA37">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AB37">
-        <v>3.456</v>
+        <v>0</v>
       </c>
       <c r="AD37">
         <v>2024</v>
@@ -6035,19 +6036,19 @@
         <v>2024</v>
       </c>
       <c r="X38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Y38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Z38" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AA38">
-        <v>9.6</v>
+        <v>16</v>
       </c>
       <c r="AB38">
-        <v>2.21184</v>
+        <v>3.456</v>
       </c>
       <c r="AD38">
         <v>2024</v>
@@ -6056,7 +6057,7 @@
         <v>104</v>
       </c>
       <c r="AF38">
-        <v>30.4</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="AG38">
         <v>0</v>
@@ -6066,53 +6067,53 @@
       <c r="B39">
         <v>2021</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39">
         <v>3.4559990093321602</v>
       </c>
-      <c r="D39" s="25">
-        <v>0</v>
-      </c>
-      <c r="E39" s="25">
-        <v>0</v>
-      </c>
-      <c r="F39" s="25">
-        <v>0</v>
-      </c>
-      <c r="G39" s="25">
-        <v>0</v>
-      </c>
-      <c r="H39" s="25">
-        <v>0</v>
-      </c>
-      <c r="I39" s="25">
-        <v>0</v>
-      </c>
-      <c r="J39" s="25">
-        <v>0</v>
-      </c>
-      <c r="K39" s="25">
-        <v>0</v>
-      </c>
-      <c r="L39" s="25">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>0</v>
       </c>
       <c r="W39">
         <v>2024</v>
       </c>
       <c r="X39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Y39" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z39" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AA39">
-        <v>14.4</v>
+        <v>10</v>
       </c>
       <c r="AB39">
-        <v>3.1103999999999998</v>
+        <v>1.8959999999999999</v>
       </c>
       <c r="AD39">
         <v>2025</v>
@@ -6131,53 +6132,53 @@
       <c r="B40">
         <v>2022</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40">
         <v>3.4558905441882199</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40">
         <v>3.4559990093321602</v>
       </c>
-      <c r="E40" s="25">
-        <v>0</v>
-      </c>
-      <c r="F40" s="25">
-        <v>0</v>
-      </c>
-      <c r="G40" s="25">
-        <v>0</v>
-      </c>
-      <c r="H40" s="25">
-        <v>0</v>
-      </c>
-      <c r="I40" s="25">
-        <v>0</v>
-      </c>
-      <c r="J40" s="25">
-        <v>0</v>
-      </c>
-      <c r="K40" s="25">
-        <v>0</v>
-      </c>
-      <c r="L40" s="25">
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>0</v>
       </c>
       <c r="W40">
         <v>2024</v>
       </c>
       <c r="X40" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="Y40" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Z40" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="AA40">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="AB40">
-        <v>3.456</v>
+        <v>10.171200000000001</v>
       </c>
       <c r="AD40">
         <v>2025</v>
@@ -6186,63 +6187,63 @@
         <v>93</v>
       </c>
       <c r="AF40">
-        <v>69.599999999999994</v>
+        <v>60</v>
       </c>
       <c r="AG40">
-        <v>69.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>2023</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41">
         <v>3.4513347524026798</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41">
         <v>3.4558905441882199</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41">
         <v>3.4559990093321602</v>
       </c>
-      <c r="F41" s="25">
-        <v>0</v>
-      </c>
-      <c r="G41" s="25">
-        <v>0</v>
-      </c>
-      <c r="H41" s="25">
-        <v>0</v>
-      </c>
-      <c r="I41" s="25">
-        <v>0</v>
-      </c>
-      <c r="J41" s="25">
-        <v>0</v>
-      </c>
-      <c r="K41" s="25">
-        <v>0</v>
-      </c>
-      <c r="L41" s="25">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
         <v>0</v>
       </c>
       <c r="W41">
         <v>2024</v>
       </c>
       <c r="X41" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="Y41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Z41" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="AA41">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AB41">
-        <v>4.0684800000000001</v>
+        <v>12.205439999999999</v>
       </c>
       <c r="AD41">
         <v>2025</v>
@@ -6251,7 +6252,7 @@
         <v>97</v>
       </c>
       <c r="AF41">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AG41">
         <v>0</v>
@@ -6261,53 +6262,53 @@
       <c r="B42">
         <v>2024</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42">
         <v>3.3773755439870898</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42">
         <v>3.4513347524026798</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42">
         <v>3.4558905441882199</v>
       </c>
-      <c r="F42" s="27">
-        <v>3.4559990093321602</v>
-      </c>
-      <c r="G42" s="25">
-        <v>0</v>
-      </c>
-      <c r="H42" s="25">
-        <v>0</v>
-      </c>
-      <c r="I42" s="25">
-        <v>0</v>
-      </c>
-      <c r="J42" s="25">
-        <v>0</v>
-      </c>
-      <c r="K42" s="25">
-        <v>0</v>
-      </c>
-      <c r="L42" s="25">
+      <c r="F42">
+        <v>3.4559990093332198</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
         <v>0</v>
       </c>
       <c r="W42">
         <v>2024</v>
       </c>
       <c r="X42" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Y42" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="Z42" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AA42">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AB42">
-        <v>2.03424</v>
+        <v>5.5296000000000003</v>
       </c>
       <c r="AD42">
         <v>2025</v>
@@ -6326,53 +6327,53 @@
       <c r="B43">
         <v>2025</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43">
         <v>2.9076874424128798</v>
       </c>
-      <c r="D43" s="27">
+      <c r="D43">
         <v>3.3773755439870898</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43">
         <v>3.4513347524026798</v>
       </c>
-      <c r="F43" s="27">
-        <v>3.4558905441882199</v>
-      </c>
-      <c r="G43" s="27">
-        <v>3.4559990093321602</v>
-      </c>
-      <c r="H43" s="25">
-        <v>0</v>
-      </c>
-      <c r="I43" s="25">
-        <v>0</v>
-      </c>
-      <c r="J43" s="25">
-        <v>0</v>
-      </c>
-      <c r="K43" s="25">
-        <v>0</v>
-      </c>
-      <c r="L43" s="25">
+      <c r="F43">
+        <v>3.45589054418928</v>
+      </c>
+      <c r="G43">
+        <v>3.4559990101504798</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
         <v>0</v>
       </c>
       <c r="W43">
         <v>2025</v>
       </c>
       <c r="X43" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="Y43" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Z43" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="AA43">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AB43">
-        <v>12.205439999999999</v>
+        <v>0</v>
       </c>
       <c r="AD43">
         <v>2025</v>
@@ -6384,60 +6385,60 @@
         <v>24</v>
       </c>
       <c r="AG43">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>2026</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44">
         <v>1.728</v>
       </c>
-      <c r="D44" s="27">
+      <c r="D44">
         <v>2.9076874424128798</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44">
         <v>3.3773755439870898</v>
       </c>
-      <c r="F44" s="27">
-        <v>3.4513347524026798</v>
-      </c>
-      <c r="G44" s="27">
-        <v>3.4558905441882199</v>
-      </c>
-      <c r="H44" s="27">
-        <v>3.4559990093321602</v>
-      </c>
-      <c r="I44" s="25">
-        <v>0</v>
-      </c>
-      <c r="J44" s="25">
-        <v>0</v>
-      </c>
-      <c r="K44" s="25">
-        <v>0</v>
-      </c>
-      <c r="L44" s="25">
+      <c r="F44">
+        <v>3.4513347524037399</v>
+      </c>
+      <c r="G44">
+        <v>3.4558905450065098</v>
+      </c>
+      <c r="H44">
+        <v>3.4559992470923699</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
         <v>0</v>
       </c>
       <c r="W44">
         <v>2025</v>
       </c>
       <c r="X44" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="Y44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z44" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AA44">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AB44">
-        <v>10.171200000000001</v>
+        <v>4.0684800000000001</v>
       </c>
       <c r="AD44">
         <v>2025</v>
@@ -6449,60 +6450,60 @@
         <v>16</v>
       </c>
       <c r="AG44">
-        <v>16</v>
+        <v>2.5384799999999998</v>
       </c>
     </row>
     <row r="45" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>2027</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45">
         <v>0.54831255758711495</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45">
         <v>1.728</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45">
         <v>2.9076874424128798</v>
       </c>
-      <c r="F45" s="27">
-        <v>3.3773755439870898</v>
-      </c>
-      <c r="G45" s="27">
-        <v>3.4513347524026798</v>
-      </c>
-      <c r="H45" s="27">
-        <v>3.4558905441882199</v>
-      </c>
-      <c r="I45" s="27">
-        <v>3.4559990093321602</v>
-      </c>
-      <c r="J45" s="25">
-        <v>0</v>
-      </c>
-      <c r="K45" s="25">
-        <v>0</v>
-      </c>
-      <c r="L45" s="25">
+      <c r="F45">
+        <v>3.3773755439881299</v>
+      </c>
+      <c r="G45">
+        <v>3.4513347532198901</v>
+      </c>
+      <c r="H45">
+        <v>3.4558907819409699</v>
+      </c>
+      <c r="I45">
+        <v>3.4560252787194599</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
         <v>0</v>
       </c>
       <c r="W45">
         <v>2025</v>
       </c>
       <c r="X45" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="Y45" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="Z45" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AA45">
-        <v>19.5</v>
+        <v>2.5384799999999998</v>
       </c>
       <c r="AB45">
-        <v>3.6972</v>
+        <v>0.54830999999999996</v>
       </c>
       <c r="AD45">
         <v>2025</v>
@@ -6521,53 +6522,53 @@
       <c r="B46">
         <v>2028</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46">
         <v>7.8624456012907296E-2</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46">
         <v>0.54831255758711495</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46">
         <v>1.728</v>
       </c>
-      <c r="F46" s="27">
-        <v>2.9076874424128798</v>
-      </c>
-      <c r="G46" s="27">
-        <v>3.3773755439870898</v>
-      </c>
-      <c r="H46" s="27">
-        <v>3.4513347524026798</v>
-      </c>
-      <c r="I46" s="27">
-        <v>3.4558905441882199</v>
-      </c>
-      <c r="J46" s="27">
-        <v>3.4559990093321602</v>
-      </c>
-      <c r="K46" s="25">
-        <v>0</v>
-      </c>
-      <c r="L46" s="25">
+      <c r="F46">
+        <v>2.9076874424137702</v>
+      </c>
+      <c r="G46">
+        <v>3.3773755447867901</v>
+      </c>
+      <c r="H46">
+        <v>3.4513349898420098</v>
+      </c>
+      <c r="I46">
+        <v>3.45591681275106</v>
+      </c>
+      <c r="J46">
+        <v>3.4571186684345698</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
         <v>0</v>
       </c>
       <c r="W46">
         <v>2025</v>
       </c>
       <c r="X46" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Y46" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z46" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AA46">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AB46">
-        <v>5.5296000000000003</v>
+        <v>0</v>
       </c>
       <c r="AD46">
         <v>2025</v>
@@ -6586,53 +6587,53 @@
       <c r="B47">
         <v>2029</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47">
         <v>4.6652475973135996E-3</v>
       </c>
-      <c r="D47" s="27">
+      <c r="D47">
         <v>7.8624456012907296E-2</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E47">
         <v>0.54831255758711495</v>
       </c>
-      <c r="F47" s="27">
-        <v>1.728</v>
-      </c>
-      <c r="G47" s="27">
-        <v>2.9076874424128798</v>
-      </c>
-      <c r="H47" s="27">
-        <v>3.3773755439870898</v>
-      </c>
-      <c r="I47" s="27">
-        <v>3.4513347524026798</v>
-      </c>
-      <c r="J47" s="27">
-        <v>3.4558905441882199</v>
-      </c>
-      <c r="K47" s="27">
-        <v>3.4559990093321602</v>
-      </c>
-      <c r="L47" s="25">
+      <c r="F47">
+        <v>1.72800000000053</v>
+      </c>
+      <c r="G47">
+        <v>2.9076874431013602</v>
+      </c>
+      <c r="H47">
+        <v>3.3773757763382899</v>
+      </c>
+      <c r="I47">
+        <v>3.4513609863364998</v>
+      </c>
+      <c r="J47">
+        <v>3.4570101681505698</v>
+      </c>
+      <c r="K47">
+        <v>3.4748688733661801</v>
+      </c>
+      <c r="L47">
         <v>0</v>
       </c>
       <c r="W47">
         <v>2025</v>
       </c>
       <c r="X47" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="Y47" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z47" t="s">
         <v>95</v>
       </c>
-      <c r="Z47" t="s">
-        <v>101</v>
-      </c>
       <c r="AA47">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AB47">
-        <v>3.456</v>
+        <v>2.03424</v>
       </c>
       <c r="AD47">
         <v>2025</v>
@@ -6641,7 +6642,7 @@
         <v>104</v>
       </c>
       <c r="AF47">
-        <v>30.4</v>
+        <v>2.5384799999999998</v>
       </c>
       <c r="AG47">
         <v>0</v>
@@ -6651,53 +6652,53 @@
       <c r="B48">
         <v>2030</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48">
         <v>1.09455811775262E-4</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48">
         <v>4.6652475973135996E-3</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48">
         <v>7.8624456012907296E-2</v>
       </c>
-      <c r="F48" s="27">
-        <v>0.54831255758711495</v>
-      </c>
-      <c r="G48" s="27">
-        <v>1.728</v>
-      </c>
-      <c r="H48" s="27">
-        <v>2.9076874424128798</v>
-      </c>
-      <c r="I48" s="27">
-        <v>3.3773755439870898</v>
-      </c>
-      <c r="J48" s="27">
-        <v>3.4513347524026798</v>
-      </c>
-      <c r="K48" s="27">
-        <v>3.4558905441882199</v>
+      <c r="F48">
+        <v>0.54831255758728403</v>
+      </c>
+      <c r="G48">
+        <v>1.72800000040915</v>
+      </c>
+      <c r="H48">
+        <v>2.9076876424512399</v>
+      </c>
+      <c r="I48">
+        <v>3.37740121574971</v>
+      </c>
+      <c r="J48">
+        <v>3.45245290039998</v>
+      </c>
+      <c r="K48">
+        <v>3.47475981599912</v>
       </c>
       <c r="L48">
-        <v>3.4559990093321602</v>
+        <v>3.58759398543115</v>
       </c>
       <c r="W48">
         <v>2025</v>
       </c>
       <c r="X48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Y48" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z48" t="s">
         <v>99</v>
       </c>
-      <c r="Z48" t="s">
-        <v>93</v>
-      </c>
       <c r="AA48">
-        <v>9.6</v>
+        <v>24</v>
       </c>
       <c r="AB48">
-        <v>2.21184</v>
+        <v>5.5296000000000003</v>
       </c>
       <c r="AD48">
         <v>2026</v>
@@ -6717,19 +6718,19 @@
         <v>2025</v>
       </c>
       <c r="X49" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Y49" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z49" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AA49">
-        <v>14.4</v>
+        <v>10</v>
       </c>
       <c r="AB49">
-        <v>3.1103999999999998</v>
+        <v>1.8959999999999999</v>
       </c>
       <c r="AD49">
         <v>2026</v>
@@ -6738,10 +6739,10 @@
         <v>93</v>
       </c>
       <c r="AF49">
-        <v>69.599999999999994</v>
+        <v>60</v>
       </c>
       <c r="AG49">
-        <v>69.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="23:33" x14ac:dyDescent="0.35">
@@ -6749,19 +6750,19 @@
         <v>2025</v>
       </c>
       <c r="X50" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="Y50" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Z50" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="AA50">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="AB50">
-        <v>3.456</v>
+        <v>10.171200000000001</v>
       </c>
       <c r="AD50">
         <v>2026</v>
@@ -6770,7 +6771,7 @@
         <v>97</v>
       </c>
       <c r="AF50">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AG50">
         <v>0</v>
@@ -6781,19 +6782,19 @@
         <v>2025</v>
       </c>
       <c r="X51" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="Y51" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Z51" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="AA51">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AB51">
-        <v>4.0684800000000001</v>
+        <v>12.205439999999999</v>
       </c>
       <c r="AD51">
         <v>2026</v>
@@ -6813,19 +6814,19 @@
         <v>2025</v>
       </c>
       <c r="X52" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Y52" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="Z52" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA52">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AB52">
-        <v>2.03424</v>
+        <v>3.456</v>
       </c>
       <c r="AD52">
         <v>2026</v>
@@ -6837,7 +6838,7 @@
         <v>24</v>
       </c>
       <c r="AG52">
-        <v>24</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="53" spans="23:33" x14ac:dyDescent="0.35">
@@ -6845,19 +6846,19 @@
         <v>2026</v>
       </c>
       <c r="X53" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="Y53" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Z53" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="AA53">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AB53">
-        <v>12.205439999999999</v>
+        <v>4.0684800000000001</v>
       </c>
       <c r="AD53">
         <v>2026</v>
@@ -6869,7 +6870,7 @@
         <v>16</v>
       </c>
       <c r="AG53">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="23:33" x14ac:dyDescent="0.35">
@@ -6877,19 +6878,19 @@
         <v>2026</v>
       </c>
       <c r="X54" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="Y54" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="Z54" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="AA54">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="AB54">
-        <v>10.171200000000001</v>
+        <v>1.728</v>
       </c>
       <c r="AD54">
         <v>2026</v>
@@ -6909,19 +6910,19 @@
         <v>2026</v>
       </c>
       <c r="X55" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Y55" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Z55" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AA55">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AB55">
-        <v>3.6972</v>
+        <v>0</v>
       </c>
       <c r="AD55">
         <v>2026</v>
@@ -6941,19 +6942,19 @@
         <v>2026</v>
       </c>
       <c r="X56" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Y56" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z56" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AA56">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AB56">
-        <v>5.5296000000000003</v>
+        <v>0</v>
       </c>
       <c r="AD56">
         <v>2026</v>
@@ -6962,7 +6963,7 @@
         <v>104</v>
       </c>
       <c r="AF56">
-        <v>30.4</v>
+        <v>8</v>
       </c>
       <c r="AG56">
         <v>0</v>
@@ -6973,19 +6974,19 @@
         <v>2026</v>
       </c>
       <c r="X57" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="Y57" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z57" t="s">
         <v>95</v>
       </c>
-      <c r="Z57" t="s">
-        <v>101</v>
-      </c>
       <c r="AA57">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AB57">
-        <v>3.456</v>
+        <v>2.03424</v>
       </c>
       <c r="AD57">
         <v>2027</v>
@@ -7005,19 +7006,19 @@
         <v>2026</v>
       </c>
       <c r="X58" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Y58" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z58" t="s">
         <v>99</v>
       </c>
-      <c r="Z58" t="s">
-        <v>93</v>
-      </c>
       <c r="AA58">
-        <v>9.6</v>
+        <v>24</v>
       </c>
       <c r="AB58">
-        <v>2.21184</v>
+        <v>5.5296000000000003</v>
       </c>
       <c r="AD58">
         <v>2027</v>
@@ -7026,10 +7027,10 @@
         <v>93</v>
       </c>
       <c r="AF58">
-        <v>69.599999999999994</v>
+        <v>60.000300000000003</v>
       </c>
       <c r="AG58">
-        <v>69.5</v>
+        <v>60.000300000000003</v>
       </c>
     </row>
     <row r="59" spans="23:33" x14ac:dyDescent="0.35">
@@ -7037,19 +7038,19 @@
         <v>2026</v>
       </c>
       <c r="X59" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Y59" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z59" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AA59">
-        <v>14.4</v>
+        <v>10</v>
       </c>
       <c r="AB59">
-        <v>3.1103999999999998</v>
+        <v>1.8959999999999999</v>
       </c>
       <c r="AD59">
         <v>2027</v>
@@ -7058,7 +7059,7 @@
         <v>97</v>
       </c>
       <c r="AF59">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AG59">
         <v>0</v>
@@ -7069,19 +7070,19 @@
         <v>2026</v>
       </c>
       <c r="X60" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="Y60" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Z60" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="AA60">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="AB60">
-        <v>3.456</v>
+        <v>10.171200000000001</v>
       </c>
       <c r="AD60">
         <v>2027</v>
@@ -7090,10 +7091,10 @@
         <v>95</v>
       </c>
       <c r="AF60">
-        <v>60</v>
+        <v>60.000300000000003</v>
       </c>
       <c r="AG60">
-        <v>60</v>
+        <v>60.000300000000003</v>
       </c>
     </row>
     <row r="61" spans="23:33" x14ac:dyDescent="0.35">
@@ -7101,19 +7102,19 @@
         <v>2026</v>
       </c>
       <c r="X61" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="Y61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Z61" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="AA61">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AB61">
-        <v>4.0684800000000001</v>
+        <v>12.205439999999999</v>
       </c>
       <c r="AD61">
         <v>2027</v>
@@ -7122,10 +7123,10 @@
         <v>99</v>
       </c>
       <c r="AF61">
-        <v>24</v>
+        <v>24.00018</v>
       </c>
       <c r="AG61">
-        <v>24</v>
+        <v>7.6000000000000004E-4</v>
       </c>
     </row>
     <row r="62" spans="23:33" x14ac:dyDescent="0.35">
@@ -7133,19 +7134,19 @@
         <v>2026</v>
       </c>
       <c r="X62" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Y62" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="Z62" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA62">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AB62">
-        <v>2.03424</v>
+        <v>3.456</v>
       </c>
       <c r="AD62">
         <v>2027</v>
@@ -7154,10 +7155,10 @@
         <v>101</v>
       </c>
       <c r="AF62">
-        <v>16</v>
+        <v>16.000119999999999</v>
       </c>
       <c r="AG62">
-        <v>16</v>
+        <v>13.46152</v>
       </c>
     </row>
     <row r="63" spans="23:33" x14ac:dyDescent="0.35">
@@ -7165,19 +7166,19 @@
         <v>2027</v>
       </c>
       <c r="X63" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="Y63" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="Z63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AA63">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AB63">
-        <v>12.205439999999999</v>
+        <v>2.03424</v>
       </c>
       <c r="AD63">
         <v>2027</v>
@@ -7197,19 +7198,19 @@
         <v>2027</v>
       </c>
       <c r="X64" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="Y64" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z64" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AA64">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AB64">
-        <v>10.171200000000001</v>
+        <v>4.0684800000000001</v>
       </c>
       <c r="AD64">
         <v>2027</v>
@@ -7229,19 +7230,19 @@
         <v>2027</v>
       </c>
       <c r="X65" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="Y65" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="Z65" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AA65">
-        <v>19.5</v>
+        <v>13.46152</v>
       </c>
       <c r="AB65">
-        <v>3.6972</v>
+        <v>2.9076900000000001</v>
       </c>
       <c r="AD65">
         <v>2027</v>
@@ -7250,7 +7251,7 @@
         <v>104</v>
       </c>
       <c r="AF65">
-        <v>30.4</v>
+        <v>13.461970000000001</v>
       </c>
       <c r="AG65">
         <v>0</v>
@@ -7261,19 +7262,19 @@
         <v>2027</v>
       </c>
       <c r="X66" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Y66" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z66" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA66">
-        <v>24</v>
+        <v>4.6000000000000001E-4</v>
       </c>
       <c r="AB66">
-        <v>5.5296000000000003</v>
+        <v>1E-4</v>
       </c>
       <c r="AD66">
         <v>2028</v>
@@ -7293,19 +7294,19 @@
         <v>2027</v>
       </c>
       <c r="X67" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Y67" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z67" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AA67">
-        <v>16</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AB67">
-        <v>3.456</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="AD67">
         <v>2028</v>
@@ -7314,10 +7315,10 @@
         <v>93</v>
       </c>
       <c r="AF67">
-        <v>69.599999999999994</v>
+        <v>60.01296</v>
       </c>
       <c r="AG67">
-        <v>69.5</v>
+        <v>60.01296</v>
       </c>
     </row>
     <row r="68" spans="23:33" x14ac:dyDescent="0.35">
@@ -7325,19 +7326,19 @@
         <v>2027</v>
       </c>
       <c r="X68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Y68" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Z68" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AA68">
-        <v>9.6</v>
+        <v>16.000119999999999</v>
       </c>
       <c r="AB68">
-        <v>2.21184</v>
+        <v>3.4560300000000002</v>
       </c>
       <c r="AD68">
         <v>2028</v>
@@ -7346,7 +7347,7 @@
         <v>97</v>
       </c>
       <c r="AF68">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AG68">
         <v>0</v>
@@ -7357,19 +7358,19 @@
         <v>2027</v>
       </c>
       <c r="X69" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Y69" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z69" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AA69">
-        <v>14.4</v>
+        <v>10</v>
       </c>
       <c r="AB69">
-        <v>3.1103999999999998</v>
+        <v>1.8959999999999999</v>
       </c>
       <c r="AD69">
         <v>2028</v>
@@ -7378,10 +7379,10 @@
         <v>95</v>
       </c>
       <c r="AF69">
-        <v>60</v>
+        <v>60.01296</v>
       </c>
       <c r="AG69">
-        <v>60</v>
+        <v>60.01296</v>
       </c>
     </row>
     <row r="70" spans="23:33" x14ac:dyDescent="0.35">
@@ -7389,19 +7390,19 @@
         <v>2027</v>
       </c>
       <c r="X70" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="Y70" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Z70" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="AA70">
-        <v>16</v>
+        <v>50.000300000000003</v>
       </c>
       <c r="AB70">
-        <v>3.456</v>
+        <v>10.17126</v>
       </c>
       <c r="AD70">
         <v>2028</v>
@@ -7410,10 +7411,10 @@
         <v>99</v>
       </c>
       <c r="AF70">
-        <v>24</v>
+        <v>24.00778</v>
       </c>
       <c r="AG70">
-        <v>24</v>
+        <v>3.2399999999999998E-2</v>
       </c>
     </row>
     <row r="71" spans="23:33" x14ac:dyDescent="0.35">
@@ -7421,19 +7422,19 @@
         <v>2027</v>
       </c>
       <c r="X71" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="Y71" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Z71" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="AA71">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AB71">
-        <v>4.0684800000000001</v>
+        <v>12.205439999999999</v>
       </c>
       <c r="AD71">
         <v>2028</v>
@@ -7442,10 +7443,10 @@
         <v>101</v>
       </c>
       <c r="AF71">
-        <v>16</v>
+        <v>16.005179999999999</v>
       </c>
       <c r="AG71">
-        <v>16</v>
+        <v>15.635999999999999</v>
       </c>
     </row>
     <row r="72" spans="23:33" x14ac:dyDescent="0.35">
@@ -7453,19 +7454,19 @@
         <v>2027</v>
       </c>
       <c r="X72" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Y72" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="Z72" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AA72">
-        <v>10</v>
+        <v>24.00018</v>
       </c>
       <c r="AB72">
-        <v>2.03424</v>
+        <v>5.5296399999999997</v>
       </c>
       <c r="AD72">
         <v>2028</v>
@@ -7485,19 +7486,19 @@
         <v>2028</v>
       </c>
       <c r="X73" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="Y73" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Z73" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="AA73">
-        <v>60</v>
+        <v>1.9439999999999999E-2</v>
       </c>
       <c r="AB73">
-        <v>12.205439999999999</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="AD73">
         <v>2028</v>
@@ -7517,19 +7518,19 @@
         <v>2028</v>
       </c>
       <c r="X74" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="Y74" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z74" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AA74">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AB74">
-        <v>10.171200000000001</v>
+        <v>4.0684800000000001</v>
       </c>
       <c r="AD74">
         <v>2028</v>
@@ -7538,7 +7539,7 @@
         <v>104</v>
       </c>
       <c r="AF74">
-        <v>30.4</v>
+        <v>15.65544</v>
       </c>
       <c r="AG74">
         <v>0</v>
@@ -7549,19 +7550,19 @@
         <v>2028</v>
       </c>
       <c r="X75" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="Y75" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="Z75" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AA75">
-        <v>19.5</v>
+        <v>15.635999999999999</v>
       </c>
       <c r="AB75">
-        <v>3.6972</v>
+        <v>3.37738</v>
       </c>
       <c r="AD75">
         <v>2029</v>
@@ -7581,19 +7582,19 @@
         <v>2028</v>
       </c>
       <c r="X76" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="Y76" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z76" t="s">
         <v>95</v>
       </c>
-      <c r="Z76" t="s">
-        <v>99</v>
-      </c>
       <c r="AA76">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AB76">
-        <v>5.5296000000000003</v>
+        <v>2.03424</v>
       </c>
       <c r="AD76">
         <v>2029</v>
@@ -7602,10 +7603,10 @@
         <v>93</v>
       </c>
       <c r="AF76">
-        <v>69.599999999999994</v>
+        <v>60.218400000000003</v>
       </c>
       <c r="AG76">
-        <v>69.5</v>
+        <v>60.218400000000003</v>
       </c>
     </row>
     <row r="77" spans="23:33" x14ac:dyDescent="0.35">
@@ -7613,19 +7614,19 @@
         <v>2028</v>
       </c>
       <c r="X77" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Y77" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z77" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AA77">
-        <v>16</v>
+        <v>1.2959999999999999E-2</v>
       </c>
       <c r="AB77">
-        <v>3.456</v>
+        <v>2.99E-3</v>
       </c>
       <c r="AD77">
         <v>2029</v>
@@ -7634,7 +7635,7 @@
         <v>97</v>
       </c>
       <c r="AF77">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AG77">
         <v>0</v>
@@ -7645,19 +7646,19 @@
         <v>2028</v>
       </c>
       <c r="X78" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y78" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z78" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AA78">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AB78">
-        <v>2.21184</v>
+        <v>1.8959999999999999</v>
       </c>
       <c r="AD78">
         <v>2029</v>
@@ -7666,10 +7667,10 @@
         <v>95</v>
       </c>
       <c r="AF78">
-        <v>60</v>
+        <v>60.218400000000003</v>
       </c>
       <c r="AG78">
-        <v>60</v>
+        <v>60.218400000000003</v>
       </c>
     </row>
     <row r="79" spans="23:33" x14ac:dyDescent="0.35">
@@ -7677,19 +7678,19 @@
         <v>2028</v>
       </c>
       <c r="X79" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y79" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z79" t="s">
         <v>99</v>
       </c>
-      <c r="Z79" t="s">
-        <v>104</v>
-      </c>
       <c r="AA79">
-        <v>14.4</v>
+        <v>24.00778</v>
       </c>
       <c r="AB79">
-        <v>3.1103999999999998</v>
+        <v>5.53139</v>
       </c>
       <c r="AD79">
         <v>2029</v>
@@ -7698,10 +7699,10 @@
         <v>99</v>
       </c>
       <c r="AF79">
-        <v>24</v>
+        <v>24.131039999999999</v>
       </c>
       <c r="AG79">
-        <v>24</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="80" spans="23:33" x14ac:dyDescent="0.35">
@@ -7709,19 +7710,19 @@
         <v>2028</v>
       </c>
       <c r="X80" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="Y80" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Z80" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="AA80">
-        <v>16</v>
+        <v>50.01296</v>
       </c>
       <c r="AB80">
-        <v>3.456</v>
+        <v>10.17384</v>
       </c>
       <c r="AD80">
         <v>2029</v>
@@ -7730,10 +7731,10 @@
         <v>101</v>
       </c>
       <c r="AF80">
-        <v>16</v>
+        <v>16.08736</v>
       </c>
       <c r="AG80">
-        <v>16</v>
+        <v>15.978400000000001</v>
       </c>
     </row>
     <row r="81" spans="23:33" x14ac:dyDescent="0.35">
@@ -7741,19 +7742,19 @@
         <v>2028</v>
       </c>
       <c r="X81" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="Y81" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Z81" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="AA81">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AB81">
-        <v>4.0684800000000001</v>
+        <v>12.205439999999999</v>
       </c>
       <c r="AD81">
         <v>2029</v>
@@ -7773,19 +7774,19 @@
         <v>2028</v>
       </c>
       <c r="X82" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Y82" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="Z82" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA82">
-        <v>10</v>
+        <v>16.005179999999999</v>
       </c>
       <c r="AB82">
-        <v>2.03424</v>
+        <v>3.4571200000000002</v>
       </c>
       <c r="AD82">
         <v>2029</v>
@@ -7805,19 +7806,19 @@
         <v>2029</v>
       </c>
       <c r="X83" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="Y83" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="Z83" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AA83">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AB83">
-        <v>12.205439999999999</v>
+        <v>2.03424</v>
       </c>
       <c r="AD83">
         <v>2029</v>
@@ -7826,7 +7827,7 @@
         <v>104</v>
       </c>
       <c r="AF83">
-        <v>30.4</v>
+        <v>16.306000000000001</v>
       </c>
       <c r="AG83">
         <v>0</v>
@@ -7837,19 +7838,19 @@
         <v>2029</v>
       </c>
       <c r="X84" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="Y84" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z84" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AA84">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AB84">
-        <v>10.171200000000001</v>
+        <v>4.0684800000000001</v>
       </c>
       <c r="AD84">
         <v>2030</v>
@@ -7869,19 +7870,19 @@
         <v>2029</v>
       </c>
       <c r="X85" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Y85" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Z85" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AA85">
-        <v>19.5</v>
+        <v>0.3276</v>
       </c>
       <c r="AB85">
-        <v>3.6972</v>
+        <v>7.0760000000000003E-2</v>
       </c>
       <c r="AD85">
         <v>2030</v>
@@ -7890,10 +7891,10 @@
         <v>93</v>
       </c>
       <c r="AF85">
-        <v>69.599999999999994</v>
+        <v>61.523090000000003</v>
       </c>
       <c r="AG85">
-        <v>69.5</v>
+        <v>61.523090000000003</v>
       </c>
     </row>
     <row r="86" spans="23:33" x14ac:dyDescent="0.35">
@@ -7901,19 +7902,19 @@
         <v>2029</v>
       </c>
       <c r="X86" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Y86" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z86" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AA86">
-        <v>24</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="AB86">
-        <v>5.5296000000000003</v>
+        <v>5.0319999999999997E-2</v>
       </c>
       <c r="AD86">
         <v>2030</v>
@@ -7922,7 +7923,7 @@
         <v>97</v>
       </c>
       <c r="AF86">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AG86">
         <v>0</v>
@@ -7933,19 +7934,19 @@
         <v>2029</v>
       </c>
       <c r="X87" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Y87" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z87" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AA87">
-        <v>16</v>
+        <v>15.978400000000001</v>
       </c>
       <c r="AB87">
-        <v>3.456</v>
+        <v>3.45133</v>
       </c>
       <c r="AD87">
         <v>2030</v>
@@ -7954,10 +7955,10 @@
         <v>95</v>
       </c>
       <c r="AF87">
-        <v>60</v>
+        <v>61.523090000000003</v>
       </c>
       <c r="AG87">
-        <v>60</v>
+        <v>61.523090000000003</v>
       </c>
     </row>
     <row r="88" spans="23:33" x14ac:dyDescent="0.35">
@@ -7965,19 +7966,19 @@
         <v>2029</v>
       </c>
       <c r="X88" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Y88" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z88" t="s">
         <v>99</v>
       </c>
-      <c r="Z88" t="s">
-        <v>93</v>
-      </c>
       <c r="AA88">
-        <v>9.6</v>
+        <v>24.131039999999999</v>
       </c>
       <c r="AB88">
-        <v>2.21184</v>
+        <v>5.5597899999999996</v>
       </c>
       <c r="AD88">
         <v>2030</v>
@@ -7986,10 +7987,10 @@
         <v>99</v>
       </c>
       <c r="AF88">
-        <v>24</v>
+        <v>24.91385</v>
       </c>
       <c r="AG88">
-        <v>24</v>
+        <v>3.8077299999999998</v>
       </c>
     </row>
     <row r="89" spans="23:33" x14ac:dyDescent="0.35">
@@ -7997,19 +7998,19 @@
         <v>2029</v>
       </c>
       <c r="X89" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Y89" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z89" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AA89">
-        <v>14.4</v>
+        <v>10</v>
       </c>
       <c r="AB89">
-        <v>3.1103999999999998</v>
+        <v>1.8959999999999999</v>
       </c>
       <c r="AD89">
         <v>2030</v>
@@ -8018,10 +8019,10 @@
         <v>101</v>
       </c>
       <c r="AF89">
-        <v>16</v>
+        <v>16.60924</v>
       </c>
       <c r="AG89">
-        <v>16</v>
+        <v>15.999510000000001</v>
       </c>
     </row>
     <row r="90" spans="23:33" x14ac:dyDescent="0.35">
@@ -8029,19 +8030,19 @@
         <v>2029</v>
       </c>
       <c r="X90" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="Y90" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Z90" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="AA90">
-        <v>16</v>
+        <v>50.218400000000003</v>
       </c>
       <c r="AB90">
-        <v>3.456</v>
+        <v>10.215630000000001</v>
       </c>
       <c r="AD90">
         <v>2030</v>
@@ -8061,19 +8062,19 @@
         <v>2029</v>
       </c>
       <c r="X91" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="Y91" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Z91" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="AA91">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AB91">
-        <v>4.0684800000000001</v>
+        <v>12.205439999999999</v>
       </c>
       <c r="AD91">
         <v>2030</v>
@@ -8093,19 +8094,19 @@
         <v>2029</v>
       </c>
       <c r="X92" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Y92" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="Z92" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA92">
-        <v>10</v>
+        <v>16.08736</v>
       </c>
       <c r="AB92">
-        <v>2.03424</v>
+        <v>3.4748700000000001</v>
       </c>
       <c r="AD92">
         <v>2030</v>
@@ -8114,7 +8115,7 @@
         <v>104</v>
       </c>
       <c r="AF92">
-        <v>30.4</v>
+        <v>18.284140000000001</v>
       </c>
       <c r="AG92">
         <v>0</v>
@@ -8125,19 +8126,19 @@
         <v>2030</v>
       </c>
       <c r="X93" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="Y93" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Z93" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="AA93">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AB93">
-        <v>12.205439999999999</v>
+        <v>4.0684800000000001</v>
       </c>
     </row>
     <row r="94" spans="23:33" x14ac:dyDescent="0.35">
@@ -8145,19 +8146,19 @@
         <v>2030</v>
       </c>
       <c r="X94" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Y94" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z94" t="s">
         <v>93</v>
       </c>
-      <c r="Z94" t="s">
-        <v>95</v>
-      </c>
       <c r="AA94">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB94">
-        <v>10.171200000000001</v>
+        <v>12.205439999999999</v>
       </c>
     </row>
     <row r="95" spans="23:33" x14ac:dyDescent="0.35">
@@ -8165,19 +8166,19 @@
         <v>2030</v>
       </c>
       <c r="X95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y95" t="s">
         <v>93</v>
       </c>
       <c r="Z95" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AA95">
-        <v>19.5</v>
+        <v>51.523090000000003</v>
       </c>
       <c r="AB95">
-        <v>3.6972</v>
+        <v>10.481030000000001</v>
       </c>
     </row>
     <row r="96" spans="23:33" x14ac:dyDescent="0.35">
@@ -8185,19 +8186,19 @@
         <v>2030</v>
       </c>
       <c r="X96" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Z96" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA96">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AB96">
-        <v>5.5296000000000003</v>
+        <v>1.8959999999999999</v>
       </c>
     </row>
     <row r="97" spans="23:28" x14ac:dyDescent="0.35">
@@ -8205,19 +8206,19 @@
         <v>2030</v>
       </c>
       <c r="X97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Y97" t="s">
         <v>95</v>
       </c>
       <c r="Z97" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AA97">
-        <v>16</v>
+        <v>24.91385</v>
       </c>
       <c r="AB97">
-        <v>3.456</v>
+        <v>5.7401499999999999</v>
       </c>
     </row>
     <row r="98" spans="23:28" x14ac:dyDescent="0.35">
@@ -8225,19 +8226,19 @@
         <v>2030</v>
       </c>
       <c r="X98" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Y98" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Z98" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AA98">
-        <v>9.6</v>
+        <v>16.60924</v>
       </c>
       <c r="AB98">
-        <v>2.21184</v>
+        <v>3.5876000000000001</v>
       </c>
     </row>
     <row r="99" spans="23:28" x14ac:dyDescent="0.35">
@@ -8245,19 +8246,19 @@
         <v>2030</v>
       </c>
       <c r="X99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y99" t="s">
         <v>99</v>
       </c>
       <c r="Z99" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AA99">
-        <v>14.4</v>
+        <v>1.5230900000000001</v>
       </c>
       <c r="AB99">
-        <v>3.1103999999999998</v>
+        <v>0.35092000000000001</v>
       </c>
     </row>
     <row r="100" spans="23:28" x14ac:dyDescent="0.35">
@@ -8265,19 +8266,19 @@
         <v>2030</v>
       </c>
       <c r="X100" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z100" t="s">
         <v>104</v>
       </c>
       <c r="AA100">
-        <v>16</v>
+        <v>2.28464</v>
       </c>
       <c r="AB100">
-        <v>3.456</v>
+        <v>0.49347999999999997</v>
       </c>
     </row>
     <row r="101" spans="23:28" x14ac:dyDescent="0.35">
@@ -8285,19 +8286,19 @@
         <v>2030</v>
       </c>
       <c r="X101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y101" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z101" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AA101">
-        <v>20</v>
+        <v>15.999510000000001</v>
       </c>
       <c r="AB101">
-        <v>4.0684800000000001</v>
+        <v>3.4558900000000001</v>
       </c>
     </row>
     <row r="102" spans="23:28" x14ac:dyDescent="0.35">
@@ -8347,7 +8348,7 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2">
         <v>0.48</v>
@@ -8365,7 +8366,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12935D7-39CC-4336-870D-98DAC14A69ED}">
   <dimension ref="C1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8375,13 +8378,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C1" s="32" t="s">
+        <v>201</v>
+      </c>
       <c r="D1" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -8397,17 +8403,17 @@
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClOrfani\PycharmProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6731CD4-0D19-43E4-82B9-20AD9346CFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6666BAD6-E259-4FEE-A971-DD6056DBEE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="208">
   <si>
     <t>Years</t>
   </si>
@@ -165,15 +165,9 @@
     <t xml:space="preserve">float </t>
   </si>
   <si>
-    <t xml:space="preserve">Scenarios </t>
-  </si>
-  <si>
     <t>Please note</t>
   </si>
   <si>
-    <t>Dynamic case (multiple years with different scenarios)</t>
-  </si>
-  <si>
     <t>Process IDs</t>
   </si>
   <si>
@@ -202,18 +196,6 @@
   </si>
   <si>
     <t>Make sure that no whitespaces exist on the process IDs (at the end or beginning)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the system is not balanced (Inputs not equal to outputs) then aiphoria creates virtual flows to show the imbalances. Virtual flows can toggled off from the notebook. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must filled in cells </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cells to fill for running aiphoria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please check the starred (*) cells on the processes and flows sheets. </t>
   </si>
   <si>
     <t>General information</t>
@@ -712,32 +694,6 @@
     <t>If using virtual flows, create virtual flow to process if process total inputs and outputs difference is greater than this value</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">If the user wants to run different scenarios using relative value (shares) for the same process, they should add multiple flows (rows) on the flow sheet indicating the change in the value cell (e.g P3:EU -&gt; P5:EU and  value: 100% in 2021 and  P3:EU -&gt; P5:EU and value 50% in 2022). If the scenarios when using relative value (shares) remain the same throughtout the timeline indicated by the user; then aiphoria is </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>repeating the value given for the last year</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (e.g. P3:EU -&gt; P5:EU with value: 50%)  </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">The carbon fraction sheet is only temprorary here and it is being used by thee Flows sheet. In the next version of aiphoria this will be moved. </t>
   </si>
   <si>
@@ -795,6 +751,33 @@
   <si>
     <t>https://excalidraw.com/#json=TH95eCDBsN1pfqczsMf84,S3TGIZvZiI-AUl8oZJcUYg</t>
   </si>
+  <si>
+    <t>fill_missing_relative_flows</t>
+  </si>
+  <si>
+    <t>fill_missing_absolute_flows</t>
+  </si>
+  <si>
+    <t>Fill in missing timestep with the last timestep provided by the user. Default value is True</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String </t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the system is not balanced (Inputs not equal to outputs) then aiphoria creates virtual flows to show the imbalances. Virtual flows can toggled off from Settings. </t>
+  </si>
 </sst>
 </file>
 
@@ -805,7 +788,7 @@
     <numFmt numFmtId="165" formatCode="0.0000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,14 +834,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1033,14 +1008,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1068,7 +1043,22 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1106,23 +1096,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238497</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>162193</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>717176</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>132512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>68549</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>575283</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45515</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Graphic 3">
+        <xdr:cNvPr id="3" name="Graphic 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65083D5-FD42-D957-1C27-02B79123CF56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3BABF4E-C7EF-DF86-E1EE-F6428C7FAEDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1144,8 +1134,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5023409" y="2750752"/>
-          <a:ext cx="9443385" cy="3130475"/>
+          <a:off x="4448735" y="3079659"/>
+          <a:ext cx="8912460" cy="2961003"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1468,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240816D1-B4FF-41BE-B292-8CF7D349FFB2}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1495,7 +1485,7 @@
       </c>
       <c r="D1" s="44"/>
     </row>
-    <row r="2" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="135.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1503,12 +1493,12 @@
         <v>6</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="203.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
@@ -1516,57 +1506,57 @@
         <v>7</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" s="46"/>
     </row>
-    <row r="5" spans="1:5" s="17" customFormat="1" ht="96.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="17" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D5" s="46"/>
     </row>
-    <row r="6" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="42"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="45"/>
+    </row>
+    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="45"/>
+        <v>38</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
@@ -1575,86 +1565,60 @@
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="42"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="45"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="45"/>
-    </row>
-    <row r="11" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>55</v>
+        <v>122</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="42"/>
+    </row>
+    <row r="11" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="D11" s="42"/>
     </row>
-    <row r="12" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="42"/>
-    </row>
-    <row r="13" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="42"/>
-    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+  <mergeCells count="11">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1663,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FFA668-DA1A-459B-BD42-D0D7F7709F0D}">
-  <dimension ref="B2:E18"/>
+  <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1678,17 +1642,17 @@
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="33" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="35" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -1696,13 +1660,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="32" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>4</v>
@@ -1710,149 +1674,210 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="37" t="s">
+        <v>205</v>
+      </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="37"/>
+        <v>164</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>205</v>
+      </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C9" s="36">
         <v>2</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="36" t="s">
+        <v>203</v>
+      </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="37" t="s">
+        <v>204</v>
+      </c>
       <c r="E10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="37"/>
+        <v>175</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>204</v>
+      </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C12" s="36">
         <v>2</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="36" t="s">
+        <v>203</v>
+      </c>
       <c r="E12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C13" s="36">
         <v>2021</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="36" t="s">
+        <v>203</v>
+      </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C14" s="36">
         <v>2030</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="36" t="s">
+        <v>203</v>
+      </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C15" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" t="s">
+        <v>202</v>
+      </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C16" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" t="s">
+        <v>202</v>
+      </c>
       <c r="E16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C17" s="25">
         <v>0.1</v>
       </c>
+      <c r="D17" s="36" t="s">
+        <v>206</v>
+      </c>
       <c r="E17" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C18" s="34">
         <v>3.67</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="34" t="s">
+        <v>206</v>
+      </c>
       <c r="E18" t="s">
-        <v>190</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C15:C16">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="notEqual">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C20">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -1861,7 +1886,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C16" xr:uid="{79A7E31C-3284-4405-9B5F-03E099B07563}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C16 C19:C20" xr:uid="{79A7E31C-3284-4405-9B5F-03E099B07563}">
       <formula1>Boolean</formula1>
     </dataValidation>
   </dataValidations>
@@ -1919,7 +1944,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>11</v>
@@ -1978,28 +2003,28 @@
     <row r="3" spans="1:18" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="29"/>
       <c r="B3" s="30" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J3" s="30" t="s">
         <v>16</v>
@@ -2026,7 +2051,7 @@
         <v>30</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.4">
@@ -2034,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D4" t="str">
         <f>_xlfn.CONCAT(B4,":",C4)</f>
@@ -2050,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2063,7 +2088,7 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="R4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.4">
@@ -2071,10 +2096,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ref="D5:D12" si="0">_xlfn.CONCAT(B5,":",C5)</f>
@@ -2087,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2100,7 +2125,7 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="R5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -2108,23 +2133,23 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>Residues:FI</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2136,7 +2161,7 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="R6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -2144,10 +2169,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ref="D7" si="1">_xlfn.CONCAT(B7,":",C7)</f>
@@ -2160,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2172,7 +2197,7 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="R7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2180,23 +2205,23 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>Construction:FI</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2208,7 +2233,7 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="R8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2216,23 +2241,23 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>Furniture:FI</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2244,7 +2269,7 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="R9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -2252,7 +2277,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -2268,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2280,7 +2305,7 @@
         <v>0.81899999999999995</v>
       </c>
       <c r="R10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -2288,7 +2313,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -2304,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2316,7 +2341,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="R11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -2324,23 +2349,23 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>Incineration:FI</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2352,7 +2377,7 @@
         <v>0.48299999999999998</v>
       </c>
       <c r="R12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2384,7 +2409,7 @@
   <dimension ref="A1:U91"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2487,7 +2512,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -2496,7 +2521,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -2505,61 +2530,61 @@
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="J3" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>157</v>
-      </c>
       <c r="K3" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>26</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="S3" s="23" t="s">
         <v>21</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="U3" s="23" t="s">
         <v>21</v>
@@ -2567,27 +2592,27 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C4" t="str">
         <f>+_xlfn.XLOOKUP(H4,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Source</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F4" t="str">
         <f>+_xlfn.XLOOKUP(I4,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" ref="H4:H13" si="0">_xlfn.CONCAT(B4,":",D4)</f>
@@ -2601,45 +2626,45 @@
         <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L4">
         <v>2021</v>
       </c>
       <c r="N4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P4">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C5" t="str">
         <f>+_xlfn.XLOOKUP(H5,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F5" t="str">
         <f>+_xlfn.XLOOKUP(I5,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2659,39 +2684,39 @@
         <v>2021</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P5">
         <f>0.4238*'Carbon fraction (will be moved)'!C2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q5" s="24" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C6" t="str">
         <f>+_xlfn.XLOOKUP(H6,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
         <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>69</v>
       </c>
       <c r="F6" t="str">
         <f>+_xlfn.XLOOKUP(I6,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>by_prod</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2705,45 +2730,45 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L6">
         <v>2021</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P6">
         <f>0.395*'Carbon fraction (will be moved)'!C2</f>
         <v>0.18959999999999999</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C7" t="str">
         <f>+_xlfn.XLOOKUP(H7,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F7" t="str">
         <f>+_xlfn.XLOOKUP(I7,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2763,39 +2788,39 @@
         <v>2021</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P7">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
       <c r="Q7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C8" t="str">
         <f>+_xlfn.XLOOKUP(H8,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F8" t="str">
         <f>+_xlfn.XLOOKUP(I8,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H8" s="4" t="str">
         <f>_xlfn.CONCAT(B8,":",D8)</f>
@@ -2815,39 +2840,39 @@
         <v>2021</v>
       </c>
       <c r="N8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P8">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C9" t="str">
         <f>+_xlfn.XLOOKUP(H9,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F9" t="str">
         <f>+_xlfn.XLOOKUP(I9,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2867,39 +2892,39 @@
         <v>2021</v>
       </c>
       <c r="N9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P9">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
       <c r="Q9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C10" t="str">
         <f>+_xlfn.XLOOKUP(H10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F10" t="str">
         <f>+_xlfn.XLOOKUP(I10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>EoL</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2919,38 +2944,38 @@
         <v>2021</v>
       </c>
       <c r="N10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P10">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F11" t="str">
         <f>+_xlfn.XLOOKUP(I11,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>EoL</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2970,32 +2995,32 @@
         <v>2021</v>
       </c>
       <c r="N11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P11">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q11" s="24" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C12" t="str">
         <f>+_xlfn.XLOOKUP(H12,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F12" t="str">
         <f>+_xlfn.XLOOKUP(I12,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
@@ -3016,28 +3041,28 @@
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L12">
         <v>2021</v>
       </c>
       <c r="N12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P12">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q12" s="24" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C13" t="str">
         <f>+_xlfn.XLOOKUP(H13,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
@@ -3047,13 +3072,13 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3067,20 +3092,20 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L13">
         <v>2021</v>
       </c>
       <c r="N13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P13">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q13" s="24" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
@@ -3189,7 +3214,7 @@
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.35">
       <c r="E35" s="24" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -3537,11 +3562,12 @@
     <hyperlink ref="Q4" r:id="rId1" xr:uid="{44BDC3E8-14C2-47A6-9A94-576E28D9D557}"/>
     <hyperlink ref="Q11:Q13" r:id="rId2" display="https://doi.org/10.1016/j.resconrec.2024.107476, assumed average conversion factor 80% soft 20% hard" xr:uid="{09224BB8-3720-400B-909A-BF395F73FAE2}"/>
     <hyperlink ref="Q13" r:id="rId3" xr:uid="{3D605790-367C-4E01-9AE5-AEF809643374}"/>
+    <hyperlink ref="E35" r:id="rId4" location="json=TH95eCDBsN1pfqczsMf84,S3TGIZvZiI-AUl8oZJcUYg" xr:uid="{26F0F99B-4281-4D67-B3C8-B1BC12D732B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3549,8 +3575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E839B9F-9E6A-42D1-BF39-12023C14C5F8}">
   <dimension ref="A1:AG102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3570,21 +3596,21 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X1" s="32" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AD1" s="32" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2">
@@ -3618,43 +3644,43 @@
         <v>2030</v>
       </c>
       <c r="N2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="S2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="X2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG2" t="s">
         <v>110</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
@@ -3710,13 +3736,13 @@
         <v>2021</v>
       </c>
       <c r="X3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Y3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Z3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA3">
         <v>60</v>
@@ -3728,7 +3754,7 @@
         <v>2021</v>
       </c>
       <c r="AE3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -3790,13 +3816,13 @@
         <v>2021</v>
       </c>
       <c r="X4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Y4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA4">
         <v>50</v>
@@ -3808,7 +3834,7 @@
         <v>2021</v>
       </c>
       <c r="AE4" s="32" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AF4">
         <v>60</v>
@@ -3870,13 +3896,13 @@
         <v>2021</v>
       </c>
       <c r="X5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Y5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AA5">
         <v>10</v>
@@ -3888,7 +3914,7 @@
         <v>2021</v>
       </c>
       <c r="AE5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AF5">
         <v>10</v>
@@ -3950,13 +3976,13 @@
         <v>2021</v>
       </c>
       <c r="X6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AA6">
         <v>24</v>
@@ -3968,7 +3994,7 @@
         <v>2021</v>
       </c>
       <c r="AE6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AF6">
         <v>60</v>
@@ -4030,13 +4056,13 @@
         <v>2021</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z7" t="s">
         <v>95</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>101</v>
       </c>
       <c r="AA7">
         <v>16</v>
@@ -4048,7 +4074,7 @@
         <v>2021</v>
       </c>
       <c r="AE7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AF7">
         <v>24</v>
@@ -4110,13 +4136,13 @@
         <v>2021</v>
       </c>
       <c r="X8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -4128,7 +4154,7 @@
         <v>2021</v>
       </c>
       <c r="AE8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AF8">
         <v>16</v>
@@ -4190,13 +4216,13 @@
         <v>2021</v>
       </c>
       <c r="X9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -4208,7 +4234,7 @@
         <v>2021</v>
       </c>
       <c r="AE9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -4270,13 +4296,13 @@
         <v>2021</v>
       </c>
       <c r="X10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -4288,7 +4314,7 @@
         <v>2021</v>
       </c>
       <c r="AE10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AF10">
         <v>20</v>
@@ -4350,13 +4376,13 @@
         <v>2021</v>
       </c>
       <c r="X11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Y11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AA11">
         <v>20</v>
@@ -4368,7 +4394,7 @@
         <v>2021</v>
       </c>
       <c r="AE11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -4430,13 +4456,13 @@
         <v>2021</v>
       </c>
       <c r="X12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Y12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Z12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA12">
         <v>10</v>
@@ -4448,7 +4474,7 @@
         <v>2022</v>
       </c>
       <c r="AE12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -4459,19 +4485,19 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C13" s="32" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="W13">
         <v>2022</v>
       </c>
       <c r="X13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Y13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Z13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA13">
         <v>10</v>
@@ -4483,7 +4509,7 @@
         <v>2022</v>
       </c>
       <c r="AE13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AF13">
         <v>60</v>
@@ -4528,13 +4554,13 @@
         <v>2022</v>
       </c>
       <c r="X14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Y14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AA14">
         <v>20</v>
@@ -4546,7 +4572,7 @@
         <v>2022</v>
       </c>
       <c r="AE14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AF14">
         <v>10</v>
@@ -4594,13 +4620,13 @@
         <v>2022</v>
       </c>
       <c r="X15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Y15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA15">
         <v>5.1000000000000004E-4</v>
@@ -4612,7 +4638,7 @@
         <v>2022</v>
       </c>
       <c r="AE15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AF15">
         <v>60</v>
@@ -4659,13 +4685,13 @@
         <v>2022</v>
       </c>
       <c r="X16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Y16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z16" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -4677,7 +4703,7 @@
         <v>2022</v>
       </c>
       <c r="AE16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AF16">
         <v>24</v>
@@ -4724,13 +4750,13 @@
         <v>2022</v>
       </c>
       <c r="X17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -4742,7 +4768,7 @@
         <v>2022</v>
       </c>
       <c r="AE17" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AF17">
         <v>16</v>
@@ -4789,13 +4815,13 @@
         <v>2022</v>
       </c>
       <c r="X18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Y18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AA18">
         <v>10</v>
@@ -4807,7 +4833,7 @@
         <v>2022</v>
       </c>
       <c r="AE18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -4854,13 +4880,13 @@
         <v>2022</v>
       </c>
       <c r="X19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Y19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AA19">
         <v>24</v>
@@ -4872,7 +4898,7 @@
         <v>2022</v>
       </c>
       <c r="AE19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AF19">
         <v>20</v>
@@ -4919,13 +4945,13 @@
         <v>2022</v>
       </c>
       <c r="X20" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Y20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA20">
         <v>50</v>
@@ -4937,7 +4963,7 @@
         <v>2022</v>
       </c>
       <c r="AE20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AF20">
         <v>5.1000000000000004E-4</v>
@@ -4984,13 +5010,13 @@
         <v>2022</v>
       </c>
       <c r="X21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Y21" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Z21" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA21">
         <v>60</v>
@@ -5002,7 +5028,7 @@
         <v>2023</v>
       </c>
       <c r="AE21" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -5050,13 +5076,13 @@
         <v>2022</v>
       </c>
       <c r="X22" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Y22" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z22" t="s">
         <v>95</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>101</v>
       </c>
       <c r="AA22">
         <v>16</v>
@@ -5068,7 +5094,7 @@
         <v>2023</v>
       </c>
       <c r="AE22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AF22">
         <v>60</v>
@@ -5115,13 +5141,13 @@
         <v>2023</v>
       </c>
       <c r="X23" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Y23" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -5133,7 +5159,7 @@
         <v>2023</v>
       </c>
       <c r="AE23" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AF23">
         <v>10</v>
@@ -5180,13 +5206,13 @@
         <v>2023</v>
       </c>
       <c r="X24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Y24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Z24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA24">
         <v>10</v>
@@ -5198,7 +5224,7 @@
         <v>2023</v>
       </c>
       <c r="AE24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AF24">
         <v>60</v>
@@ -5209,19 +5235,19 @@
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C25" s="32" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="W25">
         <v>2023</v>
       </c>
       <c r="X25" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Y25" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z25" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AA25">
         <v>20</v>
@@ -5233,7 +5259,7 @@
         <v>2023</v>
       </c>
       <c r="AE25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AF25">
         <v>24</v>
@@ -5278,13 +5304,13 @@
         <v>2023</v>
       </c>
       <c r="X26" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Y26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z26" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA26">
         <v>2.1600000000000001E-2</v>
@@ -5296,7 +5322,7 @@
         <v>2023</v>
       </c>
       <c r="AE26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AF26">
         <v>16</v>
@@ -5344,13 +5370,13 @@
         <v>2023</v>
       </c>
       <c r="X27" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y27" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z27" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -5362,7 +5388,7 @@
         <v>2023</v>
       </c>
       <c r="AE27" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -5410,13 +5436,13 @@
         <v>2023</v>
       </c>
       <c r="X28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Y28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z28" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA28">
         <v>50</v>
@@ -5428,7 +5454,7 @@
         <v>2023</v>
       </c>
       <c r="AE28" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AF28">
         <v>20</v>
@@ -5476,13 +5502,13 @@
         <v>2023</v>
       </c>
       <c r="X29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Y29" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z29" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AA29">
         <v>24</v>
@@ -5494,7 +5520,7 @@
         <v>2023</v>
       </c>
       <c r="AE29" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AF29">
         <v>2.1600000000000001E-2</v>
@@ -5542,13 +5568,13 @@
         <v>2023</v>
       </c>
       <c r="X30" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Y30" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z30" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AA30">
         <v>10</v>
@@ -5560,7 +5586,7 @@
         <v>2024</v>
       </c>
       <c r="AE30" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -5608,13 +5634,13 @@
         <v>2023</v>
       </c>
       <c r="X31" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Y31" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Z31" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA31">
         <v>60</v>
@@ -5626,7 +5652,7 @@
         <v>2024</v>
       </c>
       <c r="AE31" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AF31">
         <v>60</v>
@@ -5674,13 +5700,13 @@
         <v>2023</v>
       </c>
       <c r="X32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Y32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z32" t="s">
         <v>95</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>101</v>
       </c>
       <c r="AA32">
         <v>16</v>
@@ -5692,7 +5718,7 @@
         <v>2024</v>
       </c>
       <c r="AE32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AF32">
         <v>10</v>
@@ -5740,13 +5766,13 @@
         <v>2024</v>
       </c>
       <c r="X33" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Y33" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Z33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA33">
         <v>10</v>
@@ -5758,7 +5784,7 @@
         <v>2024</v>
       </c>
       <c r="AE33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AF33">
         <v>60</v>
@@ -5806,13 +5832,13 @@
         <v>2024</v>
       </c>
       <c r="X34" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Y34" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z34" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AA34">
         <v>20</v>
@@ -5824,7 +5850,7 @@
         <v>2024</v>
       </c>
       <c r="AE34" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AF34">
         <v>24</v>
@@ -5872,13 +5898,13 @@
         <v>2024</v>
       </c>
       <c r="X35" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Y35" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z35" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA35">
         <v>0.36399999999999999</v>
@@ -5890,7 +5916,7 @@
         <v>2024</v>
       </c>
       <c r="AE35" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AF35">
         <v>16</v>
@@ -5938,13 +5964,13 @@
         <v>2024</v>
       </c>
       <c r="X36" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Y36" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z36" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -5956,7 +5982,7 @@
         <v>2024</v>
       </c>
       <c r="AE36" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -5967,19 +5993,19 @@
     </row>
     <row r="37" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C37" s="32" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="W37">
         <v>2024</v>
       </c>
       <c r="X37" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y37" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z37" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -5991,7 +6017,7 @@
         <v>2024</v>
       </c>
       <c r="AE37" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AF37">
         <v>20</v>
@@ -6036,13 +6062,13 @@
         <v>2024</v>
       </c>
       <c r="X38" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Y38" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z38" t="s">
         <v>95</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>101</v>
       </c>
       <c r="AA38">
         <v>16</v>
@@ -6054,7 +6080,7 @@
         <v>2024</v>
       </c>
       <c r="AE38" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AF38">
         <v>0.36399999999999999</v>
@@ -6101,13 +6127,13 @@
         <v>2024</v>
       </c>
       <c r="X39" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Y39" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z39" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AA39">
         <v>10</v>
@@ -6119,7 +6145,7 @@
         <v>2025</v>
       </c>
       <c r="AE39" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -6166,13 +6192,13 @@
         <v>2024</v>
       </c>
       <c r="X40" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Y40" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z40" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA40">
         <v>50</v>
@@ -6184,7 +6210,7 @@
         <v>2025</v>
       </c>
       <c r="AE40" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AF40">
         <v>60</v>
@@ -6231,13 +6257,13 @@
         <v>2024</v>
       </c>
       <c r="X41" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Y41" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Z41" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA41">
         <v>60</v>
@@ -6249,7 +6275,7 @@
         <v>2025</v>
       </c>
       <c r="AE41" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AF41">
         <v>10</v>
@@ -6296,13 +6322,13 @@
         <v>2024</v>
       </c>
       <c r="X42" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Y42" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z42" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AA42">
         <v>24</v>
@@ -6314,7 +6340,7 @@
         <v>2025</v>
       </c>
       <c r="AE42" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AF42">
         <v>60</v>
@@ -6361,13 +6387,13 @@
         <v>2025</v>
       </c>
       <c r="X43" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Y43" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z43" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA43">
         <v>0</v>
@@ -6379,7 +6405,7 @@
         <v>2025</v>
       </c>
       <c r="AE43" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AF43">
         <v>24</v>
@@ -6426,13 +6452,13 @@
         <v>2025</v>
       </c>
       <c r="X44" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Y44" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z44" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AA44">
         <v>20</v>
@@ -6444,7 +6470,7 @@
         <v>2025</v>
       </c>
       <c r="AE44" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AF44">
         <v>16</v>
@@ -6491,13 +6517,13 @@
         <v>2025</v>
       </c>
       <c r="X45" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Y45" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z45" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA45">
         <v>2.5384799999999998</v>
@@ -6509,7 +6535,7 @@
         <v>2025</v>
       </c>
       <c r="AE45" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -6556,13 +6582,13 @@
         <v>2025</v>
       </c>
       <c r="X46" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y46" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z46" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA46">
         <v>0</v>
@@ -6574,7 +6600,7 @@
         <v>2025</v>
       </c>
       <c r="AE46" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AF46">
         <v>20</v>
@@ -6621,13 +6647,13 @@
         <v>2025</v>
       </c>
       <c r="X47" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Y47" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Z47" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA47">
         <v>10</v>
@@ -6639,7 +6665,7 @@
         <v>2025</v>
       </c>
       <c r="AE47" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AF47">
         <v>2.5384799999999998</v>
@@ -6686,13 +6712,13 @@
         <v>2025</v>
       </c>
       <c r="X48" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Y48" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z48" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AA48">
         <v>24</v>
@@ -6704,7 +6730,7 @@
         <v>2026</v>
       </c>
       <c r="AE48" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -6718,13 +6744,13 @@
         <v>2025</v>
       </c>
       <c r="X49" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Y49" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z49" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AA49">
         <v>10</v>
@@ -6736,7 +6762,7 @@
         <v>2026</v>
       </c>
       <c r="AE49" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AF49">
         <v>60</v>
@@ -6750,13 +6776,13 @@
         <v>2025</v>
       </c>
       <c r="X50" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Y50" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z50" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA50">
         <v>50</v>
@@ -6768,7 +6794,7 @@
         <v>2026</v>
       </c>
       <c r="AE50" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AF50">
         <v>10</v>
@@ -6782,13 +6808,13 @@
         <v>2025</v>
       </c>
       <c r="X51" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Y51" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Z51" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA51">
         <v>60</v>
@@ -6800,7 +6826,7 @@
         <v>2026</v>
       </c>
       <c r="AE51" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AF51">
         <v>60</v>
@@ -6814,13 +6840,13 @@
         <v>2025</v>
       </c>
       <c r="X52" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Y52" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z52" t="s">
         <v>95</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>101</v>
       </c>
       <c r="AA52">
         <v>16</v>
@@ -6832,7 +6858,7 @@
         <v>2026</v>
       </c>
       <c r="AE52" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AF52">
         <v>24</v>
@@ -6846,13 +6872,13 @@
         <v>2026</v>
       </c>
       <c r="X53" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Y53" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z53" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AA53">
         <v>20</v>
@@ -6864,7 +6890,7 @@
         <v>2026</v>
       </c>
       <c r="AE53" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AF53">
         <v>16</v>
@@ -6878,13 +6904,13 @@
         <v>2026</v>
       </c>
       <c r="X54" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Y54" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z54" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA54">
         <v>8</v>
@@ -6896,7 +6922,7 @@
         <v>2026</v>
       </c>
       <c r="AE54" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -6910,13 +6936,13 @@
         <v>2026</v>
       </c>
       <c r="X55" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Y55" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z55" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA55">
         <v>0</v>
@@ -6928,7 +6954,7 @@
         <v>2026</v>
       </c>
       <c r="AE55" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AF55">
         <v>20</v>
@@ -6942,13 +6968,13 @@
         <v>2026</v>
       </c>
       <c r="X56" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y56" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z56" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA56">
         <v>0</v>
@@ -6960,7 +6986,7 @@
         <v>2026</v>
       </c>
       <c r="AE56" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AF56">
         <v>8</v>
@@ -6974,13 +7000,13 @@
         <v>2026</v>
       </c>
       <c r="X57" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Y57" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Z57" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA57">
         <v>10</v>
@@ -6992,7 +7018,7 @@
         <v>2027</v>
       </c>
       <c r="AE57" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -7006,13 +7032,13 @@
         <v>2026</v>
       </c>
       <c r="X58" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Y58" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z58" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AA58">
         <v>24</v>
@@ -7024,7 +7050,7 @@
         <v>2027</v>
       </c>
       <c r="AE58" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AF58">
         <v>60.000300000000003</v>
@@ -7038,13 +7064,13 @@
         <v>2026</v>
       </c>
       <c r="X59" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Y59" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z59" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AA59">
         <v>10</v>
@@ -7056,7 +7082,7 @@
         <v>2027</v>
       </c>
       <c r="AE59" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AF59">
         <v>10</v>
@@ -7070,13 +7096,13 @@
         <v>2026</v>
       </c>
       <c r="X60" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Y60" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z60" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA60">
         <v>50</v>
@@ -7088,7 +7114,7 @@
         <v>2027</v>
       </c>
       <c r="AE60" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AF60">
         <v>60.000300000000003</v>
@@ -7102,13 +7128,13 @@
         <v>2026</v>
       </c>
       <c r="X61" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Y61" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Z61" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA61">
         <v>60</v>
@@ -7120,7 +7146,7 @@
         <v>2027</v>
       </c>
       <c r="AE61" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AF61">
         <v>24.00018</v>
@@ -7134,13 +7160,13 @@
         <v>2026</v>
       </c>
       <c r="X62" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Y62" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z62" t="s">
         <v>95</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>101</v>
       </c>
       <c r="AA62">
         <v>16</v>
@@ -7152,7 +7178,7 @@
         <v>2027</v>
       </c>
       <c r="AE62" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AF62">
         <v>16.000119999999999</v>
@@ -7166,13 +7192,13 @@
         <v>2027</v>
       </c>
       <c r="X63" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Y63" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Z63" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA63">
         <v>10</v>
@@ -7184,7 +7210,7 @@
         <v>2027</v>
       </c>
       <c r="AE63" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -7198,13 +7224,13 @@
         <v>2027</v>
       </c>
       <c r="X64" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Y64" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z64" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AA64">
         <v>20</v>
@@ -7216,7 +7242,7 @@
         <v>2027</v>
       </c>
       <c r="AE64" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AF64">
         <v>20</v>
@@ -7230,13 +7256,13 @@
         <v>2027</v>
       </c>
       <c r="X65" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Y65" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z65" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA65">
         <v>13.46152</v>
@@ -7248,7 +7274,7 @@
         <v>2027</v>
       </c>
       <c r="AE65" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AF65">
         <v>13.461970000000001</v>
@@ -7262,13 +7288,13 @@
         <v>2027</v>
       </c>
       <c r="X66" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Y66" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z66" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA66">
         <v>4.6000000000000001E-4</v>
@@ -7280,7 +7306,7 @@
         <v>2028</v>
       </c>
       <c r="AE66" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -7294,13 +7320,13 @@
         <v>2027</v>
       </c>
       <c r="X67" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y67" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z67" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA67">
         <v>2.9999999999999997E-4</v>
@@ -7312,7 +7338,7 @@
         <v>2028</v>
       </c>
       <c r="AE67" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AF67">
         <v>60.01296</v>
@@ -7326,13 +7352,13 @@
         <v>2027</v>
       </c>
       <c r="X68" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Y68" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z68" t="s">
         <v>95</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>101</v>
       </c>
       <c r="AA68">
         <v>16.000119999999999</v>
@@ -7344,7 +7370,7 @@
         <v>2028</v>
       </c>
       <c r="AE68" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AF68">
         <v>10</v>
@@ -7358,13 +7384,13 @@
         <v>2027</v>
       </c>
       <c r="X69" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Y69" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z69" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AA69">
         <v>10</v>
@@ -7376,7 +7402,7 @@
         <v>2028</v>
       </c>
       <c r="AE69" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AF69">
         <v>60.01296</v>
@@ -7390,13 +7416,13 @@
         <v>2027</v>
       </c>
       <c r="X70" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Y70" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z70" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA70">
         <v>50.000300000000003</v>
@@ -7408,7 +7434,7 @@
         <v>2028</v>
       </c>
       <c r="AE70" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AF70">
         <v>24.00778</v>
@@ -7422,13 +7448,13 @@
         <v>2027</v>
       </c>
       <c r="X71" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Y71" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Z71" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA71">
         <v>60</v>
@@ -7440,7 +7466,7 @@
         <v>2028</v>
       </c>
       <c r="AE71" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AF71">
         <v>16.005179999999999</v>
@@ -7454,13 +7480,13 @@
         <v>2027</v>
       </c>
       <c r="X72" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Y72" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z72" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AA72">
         <v>24.00018</v>
@@ -7472,7 +7498,7 @@
         <v>2028</v>
       </c>
       <c r="AE72" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -7486,13 +7512,13 @@
         <v>2028</v>
       </c>
       <c r="X73" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Y73" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z73" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA73">
         <v>1.9439999999999999E-2</v>
@@ -7504,7 +7530,7 @@
         <v>2028</v>
       </c>
       <c r="AE73" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AF73">
         <v>20</v>
@@ -7518,13 +7544,13 @@
         <v>2028</v>
       </c>
       <c r="X74" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Y74" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z74" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AA74">
         <v>20</v>
@@ -7536,7 +7562,7 @@
         <v>2028</v>
       </c>
       <c r="AE74" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AF74">
         <v>15.65544</v>
@@ -7550,13 +7576,13 @@
         <v>2028</v>
       </c>
       <c r="X75" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Y75" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z75" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA75">
         <v>15.635999999999999</v>
@@ -7568,7 +7594,7 @@
         <v>2029</v>
       </c>
       <c r="AE75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7582,13 +7608,13 @@
         <v>2028</v>
       </c>
       <c r="X76" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Y76" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Z76" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA76">
         <v>10</v>
@@ -7600,7 +7626,7 @@
         <v>2029</v>
       </c>
       <c r="AE76" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AF76">
         <v>60.218400000000003</v>
@@ -7614,13 +7640,13 @@
         <v>2028</v>
       </c>
       <c r="X77" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y77" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z77" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA77">
         <v>1.2959999999999999E-2</v>
@@ -7632,7 +7658,7 @@
         <v>2029</v>
       </c>
       <c r="AE77" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AF77">
         <v>10</v>
@@ -7646,13 +7672,13 @@
         <v>2028</v>
       </c>
       <c r="X78" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Y78" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z78" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AA78">
         <v>10</v>
@@ -7664,7 +7690,7 @@
         <v>2029</v>
       </c>
       <c r="AE78" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AF78">
         <v>60.218400000000003</v>
@@ -7678,13 +7704,13 @@
         <v>2028</v>
       </c>
       <c r="X79" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Y79" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z79" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AA79">
         <v>24.00778</v>
@@ -7696,7 +7722,7 @@
         <v>2029</v>
       </c>
       <c r="AE79" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AF79">
         <v>24.131039999999999</v>
@@ -7710,13 +7736,13 @@
         <v>2028</v>
       </c>
       <c r="X80" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Y80" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z80" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA80">
         <v>50.01296</v>
@@ -7728,7 +7754,7 @@
         <v>2029</v>
       </c>
       <c r="AE80" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AF80">
         <v>16.08736</v>
@@ -7742,13 +7768,13 @@
         <v>2028</v>
       </c>
       <c r="X81" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Y81" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Z81" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA81">
         <v>60</v>
@@ -7760,7 +7786,7 @@
         <v>2029</v>
       </c>
       <c r="AE81" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7774,13 +7800,13 @@
         <v>2028</v>
       </c>
       <c r="X82" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Y82" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z82" t="s">
         <v>95</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>101</v>
       </c>
       <c r="AA82">
         <v>16.005179999999999</v>
@@ -7792,7 +7818,7 @@
         <v>2029</v>
       </c>
       <c r="AE82" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AF82">
         <v>20</v>
@@ -7806,13 +7832,13 @@
         <v>2029</v>
       </c>
       <c r="X83" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Y83" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Z83" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA83">
         <v>10</v>
@@ -7824,7 +7850,7 @@
         <v>2029</v>
       </c>
       <c r="AE83" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AF83">
         <v>16.306000000000001</v>
@@ -7838,13 +7864,13 @@
         <v>2029</v>
       </c>
       <c r="X84" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Y84" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z84" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AA84">
         <v>20</v>
@@ -7856,7 +7882,7 @@
         <v>2030</v>
       </c>
       <c r="AE84" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7870,13 +7896,13 @@
         <v>2029</v>
       </c>
       <c r="X85" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Y85" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z85" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA85">
         <v>0.3276</v>
@@ -7888,7 +7914,7 @@
         <v>2030</v>
       </c>
       <c r="AE85" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AF85">
         <v>61.523090000000003</v>
@@ -7902,13 +7928,13 @@
         <v>2029</v>
       </c>
       <c r="X86" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y86" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z86" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA86">
         <v>0.21840000000000001</v>
@@ -7920,7 +7946,7 @@
         <v>2030</v>
       </c>
       <c r="AE86" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AF86">
         <v>10</v>
@@ -7934,13 +7960,13 @@
         <v>2029</v>
       </c>
       <c r="X87" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Y87" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z87" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA87">
         <v>15.978400000000001</v>
@@ -7952,7 +7978,7 @@
         <v>2030</v>
       </c>
       <c r="AE87" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AF87">
         <v>61.523090000000003</v>
@@ -7966,13 +7992,13 @@
         <v>2029</v>
       </c>
       <c r="X88" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Y88" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AA88">
         <v>24.131039999999999</v>
@@ -7984,7 +8010,7 @@
         <v>2030</v>
       </c>
       <c r="AE88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AF88">
         <v>24.91385</v>
@@ -7998,13 +8024,13 @@
         <v>2029</v>
       </c>
       <c r="X89" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Y89" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z89" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AA89">
         <v>10</v>
@@ -8016,7 +8042,7 @@
         <v>2030</v>
       </c>
       <c r="AE89" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AF89">
         <v>16.60924</v>
@@ -8030,13 +8056,13 @@
         <v>2029</v>
       </c>
       <c r="X90" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Y90" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z90" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA90">
         <v>50.218400000000003</v>
@@ -8048,7 +8074,7 @@
         <v>2030</v>
       </c>
       <c r="AE90" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8062,13 +8088,13 @@
         <v>2029</v>
       </c>
       <c r="X91" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Y91" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Z91" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA91">
         <v>60</v>
@@ -8080,7 +8106,7 @@
         <v>2030</v>
       </c>
       <c r="AE91" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AF91">
         <v>20</v>
@@ -8094,13 +8120,13 @@
         <v>2029</v>
       </c>
       <c r="X92" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Y92" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z92" t="s">
         <v>95</v>
-      </c>
-      <c r="Z92" t="s">
-        <v>101</v>
       </c>
       <c r="AA92">
         <v>16.08736</v>
@@ -8112,7 +8138,7 @@
         <v>2030</v>
       </c>
       <c r="AE92" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AF92">
         <v>18.284140000000001</v>
@@ -8126,13 +8152,13 @@
         <v>2030</v>
       </c>
       <c r="X93" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Y93" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z93" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AA93">
         <v>20</v>
@@ -8146,13 +8172,13 @@
         <v>2030</v>
       </c>
       <c r="X94" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Y94" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Z94" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA94">
         <v>60</v>
@@ -8166,13 +8192,13 @@
         <v>2030</v>
       </c>
       <c r="X95" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Y95" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z95" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA95">
         <v>51.523090000000003</v>
@@ -8186,13 +8212,13 @@
         <v>2030</v>
       </c>
       <c r="X96" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Y96" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z96" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AA96">
         <v>10</v>
@@ -8206,13 +8232,13 @@
         <v>2030</v>
       </c>
       <c r="X97" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Y97" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Z97" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AA97">
         <v>24.91385</v>
@@ -8226,13 +8252,13 @@
         <v>2030</v>
       </c>
       <c r="X98" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Y98" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z98" t="s">
         <v>95</v>
-      </c>
-      <c r="Z98" t="s">
-        <v>101</v>
       </c>
       <c r="AA98">
         <v>16.60924</v>
@@ -8246,13 +8272,13 @@
         <v>2030</v>
       </c>
       <c r="X99" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y99" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z99" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA99">
         <v>1.5230900000000001</v>
@@ -8266,13 +8292,13 @@
         <v>2030</v>
       </c>
       <c r="X100" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Y100" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Z100" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA100">
         <v>2.28464</v>
@@ -8286,13 +8312,13 @@
         <v>2030</v>
       </c>
       <c r="X101" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Y101" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z101" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA101">
         <v>15.999510000000001</v>
@@ -8306,13 +8332,13 @@
         <v>2030</v>
       </c>
       <c r="X102" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Y102" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Z102" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AA102">
         <v>10</v>
@@ -8348,13 +8374,13 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C2">
         <v>0.48</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -8379,15 +8405,15 @@
   <sheetData>
     <row r="1" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C1" s="32" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -8395,7 +8421,7 @@
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -8403,17 +8429,17 @@
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -8685,6 +8711,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
@@ -8694,15 +8729,6 @@
     <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8725,6 +8751,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8739,12 +8773,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClOrfani\PycharmProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6666BAD6-E259-4FEE-A971-DD6056DBEE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2658169B-D7C9-4FC4-8430-F24756A243BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Flows!$B$3:$M$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Flows!$A$3:$U$14</definedName>
     <definedName name="Boolean">Sheet1!$D$2:$D$3</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="219">
   <si>
     <t>Years</t>
   </si>
@@ -777,6 +777,39 @@
   </si>
   <si>
     <t xml:space="preserve">If the system is not balanced (Inputs not equal to outputs) then aiphoria creates virtual flows to show the imbalances. Virtual flows can toggled off from Settings. </t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chair </t>
+  </si>
+  <si>
+    <t>Recycle</t>
+  </si>
+  <si>
+    <t>fill_method</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>Interpolate</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeros </t>
+  </si>
+  <si>
+    <t>Simple</t>
   </si>
 </sst>
 </file>
@@ -940,7 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1023,6 +1056,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1103,7 +1141,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>575283</xdr:colOff>
+      <xdr:colOff>581633</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>45515</xdr:rowOff>
     </xdr:to>
@@ -1460,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240816D1-B4FF-41BE-B292-8CF7D349FFB2}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -1480,10 +1518,10 @@
       <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="44"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:5" ht="135.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -1492,10 +1530,10 @@
       <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="43"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1505,10 +1543,10 @@
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
@@ -1517,10 +1555,10 @@
       <c r="B4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="49"/>
     </row>
     <row r="5" spans="1:5" s="17" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
@@ -1529,10 +1567,10 @@
       <c r="B5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="49"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
@@ -1541,10 +1579,10 @@
       <c r="B6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="45"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
@@ -1553,10 +1591,10 @@
       <c r="B7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
@@ -1565,10 +1603,10 @@
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="48"/>
     </row>
     <row r="9" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
@@ -1577,10 +1615,10 @@
       <c r="B9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
@@ -1589,10 +1627,10 @@
       <c r="B10" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="45"/>
     </row>
     <row r="11" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
@@ -1601,10 +1639,10 @@
       <c r="B11" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="42"/>
+      <c r="D11" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1627,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FFA668-DA1A-459B-BD42-D0D7F7709F0D}">
-  <dimension ref="B2:E20"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1866,6 +1904,17 @@
       </c>
       <c r="E20" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1891,6 +1940,18 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A95900C-A9EB-48AB-A762-0F120DA62856}">
+          <x14:formula1>
+            <xm:f>Sheet1!$E$2:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1898,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0D592-75C1-4AD1-84F0-2AAE25CA0097}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2102,7 +2163,7 @@
         <v>57</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D12" si="0">_xlfn.CONCAT(B5,":",C5)</f>
+        <f t="shared" ref="D5:D15" si="0">_xlfn.CONCAT(B5,":",C5)</f>
         <v>Sawmilling:FI</v>
       </c>
       <c r="E5" t="s">
@@ -2221,7 +2282,7 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2257,7 +2318,7 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2380,10 +2441,91 @@
         <v>80</v>
       </c>
     </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>Chair:FI</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Table:FI</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>Recycle:FI</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>211</v>
+      </c>
+    </row>
     <row r="18" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations xWindow="558" yWindow="395" count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distribution parameter" prompt="tuple = number or list of parameters separated by comma. Example: for stddev only number! e.g., 1. For shape and scale list separated by comma e.g., shape=1, scale=1.5" sqref="I4:I1048576" xr:uid="{564AD8C3-F96D-40DD-BFD1-1C6E073701B7}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sankey diagram positioning" prompt="Sankey diagram X and Y node positioning. Check / adjust positioning after you run case and see coordinates. " sqref="P4:Q1048576 Q2" xr:uid="{167D7519-74A2-4731-8D99-C2A980321CC9}"/>
   </dataValidations>
@@ -2391,12 +2533,18 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="558" yWindow="395" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Distribution type" prompt="Distribution type for stock outflows (=decay). _x000a_-Fixed only uses lifetimes so no parameter is used._x000a_-Normal, LogNormal, FoldedNormal use standard deviation. _x000a_-Weibull uses shape and scale. " xr:uid="{0258C8E4-0AAB-48FF-93D5-AADF99BF39C4}">
           <x14:formula1>
             <xm:f>Sheet1!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H1048576</xm:sqref>
+          <xm:sqref>H16:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Distribution type" prompt="Distribution type for stock outflows (=decay). _x000a_-Fixed only uses lifetimes so no parameter is used._x000a_-Normal, LogNormal, FoldedNormal use standard deviation. _x000a_-Weibull uses shape and scale. " xr:uid="{61770E9E-9EFD-4B63-8C83-80C1E833E691}">
+          <x14:formula1>
+            <xm:f>Sheet1!$C$2:$C$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4:H15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2409,7 +2557,7 @@
   <dimension ref="A1:U91"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2798,7 +2946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -2850,107 +2998,109 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="28" t="str">
         <f>+_xlfn.XLOOKUP(H9,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9" s="28" t="str">
         <f>+_xlfn.XLOOKUP(I9,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="42" t="str">
         <f t="shared" si="0"/>
         <v>Construction:FI</v>
       </c>
-      <c r="I9" s="4" t="str">
+      <c r="I9" s="42" t="str">
         <f t="shared" si="1"/>
         <v>Sawmilling:FI</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="28">
         <v>40</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="28">
         <v>2021</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="P9">
+      <c r="O9" s="43"/>
+      <c r="P9" s="28">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:21" s="28" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="28" t="str">
         <f>+_xlfn.XLOOKUP(H10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" s="28" t="str">
         <f>+_xlfn.XLOOKUP(I10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>EoL</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="4" t="str">
+      <c r="H10" s="42" t="str">
         <f t="shared" si="0"/>
         <v>Construction:FI</v>
       </c>
-      <c r="I10" s="4" t="str">
+      <c r="I10" s="42" t="str">
         <f t="shared" si="1"/>
         <v>Incineration:FI</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="28">
         <v>60</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="28">
         <v>2021</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="P10">
+      <c r="O10" s="43"/>
+      <c r="P10" s="28">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="28" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3074,8 +3224,9 @@
       <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="F13" t="s">
-        <v>25</v>
+      <c r="F13" t="str">
+        <f>+_xlfn.XLOOKUP(I13,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
+        <v>Second</v>
       </c>
       <c r="G13" t="s">
         <v>57</v>
@@ -3108,11 +3259,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="N14"/>
-      <c r="Q14" s="24"/>
+    <row r="14" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="O14" s="43"/>
+      <c r="Q14" s="44"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="H15" s="4"/>
@@ -3557,6 +3708,7 @@
       <c r="O91"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:U14" xr:uid="{B692AEE8-68EE-4B81-A49D-50BF066DFFE7}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q4" r:id="rId1" xr:uid="{44BDC3E8-14C2-47A6-9A94-576E28D9D557}"/>
@@ -8390,10 +8542,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12935D7-39CC-4336-870D-98DAC14A69ED}">
-  <dimension ref="C1:D6"/>
+  <dimension ref="C1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8403,51 +8555,93 @@
     <col min="11" max="11" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C1" s="32" t="s">
         <v>194</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>140</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>68</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>142</v>
       </c>
     </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
+    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100806C55B750152A459818B636E97A41C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="74fd9cb75cef04cf26a1ff9ddef01b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xmlns:ns3="145cc194-9bea-4db6-b116-a042a4529fcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afbcbfdd38894bc2ff0644b00c8ec680" ns2:_="" ns3:_="">
     <xsd:import namespace="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
@@ -8710,28 +8904,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
-    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D60021C7-CA75-4673-96EA-55284BF81134}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8748,29 +8946,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClOrfani\PycharmProjects\aiphoria\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PythonProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6666BAD6-E259-4FEE-A971-DD6056DBEE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4F17E7-D1F0-401E-B321-DF46951E7F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="205">
   <si>
     <t>Years</t>
   </si>
@@ -286,33 +286,6 @@
   </si>
   <si>
     <t xml:space="preserve">Random input values </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 Roundwood </t>
-  </si>
-  <si>
-    <t>1 Sawmilling</t>
-  </si>
-  <si>
-    <t>2 By products</t>
-  </si>
-  <si>
-    <t>3 Sawnwood</t>
-  </si>
-  <si>
-    <t>4 Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 Furnitute </t>
-  </si>
-  <si>
-    <t>8 Incineration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Import </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 Export </t>
   </si>
   <si>
     <t>Carbon OC</t>
@@ -777,6 +750,24 @@
   </si>
   <si>
     <t xml:space="preserve">If the system is not balanced (Inputs not equal to outputs) then aiphoria creates virtual flows to show the imbalances. Virtual flows can toggled off from Settings. </t>
+  </si>
+  <si>
+    <t>Zeros</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Interpolate</t>
+  </si>
+  <si>
+    <t>fill_method</t>
+  </si>
+  <si>
+    <t>Fill method</t>
   </si>
 </sst>
 </file>
@@ -1096,16 +1087,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>717176</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>132512</xdr:rowOff>
+      <xdr:rowOff>110100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>575283</xdr:colOff>
+      <xdr:colOff>1001106</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>45515</xdr:rowOff>
+      <xdr:rowOff>23103</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1134,8 +1125,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4448735" y="3079659"/>
-          <a:ext cx="8912460" cy="2961003"/>
+          <a:off x="4706470" y="3191718"/>
+          <a:ext cx="8497842" cy="3151503"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1460,20 +1451,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240816D1-B4FF-41BE-B292-8CF7D349FFB2}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.81640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="18" customWidth="1"/>
     <col min="3" max="3" width="29" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.54296875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="16"/>
+    <col min="4" max="4" width="69.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -1485,7 +1476,7 @@
       </c>
       <c r="D1" s="44"/>
     </row>
-    <row r="2" spans="1:5" ht="135.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1493,12 +1484,12 @@
         <v>6</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
@@ -1506,11 +1497,11 @@
         <v>7</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D3" s="43"/>
     </row>
-    <row r="4" spans="1:5" s="17" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="17" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>35</v>
       </c>
@@ -1522,7 +1513,7 @@
       </c>
       <c r="D4" s="46"/>
     </row>
-    <row r="5" spans="1:5" s="17" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="17" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>44</v>
       </c>
@@ -1530,11 +1521,11 @@
         <v>45</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D5" s="46"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -1546,7 +1537,7 @@
       </c>
       <c r="D6" s="45"/>
     </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
@@ -1554,11 +1545,11 @@
         <v>39</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D7" s="42"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>40</v>
       </c>
@@ -1570,7 +1561,7 @@
       </c>
       <c r="D8" s="45"/>
     </row>
-    <row r="9" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>49</v>
       </c>
@@ -1582,27 +1573,27 @@
       </c>
       <c r="D9" s="42"/>
     </row>
-    <row r="10" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D10" s="42"/>
     </row>
-    <row r="11" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D11" s="42"/>
     </row>
@@ -1627,245 +1618,253 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FFA668-DA1A-459B-BD42-D0D7F7709F0D}">
-  <dimension ref="B2:E20"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.81640625" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="103.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="103.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C8" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="E8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C9" s="36">
         <v>2</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C12" s="36">
         <v>2</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C13" s="36">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="36">
+        <v>2025</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="36">
-        <v>2030</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="E14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C15" s="38" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>202</v>
-      </c>
-      <c r="E16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>189</v>
       </c>
       <c r="C17" s="25">
         <v>0.1</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C18" s="34">
         <v>3.67</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C19" s="38" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C20" s="38" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E20" t="s">
-        <v>201</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1891,6 +1890,18 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Fill method with missing values" xr:uid="{F7269B54-DD8F-48EF-97F8-51BCA0AF8C74}">
+          <x14:formula1>
+            <xm:f>Sheet1!$E$2:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1899,30 +1910,30 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" customWidth="1"/>
-    <col min="9" max="9" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.453125" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" customWidth="1"/>
-    <col min="16" max="16" width="11.81640625" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" customWidth="1"/>
-    <col min="18" max="18" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -1944,7 +1955,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>11</v>
@@ -1974,7 +1985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2000,31 +2011,31 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="J3" s="30" t="s">
         <v>16</v>
@@ -2054,7 +2065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2075,23 +2086,14 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="P4">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="Q4">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="R4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2112,23 +2114,14 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="P5">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="Q5">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="R5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2149,22 +2142,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="P6">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="Q6">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="R6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2185,22 +2169,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="P7">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="Q7">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="R7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2226,17 +2201,8 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="P8">
-        <v>0.752</v>
-      </c>
-      <c r="Q8">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="R8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2262,17 +2228,8 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="P9">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="Q9">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="R9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2293,22 +2250,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="P10">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="Q10">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="R10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2329,22 +2277,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="P11">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="Q11">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="R11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2365,22 +2304,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="P12">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="Q12">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="R12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
@@ -2408,32 +2338,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B692AEE8-68EE-4B81-A49D-50BF066DFFE7}">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.54296875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2498,7 +2428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2527,40 +2457,40 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="20" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>26</v>
@@ -2572,10 +2502,10 @@
         <v>54</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="R3" s="22" t="s">
         <v>55</v>
@@ -2590,9 +2520,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -2626,10 +2556,10 @@
         <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L4">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="N4" t="s">
         <v>73</v>
@@ -2642,9 +2572,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -2681,7 +2611,7 @@
         <v>13</v>
       </c>
       <c r="L5">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="N5" t="s">
         <v>73</v>
@@ -2694,9 +2624,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -2730,10 +2660,10 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L6">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="N6" t="s">
         <v>73</v>
@@ -2746,9 +2676,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -2785,7 +2715,7 @@
         <v>13</v>
       </c>
       <c r="L7">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="N7" t="s">
         <v>73</v>
@@ -2798,9 +2728,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -2837,7 +2767,7 @@
         <v>13</v>
       </c>
       <c r="L8">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="N8" t="s">
         <v>73</v>
@@ -2850,9 +2780,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
         <v>61</v>
@@ -2889,7 +2819,7 @@
         <v>13</v>
       </c>
       <c r="L9">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="N9" t="s">
         <v>73</v>
@@ -2902,9 +2832,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
@@ -2941,7 +2871,7 @@
         <v>13</v>
       </c>
       <c r="L10">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="N10" t="s">
         <v>73</v>
@@ -2954,9 +2884,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -2992,7 +2922,7 @@
         <v>13</v>
       </c>
       <c r="L11">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="N11" t="s">
         <v>73</v>
@@ -3005,9 +2935,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -3041,10 +2971,10 @@
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L12">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="N12" t="s">
         <v>73</v>
@@ -3057,9 +2987,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -3092,10 +3022,10 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L13">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="N13" t="s">
         <v>73</v>
@@ -3108,420 +3038,422 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="N14"/>
       <c r="Q14" s="24"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="N15"/>
       <c r="Q15" s="24"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="N16"/>
       <c r="Q16" s="24"/>
     </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="N17"/>
       <c r="Q17" s="24"/>
     </row>
-    <row r="18" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="N18"/>
       <c r="Q18" s="24"/>
     </row>
-    <row r="19" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="N19"/>
     </row>
-    <row r="20" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="N21"/>
       <c r="Q21" s="24"/>
     </row>
-    <row r="22" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="N22"/>
       <c r="Q22" s="24"/>
     </row>
-    <row r="23" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="N23"/>
       <c r="Q23" s="24"/>
     </row>
-    <row r="24" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="8:17" x14ac:dyDescent="0.35">
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="8:17" x14ac:dyDescent="0.35">
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="E35" s="24" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="N39"/>
       <c r="O39"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="N40"/>
       <c r="O40"/>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="N41"/>
       <c r="O41"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="N42"/>
       <c r="O42"/>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="N43"/>
       <c r="O43"/>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="N44"/>
       <c r="O44"/>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="9"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="N45"/>
       <c r="O45"/>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="N46"/>
       <c r="O46"/>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="N47"/>
       <c r="O47"/>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="N48"/>
       <c r="O48"/>
     </row>
-    <row r="49" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="N49"/>
       <c r="O49"/>
     </row>
-    <row r="50" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="N50"/>
       <c r="O50"/>
     </row>
-    <row r="51" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="N51"/>
       <c r="O51"/>
     </row>
-    <row r="52" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="N52"/>
       <c r="O52"/>
     </row>
-    <row r="53" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="N53"/>
       <c r="O53"/>
     </row>
-    <row r="54" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="N54"/>
       <c r="O54"/>
     </row>
-    <row r="55" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="N55"/>
       <c r="O55"/>
     </row>
-    <row r="56" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="N56"/>
       <c r="O56"/>
     </row>
-    <row r="57" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="N57"/>
       <c r="O57"/>
     </row>
-    <row r="58" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="N58"/>
       <c r="O58"/>
     </row>
-    <row r="59" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="N59"/>
       <c r="O59"/>
     </row>
-    <row r="60" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="N60"/>
       <c r="O60"/>
     </row>
-    <row r="61" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="N61"/>
       <c r="O61"/>
     </row>
-    <row r="62" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="N62"/>
       <c r="O62"/>
     </row>
-    <row r="63" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="N63"/>
       <c r="O63"/>
     </row>
-    <row r="64" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="N64"/>
       <c r="O64"/>
     </row>
-    <row r="65" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="N65"/>
       <c r="O65"/>
     </row>
-    <row r="66" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="N66"/>
       <c r="O66"/>
     </row>
-    <row r="67" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="N67"/>
       <c r="O67"/>
     </row>
-    <row r="68" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="N68"/>
       <c r="O68"/>
     </row>
-    <row r="69" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="N69"/>
       <c r="O69"/>
     </row>
-    <row r="70" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="N70"/>
       <c r="O70"/>
     </row>
-    <row r="71" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="N71"/>
       <c r="O71"/>
     </row>
-    <row r="72" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="N72"/>
       <c r="O72"/>
     </row>
-    <row r="73" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="N75"/>
       <c r="O75"/>
     </row>
-    <row r="76" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="N76"/>
       <c r="O76"/>
     </row>
-    <row r="77" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="N77"/>
       <c r="O77"/>
     </row>
-    <row r="78" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="N78"/>
       <c r="O78"/>
     </row>
-    <row r="79" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="N79"/>
       <c r="O79"/>
     </row>
-    <row r="80" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="N80"/>
       <c r="O80"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="N81"/>
       <c r="O81"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="N82"/>
       <c r="O82"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="N83"/>
       <c r="O83"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="N84"/>
       <c r="O84"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="N85"/>
       <c r="O85"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N86"/>
       <c r="O86"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -3532,25 +3464,25 @@
       <c r="N87"/>
       <c r="O87"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="N88"/>
       <c r="O88"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="N89"/>
       <c r="O89"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="N90"/>
       <c r="O90"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="N91"/>
@@ -3579,38 +3511,38 @@
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.81640625" customWidth="1"/>
-    <col min="2" max="12" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" customWidth="1"/>
-    <col min="16" max="16" width="15.26953125" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.36328125" customWidth="1"/>
-    <col min="26" max="26" width="19.36328125" customWidth="1"/>
-    <col min="27" max="27" width="18.54296875" customWidth="1"/>
-    <col min="28" max="28" width="21.54296875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" customWidth="1"/>
+    <col min="27" max="27" width="18.5703125" customWidth="1"/>
+    <col min="28" max="28" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="X1" s="32" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="AD1" s="32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2">
@@ -3644,46 +3576,46 @@
         <v>2030</v>
       </c>
       <c r="N2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="Q2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="S2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="X2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="Y2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="Z2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="AA2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="AB2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AD2" t="s">
         <v>52</v>
       </c>
       <c r="AE2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AF2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="AG2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2021</v>
       </c>
@@ -3736,13 +3668,13 @@
         <v>2021</v>
       </c>
       <c r="X3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA3">
         <v>60</v>
@@ -3754,7 +3686,7 @@
         <v>2021</v>
       </c>
       <c r="AE3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -3763,7 +3695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2022</v>
       </c>
@@ -3816,13 +3748,13 @@
         <v>2021</v>
       </c>
       <c r="X4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA4">
         <v>50</v>
@@ -3834,7 +3766,7 @@
         <v>2021</v>
       </c>
       <c r="AE4" s="32" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AF4">
         <v>60</v>
@@ -3843,7 +3775,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2023</v>
       </c>
@@ -3896,13 +3828,13 @@
         <v>2021</v>
       </c>
       <c r="X5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA5">
         <v>10</v>
@@ -3914,7 +3846,7 @@
         <v>2021</v>
       </c>
       <c r="AE5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AF5">
         <v>10</v>
@@ -3923,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2024</v>
       </c>
@@ -3976,13 +3908,13 @@
         <v>2021</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AA6">
         <v>24</v>
@@ -3994,7 +3926,7 @@
         <v>2021</v>
       </c>
       <c r="AE6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AF6">
         <v>60</v>
@@ -4003,7 +3935,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2025</v>
       </c>
@@ -4056,13 +3988,13 @@
         <v>2021</v>
       </c>
       <c r="X7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AA7">
         <v>16</v>
@@ -4074,7 +4006,7 @@
         <v>2021</v>
       </c>
       <c r="AE7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AF7">
         <v>24</v>
@@ -4083,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2026</v>
       </c>
@@ -4136,13 +4068,13 @@
         <v>2021</v>
       </c>
       <c r="X8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -4154,7 +4086,7 @@
         <v>2021</v>
       </c>
       <c r="AE8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AF8">
         <v>16</v>
@@ -4163,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2027</v>
       </c>
@@ -4216,13 +4148,13 @@
         <v>2021</v>
       </c>
       <c r="X9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -4234,7 +4166,7 @@
         <v>2021</v>
       </c>
       <c r="AE9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -4243,7 +4175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2028</v>
       </c>
@@ -4296,13 +4228,13 @@
         <v>2021</v>
       </c>
       <c r="X10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y10" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="Z10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -4314,7 +4246,7 @@
         <v>2021</v>
       </c>
       <c r="AE10" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AF10">
         <v>20</v>
@@ -4323,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2029</v>
       </c>
@@ -4376,13 +4308,13 @@
         <v>2021</v>
       </c>
       <c r="X11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y11" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AA11">
         <v>20</v>
@@ -4394,7 +4326,7 @@
         <v>2021</v>
       </c>
       <c r="AE11" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -4403,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2030</v>
       </c>
@@ -4456,13 +4388,13 @@
         <v>2021</v>
       </c>
       <c r="X12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Y12" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="Z12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA12">
         <v>10</v>
@@ -4474,7 +4406,7 @@
         <v>2022</v>
       </c>
       <c r="AE12" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -4483,21 +4415,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C13" s="32" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="W13">
         <v>2022</v>
       </c>
       <c r="X13" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Y13" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="Z13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA13">
         <v>10</v>
@@ -4509,7 +4441,7 @@
         <v>2022</v>
       </c>
       <c r="AE13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AF13">
         <v>60</v>
@@ -4518,7 +4450,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
       <c r="C14">
         <v>2021</v>
@@ -4554,13 +4486,13 @@
         <v>2022</v>
       </c>
       <c r="X14" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z14" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AA14">
         <v>20</v>
@@ -4572,7 +4504,7 @@
         <v>2022</v>
       </c>
       <c r="AE14" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AF14">
         <v>10</v>
@@ -4581,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15">
         <v>2021</v>
@@ -4620,13 +4552,13 @@
         <v>2022</v>
       </c>
       <c r="X15" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y15" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="Z15" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA15">
         <v>5.1000000000000004E-4</v>
@@ -4638,7 +4570,7 @@
         <v>2022</v>
       </c>
       <c r="AE15" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AF15">
         <v>60</v>
@@ -4647,7 +4579,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2022</v>
       </c>
@@ -4685,13 +4617,13 @@
         <v>2022</v>
       </c>
       <c r="X16" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y16" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z16" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -4703,7 +4635,7 @@
         <v>2022</v>
       </c>
       <c r="AE16" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AF16">
         <v>24</v>
@@ -4712,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2023</v>
       </c>
@@ -4750,13 +4682,13 @@
         <v>2022</v>
       </c>
       <c r="X17" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y17" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z17" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -4768,7 +4700,7 @@
         <v>2022</v>
       </c>
       <c r="AE17" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AF17">
         <v>16</v>
@@ -4777,7 +4709,7 @@
         <v>5.1000000000000004E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2024</v>
       </c>
@@ -4815,13 +4747,13 @@
         <v>2022</v>
       </c>
       <c r="X18" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA18">
         <v>10</v>
@@ -4833,7 +4765,7 @@
         <v>2022</v>
       </c>
       <c r="AE18" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -4842,7 +4774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2025</v>
       </c>
@@ -4880,13 +4812,13 @@
         <v>2022</v>
       </c>
       <c r="X19" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y19" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AA19">
         <v>24</v>
@@ -4898,7 +4830,7 @@
         <v>2022</v>
       </c>
       <c r="AE19" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AF19">
         <v>20</v>
@@ -4907,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2026</v>
       </c>
@@ -4945,13 +4877,13 @@
         <v>2022</v>
       </c>
       <c r="X20" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA20">
         <v>50</v>
@@ -4963,7 +4895,7 @@
         <v>2022</v>
       </c>
       <c r="AE20" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF20">
         <v>5.1000000000000004E-4</v>
@@ -4972,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2027</v>
       </c>
@@ -5010,13 +4942,13 @@
         <v>2022</v>
       </c>
       <c r="X21" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA21">
         <v>60</v>
@@ -5028,7 +4960,7 @@
         <v>2023</v>
       </c>
       <c r="AE21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -5037,7 +4969,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2028</v>
       </c>
@@ -5076,13 +5008,13 @@
         <v>2022</v>
       </c>
       <c r="X22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y22" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AA22">
         <v>16</v>
@@ -5094,7 +5026,7 @@
         <v>2023</v>
       </c>
       <c r="AE22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AF22">
         <v>60</v>
@@ -5103,7 +5035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2029</v>
       </c>
@@ -5141,13 +5073,13 @@
         <v>2023</v>
       </c>
       <c r="X23" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y23" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z23" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -5159,7 +5091,7 @@
         <v>2023</v>
       </c>
       <c r="AE23" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AF23">
         <v>10</v>
@@ -5168,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2030</v>
       </c>
@@ -5206,13 +5138,13 @@
         <v>2023</v>
       </c>
       <c r="X24" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Y24" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="Z24" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA24">
         <v>10</v>
@@ -5224,7 +5156,7 @@
         <v>2023</v>
       </c>
       <c r="AE24" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AF24">
         <v>60</v>
@@ -5233,21 +5165,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C25" s="32" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="W25">
         <v>2023</v>
       </c>
       <c r="X25" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y25" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AA25">
         <v>20</v>
@@ -5259,7 +5191,7 @@
         <v>2023</v>
       </c>
       <c r="AE25" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AF25">
         <v>24</v>
@@ -5268,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="C26">
         <v>2021</v>
@@ -5304,13 +5236,13 @@
         <v>2023</v>
       </c>
       <c r="X26" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="Z26" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA26">
         <v>2.1600000000000001E-2</v>
@@ -5322,7 +5254,7 @@
         <v>2023</v>
       </c>
       <c r="AE26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AF26">
         <v>16</v>
@@ -5331,7 +5263,7 @@
         <v>2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2021</v>
       </c>
@@ -5370,13 +5302,13 @@
         <v>2023</v>
       </c>
       <c r="X27" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y27" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z27" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -5388,7 +5320,7 @@
         <v>2023</v>
       </c>
       <c r="AE27" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -5397,7 +5329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2022</v>
       </c>
@@ -5436,13 +5368,13 @@
         <v>2023</v>
       </c>
       <c r="X28" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA28">
         <v>50</v>
@@ -5454,7 +5386,7 @@
         <v>2023</v>
       </c>
       <c r="AE28" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AF28">
         <v>20</v>
@@ -5463,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>2023</v>
       </c>
@@ -5502,13 +5434,13 @@
         <v>2023</v>
       </c>
       <c r="X29" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y29" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AA29">
         <v>24</v>
@@ -5520,7 +5452,7 @@
         <v>2023</v>
       </c>
       <c r="AE29" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF29">
         <v>2.1600000000000001E-2</v>
@@ -5529,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2024</v>
       </c>
@@ -5568,13 +5500,13 @@
         <v>2023</v>
       </c>
       <c r="X30" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA30">
         <v>10</v>
@@ -5586,7 +5518,7 @@
         <v>2024</v>
       </c>
       <c r="AE30" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -5595,7 +5527,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2025</v>
       </c>
@@ -5634,13 +5566,13 @@
         <v>2023</v>
       </c>
       <c r="X31" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA31">
         <v>60</v>
@@ -5652,7 +5584,7 @@
         <v>2024</v>
       </c>
       <c r="AE31" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AF31">
         <v>60</v>
@@ -5661,7 +5593,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2026</v>
       </c>
@@ -5700,13 +5632,13 @@
         <v>2023</v>
       </c>
       <c r="X32" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y32" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AA32">
         <v>16</v>
@@ -5718,7 +5650,7 @@
         <v>2024</v>
       </c>
       <c r="AE32" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AF32">
         <v>10</v>
@@ -5727,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2027</v>
       </c>
@@ -5766,13 +5698,13 @@
         <v>2024</v>
       </c>
       <c r="X33" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Y33" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="Z33" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA33">
         <v>10</v>
@@ -5784,7 +5716,7 @@
         <v>2024</v>
       </c>
       <c r="AE33" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AF33">
         <v>60</v>
@@ -5793,7 +5725,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>2028</v>
       </c>
@@ -5832,13 +5764,13 @@
         <v>2024</v>
       </c>
       <c r="X34" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y34" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AA34">
         <v>20</v>
@@ -5850,7 +5782,7 @@
         <v>2024</v>
       </c>
       <c r="AE34" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AF34">
         <v>24</v>
@@ -5859,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>2029</v>
       </c>
@@ -5898,13 +5830,13 @@
         <v>2024</v>
       </c>
       <c r="X35" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y35" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="Z35" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA35">
         <v>0.36399999999999999</v>
@@ -5916,7 +5848,7 @@
         <v>2024</v>
       </c>
       <c r="AE35" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AF35">
         <v>16</v>
@@ -5925,7 +5857,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>2030</v>
       </c>
@@ -5964,13 +5896,13 @@
         <v>2024</v>
       </c>
       <c r="X36" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y36" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z36" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -5982,7 +5914,7 @@
         <v>2024</v>
       </c>
       <c r="AE36" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -5991,21 +5923,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C37" s="32" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="W37">
         <v>2024</v>
       </c>
       <c r="X37" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y37" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z37" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -6017,7 +5949,7 @@
         <v>2024</v>
       </c>
       <c r="AE37" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AF37">
         <v>20</v>
@@ -6026,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B38" s="27"/>
       <c r="C38">
         <v>2021</v>
@@ -6062,13 +5994,13 @@
         <v>2024</v>
       </c>
       <c r="X38" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y38" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AA38">
         <v>16</v>
@@ -6080,7 +6012,7 @@
         <v>2024</v>
       </c>
       <c r="AE38" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF38">
         <v>0.36399999999999999</v>
@@ -6089,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2021</v>
       </c>
@@ -6127,13 +6059,13 @@
         <v>2024</v>
       </c>
       <c r="X39" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA39">
         <v>10</v>
@@ -6145,7 +6077,7 @@
         <v>2025</v>
       </c>
       <c r="AE39" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -6154,7 +6086,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2022</v>
       </c>
@@ -6192,13 +6124,13 @@
         <v>2024</v>
       </c>
       <c r="X40" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA40">
         <v>50</v>
@@ -6210,7 +6142,7 @@
         <v>2025</v>
       </c>
       <c r="AE40" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AF40">
         <v>60</v>
@@ -6219,7 +6151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2023</v>
       </c>
@@ -6257,13 +6189,13 @@
         <v>2024</v>
       </c>
       <c r="X41" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA41">
         <v>60</v>
@@ -6275,7 +6207,7 @@
         <v>2025</v>
       </c>
       <c r="AE41" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AF41">
         <v>10</v>
@@ -6284,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2024</v>
       </c>
@@ -6322,13 +6254,13 @@
         <v>2024</v>
       </c>
       <c r="X42" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y42" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AA42">
         <v>24</v>
@@ -6340,7 +6272,7 @@
         <v>2025</v>
       </c>
       <c r="AE42" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AF42">
         <v>60</v>
@@ -6349,7 +6281,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>2025</v>
       </c>
@@ -6387,13 +6319,13 @@
         <v>2025</v>
       </c>
       <c r="X43" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y43" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z43" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA43">
         <v>0</v>
@@ -6405,7 +6337,7 @@
         <v>2025</v>
       </c>
       <c r="AE43" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AF43">
         <v>24</v>
@@ -6414,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2026</v>
       </c>
@@ -6452,13 +6384,13 @@
         <v>2025</v>
       </c>
       <c r="X44" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y44" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AA44">
         <v>20</v>
@@ -6470,7 +6402,7 @@
         <v>2025</v>
       </c>
       <c r="AE44" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AF44">
         <v>16</v>
@@ -6479,7 +6411,7 @@
         <v>2.5384799999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2027</v>
       </c>
@@ -6517,13 +6449,13 @@
         <v>2025</v>
       </c>
       <c r="X45" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y45" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="Z45" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA45">
         <v>2.5384799999999998</v>
@@ -6535,7 +6467,7 @@
         <v>2025</v>
       </c>
       <c r="AE45" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -6544,7 +6476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2028</v>
       </c>
@@ -6582,13 +6514,13 @@
         <v>2025</v>
       </c>
       <c r="X46" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y46" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z46" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA46">
         <v>0</v>
@@ -6600,7 +6532,7 @@
         <v>2025</v>
       </c>
       <c r="AE46" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AF46">
         <v>20</v>
@@ -6609,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>2029</v>
       </c>
@@ -6647,13 +6579,13 @@
         <v>2025</v>
       </c>
       <c r="X47" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Y47" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="Z47" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA47">
         <v>10</v>
@@ -6665,7 +6597,7 @@
         <v>2025</v>
       </c>
       <c r="AE47" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF47">
         <v>2.5384799999999998</v>
@@ -6674,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>2030</v>
       </c>
@@ -6712,13 +6644,13 @@
         <v>2025</v>
       </c>
       <c r="X48" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y48" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AA48">
         <v>24</v>
@@ -6730,7 +6662,7 @@
         <v>2026</v>
       </c>
       <c r="AE48" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -6739,18 +6671,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W49">
         <v>2025</v>
       </c>
       <c r="X49" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA49">
         <v>10</v>
@@ -6762,7 +6694,7 @@
         <v>2026</v>
       </c>
       <c r="AE49" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AF49">
         <v>60</v>
@@ -6771,18 +6703,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W50">
         <v>2025</v>
       </c>
       <c r="X50" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA50">
         <v>50</v>
@@ -6794,7 +6726,7 @@
         <v>2026</v>
       </c>
       <c r="AE50" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AF50">
         <v>10</v>
@@ -6803,18 +6735,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W51">
         <v>2025</v>
       </c>
       <c r="X51" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA51">
         <v>60</v>
@@ -6826,7 +6758,7 @@
         <v>2026</v>
       </c>
       <c r="AE51" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AF51">
         <v>60</v>
@@ -6835,18 +6767,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W52">
         <v>2025</v>
       </c>
       <c r="X52" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y52" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AA52">
         <v>16</v>
@@ -6858,7 +6790,7 @@
         <v>2026</v>
       </c>
       <c r="AE52" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AF52">
         <v>24</v>
@@ -6867,18 +6799,18 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="53" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W53">
         <v>2026</v>
       </c>
       <c r="X53" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y53" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AA53">
         <v>20</v>
@@ -6890,7 +6822,7 @@
         <v>2026</v>
       </c>
       <c r="AE53" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AF53">
         <v>16</v>
@@ -6899,18 +6831,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W54">
         <v>2026</v>
       </c>
       <c r="X54" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y54" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="Z54" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA54">
         <v>8</v>
@@ -6922,7 +6854,7 @@
         <v>2026</v>
       </c>
       <c r="AE54" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -6931,18 +6863,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W55">
         <v>2026</v>
       </c>
       <c r="X55" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y55" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z55" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA55">
         <v>0</v>
@@ -6954,7 +6886,7 @@
         <v>2026</v>
       </c>
       <c r="AE55" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AF55">
         <v>20</v>
@@ -6963,18 +6895,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W56">
         <v>2026</v>
       </c>
       <c r="X56" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y56" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z56" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA56">
         <v>0</v>
@@ -6986,7 +6918,7 @@
         <v>2026</v>
       </c>
       <c r="AE56" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF56">
         <v>8</v>
@@ -6995,18 +6927,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W57">
         <v>2026</v>
       </c>
       <c r="X57" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Y57" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="Z57" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA57">
         <v>10</v>
@@ -7018,7 +6950,7 @@
         <v>2027</v>
       </c>
       <c r="AE57" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -7027,18 +6959,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="58" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W58">
         <v>2026</v>
       </c>
       <c r="X58" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y58" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AA58">
         <v>24</v>
@@ -7050,7 +6982,7 @@
         <v>2027</v>
       </c>
       <c r="AE58" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AF58">
         <v>60.000300000000003</v>
@@ -7059,18 +6991,18 @@
         <v>60.000300000000003</v>
       </c>
     </row>
-    <row r="59" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="59" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W59">
         <v>2026</v>
       </c>
       <c r="X59" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y59" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA59">
         <v>10</v>
@@ -7082,7 +7014,7 @@
         <v>2027</v>
       </c>
       <c r="AE59" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AF59">
         <v>10</v>
@@ -7091,18 +7023,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="60" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W60">
         <v>2026</v>
       </c>
       <c r="X60" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z60" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA60">
         <v>50</v>
@@ -7114,7 +7046,7 @@
         <v>2027</v>
       </c>
       <c r="AE60" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AF60">
         <v>60.000300000000003</v>
@@ -7123,18 +7055,18 @@
         <v>60.000300000000003</v>
       </c>
     </row>
-    <row r="61" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="61" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W61">
         <v>2026</v>
       </c>
       <c r="X61" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="Y61" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA61">
         <v>60</v>
@@ -7146,7 +7078,7 @@
         <v>2027</v>
       </c>
       <c r="AE61" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AF61">
         <v>24.00018</v>
@@ -7155,18 +7087,18 @@
         <v>7.6000000000000004E-4</v>
       </c>
     </row>
-    <row r="62" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="62" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W62">
         <v>2026</v>
       </c>
       <c r="X62" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y62" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z62" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AA62">
         <v>16</v>
@@ -7178,7 +7110,7 @@
         <v>2027</v>
       </c>
       <c r="AE62" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AF62">
         <v>16.000119999999999</v>
@@ -7187,18 +7119,18 @@
         <v>13.46152</v>
       </c>
     </row>
-    <row r="63" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="63" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W63">
         <v>2027</v>
       </c>
       <c r="X63" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Y63" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="Z63" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA63">
         <v>10</v>
@@ -7210,7 +7142,7 @@
         <v>2027</v>
       </c>
       <c r="AE63" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -7219,18 +7151,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="64" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W64">
         <v>2027</v>
       </c>
       <c r="X64" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y64" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z64" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AA64">
         <v>20</v>
@@ -7242,7 +7174,7 @@
         <v>2027</v>
       </c>
       <c r="AE64" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AF64">
         <v>20</v>
@@ -7251,18 +7183,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="65" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W65">
         <v>2027</v>
       </c>
       <c r="X65" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y65" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="Z65" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA65">
         <v>13.46152</v>
@@ -7274,7 +7206,7 @@
         <v>2027</v>
       </c>
       <c r="AE65" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF65">
         <v>13.461970000000001</v>
@@ -7283,18 +7215,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="66" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W66">
         <v>2027</v>
       </c>
       <c r="X66" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y66" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z66" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA66">
         <v>4.6000000000000001E-4</v>
@@ -7306,7 +7238,7 @@
         <v>2028</v>
       </c>
       <c r="AE66" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -7315,18 +7247,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="67" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W67">
         <v>2027</v>
       </c>
       <c r="X67" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y67" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z67" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA67">
         <v>2.9999999999999997E-4</v>
@@ -7338,7 +7270,7 @@
         <v>2028</v>
       </c>
       <c r="AE67" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AF67">
         <v>60.01296</v>
@@ -7347,18 +7279,18 @@
         <v>60.01296</v>
       </c>
     </row>
-    <row r="68" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="68" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W68">
         <v>2027</v>
       </c>
       <c r="X68" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y68" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z68" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AA68">
         <v>16.000119999999999</v>
@@ -7370,7 +7302,7 @@
         <v>2028</v>
       </c>
       <c r="AE68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AF68">
         <v>10</v>
@@ -7379,18 +7311,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="69" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W69">
         <v>2027</v>
       </c>
       <c r="X69" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y69" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z69" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA69">
         <v>10</v>
@@ -7402,7 +7334,7 @@
         <v>2028</v>
       </c>
       <c r="AE69" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AF69">
         <v>60.01296</v>
@@ -7411,18 +7343,18 @@
         <v>60.01296</v>
       </c>
     </row>
-    <row r="70" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="70" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W70">
         <v>2027</v>
       </c>
       <c r="X70" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y70" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z70" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA70">
         <v>50.000300000000003</v>
@@ -7434,7 +7366,7 @@
         <v>2028</v>
       </c>
       <c r="AE70" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AF70">
         <v>24.00778</v>
@@ -7443,18 +7375,18 @@
         <v>3.2399999999999998E-2</v>
       </c>
     </row>
-    <row r="71" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="71" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W71">
         <v>2027</v>
       </c>
       <c r="X71" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="Y71" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Z71" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA71">
         <v>60</v>
@@ -7466,7 +7398,7 @@
         <v>2028</v>
       </c>
       <c r="AE71" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AF71">
         <v>16.005179999999999</v>
@@ -7475,18 +7407,18 @@
         <v>15.635999999999999</v>
       </c>
     </row>
-    <row r="72" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="72" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W72">
         <v>2027</v>
       </c>
       <c r="X72" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y72" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z72" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AA72">
         <v>24.00018</v>
@@ -7498,7 +7430,7 @@
         <v>2028</v>
       </c>
       <c r="AE72" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -7507,18 +7439,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="73" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W73">
         <v>2028</v>
       </c>
       <c r="X73" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y73" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z73" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA73">
         <v>1.9439999999999999E-2</v>
@@ -7530,7 +7462,7 @@
         <v>2028</v>
       </c>
       <c r="AE73" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AF73">
         <v>20</v>
@@ -7539,18 +7471,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="74" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W74">
         <v>2028</v>
       </c>
       <c r="X74" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y74" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z74" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AA74">
         <v>20</v>
@@ -7562,7 +7494,7 @@
         <v>2028</v>
       </c>
       <c r="AE74" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF74">
         <v>15.65544</v>
@@ -7571,18 +7503,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="75" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W75">
         <v>2028</v>
       </c>
       <c r="X75" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y75" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="Z75" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA75">
         <v>15.635999999999999</v>
@@ -7594,7 +7526,7 @@
         <v>2029</v>
       </c>
       <c r="AE75" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7603,18 +7535,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="76" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W76">
         <v>2028</v>
       </c>
       <c r="X76" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Y76" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="Z76" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA76">
         <v>10</v>
@@ -7626,7 +7558,7 @@
         <v>2029</v>
       </c>
       <c r="AE76" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AF76">
         <v>60.218400000000003</v>
@@ -7635,18 +7567,18 @@
         <v>60.218400000000003</v>
       </c>
     </row>
-    <row r="77" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="77" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W77">
         <v>2028</v>
       </c>
       <c r="X77" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y77" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z77" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA77">
         <v>1.2959999999999999E-2</v>
@@ -7658,7 +7590,7 @@
         <v>2029</v>
       </c>
       <c r="AE77" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AF77">
         <v>10</v>
@@ -7667,18 +7599,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="78" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W78">
         <v>2028</v>
       </c>
       <c r="X78" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y78" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z78" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA78">
         <v>10</v>
@@ -7690,7 +7622,7 @@
         <v>2029</v>
       </c>
       <c r="AE78" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AF78">
         <v>60.218400000000003</v>
@@ -7699,18 +7631,18 @@
         <v>60.218400000000003</v>
       </c>
     </row>
-    <row r="79" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="79" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W79">
         <v>2028</v>
       </c>
       <c r="X79" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y79" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z79" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AA79">
         <v>24.00778</v>
@@ -7722,7 +7654,7 @@
         <v>2029</v>
       </c>
       <c r="AE79" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AF79">
         <v>24.131039999999999</v>
@@ -7731,18 +7663,18 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="80" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="80" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W80">
         <v>2028</v>
       </c>
       <c r="X80" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z80" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA80">
         <v>50.01296</v>
@@ -7754,7 +7686,7 @@
         <v>2029</v>
       </c>
       <c r="AE80" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AF80">
         <v>16.08736</v>
@@ -7763,18 +7695,18 @@
         <v>15.978400000000001</v>
       </c>
     </row>
-    <row r="81" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="81" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W81">
         <v>2028</v>
       </c>
       <c r="X81" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="Y81" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Z81" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA81">
         <v>60</v>
@@ -7786,7 +7718,7 @@
         <v>2029</v>
       </c>
       <c r="AE81" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7795,18 +7727,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="82" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W82">
         <v>2028</v>
       </c>
       <c r="X82" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y82" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z82" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AA82">
         <v>16.005179999999999</v>
@@ -7818,7 +7750,7 @@
         <v>2029</v>
       </c>
       <c r="AE82" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AF82">
         <v>20</v>
@@ -7827,18 +7759,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W83">
         <v>2029</v>
       </c>
       <c r="X83" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Y83" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="Z83" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA83">
         <v>10</v>
@@ -7850,7 +7782,7 @@
         <v>2029</v>
       </c>
       <c r="AE83" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF83">
         <v>16.306000000000001</v>
@@ -7859,18 +7791,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="84" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W84">
         <v>2029</v>
       </c>
       <c r="X84" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y84" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z84" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AA84">
         <v>20</v>
@@ -7882,7 +7814,7 @@
         <v>2030</v>
       </c>
       <c r="AE84" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7891,18 +7823,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="85" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W85">
         <v>2029</v>
       </c>
       <c r="X85" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y85" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z85" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA85">
         <v>0.3276</v>
@@ -7914,7 +7846,7 @@
         <v>2030</v>
       </c>
       <c r="AE85" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AF85">
         <v>61.523090000000003</v>
@@ -7923,18 +7855,18 @@
         <v>61.523090000000003</v>
       </c>
     </row>
-    <row r="86" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="86" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W86">
         <v>2029</v>
       </c>
       <c r="X86" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y86" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z86" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA86">
         <v>0.21840000000000001</v>
@@ -7946,7 +7878,7 @@
         <v>2030</v>
       </c>
       <c r="AE86" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AF86">
         <v>10</v>
@@ -7955,18 +7887,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="87" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W87">
         <v>2029</v>
       </c>
       <c r="X87" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y87" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="Z87" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA87">
         <v>15.978400000000001</v>
@@ -7978,7 +7910,7 @@
         <v>2030</v>
       </c>
       <c r="AE87" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AF87">
         <v>61.523090000000003</v>
@@ -7987,18 +7919,18 @@
         <v>61.523090000000003</v>
       </c>
     </row>
-    <row r="88" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="88" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W88">
         <v>2029</v>
       </c>
       <c r="X88" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y88" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z88" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AA88">
         <v>24.131039999999999</v>
@@ -8010,7 +7942,7 @@
         <v>2030</v>
       </c>
       <c r="AE88" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AF88">
         <v>24.91385</v>
@@ -8019,18 +7951,18 @@
         <v>3.8077299999999998</v>
       </c>
     </row>
-    <row r="89" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="89" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W89">
         <v>2029</v>
       </c>
       <c r="X89" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y89" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z89" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA89">
         <v>10</v>
@@ -8042,7 +7974,7 @@
         <v>2030</v>
       </c>
       <c r="AE89" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AF89">
         <v>16.60924</v>
@@ -8051,18 +7983,18 @@
         <v>15.999510000000001</v>
       </c>
     </row>
-    <row r="90" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="90" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W90">
         <v>2029</v>
       </c>
       <c r="X90" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y90" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z90" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA90">
         <v>50.218400000000003</v>
@@ -8074,7 +8006,7 @@
         <v>2030</v>
       </c>
       <c r="AE90" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8083,18 +8015,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="91" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W91">
         <v>2029</v>
       </c>
       <c r="X91" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="Y91" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Z91" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA91">
         <v>60</v>
@@ -8106,7 +8038,7 @@
         <v>2030</v>
       </c>
       <c r="AE91" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AF91">
         <v>20</v>
@@ -8115,18 +8047,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="92" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W92">
         <v>2029</v>
       </c>
       <c r="X92" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y92" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z92" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AA92">
         <v>16.08736</v>
@@ -8138,7 +8070,7 @@
         <v>2030</v>
       </c>
       <c r="AE92" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF92">
         <v>18.284140000000001</v>
@@ -8147,18 +8079,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="93" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W93">
         <v>2030</v>
       </c>
       <c r="X93" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y93" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z93" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AA93">
         <v>20</v>
@@ -8167,18 +8099,18 @@
         <v>4.0684800000000001</v>
       </c>
     </row>
-    <row r="94" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="94" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W94">
         <v>2030</v>
       </c>
       <c r="X94" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="Y94" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Z94" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA94">
         <v>60</v>
@@ -8187,18 +8119,18 @@
         <v>12.205439999999999</v>
       </c>
     </row>
-    <row r="95" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="95" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W95">
         <v>2030</v>
       </c>
       <c r="X95" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y95" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z95" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA95">
         <v>51.523090000000003</v>
@@ -8207,18 +8139,18 @@
         <v>10.481030000000001</v>
       </c>
     </row>
-    <row r="96" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="96" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W96">
         <v>2030</v>
       </c>
       <c r="X96" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y96" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z96" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA96">
         <v>10</v>
@@ -8227,18 +8159,18 @@
         <v>1.8959999999999999</v>
       </c>
     </row>
-    <row r="97" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="97" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W97">
         <v>2030</v>
       </c>
       <c r="X97" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y97" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z97" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AA97">
         <v>24.91385</v>
@@ -8247,18 +8179,18 @@
         <v>5.7401499999999999</v>
       </c>
     </row>
-    <row r="98" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="98" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W98">
         <v>2030</v>
       </c>
       <c r="X98" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y98" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Z98" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AA98">
         <v>16.60924</v>
@@ -8267,18 +8199,18 @@
         <v>3.5876000000000001</v>
       </c>
     </row>
-    <row r="99" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="99" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W99">
         <v>2030</v>
       </c>
       <c r="X99" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y99" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z99" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA99">
         <v>1.5230900000000001</v>
@@ -8287,18 +8219,18 @@
         <v>0.35092000000000001</v>
       </c>
     </row>
-    <row r="100" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="100" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W100">
         <v>2030</v>
       </c>
       <c r="X100" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y100" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Z100" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA100">
         <v>2.28464</v>
@@ -8307,18 +8239,18 @@
         <v>0.49347999999999997</v>
       </c>
     </row>
-    <row r="101" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="101" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W101">
         <v>2030</v>
       </c>
       <c r="X101" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y101" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="Z101" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA101">
         <v>15.999510000000001</v>
@@ -8327,18 +8259,18 @@
         <v>3.4558900000000001</v>
       </c>
     </row>
-    <row r="102" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="102" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W102">
         <v>2030</v>
       </c>
       <c r="X102" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Y102" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="Z102" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AA102">
         <v>10</v>
@@ -8360,21 +8292,21 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C2">
         <v>0.48</v>
@@ -8390,56 +8322,72 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12935D7-39CC-4336-870D-98DAC14A69ED}">
-  <dimension ref="C1:D6"/>
+  <dimension ref="C1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
-    <col min="11" max="11" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1" s="32" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>68</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="E5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -8448,6 +8396,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
+    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100806C55B750152A459818B636E97A41C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="74fd9cb75cef04cf26a1ff9ddef01b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xmlns:ns3="145cc194-9bea-4db6-b116-a042a4529fcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afbcbfdd38894bc2ff0644b00c8ec680" ns2:_="" ns3:_="">
     <xsd:import namespace="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
@@ -8710,28 +8679,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
-    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D60021C7-CA75-4673-96EA-55284BF81134}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8748,29 +8721,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClOrfani\PycharmProjects\aiphoria\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PythonProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2658169B-D7C9-4FC4-8430-F24756A243BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F772D17-35DC-4B39-AC03-C3949F0C65E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Readme" sheetId="4" r:id="rId1"/>
-    <sheet name="Settings" sheetId="11" r:id="rId2"/>
+    <sheet name="Settings" sheetId="11" r:id="rId1"/>
+    <sheet name="Readme" sheetId="4" r:id="rId2"/>
     <sheet name="Processes" sheetId="6" r:id="rId3"/>
     <sheet name="Flows" sheetId="1" r:id="rId4"/>
-    <sheet name="DMFA results (example)" sheetId="8" r:id="rId5"/>
-    <sheet name="Carbon fraction (will be moved)" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
+    <sheet name="Scenarios" sheetId="12" r:id="rId5"/>
+    <sheet name="DMFA results (example)" sheetId="8" r:id="rId6"/>
+    <sheet name="Carbon fraction (will be moved)" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Flows!$A$3:$U$14</definedName>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="237">
   <si>
     <t>Years</t>
   </si>
@@ -810,6 +811,104 @@
   </si>
   <si>
     <t>Simple</t>
+  </si>
+  <si>
+    <t>sheet_name_scenarios</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Sheet name that contains scenarios (flow variations)</t>
+  </si>
+  <si>
+    <t>create_network_graphs</t>
+  </si>
+  <si>
+    <t>Create network graphs to visualize process connections for each scenario</t>
+  </si>
+  <si>
+    <t>create_sankey_charts</t>
+  </si>
+  <si>
+    <t>Create Sankey charts for each scenario</t>
+  </si>
+  <si>
+    <t>Scenario name</t>
+  </si>
+  <si>
+    <t>Source process ID</t>
+  </si>
+  <si>
+    <t>Target process ID</t>
+  </si>
+  <si>
+    <t>Change in value (delta)</t>
+  </si>
+  <si>
+    <t>Target value (potentially)</t>
+  </si>
+  <si>
+    <t>Change type (Value or % = proportional)</t>
+  </si>
+  <si>
+    <t>Start year (included)</t>
+  </si>
+  <si>
+    <t>End year (included)</t>
+  </si>
+  <si>
+    <t>Function type</t>
+  </si>
+  <si>
+    <t>Target process ID (where the opposite change is applied)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fill method if either </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fill_missing_absolute_flows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fill_missing_relative_flows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is enabled</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -887,7 +986,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -915,6 +1014,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,7 +1078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1076,12 +1181,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1495,23 +1616,369 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FFA668-DA1A-459B-BD42-D0D7F7709F0D}">
+  <dimension ref="B2:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="103.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="36">
+        <v>2</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="36">
+        <v>2</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="36">
+        <v>2021</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="36">
+        <v>2030</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="34">
+        <v>3.67</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C15:C16">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="notEqual">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C20">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="notEqual">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C24">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C16 C19:C20 C23:C24" xr:uid="{79A7E31C-3284-4405-9B5F-03E099B07563}">
+      <formula1>Boolean</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A95900C-A9EB-48AB-A762-0F120DA62856}">
+          <x14:formula1>
+            <xm:f>Sheet1!$E$2:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240816D1-B4FF-41BE-B292-8CF7D349FFB2}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.81640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="18" customWidth="1"/>
     <col min="3" max="3" width="29" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.54296875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="16"/>
+    <col min="4" max="4" width="69.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -1523,7 +1990,7 @@
       </c>
       <c r="D1" s="47"/>
     </row>
-    <row r="2" spans="1:5" ht="135.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1536,7 +2003,7 @@
       <c r="D2" s="46"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
@@ -1548,7 +2015,7 @@
       </c>
       <c r="D3" s="46"/>
     </row>
-    <row r="4" spans="1:5" s="17" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="17" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>35</v>
       </c>
@@ -1560,7 +2027,7 @@
       </c>
       <c r="D4" s="49"/>
     </row>
-    <row r="5" spans="1:5" s="17" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="17" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>44</v>
       </c>
@@ -1572,7 +2039,7 @@
       </c>
       <c r="D5" s="49"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -1584,7 +2051,7 @@
       </c>
       <c r="D6" s="48"/>
     </row>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
@@ -1596,7 +2063,7 @@
       </c>
       <c r="D7" s="45"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>40</v>
       </c>
@@ -1608,7 +2075,7 @@
       </c>
       <c r="D8" s="48"/>
     </row>
-    <row r="9" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>49</v>
       </c>
@@ -1620,7 +2087,7 @@
       </c>
       <c r="D9" s="45"/>
     </row>
-    <row r="10" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>118</v>
       </c>
@@ -1632,7 +2099,7 @@
       </c>
       <c r="D10" s="45"/>
     </row>
-    <row r="11" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>120</v>
       </c>
@@ -1663,327 +2130,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FFA668-DA1A-459B-BD42-D0D7F7709F0D}">
-  <dimension ref="B2:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="33.81640625" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="103.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="B2" s="33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="E8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="36">
-        <v>2</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="E9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="36">
-        <v>2</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="36">
-        <v>2021</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="36">
-        <v>2030</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="E14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>202</v>
-      </c>
-      <c r="E16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="E17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C18" s="34">
-        <v>3.67</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="E18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C19" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>202</v>
-      </c>
-      <c r="E19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>202</v>
-      </c>
-      <c r="E20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C15:C16">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="notEqual">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:C20">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C16 C19:C20" xr:uid="{79A7E31C-3284-4405-9B5F-03E099B07563}">
-      <formula1>Boolean</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A95900C-A9EB-48AB-A762-0F120DA62856}">
-          <x14:formula1>
-            <xm:f>Sheet1!$E$2:$E$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C21</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0D592-75C1-4AD1-84F0-2AAE25CA0097}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" customWidth="1"/>
-    <col min="9" max="9" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.453125" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" customWidth="1"/>
-    <col min="16" max="16" width="11.81640625" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" customWidth="1"/>
-    <col min="18" max="18" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -2035,7 +2212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2061,7 +2238,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30" t="s">
         <v>152</v>
@@ -2115,7 +2292,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2152,7 +2329,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2189,7 +2366,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2225,7 +2402,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2261,7 +2438,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2297,7 +2474,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2333,7 +2510,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2369,7 +2546,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2405,7 +2582,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2441,7 +2618,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>209</v>
       </c>
@@ -2468,7 +2645,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>208</v>
       </c>
@@ -2495,7 +2672,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>211</v>
       </c>
@@ -2522,7 +2699,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations xWindow="558" yWindow="395" count="2">
@@ -2557,31 +2734,31 @@
   <dimension ref="A1:U91"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.54296875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2646,7 +2823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2675,7 +2852,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="20" t="s">
         <v>144</v>
@@ -2738,7 +2915,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>126</v>
       </c>
@@ -2790,7 +2967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -2842,7 +3019,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -2894,7 +3071,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -2946,7 +3123,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -2998,7 +3175,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>130</v>
       </c>
@@ -3051,7 +3228,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="28" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" s="28" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>131</v>
       </c>
@@ -3104,7 +3281,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -3155,7 +3332,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -3207,7 +3384,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -3259,420 +3436,420 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
       <c r="O14" s="43"/>
       <c r="Q14" s="44"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="N15"/>
       <c r="Q15" s="24"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="N16"/>
       <c r="Q16" s="24"/>
     </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="N17"/>
       <c r="Q17" s="24"/>
     </row>
-    <row r="18" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="N18"/>
       <c r="Q18" s="24"/>
     </row>
-    <row r="19" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="N19"/>
     </row>
-    <row r="20" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="N21"/>
       <c r="Q21" s="24"/>
     </row>
-    <row r="22" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="N22"/>
       <c r="Q22" s="24"/>
     </row>
-    <row r="23" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="N23"/>
       <c r="Q23" s="24"/>
     </row>
-    <row r="24" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="E35" s="24" t="s">
         <v>198</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="N39"/>
       <c r="O39"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="N40"/>
       <c r="O40"/>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="N41"/>
       <c r="O41"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="N42"/>
       <c r="O42"/>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="N43"/>
       <c r="O43"/>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="N44"/>
       <c r="O44"/>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="9"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="N45"/>
       <c r="O45"/>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="N46"/>
       <c r="O46"/>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="N47"/>
       <c r="O47"/>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="N48"/>
       <c r="O48"/>
     </row>
-    <row r="49" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="N49"/>
       <c r="O49"/>
     </row>
-    <row r="50" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="N50"/>
       <c r="O50"/>
     </row>
-    <row r="51" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="N51"/>
       <c r="O51"/>
     </row>
-    <row r="52" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="N52"/>
       <c r="O52"/>
     </row>
-    <row r="53" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="N53"/>
       <c r="O53"/>
     </row>
-    <row r="54" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="N54"/>
       <c r="O54"/>
     </row>
-    <row r="55" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="N55"/>
       <c r="O55"/>
     </row>
-    <row r="56" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="N56"/>
       <c r="O56"/>
     </row>
-    <row r="57" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="N57"/>
       <c r="O57"/>
     </row>
-    <row r="58" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="N58"/>
       <c r="O58"/>
     </row>
-    <row r="59" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="N59"/>
       <c r="O59"/>
     </row>
-    <row r="60" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="N60"/>
       <c r="O60"/>
     </row>
-    <row r="61" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="N61"/>
       <c r="O61"/>
     </row>
-    <row r="62" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="N62"/>
       <c r="O62"/>
     </row>
-    <row r="63" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="N63"/>
       <c r="O63"/>
     </row>
-    <row r="64" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="N64"/>
       <c r="O64"/>
     </row>
-    <row r="65" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="N65"/>
       <c r="O65"/>
     </row>
-    <row r="66" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="N66"/>
       <c r="O66"/>
     </row>
-    <row r="67" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="N67"/>
       <c r="O67"/>
     </row>
-    <row r="68" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="N68"/>
       <c r="O68"/>
     </row>
-    <row r="69" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="N69"/>
       <c r="O69"/>
     </row>
-    <row r="70" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="N70"/>
       <c r="O70"/>
     </row>
-    <row r="71" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="N71"/>
       <c r="O71"/>
     </row>
-    <row r="72" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="N72"/>
       <c r="O72"/>
     </row>
-    <row r="73" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="N75"/>
       <c r="O75"/>
     </row>
-    <row r="76" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="N76"/>
       <c r="O76"/>
     </row>
-    <row r="77" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="N77"/>
       <c r="O77"/>
     </row>
-    <row r="78" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="N78"/>
       <c r="O78"/>
     </row>
-    <row r="79" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="N79"/>
       <c r="O79"/>
     </row>
-    <row r="80" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="N80"/>
       <c r="O80"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="N81"/>
       <c r="O81"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="N82"/>
       <c r="O82"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="N83"/>
       <c r="O83"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="N84"/>
       <c r="O84"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="N85"/>
       <c r="O85"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N86"/>
       <c r="O86"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -3683,25 +3860,25 @@
       <c r="N87"/>
       <c r="O87"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="N88"/>
       <c r="O88"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="N89"/>
       <c r="O89"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="N90"/>
       <c r="O90"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="N91"/>
@@ -3724,6 +3901,68 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43406F76-D4E1-4DE8-A811-C2AB881D41ED}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="52.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E839B9F-9E6A-42D1-BF39-12023C14C5F8}">
   <dimension ref="A1:AG102"/>
   <sheetViews>
@@ -3731,22 +3970,22 @@
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.81640625" customWidth="1"/>
-    <col min="2" max="12" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" customWidth="1"/>
-    <col min="16" max="16" width="15.26953125" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.36328125" customWidth="1"/>
-    <col min="26" max="26" width="19.36328125" customWidth="1"/>
-    <col min="27" max="27" width="18.54296875" customWidth="1"/>
-    <col min="28" max="28" width="21.54296875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" customWidth="1"/>
+    <col min="27" max="27" width="18.5703125" customWidth="1"/>
+    <col min="28" max="28" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>112</v>
       </c>
@@ -3760,7 +3999,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>113</v>
       </c>
@@ -3835,7 +4074,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2021</v>
       </c>
@@ -3915,7 +4154,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2022</v>
       </c>
@@ -3995,7 +4234,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2023</v>
       </c>
@@ -4075,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2024</v>
       </c>
@@ -4155,7 +4394,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2025</v>
       </c>
@@ -4235,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2026</v>
       </c>
@@ -4315,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2027</v>
       </c>
@@ -4395,7 +4634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2028</v>
       </c>
@@ -4475,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2029</v>
       </c>
@@ -4555,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2030</v>
       </c>
@@ -4635,7 +4874,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C13" s="32" t="s">
         <v>139</v>
       </c>
@@ -4670,7 +4909,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
       <c r="C14">
         <v>2021</v>
@@ -4733,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15">
         <v>2021</v>
@@ -4799,7 +5038,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2022</v>
       </c>
@@ -4864,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2023</v>
       </c>
@@ -4929,7 +5168,7 @@
         <v>5.1000000000000004E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2024</v>
       </c>
@@ -4994,7 +5233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2025</v>
       </c>
@@ -5059,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2026</v>
       </c>
@@ -5124,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2027</v>
       </c>
@@ -5189,7 +5428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2028</v>
       </c>
@@ -5255,7 +5494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2029</v>
       </c>
@@ -5320,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2030</v>
       </c>
@@ -5385,7 +5624,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C25" s="32" t="s">
         <v>83</v>
       </c>
@@ -5420,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="C26">
         <v>2021</v>
@@ -5483,7 +5722,7 @@
         <v>2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2021</v>
       </c>
@@ -5549,7 +5788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2022</v>
       </c>
@@ -5615,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>2023</v>
       </c>
@@ -5681,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2024</v>
       </c>
@@ -5747,7 +5986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2025</v>
       </c>
@@ -5813,7 +6052,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2026</v>
       </c>
@@ -5879,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2027</v>
       </c>
@@ -5945,7 +6184,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>2028</v>
       </c>
@@ -6011,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>2029</v>
       </c>
@@ -6077,7 +6316,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>2030</v>
       </c>
@@ -6143,7 +6382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C37" s="32" t="s">
         <v>84</v>
       </c>
@@ -6178,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B38" s="27"/>
       <c r="C38">
         <v>2021</v>
@@ -6241,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2021</v>
       </c>
@@ -6306,7 +6545,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2022</v>
       </c>
@@ -6371,7 +6610,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2023</v>
       </c>
@@ -6436,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2024</v>
       </c>
@@ -6501,7 +6740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>2025</v>
       </c>
@@ -6566,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2026</v>
       </c>
@@ -6631,7 +6870,7 @@
         <v>2.5384799999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2027</v>
       </c>
@@ -6696,7 +6935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2028</v>
       </c>
@@ -6761,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>2029</v>
       </c>
@@ -6826,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>2030</v>
       </c>
@@ -6891,7 +7130,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W49">
         <v>2025</v>
       </c>
@@ -6923,7 +7162,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W50">
         <v>2025</v>
       </c>
@@ -6955,7 +7194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W51">
         <v>2025</v>
       </c>
@@ -6987,7 +7226,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W52">
         <v>2025</v>
       </c>
@@ -7019,7 +7258,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="53" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W53">
         <v>2026</v>
       </c>
@@ -7051,7 +7290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W54">
         <v>2026</v>
       </c>
@@ -7083,7 +7322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W55">
         <v>2026</v>
       </c>
@@ -7115,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W56">
         <v>2026</v>
       </c>
@@ -7147,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W57">
         <v>2026</v>
       </c>
@@ -7179,7 +7418,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="58" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W58">
         <v>2026</v>
       </c>
@@ -7211,7 +7450,7 @@
         <v>60.000300000000003</v>
       </c>
     </row>
-    <row r="59" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="59" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W59">
         <v>2026</v>
       </c>
@@ -7243,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="60" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W60">
         <v>2026</v>
       </c>
@@ -7275,7 +7514,7 @@
         <v>60.000300000000003</v>
       </c>
     </row>
-    <row r="61" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="61" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W61">
         <v>2026</v>
       </c>
@@ -7307,7 +7546,7 @@
         <v>7.6000000000000004E-4</v>
       </c>
     </row>
-    <row r="62" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="62" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W62">
         <v>2026</v>
       </c>
@@ -7339,7 +7578,7 @@
         <v>13.46152</v>
       </c>
     </row>
-    <row r="63" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="63" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W63">
         <v>2027</v>
       </c>
@@ -7371,7 +7610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="64" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W64">
         <v>2027</v>
       </c>
@@ -7403,7 +7642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="65" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W65">
         <v>2027</v>
       </c>
@@ -7435,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="66" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W66">
         <v>2027</v>
       </c>
@@ -7467,7 +7706,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="67" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W67">
         <v>2027</v>
       </c>
@@ -7499,7 +7738,7 @@
         <v>60.01296</v>
       </c>
     </row>
-    <row r="68" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="68" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W68">
         <v>2027</v>
       </c>
@@ -7531,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="69" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W69">
         <v>2027</v>
       </c>
@@ -7563,7 +7802,7 @@
         <v>60.01296</v>
       </c>
     </row>
-    <row r="70" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="70" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W70">
         <v>2027</v>
       </c>
@@ -7595,7 +7834,7 @@
         <v>3.2399999999999998E-2</v>
       </c>
     </row>
-    <row r="71" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="71" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W71">
         <v>2027</v>
       </c>
@@ -7627,7 +7866,7 @@
         <v>15.635999999999999</v>
       </c>
     </row>
-    <row r="72" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="72" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W72">
         <v>2027</v>
       </c>
@@ -7659,7 +7898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="73" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W73">
         <v>2028</v>
       </c>
@@ -7691,7 +7930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="74" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W74">
         <v>2028</v>
       </c>
@@ -7723,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="75" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W75">
         <v>2028</v>
       </c>
@@ -7755,7 +7994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="76" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W76">
         <v>2028</v>
       </c>
@@ -7787,7 +8026,7 @@
         <v>60.218400000000003</v>
       </c>
     </row>
-    <row r="77" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="77" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W77">
         <v>2028</v>
       </c>
@@ -7819,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="78" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W78">
         <v>2028</v>
       </c>
@@ -7851,7 +8090,7 @@
         <v>60.218400000000003</v>
       </c>
     </row>
-    <row r="79" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="79" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W79">
         <v>2028</v>
       </c>
@@ -7883,7 +8122,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="80" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="80" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W80">
         <v>2028</v>
       </c>
@@ -7915,7 +8154,7 @@
         <v>15.978400000000001</v>
       </c>
     </row>
-    <row r="81" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="81" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W81">
         <v>2028</v>
       </c>
@@ -7947,7 +8186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="82" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W82">
         <v>2028</v>
       </c>
@@ -7979,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W83">
         <v>2029</v>
       </c>
@@ -8011,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="84" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W84">
         <v>2029</v>
       </c>
@@ -8043,7 +8282,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="85" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W85">
         <v>2029</v>
       </c>
@@ -8075,7 +8314,7 @@
         <v>61.523090000000003</v>
       </c>
     </row>
-    <row r="86" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="86" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W86">
         <v>2029</v>
       </c>
@@ -8107,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="87" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W87">
         <v>2029</v>
       </c>
@@ -8139,7 +8378,7 @@
         <v>61.523090000000003</v>
       </c>
     </row>
-    <row r="88" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="88" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W88">
         <v>2029</v>
       </c>
@@ -8171,7 +8410,7 @@
         <v>3.8077299999999998</v>
       </c>
     </row>
-    <row r="89" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="89" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W89">
         <v>2029</v>
       </c>
@@ -8203,7 +8442,7 @@
         <v>15.999510000000001</v>
       </c>
     </row>
-    <row r="90" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="90" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W90">
         <v>2029</v>
       </c>
@@ -8235,7 +8474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="91" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W91">
         <v>2029</v>
       </c>
@@ -8267,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="92" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W92">
         <v>2029</v>
       </c>
@@ -8299,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="93" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W93">
         <v>2030</v>
       </c>
@@ -8319,7 +8558,7 @@
         <v>4.0684800000000001</v>
       </c>
     </row>
-    <row r="94" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="94" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W94">
         <v>2030</v>
       </c>
@@ -8339,7 +8578,7 @@
         <v>12.205439999999999</v>
       </c>
     </row>
-    <row r="95" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="95" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W95">
         <v>2030</v>
       </c>
@@ -8359,7 +8598,7 @@
         <v>10.481030000000001</v>
       </c>
     </row>
-    <row r="96" spans="23:33" x14ac:dyDescent="0.35">
+    <row r="96" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W96">
         <v>2030</v>
       </c>
@@ -8379,7 +8618,7 @@
         <v>1.8959999999999999</v>
       </c>
     </row>
-    <row r="97" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="97" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W97">
         <v>2030</v>
       </c>
@@ -8399,7 +8638,7 @@
         <v>5.7401499999999999</v>
       </c>
     </row>
-    <row r="98" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="98" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W98">
         <v>2030</v>
       </c>
@@ -8419,7 +8658,7 @@
         <v>3.5876000000000001</v>
       </c>
     </row>
-    <row r="99" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="99" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W99">
         <v>2030</v>
       </c>
@@ -8439,7 +8678,7 @@
         <v>0.35092000000000001</v>
       </c>
     </row>
-    <row r="100" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="100" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W100">
         <v>2030</v>
       </c>
@@ -8459,7 +8698,7 @@
         <v>0.49347999999999997</v>
       </c>
     </row>
-    <row r="101" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="101" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W101">
         <v>2030</v>
       </c>
@@ -8479,7 +8718,7 @@
         <v>3.4558900000000001</v>
       </c>
     </row>
-    <row r="102" spans="23:28" x14ac:dyDescent="0.35">
+    <row r="102" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W102">
         <v>2030</v>
       </c>
@@ -8504,7 +8743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C620F7-4B8A-4ECD-9835-AFC6C4EF2431}">
   <dimension ref="B1:D2"/>
   <sheetViews>
@@ -8512,19 +8751,19 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>123</v>
       </c>
@@ -8540,7 +8779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12935D7-39CC-4336-870D-98DAC14A69ED}">
   <dimension ref="C1:E7"/>
   <sheetViews>
@@ -8548,14 +8787,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
-    <col min="11" max="11" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1" s="32" t="s">
         <v>194</v>
       </c>
@@ -8566,7 +8806,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>140</v>
       </c>
@@ -8577,7 +8817,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>68</v>
       </c>
@@ -8588,7 +8828,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -8596,7 +8836,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>143</v>
       </c>
@@ -8604,12 +8844,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>218</v>
       </c>
@@ -8621,6 +8861,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
@@ -8630,15 +8879,6 @@
     <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8905,6 +9145,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8917,14 +9165,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PythonProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F772D17-35DC-4B39-AC03-C3949F0C65E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42634D5-5D6A-4516-8D72-BDB495C28BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="11" r:id="rId1"/>
@@ -1166,6 +1166,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1181,7 +1182,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1255,23 +1255,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>717176</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>132512</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>539805</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>64113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581633</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>45515</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1002229</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Graphic 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3BABF4E-C7EF-DF86-E1EE-F6428C7FAEDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CE90A0-1D4A-FAFE-60B0-0D24A3BEE1B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1280,21 +1280,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4448735" y="3079659"/>
-          <a:ext cx="8912460" cy="2961003"/>
+          <a:off x="2701980" y="2969238"/>
+          <a:ext cx="8501524" cy="3151254"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1619,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FFA668-DA1A-459B-BD42-D0D7F7709F0D}">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1779,7 +1773,7 @@
         <v>178</v>
       </c>
       <c r="C15" s="38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>202</v>
@@ -1985,10 +1979,10 @@
       <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="47"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -1997,10 +1991,10 @@
       <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2010,10 +2004,10 @@
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="47"/>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
@@ -2022,10 +2016,10 @@
       <c r="B4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="50"/>
     </row>
     <row r="5" spans="1:5" s="17" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
@@ -2034,10 +2028,10 @@
       <c r="B5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="50"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -2046,10 +2040,10 @@
       <c r="B6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="49"/>
     </row>
     <row r="7" spans="1:5" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -2058,10 +2052,10 @@
       <c r="B7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="46"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2070,10 +2064,10 @@
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="49"/>
     </row>
     <row r="9" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -2082,10 +2076,10 @@
       <c r="B9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="46"/>
     </row>
     <row r="10" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -2094,10 +2088,10 @@
       <c r="B10" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="46"/>
     </row>
     <row r="11" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -2106,10 +2100,10 @@
       <c r="B11" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2135,7 +2129,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B692AEE8-68EE-4B81-A49D-50BF066DFFE7}">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3923,37 +3917,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="45" t="s">
         <v>235</v>
       </c>
     </row>

--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PythonProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42634D5-5D6A-4516-8D72-BDB495C28BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627BF555-DDE6-45C8-9B30-F3AAB3FAB6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Settings" sheetId="11" r:id="rId1"/>
-    <sheet name="Readme" sheetId="4" r:id="rId2"/>
+    <sheet name="Readme" sheetId="4" r:id="rId1"/>
+    <sheet name="Settings" sheetId="11" r:id="rId2"/>
     <sheet name="Processes" sheetId="6" r:id="rId3"/>
     <sheet name="Flows" sheetId="1" r:id="rId4"/>
     <sheet name="Scenarios" sheetId="12" r:id="rId5"/>
     <sheet name="DMFA results (example)" sheetId="8" r:id="rId6"/>
     <sheet name="Carbon fraction (will be moved)" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
+    <sheet name="Data validation parameters" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Flows!$A$3:$U$14</definedName>
-    <definedName name="Boolean">Sheet1!$D$2:$D$3</definedName>
+    <definedName name="Boolean">'Data validation parameters'!$C$6:$C$7</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="240">
   <si>
     <t>Years</t>
   </si>
@@ -909,6 +909,15 @@
       </rPr>
       <t xml:space="preserve"> is enabled</t>
     </r>
+  </si>
+  <si>
+    <t>This sheet contains helper parameters to make changing settings easier inside Excel and to reduce possibilities of typos.</t>
+  </si>
+  <si>
+    <t>All of these settings are strings that can be used as it is in Settings-sheet and in Scenarios-sheet</t>
+  </si>
+  <si>
+    <t>Change type</t>
   </si>
 </sst>
 </file>
@@ -1161,11 +1170,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1181,6 +1185,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1610,11 +1619,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240816D1-B4FF-41BE-B292-8CF7D349FFB2}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="29" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:5" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="44"/>
+    </row>
+    <row r="4" spans="1:5" s="17" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="47"/>
+    </row>
+    <row r="5" spans="1:5" s="17" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="47"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="46"/>
+    </row>
+    <row r="7" spans="1:5" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="46"/>
+    </row>
+    <row r="9" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="43"/>
+    </row>
+    <row r="10" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="43"/>
+    </row>
+    <row r="11" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FFA668-DA1A-459B-BD42-D0D7F7709F0D}">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,7 +2123,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A95900C-A9EB-48AB-A762-0F120DA62856}">
           <x14:formula1>
-            <xm:f>Sheet1!$E$2:$E$5</xm:f>
+            <xm:f>'Data validation parameters'!$D$6:$D$9</xm:f>
           </x14:formula1>
           <xm:sqref>C21</xm:sqref>
         </x14:dataValidation>
@@ -1955,181 +2133,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240816D1-B4FF-41BE-B292-8CF7D349FFB2}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="29" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="48"/>
-    </row>
-    <row r="2" spans="1:5" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="47"/>
-    </row>
-    <row r="4" spans="1:5" s="17" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="50"/>
-    </row>
-    <row r="5" spans="1:5" s="17" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="50"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="49"/>
-    </row>
-    <row r="7" spans="1:5" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="46"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="49"/>
-    </row>
-    <row r="9" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="46"/>
-    </row>
-    <row r="10" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="46"/>
-    </row>
-    <row r="11" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="46"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C9:D9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0D592-75C1-4AD1-84F0-2AAE25CA0097}">
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2707,13 +2716,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="558" yWindow="395" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Distribution type" prompt="Distribution type for stock outflows (=decay). _x000a_-Fixed only uses lifetimes so no parameter is used._x000a_-Normal, LogNormal, FoldedNormal use standard deviation. _x000a_-Weibull uses shape and scale. " xr:uid="{0258C8E4-0AAB-48FF-93D5-AADF99BF39C4}">
           <x14:formula1>
-            <xm:f>Sheet1!$C$2:$C$6</xm:f>
+            <xm:f>'Data validation parameters'!$B$6:$B$10</xm:f>
           </x14:formula1>
           <xm:sqref>H16:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Distribution type" prompt="Distribution type for stock outflows (=decay). _x000a_-Fixed only uses lifetimes so no parameter is used._x000a_-Normal, LogNormal, FoldedNormal use standard deviation. _x000a_-Weibull uses shape and scale. " xr:uid="{61770E9E-9EFD-4B63-8C83-80C1E833E691}">
           <x14:formula1>
-            <xm:f>Sheet1!$C$2:$C$7</xm:f>
+            <xm:f>'Data validation parameters'!$B$6:$B$11</xm:f>
           </x14:formula1>
           <xm:sqref>H4:H15</xm:sqref>
         </x14:dataValidation>
@@ -2727,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B692AEE8-68EE-4B81-A49D-50BF066DFFE7}">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3169,109 +3178,109 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="28" t="str">
+      <c r="C9" s="48" t="str">
         <f>+_xlfn.XLOOKUP(H9,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="28" t="str">
+      <c r="F9" s="48" t="str">
         <f>+_xlfn.XLOOKUP(I9,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="42" t="str">
+      <c r="H9" s="49" t="str">
         <f t="shared" si="0"/>
         <v>Construction:FI</v>
       </c>
-      <c r="I9" s="42" t="str">
+      <c r="I9" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Sawmilling:FI</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="48">
         <v>40</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="48">
         <v>2021</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="43"/>
-      <c r="P9" s="28">
+      <c r="O9" s="50"/>
+      <c r="P9" s="48">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
-      <c r="Q9" s="28" t="s">
+      <c r="Q9" s="48" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="28" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:21" s="48" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="28" t="str">
+      <c r="C10" s="48" t="str">
         <f>+_xlfn.XLOOKUP(H10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="28" t="str">
+      <c r="F10" s="48" t="str">
         <f>+_xlfn.XLOOKUP(I10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>EoL</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="42" t="str">
+      <c r="H10" s="49" t="str">
         <f t="shared" si="0"/>
         <v>Construction:FI</v>
       </c>
-      <c r="I10" s="42" t="str">
+      <c r="I10" s="49" t="str">
         <f t="shared" si="1"/>
         <v>Incineration:FI</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="48">
         <v>60</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="48">
         <v>2021</v>
       </c>
-      <c r="N10" s="28" t="s">
+      <c r="N10" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="43"/>
-      <c r="P10" s="28">
+      <c r="O10" s="50"/>
+      <c r="P10" s="48">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
-      <c r="Q10" s="28" t="s">
+      <c r="Q10" s="48" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3430,11 +3439,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="O14" s="43"/>
-      <c r="Q14" s="44"/>
+    <row r="14" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="O14" s="50"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
@@ -3898,8 +3907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43406F76-D4E1-4DE8-A811-C2AB881D41ED}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3917,42 +3926,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="42" t="s">
         <v>235</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{21908276-F864-4CA4-BA65-3DBA76B06B97}">
+          <x14:formula1>
+            <xm:f>'Data validation parameters'!$E$6:$E$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8775,76 +8796,96 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12935D7-39CC-4336-870D-98DAC14A69ED}">
-  <dimension ref="C1:E7"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C1" s="32" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="C5" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="D5" s="32" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="E5" s="32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>140</v>
       </c>
-      <c r="D2" t="b">
+      <c r="C6" t="b">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D6" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="E6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>68</v>
       </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>141</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>143</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>218</v>
       </c>
     </row>

--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PythonProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627BF555-DDE6-45C8-9B30-F3AAB3FAB6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E45439-6B6E-4350-A924-7D4E5AA5C103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
@@ -1087,7 +1087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1185,11 +1185,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1792,7 +1787,7 @@
   <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3178,109 +3173,107 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="48" t="str">
+      <c r="C9" t="str">
         <f>+_xlfn.XLOOKUP(H9,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="48" t="str">
+      <c r="F9" t="str">
         <f>+_xlfn.XLOOKUP(I9,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="49" t="str">
+      <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Construction:FI</v>
       </c>
-      <c r="I9" s="49" t="str">
+      <c r="I9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sawmilling:FI</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9">
         <v>40</v>
       </c>
-      <c r="K9" s="48" t="s">
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="48">
+      <c r="L9">
         <v>2021</v>
       </c>
-      <c r="N9" s="48" t="s">
+      <c r="N9" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="50"/>
-      <c r="P9" s="48">
+      <c r="P9">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
-      <c r="Q9" s="48" t="s">
+      <c r="Q9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="48" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="48" t="str">
+      <c r="C10" t="str">
         <f>+_xlfn.XLOOKUP(H10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="48" t="str">
+      <c r="F10" t="str">
         <f>+_xlfn.XLOOKUP(I10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>EoL</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="49" t="str">
+      <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Construction:FI</v>
       </c>
-      <c r="I10" s="49" t="str">
+      <c r="I10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Incineration:FI</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10">
         <v>60</v>
       </c>
-      <c r="K10" s="48" t="s">
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10">
         <v>2021</v>
       </c>
-      <c r="N10" s="48" t="s">
+      <c r="N10" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="50"/>
-      <c r="P10" s="48">
+      <c r="P10">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
-      <c r="Q10" s="48" t="s">
+      <c r="Q10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3439,10 +3432,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="O14" s="50"/>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="N14"/>
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -8896,27 +8889,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
-    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100806C55B750152A459818B636E97A41C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="74fd9cb75cef04cf26a1ff9ddef01b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xmlns:ns3="145cc194-9bea-4db6-b116-a042a4529fcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afbcbfdd38894bc2ff0644b00c8ec680" ns2:_="" ns3:_="">
     <xsd:import namespace="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
@@ -9179,10 +9151,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
+    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D60021C7-CA75-4673-96EA-55284BF81134}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
+    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9205,20 +9209,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D60021C7-CA75-4673-96EA-55284BF81134}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
-    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PythonProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E45439-6B6E-4350-A924-7D4E5AA5C103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C579A881-51F1-4402-A2EC-7802EBC03897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="Processes" sheetId="6" r:id="rId3"/>
     <sheet name="Flows" sheetId="1" r:id="rId4"/>
     <sheet name="Scenarios" sheetId="12" r:id="rId5"/>
-    <sheet name="DMFA results (example)" sheetId="8" r:id="rId6"/>
-    <sheet name="Carbon fraction (will be moved)" sheetId="7" r:id="rId7"/>
-    <sheet name="Data validation parameters" sheetId="9" r:id="rId8"/>
+    <sheet name="Data validation parameters" sheetId="9" r:id="rId6"/>
+    <sheet name="DMFA results (example)" sheetId="8" r:id="rId7"/>
+    <sheet name="Carbon fraction (will be moved)" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Flows!$A$3:$U$14</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="244">
   <si>
     <t>Years</t>
   </si>
@@ -918,6 +918,18 @@
   </si>
   <si>
     <t>Change type</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Exponential</t>
+  </si>
+  <si>
+    <t>Sigmoid</t>
   </si>
 </sst>
 </file>
@@ -1787,7 +1799,7 @@
   <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2133,7 +2145,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,10 +2403,10 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>0.40300000000000002</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="Q6">
-        <v>0.10100000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="R6" t="s">
         <v>76</v>
@@ -2535,10 +2547,10 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>0.26400000000000001</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="Q10">
-        <v>0.81899999999999995</v>
+        <v>0.9</v>
       </c>
       <c r="R10" t="s">
         <v>81</v>
@@ -2702,7 +2714,7 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations xWindow="558" yWindow="395" count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Distribution parameter" prompt="tuple = number or list of parameters separated by comma. Example: for stddev only number! e.g., 1. For shape and scale list separated by comma e.g., shape=1, scale=1.5" sqref="I4:I1048576" xr:uid="{564AD8C3-F96D-40DD-BFD1-1C6E073701B7}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sankey diagram positioning" prompt="Sankey diagram X and Y node positioning. Check / adjust positioning after you run case and see coordinates. " sqref="P4:Q1048576 Q2" xr:uid="{167D7519-74A2-4731-8D99-C2A980321CC9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sankey diagram positioning" prompt="Sankey diagram X and Y node positioning. Check / adjust positioning after you run case and see coordinates. " sqref="Q2 P4:Q1048576" xr:uid="{167D7519-74A2-4731-8D99-C2A980321CC9}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2732,7 +2744,7 @@
   <dimension ref="A1:U91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3901,7 +3913,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3957,12 +3969,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{21908276-F864-4CA4-BA65-3DBA76B06B97}">
           <x14:formula1>
             <xm:f>'Data validation parameters'!$E$6:$E$7</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{283A9876-07D1-4356-BD7B-618A4AD94BB4}">
+          <x14:formula1>
+            <xm:f>'Data validation parameters'!$F$6:$F$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3971,6 +3989,123 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12935D7-39CC-4336-870D-98DAC14A69ED}">
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E839B9F-9E6A-42D1-BF39-12023C14C5F8}">
   <dimension ref="A1:AG102"/>
   <sheetViews>
@@ -8751,7 +8886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C620F7-4B8A-4ECD-9835-AFC6C4EF2431}">
   <dimension ref="B1:D2"/>
   <sheetViews>
@@ -8787,108 +8922,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12935D7-39CC-4336-870D-98DAC14A69ED}">
-  <dimension ref="B2:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
+    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100806C55B750152A459818B636E97A41C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="74fd9cb75cef04cf26a1ff9ddef01b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xmlns:ns3="145cc194-9bea-4db6-b116-a042a4529fcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afbcbfdd38894bc2ff0644b00c8ec680" ns2:_="" ns3:_="">
     <xsd:import namespace="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
@@ -9151,42 +9206,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
-    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D60021C7-CA75-4673-96EA-55284BF81134}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
-    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9209,9 +9232,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D60021C7-CA75-4673-96EA-55284BF81134}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
+    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClOrfani\PycharmProjects\aiphoria\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PythonProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A37C4E6-D985-491E-A9C8-11749158EB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C34F668-96B0-4505-9134-22977D4DB67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="237">
   <si>
     <t>Years</t>
   </si>
@@ -888,6 +888,9 @@
   </si>
   <si>
     <t>Sigmoid</t>
+  </si>
+  <si>
+    <t>Reduce sawmilling residues by 50% between 2025 and 2030</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1105,29 +1108,17 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1136,21 +1127,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1574,57 +1562,57 @@
       <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="34" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="34" customWidth="1"/>
     <col min="3" max="3" width="29" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.54296875" style="36" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="10"/>
+    <col min="4" max="4" width="69.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="45"/>
-    </row>
-    <row r="2" spans="1:5" ht="135.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:5" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="38"/>
-    </row>
-    <row r="4" spans="1:5" s="11" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
+      <c r="D3" s="40"/>
+    </row>
+    <row r="4" spans="1:5" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="38" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -1632,89 +1620,89 @@
       </c>
       <c r="D4" s="43"/>
     </row>
-    <row r="5" spans="1:5" s="11" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:5" s="11" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="48"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
+      <c r="D5" s="40"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="40"/>
-    </row>
-    <row r="7" spans="1:5" ht="41.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39" t="s">
+      <c r="D6" s="42"/>
+    </row>
+    <row r="7" spans="1:5" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="D7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="39" t="s">
+      <c r="D7" s="40"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="40"/>
-    </row>
-    <row r="9" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="D8" s="42"/>
+    </row>
+    <row r="9" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="38"/>
-    </row>
-    <row r="10" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39" t="s">
+      <c r="D9" s="40"/>
+    </row>
+    <row r="10" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="38"/>
-    </row>
-    <row r="11" spans="1:5" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="39" t="s">
+      <c r="D10" s="40"/>
+    </row>
+    <row r="11" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="38"/>
+      <c r="D11" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1739,28 +1727,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FFA668-DA1A-459B-BD42-D0D7F7709F0D}">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.81640625" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="103.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="103.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>182</v>
       </c>
@@ -1768,7 +1756,7 @@
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>157</v>
       </c>
@@ -1782,7 +1770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>158</v>
       </c>
@@ -1796,7 +1784,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>159</v>
       </c>
@@ -1810,7 +1798,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>161</v>
       </c>
@@ -1824,7 +1812,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>162</v>
       </c>
@@ -1838,7 +1826,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>163</v>
       </c>
@@ -1852,7 +1840,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>164</v>
       </c>
@@ -1866,7 +1854,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>170</v>
       </c>
@@ -1880,7 +1868,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>173</v>
       </c>
@@ -1894,7 +1882,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>174</v>
       </c>
@@ -1908,7 +1896,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>177</v>
       </c>
@@ -1922,7 +1910,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>185</v>
       </c>
@@ -1936,7 +1924,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>179</v>
       </c>
@@ -1950,7 +1938,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>196</v>
       </c>
@@ -1964,7 +1952,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>195</v>
       </c>
@@ -1978,7 +1966,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>204</v>
       </c>
@@ -1992,7 +1980,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>211</v>
       </c>
@@ -2006,7 +1994,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>214</v>
       </c>
@@ -2020,7 +2008,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>216</v>
       </c>
@@ -2086,32 +2074,32 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -2163,7 +2151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2189,7 +2177,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
         <v>148</v>
@@ -2243,7 +2231,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2280,7 +2268,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2317,7 +2305,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2353,7 +2341,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2389,7 +2377,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2425,7 +2413,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2461,7 +2449,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2497,7 +2485,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2533,7 +2521,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2569,7 +2557,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations xWindow="794" yWindow="485" count="2">
@@ -2610,31 +2598,31 @@
   <dimension ref="A1:U91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="H6" sqref="H6:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.54296875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2699,7 +2687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2728,7 +2716,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="12" t="s">
         <v>140</v>
@@ -2791,7 +2779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -2841,7 +2829,7 @@
       </c>
       <c r="Q4" s="16"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -2891,7 +2879,7 @@
       </c>
       <c r="Q5" s="16"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -2941,7 +2929,7 @@
       </c>
       <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -2993,7 +2981,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -3045,7 +3033,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -3097,7 +3085,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -3149,7 +3137,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -3194,7 +3182,7 @@
       </c>
       <c r="Q11" s="16"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>132</v>
       </c>
@@ -3240,7 +3228,7 @@
       </c>
       <c r="Q12" s="16"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>133</v>
       </c>
@@ -3286,420 +3274,420 @@
       </c>
       <c r="Q13" s="16"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="N14"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="N15"/>
       <c r="Q15" s="16"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="N16"/>
       <c r="Q16" s="16"/>
     </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="N17"/>
       <c r="Q17" s="16"/>
     </row>
-    <row r="18" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="N18"/>
       <c r="Q18" s="16"/>
     </row>
-    <row r="19" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="N19"/>
     </row>
-    <row r="20" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="N21"/>
       <c r="Q21" s="16"/>
     </row>
-    <row r="22" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="N22"/>
       <c r="Q22" s="16"/>
     </row>
-    <row r="23" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="N23"/>
       <c r="Q23" s="16"/>
     </row>
-    <row r="24" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="8:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="E35" s="16" t="s">
         <v>194</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="N39"/>
       <c r="O39"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="N40"/>
       <c r="O40"/>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="N41"/>
       <c r="O41"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="N42"/>
       <c r="O42"/>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="N43"/>
       <c r="O43"/>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="N44"/>
       <c r="O44"/>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="9"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="N45"/>
       <c r="O45"/>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="N46"/>
       <c r="O46"/>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="N47"/>
       <c r="O47"/>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="N48"/>
       <c r="O48"/>
     </row>
-    <row r="49" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="N49"/>
       <c r="O49"/>
     </row>
-    <row r="50" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="N50"/>
       <c r="O50"/>
     </row>
-    <row r="51" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="N51"/>
       <c r="O51"/>
     </row>
-    <row r="52" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="N52"/>
       <c r="O52"/>
     </row>
-    <row r="53" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="N53"/>
       <c r="O53"/>
     </row>
-    <row r="54" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="N54"/>
       <c r="O54"/>
     </row>
-    <row r="55" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="N55"/>
       <c r="O55"/>
     </row>
-    <row r="56" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="N56"/>
       <c r="O56"/>
     </row>
-    <row r="57" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="N57"/>
       <c r="O57"/>
     </row>
-    <row r="58" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="N58"/>
       <c r="O58"/>
     </row>
-    <row r="59" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="N59"/>
       <c r="O59"/>
     </row>
-    <row r="60" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="N60"/>
       <c r="O60"/>
     </row>
-    <row r="61" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="N61"/>
       <c r="O61"/>
     </row>
-    <row r="62" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="N62"/>
       <c r="O62"/>
     </row>
-    <row r="63" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="N63"/>
       <c r="O63"/>
     </row>
-    <row r="64" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="N64"/>
       <c r="O64"/>
     </row>
-    <row r="65" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="N65"/>
       <c r="O65"/>
     </row>
-    <row r="66" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="N66"/>
       <c r="O66"/>
     </row>
-    <row r="67" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="N67"/>
       <c r="O67"/>
     </row>
-    <row r="68" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="N68"/>
       <c r="O68"/>
     </row>
-    <row r="69" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="N69"/>
       <c r="O69"/>
     </row>
-    <row r="70" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="N70"/>
       <c r="O70"/>
     </row>
-    <row r="71" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="N71"/>
       <c r="O71"/>
     </row>
-    <row r="72" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="N72"/>
       <c r="O72"/>
     </row>
-    <row r="73" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="N75"/>
       <c r="O75"/>
     </row>
-    <row r="76" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="N76"/>
       <c r="O76"/>
     </row>
-    <row r="77" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="N77"/>
       <c r="O77"/>
     </row>
-    <row r="78" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="N78"/>
       <c r="O78"/>
     </row>
-    <row r="79" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="N79"/>
       <c r="O79"/>
     </row>
-    <row r="80" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="N80"/>
       <c r="O80"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="N81"/>
       <c r="O81"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="N82"/>
       <c r="O82"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="N83"/>
       <c r="O83"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="N84"/>
       <c r="O84"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="N85"/>
       <c r="O85"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N86"/>
       <c r="O86"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -3710,25 +3698,25 @@
       <c r="N87"/>
       <c r="O87"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="N88"/>
       <c r="O88"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="N89"/>
       <c r="O89"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="N90"/>
       <c r="O90"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="N91"/>
@@ -3748,27 +3736,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43406F76-D4E1-4DE8-A811-C2AB881D41ED}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>218</v>
       </c>
@@ -3802,6 +3790,36 @@
       <c r="K1" s="32" t="s">
         <v>227</v>
       </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2">
+        <v>-50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>2025</v>
+      </c>
+      <c r="H2">
+        <v>2030</v>
+      </c>
+      <c r="I2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3834,27 +3852,27 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>190</v>
       </c>
@@ -3871,7 +3889,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>136</v>
       </c>
@@ -3888,7 +3906,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>68</v>
       </c>
@@ -3905,7 +3923,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>137</v>
       </c>
@@ -3916,7 +3934,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>139</v>
       </c>
@@ -3927,12 +3945,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>210</v>
       </c>
@@ -3951,22 +3969,22 @@
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.81640625" customWidth="1"/>
-    <col min="2" max="12" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" customWidth="1"/>
-    <col min="14" max="14" width="16.81640625" customWidth="1"/>
-    <col min="15" max="15" width="18.7265625" customWidth="1"/>
-    <col min="16" max="16" width="19.90625" customWidth="1"/>
-    <col min="17" max="17" width="18.26953125" customWidth="1"/>
-    <col min="23" max="23" width="17.453125" customWidth="1"/>
-    <col min="24" max="24" width="19.453125" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" customWidth="1"/>
-    <col min="28" max="28" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" customWidth="1"/>
+    <col min="28" max="28" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>110</v>
       </c>
@@ -3992,7 +4010,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>111</v>
       </c>
@@ -4052,7 +4070,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2021</v>
       </c>
@@ -4094,7 +4112,7 @@
         <v>16</v>
       </c>
       <c r="P3" s="18">
-        <f>O3-N3</f>
+        <f t="shared" ref="P3:P12" si="0">O3-N3</f>
         <v>15.999995413574849</v>
       </c>
       <c r="Q3" s="18">
@@ -4129,7 +4147,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2022</v>
       </c>
@@ -4164,14 +4182,14 @@
         <v>0</v>
       </c>
       <c r="N4" s="18">
-        <f t="shared" ref="N4:N12" si="0">SUM(C4:L4)</f>
+        <f t="shared" ref="N4:N12" si="1">SUM(C4:L4)</f>
         <v>5.0673986932991955E-4</v>
       </c>
       <c r="O4">
         <v>16</v>
       </c>
       <c r="P4" s="18">
-        <f>O4-N4</f>
+        <f t="shared" si="0"/>
         <v>15.99949326013067</v>
       </c>
       <c r="Q4" s="18">
@@ -4206,7 +4224,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2023</v>
       </c>
@@ -4241,14 +4259,14 @@
         <v>0</v>
       </c>
       <c r="N5" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1598368506081621E-2</v>
       </c>
       <c r="O5">
         <v>16</v>
       </c>
       <c r="P5" s="18">
-        <f>O5-N5</f>
+        <f t="shared" si="0"/>
         <v>15.978401631493918</v>
       </c>
       <c r="Q5" s="18">
@@ -4283,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2024</v>
       </c>
@@ -4318,14 +4336,14 @@
         <v>0</v>
       </c>
       <c r="N6" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36400211117086662</v>
       </c>
       <c r="O6">
         <v>16</v>
       </c>
       <c r="P6" s="18">
-        <f>O6-N6</f>
+        <f t="shared" si="0"/>
         <v>15.635997888829133</v>
       </c>
       <c r="Q6" s="18">
@@ -4360,7 +4378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2025</v>
       </c>
@@ -4395,14 +4413,14 @@
         <v>0</v>
       </c>
       <c r="N7" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5384840629033087</v>
       </c>
       <c r="O7">
         <v>16</v>
       </c>
       <c r="P7" s="18">
-        <f>O7-N7</f>
+        <f t="shared" si="0"/>
         <v>13.461515937096692</v>
       </c>
       <c r="Q7" s="18">
@@ -4437,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2026</v>
       </c>
@@ -4472,14 +4490,14 @@
         <v>0</v>
       </c>
       <c r="N8" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.0000000000004299</v>
       </c>
       <c r="O8">
         <v>16</v>
       </c>
       <c r="P8" s="18">
-        <f>O8-N8</f>
+        <f t="shared" si="0"/>
         <v>7.9999999999995701</v>
       </c>
       <c r="Q8" s="18">
@@ -4514,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2027</v>
       </c>
@@ -4549,14 +4567,14 @@
         <v>0</v>
       </c>
       <c r="N9" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.461515937171171</v>
       </c>
       <c r="O9">
         <v>16</v>
       </c>
       <c r="P9" s="18">
-        <f>O9-N9</f>
+        <f t="shared" si="0"/>
         <v>2.5384840628288288</v>
       </c>
       <c r="Q9" s="18">
@@ -4591,7 +4609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2028</v>
       </c>
@@ -4626,14 +4644,14 @@
         <v>0</v>
       </c>
       <c r="N10" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.635997895664687</v>
       </c>
       <c r="O10">
         <v>16</v>
       </c>
       <c r="P10" s="18">
-        <f>O10-N10</f>
+        <f t="shared" si="0"/>
         <v>0.36400210433531299</v>
       </c>
       <c r="Q10" s="18">
@@ -4668,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2029</v>
       </c>
@@ -4703,14 +4721,14 @@
         <v>0</v>
       </c>
       <c r="N11" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.978402003613578</v>
       </c>
       <c r="O11">
         <v>16</v>
       </c>
       <c r="P11" s="18">
-        <f>O11-N11</f>
+        <f t="shared" si="0"/>
         <v>2.1597996386422125E-2</v>
       </c>
       <c r="Q11" s="18">
@@ -4745,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2030</v>
       </c>
@@ -4780,14 +4798,14 @@
         <v>4.7610636570993796E-6</v>
       </c>
       <c r="N12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.99950576325014</v>
       </c>
       <c r="O12">
         <v>16</v>
       </c>
       <c r="P12" s="18">
-        <f>O12-N12</f>
+        <f t="shared" si="0"/>
         <v>4.9423674986037724E-4</v>
       </c>
       <c r="Q12" s="18">
@@ -4822,7 +4840,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C13" s="24" t="s">
         <v>135</v>
       </c>
@@ -4854,7 +4872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14">
         <v>2021</v>
@@ -4914,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15">
         <v>2021</v>
@@ -4977,7 +4995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2022</v>
       </c>
@@ -5039,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2023</v>
       </c>
@@ -5101,7 +5119,7 @@
         <v>5.1000000000000004E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2024</v>
       </c>
@@ -5163,7 +5181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2025</v>
       </c>
@@ -5225,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2026</v>
       </c>
@@ -5287,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2027</v>
       </c>
@@ -5349,7 +5367,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2028</v>
       </c>
@@ -5412,7 +5430,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2029</v>
       </c>
@@ -5474,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2030</v>
       </c>
@@ -5536,7 +5554,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C25" s="24" t="s">
         <v>82</v>
       </c>
@@ -5568,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="19"/>
       <c r="C26">
         <v>2021</v>
@@ -5628,7 +5646,7 @@
         <v>2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2021</v>
       </c>
@@ -5691,7 +5709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2022</v>
       </c>
@@ -5754,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>2023</v>
       </c>
@@ -5816,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2024</v>
       </c>
@@ -5879,7 +5897,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2025</v>
       </c>
@@ -5942,7 +5960,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2026</v>
       </c>
@@ -6004,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2027</v>
       </c>
@@ -6067,7 +6085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>2028</v>
       </c>
@@ -6130,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>2029</v>
       </c>
@@ -6193,7 +6211,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>2030</v>
       </c>
@@ -6256,7 +6274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C37" s="24" t="s">
         <v>83</v>
       </c>
@@ -6288,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B38" s="19"/>
       <c r="C38">
         <v>2021</v>
@@ -6348,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2021</v>
       </c>
@@ -6410,7 +6428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2022</v>
       </c>
@@ -6472,7 +6490,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2023</v>
       </c>
@@ -6534,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2024</v>
       </c>
@@ -6596,7 +6614,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>2025</v>
       </c>
@@ -6658,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2026</v>
       </c>
@@ -6720,7 +6738,7 @@
         <v>2.5384799999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2027</v>
       </c>
@@ -6782,7 +6800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2028</v>
       </c>
@@ -6844,7 +6862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>2029</v>
       </c>
@@ -6906,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>2030</v>
       </c>
@@ -6968,7 +6986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="49" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U49">
         <v>2025</v>
       </c>
@@ -6997,7 +7015,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="50" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U50">
         <v>2025</v>
       </c>
@@ -7026,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="51" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U51">
         <v>2025</v>
       </c>
@@ -7055,7 +7073,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="52" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U52">
         <v>2025</v>
       </c>
@@ -7084,7 +7102,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="53" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U53">
         <v>2026</v>
       </c>
@@ -7113,7 +7131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="54" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U54">
         <v>2026</v>
       </c>
@@ -7142,7 +7160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U55">
         <v>2026</v>
       </c>
@@ -7171,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U56">
         <v>2026</v>
       </c>
@@ -7200,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U57">
         <v>2026</v>
       </c>
@@ -7229,7 +7247,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U58">
         <v>2026</v>
       </c>
@@ -7258,7 +7276,7 @@
         <v>60.000300000000003</v>
       </c>
     </row>
-    <row r="59" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="59" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U59">
         <v>2026</v>
       </c>
@@ -7287,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U60">
         <v>2026</v>
       </c>
@@ -7316,7 +7334,7 @@
         <v>60.000300000000003</v>
       </c>
     </row>
-    <row r="61" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U61">
         <v>2026</v>
       </c>
@@ -7345,7 +7363,7 @@
         <v>7.6000000000000004E-4</v>
       </c>
     </row>
-    <row r="62" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U62">
         <v>2026</v>
       </c>
@@ -7374,7 +7392,7 @@
         <v>13.46152</v>
       </c>
     </row>
-    <row r="63" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U63">
         <v>2027</v>
       </c>
@@ -7403,7 +7421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U64">
         <v>2027</v>
       </c>
@@ -7432,7 +7450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="65" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U65">
         <v>2027</v>
       </c>
@@ -7461,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="66" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U66">
         <v>2027</v>
       </c>
@@ -7490,7 +7508,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="67" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U67">
         <v>2027</v>
       </c>
@@ -7519,7 +7537,7 @@
         <v>60.01296</v>
       </c>
     </row>
-    <row r="68" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="68" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U68">
         <v>2027</v>
       </c>
@@ -7548,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="69" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U69">
         <v>2027</v>
       </c>
@@ -7577,7 +7595,7 @@
         <v>60.01296</v>
       </c>
     </row>
-    <row r="70" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="70" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U70">
         <v>2027</v>
       </c>
@@ -7606,7 +7624,7 @@
         <v>3.2399999999999998E-2</v>
       </c>
     </row>
-    <row r="71" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="71" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U71">
         <v>2027</v>
       </c>
@@ -7635,7 +7653,7 @@
         <v>15.635999999999999</v>
       </c>
     </row>
-    <row r="72" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="72" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U72">
         <v>2027</v>
       </c>
@@ -7664,7 +7682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="73" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U73">
         <v>2028</v>
       </c>
@@ -7693,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="74" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U74">
         <v>2028</v>
       </c>
@@ -7722,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="75" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U75">
         <v>2028</v>
       </c>
@@ -7751,7 +7769,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="76" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U76">
         <v>2028</v>
       </c>
@@ -7780,7 +7798,7 @@
         <v>60.218400000000003</v>
       </c>
     </row>
-    <row r="77" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="77" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U77">
         <v>2028</v>
       </c>
@@ -7809,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="78" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U78">
         <v>2028</v>
       </c>
@@ -7838,7 +7856,7 @@
         <v>60.218400000000003</v>
       </c>
     </row>
-    <row r="79" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="79" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U79">
         <v>2028</v>
       </c>
@@ -7867,7 +7885,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="80" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="80" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U80">
         <v>2028</v>
       </c>
@@ -7896,7 +7914,7 @@
         <v>15.978400000000001</v>
       </c>
     </row>
-    <row r="81" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="81" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U81">
         <v>2028</v>
       </c>
@@ -7925,7 +7943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="82" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U82">
         <v>2028</v>
       </c>
@@ -7954,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="83" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U83">
         <v>2029</v>
       </c>
@@ -7983,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="84" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U84">
         <v>2029</v>
       </c>
@@ -8012,7 +8030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="85" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U85">
         <v>2029</v>
       </c>
@@ -8041,7 +8059,7 @@
         <v>61.523090000000003</v>
       </c>
     </row>
-    <row r="86" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="86" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U86">
         <v>2029</v>
       </c>
@@ -8070,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="87" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U87">
         <v>2029</v>
       </c>
@@ -8099,7 +8117,7 @@
         <v>61.523090000000003</v>
       </c>
     </row>
-    <row r="88" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="88" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U88">
         <v>2029</v>
       </c>
@@ -8128,7 +8146,7 @@
         <v>3.8077299999999998</v>
       </c>
     </row>
-    <row r="89" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="89" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U89">
         <v>2029</v>
       </c>
@@ -8157,7 +8175,7 @@
         <v>15.999510000000001</v>
       </c>
     </row>
-    <row r="90" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="90" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U90">
         <v>2029</v>
       </c>
@@ -8186,7 +8204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="91" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U91">
         <v>2029</v>
       </c>
@@ -8215,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="92" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U92">
         <v>2029</v>
       </c>
@@ -8244,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="93" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U93">
         <v>2030</v>
       </c>
@@ -8261,7 +8279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="94" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U94">
         <v>2030</v>
       </c>
@@ -8278,7 +8296,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="95" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U95">
         <v>2030</v>
       </c>
@@ -8295,7 +8313,7 @@
         <v>51.523090000000003</v>
       </c>
     </row>
-    <row r="96" spans="21:30" x14ac:dyDescent="0.35">
+    <row r="96" spans="21:30" x14ac:dyDescent="0.25">
       <c r="U96">
         <v>2030</v>
       </c>
@@ -8312,7 +8330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="21:25" x14ac:dyDescent="0.35">
+    <row r="97" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U97">
         <v>2030</v>
       </c>
@@ -8329,7 +8347,7 @@
         <v>24.91385</v>
       </c>
     </row>
-    <row r="98" spans="21:25" x14ac:dyDescent="0.35">
+    <row r="98" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U98">
         <v>2030</v>
       </c>
@@ -8346,7 +8364,7 @@
         <v>16.60924</v>
       </c>
     </row>
-    <row r="99" spans="21:25" x14ac:dyDescent="0.35">
+    <row r="99" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U99">
         <v>2030</v>
       </c>
@@ -8363,7 +8381,7 @@
         <v>1.5230900000000001</v>
       </c>
     </row>
-    <row r="100" spans="21:25" x14ac:dyDescent="0.35">
+    <row r="100" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U100">
         <v>2030</v>
       </c>
@@ -8380,7 +8398,7 @@
         <v>2.28464</v>
       </c>
     </row>
-    <row r="101" spans="21:25" x14ac:dyDescent="0.35">
+    <row r="101" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U101">
         <v>2030</v>
       </c>
@@ -8397,7 +8415,7 @@
         <v>15.999510000000001</v>
       </c>
     </row>
-    <row r="102" spans="21:25" x14ac:dyDescent="0.35">
+    <row r="102" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U102">
         <v>2030</v>
       </c>
@@ -8428,19 +8446,19 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>121</v>
       </c>
@@ -8457,15 +8475,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
@@ -8475,6 +8484,15 @@
     <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8741,14 +8759,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8761,6 +8771,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PythonProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C34F668-96B0-4505-9134-22977D4DB67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA55E94-BAF5-4785-A3D8-40FC92425069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Processes" sheetId="6" r:id="rId3"/>
     <sheet name="Flows" sheetId="1" r:id="rId4"/>
     <sheet name="Scenarios" sheetId="12" r:id="rId5"/>
-    <sheet name="Data validation parameters" sheetId="9" r:id="rId6"/>
-    <sheet name="DMFA results (example)" sheetId="8" r:id="rId7"/>
-    <sheet name="Carbon fraction (will be moved)" sheetId="7" r:id="rId8"/>
+    <sheet name="Transformation stage colors" sheetId="13" r:id="rId6"/>
+    <sheet name="Data validation parameters" sheetId="9" r:id="rId7"/>
+    <sheet name="DMFA results (example)" sheetId="8" r:id="rId8"/>
+    <sheet name="Carbon fraction (will be moved)" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Flows!$A$3:$U$14</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="240">
   <si>
     <t>Years</t>
   </si>
@@ -890,7 +891,16 @@
     <t>Sigmoid</t>
   </si>
   <si>
-    <t>Reduce sawmilling residues by 50% between 2025 and 2030</t>
+    <t>visualize_inflows_to_processes</t>
+  </si>
+  <si>
+    <t>Create inflow visualization and export data for process IDs defined in here. Each process ID must be separated by comma (',')</t>
+  </si>
+  <si>
+    <t>List of strings</t>
+  </si>
+  <si>
+    <t>Incineration:FI,  Sawmilling:FI, Sawnwood:FI</t>
   </si>
 </sst>
 </file>
@@ -1725,17 +1735,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FFA668-DA1A-459B-BD42-D0D7F7709F0D}">
-  <dimension ref="B2:E24"/>
+  <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="103.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="115.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -2013,13 +2024,27 @@
         <v>216</v>
       </c>
       <c r="C24" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>198</v>
       </c>
       <c r="E24" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E25" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +2099,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2598,7 +2623,7 @@
   <dimension ref="A1:U91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I6"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2618,8 +2643,9 @@
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.5703125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" customWidth="1"/>
+    <col min="17" max="17" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="53.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -3738,9 +3764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43406F76-D4E1-4DE8-A811-C2AB881D41ED}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3792,30 +3816,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2">
-        <v>-50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>2025</v>
-      </c>
-      <c r="H2">
-        <v>2030</v>
-      </c>
-      <c r="I2" t="s">
-        <v>233</v>
-      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -3845,6 +3847,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA92C4F1-884F-4740-8793-4A0AB47EED3D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12935D7-39CC-4336-870D-98DAC14A69ED}">
   <dimension ref="B2:F11"/>
   <sheetViews>
@@ -3961,7 +3977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E839B9F-9E6A-42D1-BF39-12023C14C5F8}">
   <dimension ref="A1:AD102"/>
   <sheetViews>
@@ -8438,7 +8454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C620F7-4B8A-4ECD-9835-AFC6C4EF2431}">
   <dimension ref="B1:D2"/>
   <sheetViews>

--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PythonProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA55E94-BAF5-4785-A3D8-40FC92425069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764901BD-7DED-42A9-AED0-E3206316D288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="257">
   <si>
     <t>Years</t>
   </si>
@@ -267,33 +267,6 @@
   </si>
   <si>
     <t xml:space="preserve">Random input values </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 Roundwood </t>
-  </si>
-  <si>
-    <t>1 Sawmilling</t>
-  </si>
-  <si>
-    <t>2 By products</t>
-  </si>
-  <si>
-    <t>3 Sawnwood</t>
-  </si>
-  <si>
-    <t>4 Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 Furnitute </t>
-  </si>
-  <si>
-    <t>8 Incineration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Import </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 Export </t>
   </si>
   <si>
     <t>Carbon OC</t>
@@ -900,7 +873,85 @@
     <t>List of strings</t>
   </si>
   <si>
-    <t>Incineration:FI,  Sawmilling:FI, Sawnwood:FI</t>
+    <t>Incineration:FI, Sawmilling:FI</t>
+  </si>
+  <si>
+    <t>base_unit_name</t>
+  </si>
+  <si>
+    <t>Base unit name. This is used with relative flows when exporting flow data to CSVs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 Roundwood </t>
+  </si>
+  <si>
+    <t>1 Sawmilling</t>
+  </si>
+  <si>
+    <t>2 By products</t>
+  </si>
+  <si>
+    <t>3 Sawnwood</t>
+  </si>
+  <si>
+    <t>4 Construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Import </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 Export </t>
+  </si>
+  <si>
+    <t>8 Incineration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Furniture </t>
+  </si>
+  <si>
+    <t>Transformation stage name</t>
+  </si>
+  <si>
+    <t>Color (hex code)</t>
+  </si>
+  <si>
+    <t>Reduce sawmilling residues by 50% between 2025 and 2030</t>
+  </si>
+  <si>
+    <t>Third</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>#7DDA60</t>
+  </si>
+  <si>
+    <t>#eb5e34</t>
+  </si>
+  <si>
+    <t>#8c76cf</t>
+  </si>
+  <si>
+    <t>#5BAA11</t>
+  </si>
+  <si>
+    <t>#3281db</t>
+  </si>
+  <si>
+    <t>#61b053</t>
+  </si>
+  <si>
+    <t>#EFC3CA</t>
+  </si>
+  <si>
+    <t>#DFC57B</t>
+  </si>
+  <si>
+    <t>#707070</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1151,6 +1202,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1569,7 +1623,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,7 +1655,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="1"/>
@@ -1614,7 +1668,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D3" s="40"/>
     </row>
@@ -1638,7 +1692,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D5" s="40"/>
     </row>
@@ -1662,7 +1716,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D7" s="40"/>
     </row>
@@ -1692,25 +1746,25 @@
     </row>
     <row r="10" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D11" s="40"/>
     </row>
@@ -1735,10 +1789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FFA668-DA1A-459B-BD42-D0D7F7709F0D}">
-  <dimension ref="B2:E25"/>
+  <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,17 +1805,17 @@
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -1769,13 +1823,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>4</v>
@@ -1783,268 +1837,282 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" t="s">
         <v>160</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C9" s="28">
         <v>2</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C12" s="28">
         <v>2</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C13" s="28">
         <v>2021</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C14" s="28">
         <v>2030</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C15" s="30" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C16" s="30" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C17" s="17">
         <v>0.1</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C18" s="26">
         <v>3.67</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E18" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C19" s="30" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C20" s="30" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E20" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C21" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E21" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C23" s="30" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E23" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C24" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E24" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C25" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D25" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E25" t="s">
-        <v>237</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2099,7 +2167,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,7 +2214,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>11</v>
@@ -2205,28 +2273,28 @@
     <row r="3" spans="1:18" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>16</v>
@@ -2277,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2290,7 +2358,7 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="R4" t="s">
-        <v>73</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
@@ -2314,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2327,7 +2395,7 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="R5" t="s">
-        <v>74</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -2351,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2363,7 +2431,7 @@
         <v>0.05</v>
       </c>
       <c r="R6" t="s">
-        <v>75</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -2387,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2399,7 +2467,7 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="R7" t="s">
-        <v>76</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2435,7 +2503,7 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="R8" t="s">
-        <v>77</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2471,7 +2539,7 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="R9" t="s">
-        <v>78</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -2495,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2507,7 +2575,7 @@
         <v>0.9</v>
       </c>
       <c r="R10" t="s">
-        <v>80</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -2531,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2543,7 +2611,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="R11" t="s">
-        <v>81</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -2567,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2579,7 +2647,7 @@
         <v>0.48299999999999998</v>
       </c>
       <c r="R12" t="s">
-        <v>79</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2623,7 +2691,7 @@
   <dimension ref="A1:U91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2745,31 +2813,31 @@
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="12" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>12</v>
@@ -2787,10 +2855,10 @@
         <v>54</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="R3" s="14" t="s">
         <v>55</v>
@@ -2807,7 +2875,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -2841,7 +2909,7 @@
         <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L4">
         <v>2021</v>
@@ -2857,7 +2925,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -2907,7 +2975,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -2941,7 +3009,7 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L6">
         <v>2021</v>
@@ -2957,7 +3025,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -3009,7 +3077,7 @@
     </row>
     <row r="8" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -3061,7 +3129,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
         <v>61</v>
@@ -3113,7 +3181,7 @@
     </row>
     <row r="10" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
@@ -3165,7 +3233,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -3210,7 +3278,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -3244,7 +3312,7 @@
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L12">
         <v>2021</v>
@@ -3256,7 +3324,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -3290,7 +3358,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L13">
         <v>2021</v>
@@ -3406,7 +3474,7 @@
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="E35" s="16" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -3764,7 +3832,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43406F76-D4E1-4DE8-A811-C2AB881D41ED}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3782,42 +3852,65 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="G1" s="32" t="s">
+      <c r="K1" s="32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="45">
+        <v>-50</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="45">
+        <v>2025</v>
+      </c>
+      <c r="H2" s="45">
+        <v>2030</v>
+      </c>
+      <c r="I2" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -3848,14 +3941,107 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA92C4F1-884F-4740-8793-4A0AB47EED3D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3880,46 +4066,46 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -3930,45 +4116,45 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F8" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4002,33 +4188,33 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="24" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AA1" s="24" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2">
@@ -4062,28 +4248,28 @@
         <v>2030</v>
       </c>
       <c r="V2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="W2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="X2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Y2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="AA2" t="s">
         <v>52</v>
       </c>
       <c r="AB2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="AC2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AD2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -4139,13 +4325,13 @@
         <v>2021</v>
       </c>
       <c r="V3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y3">
         <v>60</v>
@@ -4154,7 +4340,7 @@
         <v>2021</v>
       </c>
       <c r="AB3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -4216,13 +4402,13 @@
         <v>2021</v>
       </c>
       <c r="V4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y4">
         <v>50</v>
@@ -4231,7 +4417,7 @@
         <v>2021</v>
       </c>
       <c r="AB4" s="24" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AC4">
         <v>60</v>
@@ -4293,13 +4479,13 @@
         <v>2021</v>
       </c>
       <c r="V5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y5">
         <v>10</v>
@@ -4308,7 +4494,7 @@
         <v>2021</v>
       </c>
       <c r="AB5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AC5">
         <v>10</v>
@@ -4370,13 +4556,13 @@
         <v>2021</v>
       </c>
       <c r="V6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y6">
         <v>24</v>
@@ -4385,7 +4571,7 @@
         <v>2021</v>
       </c>
       <c r="AB6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AC6">
         <v>60</v>
@@ -4447,13 +4633,13 @@
         <v>2021</v>
       </c>
       <c r="V7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y7">
         <v>16</v>
@@ -4462,7 +4648,7 @@
         <v>2021</v>
       </c>
       <c r="AB7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AC7">
         <v>24</v>
@@ -4524,13 +4710,13 @@
         <v>2021</v>
       </c>
       <c r="V8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="W8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -4539,7 +4725,7 @@
         <v>2021</v>
       </c>
       <c r="AB8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AC8">
         <v>16</v>
@@ -4601,13 +4787,13 @@
         <v>2021</v>
       </c>
       <c r="V9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="W9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -4616,7 +4802,7 @@
         <v>2021</v>
       </c>
       <c r="AB9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -4678,13 +4864,13 @@
         <v>2021</v>
       </c>
       <c r="V10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W10" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="X10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -4693,7 +4879,7 @@
         <v>2021</v>
       </c>
       <c r="AB10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AC10">
         <v>20</v>
@@ -4755,13 +4941,13 @@
         <v>2021</v>
       </c>
       <c r="V11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="W11" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y11">
         <v>20</v>
@@ -4770,7 +4956,7 @@
         <v>2021</v>
       </c>
       <c r="AB11" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -4832,13 +5018,13 @@
         <v>2021</v>
       </c>
       <c r="V12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="W12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="X12" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y12">
         <v>10</v>
@@ -4847,7 +5033,7 @@
         <v>2022</v>
       </c>
       <c r="AB12" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -4858,19 +5044,19 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C13" s="24" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="U13">
         <v>2022</v>
       </c>
       <c r="V13" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="W13" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="X13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y13">
         <v>10</v>
@@ -4879,7 +5065,7 @@
         <v>2022</v>
       </c>
       <c r="AB13" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AC13">
         <v>60</v>
@@ -4924,13 +5110,13 @@
         <v>2022</v>
       </c>
       <c r="V14" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="W14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X14" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y14">
         <v>20</v>
@@ -4939,7 +5125,7 @@
         <v>2022</v>
       </c>
       <c r="AB14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AC14">
         <v>10</v>
@@ -4987,13 +5173,13 @@
         <v>2022</v>
       </c>
       <c r="V15" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W15" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="X15" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y15">
         <v>5.1000000000000004E-4</v>
@@ -5002,7 +5188,7 @@
         <v>2022</v>
       </c>
       <c r="AB15" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AC15">
         <v>60</v>
@@ -5049,13 +5235,13 @@
         <v>2022</v>
       </c>
       <c r="V16" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="W16" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X16" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -5064,7 +5250,7 @@
         <v>2022</v>
       </c>
       <c r="AB16" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AC16">
         <v>24</v>
@@ -5111,13 +5297,13 @@
         <v>2022</v>
       </c>
       <c r="V17" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="W17" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -5126,7 +5312,7 @@
         <v>2022</v>
       </c>
       <c r="AB17" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AC17">
         <v>16</v>
@@ -5173,13 +5359,13 @@
         <v>2022</v>
       </c>
       <c r="V18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y18">
         <v>10</v>
@@ -5188,7 +5374,7 @@
         <v>2022</v>
       </c>
       <c r="AB18" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -5235,13 +5421,13 @@
         <v>2022</v>
       </c>
       <c r="V19" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="W19" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y19">
         <v>24</v>
@@ -5250,7 +5436,7 @@
         <v>2022</v>
       </c>
       <c r="AB19" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AC19">
         <v>20</v>
@@ -5297,13 +5483,13 @@
         <v>2022</v>
       </c>
       <c r="V20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y20">
         <v>50</v>
@@ -5312,7 +5498,7 @@
         <v>2022</v>
       </c>
       <c r="AB20" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AC20">
         <v>5.1000000000000004E-4</v>
@@ -5359,13 +5545,13 @@
         <v>2022</v>
       </c>
       <c r="V21" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="W21" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y21">
         <v>60</v>
@@ -5374,7 +5560,7 @@
         <v>2023</v>
       </c>
       <c r="AB21" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -5422,13 +5608,13 @@
         <v>2022</v>
       </c>
       <c r="V22" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="W22" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y22">
         <v>16</v>
@@ -5437,7 +5623,7 @@
         <v>2023</v>
       </c>
       <c r="AB22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AC22">
         <v>60</v>
@@ -5484,13 +5670,13 @@
         <v>2023</v>
       </c>
       <c r="V23" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="W23" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X23" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -5499,7 +5685,7 @@
         <v>2023</v>
       </c>
       <c r="AB23" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AC23">
         <v>10</v>
@@ -5546,13 +5732,13 @@
         <v>2023</v>
       </c>
       <c r="V24" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="W24" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="X24" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y24">
         <v>10</v>
@@ -5561,7 +5747,7 @@
         <v>2023</v>
       </c>
       <c r="AB24" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AC24">
         <v>60</v>
@@ -5572,19 +5758,19 @@
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C25" s="24" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="U25">
         <v>2023</v>
       </c>
       <c r="V25" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="W25" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y25">
         <v>20</v>
@@ -5593,7 +5779,7 @@
         <v>2023</v>
       </c>
       <c r="AB25" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AC25">
         <v>24</v>
@@ -5638,13 +5824,13 @@
         <v>2023</v>
       </c>
       <c r="V26" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="X26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y26">
         <v>2.1600000000000001E-2</v>
@@ -5653,7 +5839,7 @@
         <v>2023</v>
       </c>
       <c r="AB26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AC26">
         <v>16</v>
@@ -5701,13 +5887,13 @@
         <v>2023</v>
       </c>
       <c r="V27" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="W27" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X27" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -5716,7 +5902,7 @@
         <v>2023</v>
       </c>
       <c r="AB27" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -5764,13 +5950,13 @@
         <v>2023</v>
       </c>
       <c r="V28" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y28">
         <v>50</v>
@@ -5779,7 +5965,7 @@
         <v>2023</v>
       </c>
       <c r="AB28" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AC28">
         <v>20</v>
@@ -5826,13 +6012,13 @@
         <v>2023</v>
       </c>
       <c r="V29" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="W29" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y29">
         <v>24</v>
@@ -5841,7 +6027,7 @@
         <v>2023</v>
       </c>
       <c r="AB29" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AC29">
         <v>2.1600000000000001E-2</v>
@@ -5889,13 +6075,13 @@
         <v>2023</v>
       </c>
       <c r="V30" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="W30" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y30">
         <v>10</v>
@@ -5904,7 +6090,7 @@
         <v>2024</v>
       </c>
       <c r="AB30" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -5952,13 +6138,13 @@
         <v>2023</v>
       </c>
       <c r="V31" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="W31" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="X31" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y31">
         <v>60</v>
@@ -5967,7 +6153,7 @@
         <v>2024</v>
       </c>
       <c r="AB31" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AC31">
         <v>60</v>
@@ -6014,13 +6200,13 @@
         <v>2023</v>
       </c>
       <c r="V32" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="W32" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y32">
         <v>16</v>
@@ -6029,7 +6215,7 @@
         <v>2024</v>
       </c>
       <c r="AB32" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AC32">
         <v>10</v>
@@ -6077,13 +6263,13 @@
         <v>2024</v>
       </c>
       <c r="V33" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="W33" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="X33" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y33">
         <v>10</v>
@@ -6092,7 +6278,7 @@
         <v>2024</v>
       </c>
       <c r="AB33" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AC33">
         <v>60</v>
@@ -6140,13 +6326,13 @@
         <v>2024</v>
       </c>
       <c r="V34" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="W34" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y34">
         <v>20</v>
@@ -6155,7 +6341,7 @@
         <v>2024</v>
       </c>
       <c r="AB34" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AC34">
         <v>24</v>
@@ -6203,13 +6389,13 @@
         <v>2024</v>
       </c>
       <c r="V35" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W35" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="X35" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y35">
         <v>0.36399999999999999</v>
@@ -6218,7 +6404,7 @@
         <v>2024</v>
       </c>
       <c r="AB35" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AC35">
         <v>16</v>
@@ -6266,13 +6452,13 @@
         <v>2024</v>
       </c>
       <c r="V36" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="W36" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X36" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -6281,7 +6467,7 @@
         <v>2024</v>
       </c>
       <c r="AB36" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -6292,19 +6478,19 @@
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C37" s="24" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="U37">
         <v>2024</v>
       </c>
       <c r="V37" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="W37" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X37" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -6313,7 +6499,7 @@
         <v>2024</v>
       </c>
       <c r="AB37" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AC37">
         <v>20</v>
@@ -6358,13 +6544,13 @@
         <v>2024</v>
       </c>
       <c r="V38" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="W38" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y38">
         <v>16</v>
@@ -6373,7 +6559,7 @@
         <v>2024</v>
       </c>
       <c r="AB38" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AC38">
         <v>0.36399999999999999</v>
@@ -6420,13 +6606,13 @@
         <v>2024</v>
       </c>
       <c r="V39" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="W39" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y39">
         <v>10</v>
@@ -6435,7 +6621,7 @@
         <v>2025</v>
       </c>
       <c r="AB39" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -6482,13 +6668,13 @@
         <v>2024</v>
       </c>
       <c r="V40" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="W40" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y40">
         <v>50</v>
@@ -6497,7 +6683,7 @@
         <v>2025</v>
       </c>
       <c r="AB40" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AC40">
         <v>60</v>
@@ -6544,13 +6730,13 @@
         <v>2024</v>
       </c>
       <c r="V41" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="W41" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="X41" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y41">
         <v>60</v>
@@ -6559,7 +6745,7 @@
         <v>2025</v>
       </c>
       <c r="AB41" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AC41">
         <v>10</v>
@@ -6606,13 +6792,13 @@
         <v>2024</v>
       </c>
       <c r="V42" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="W42" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y42">
         <v>24</v>
@@ -6621,7 +6807,7 @@
         <v>2025</v>
       </c>
       <c r="AB42" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AC42">
         <v>60</v>
@@ -6668,13 +6854,13 @@
         <v>2025</v>
       </c>
       <c r="V43" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="W43" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X43" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -6683,7 +6869,7 @@
         <v>2025</v>
       </c>
       <c r="AB43" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AC43">
         <v>24</v>
@@ -6730,13 +6916,13 @@
         <v>2025</v>
       </c>
       <c r="V44" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="W44" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y44">
         <v>20</v>
@@ -6745,7 +6931,7 @@
         <v>2025</v>
       </c>
       <c r="AB44" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AC44">
         <v>16</v>
@@ -6792,13 +6978,13 @@
         <v>2025</v>
       </c>
       <c r="V45" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W45" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="X45" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y45">
         <v>2.5384799999999998</v>
@@ -6807,7 +6993,7 @@
         <v>2025</v>
       </c>
       <c r="AB45" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -6854,13 +7040,13 @@
         <v>2025</v>
       </c>
       <c r="V46" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="W46" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X46" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -6869,7 +7055,7 @@
         <v>2025</v>
       </c>
       <c r="AB46" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AC46">
         <v>20</v>
@@ -6916,13 +7102,13 @@
         <v>2025</v>
       </c>
       <c r="V47" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="W47" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="X47" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y47">
         <v>10</v>
@@ -6931,7 +7117,7 @@
         <v>2025</v>
       </c>
       <c r="AB47" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AC47">
         <v>2.5384799999999998</v>
@@ -6978,13 +7164,13 @@
         <v>2025</v>
       </c>
       <c r="V48" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="W48" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y48">
         <v>24</v>
@@ -6993,7 +7179,7 @@
         <v>2026</v>
       </c>
       <c r="AB48" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -7007,13 +7193,13 @@
         <v>2025</v>
       </c>
       <c r="V49" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="W49" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y49">
         <v>10</v>
@@ -7022,7 +7208,7 @@
         <v>2026</v>
       </c>
       <c r="AB49" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AC49">
         <v>60</v>
@@ -7036,13 +7222,13 @@
         <v>2025</v>
       </c>
       <c r="V50" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="W50" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y50">
         <v>50</v>
@@ -7051,7 +7237,7 @@
         <v>2026</v>
       </c>
       <c r="AB50" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AC50">
         <v>10</v>
@@ -7065,13 +7251,13 @@
         <v>2025</v>
       </c>
       <c r="V51" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="W51" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="X51" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y51">
         <v>60</v>
@@ -7080,7 +7266,7 @@
         <v>2026</v>
       </c>
       <c r="AB51" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AC51">
         <v>60</v>
@@ -7094,13 +7280,13 @@
         <v>2025</v>
       </c>
       <c r="V52" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="W52" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y52">
         <v>16</v>
@@ -7109,7 +7295,7 @@
         <v>2026</v>
       </c>
       <c r="AB52" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AC52">
         <v>24</v>
@@ -7123,13 +7309,13 @@
         <v>2026</v>
       </c>
       <c r="V53" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="W53" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y53">
         <v>20</v>
@@ -7138,7 +7324,7 @@
         <v>2026</v>
       </c>
       <c r="AB53" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AC53">
         <v>16</v>
@@ -7152,13 +7338,13 @@
         <v>2026</v>
       </c>
       <c r="V54" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W54" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="X54" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y54">
         <v>8</v>
@@ -7167,7 +7353,7 @@
         <v>2026</v>
       </c>
       <c r="AB54" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -7181,13 +7367,13 @@
         <v>2026</v>
       </c>
       <c r="V55" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="W55" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X55" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -7196,7 +7382,7 @@
         <v>2026</v>
       </c>
       <c r="AB55" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AC55">
         <v>20</v>
@@ -7210,13 +7396,13 @@
         <v>2026</v>
       </c>
       <c r="V56" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="W56" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X56" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -7225,7 +7411,7 @@
         <v>2026</v>
       </c>
       <c r="AB56" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AC56">
         <v>8</v>
@@ -7239,13 +7425,13 @@
         <v>2026</v>
       </c>
       <c r="V57" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="W57" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="X57" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y57">
         <v>10</v>
@@ -7254,7 +7440,7 @@
         <v>2027</v>
       </c>
       <c r="AB57" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -7268,13 +7454,13 @@
         <v>2026</v>
       </c>
       <c r="V58" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="W58" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y58">
         <v>24</v>
@@ -7283,7 +7469,7 @@
         <v>2027</v>
       </c>
       <c r="AB58" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AC58">
         <v>60.000300000000003</v>
@@ -7297,13 +7483,13 @@
         <v>2026</v>
       </c>
       <c r="V59" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="W59" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X59" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y59">
         <v>10</v>
@@ -7312,7 +7498,7 @@
         <v>2027</v>
       </c>
       <c r="AB59" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AC59">
         <v>10</v>
@@ -7326,13 +7512,13 @@
         <v>2026</v>
       </c>
       <c r="V60" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="W60" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X60" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y60">
         <v>50</v>
@@ -7341,7 +7527,7 @@
         <v>2027</v>
       </c>
       <c r="AB60" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AC60">
         <v>60.000300000000003</v>
@@ -7355,13 +7541,13 @@
         <v>2026</v>
       </c>
       <c r="V61" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="W61" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="X61" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y61">
         <v>60</v>
@@ -7370,7 +7556,7 @@
         <v>2027</v>
       </c>
       <c r="AB61" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AC61">
         <v>24.00018</v>
@@ -7384,13 +7570,13 @@
         <v>2026</v>
       </c>
       <c r="V62" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="W62" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y62">
         <v>16</v>
@@ -7399,7 +7585,7 @@
         <v>2027</v>
       </c>
       <c r="AB62" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AC62">
         <v>16.000119999999999</v>
@@ -7413,13 +7599,13 @@
         <v>2027</v>
       </c>
       <c r="V63" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="W63" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="X63" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y63">
         <v>10</v>
@@ -7428,7 +7614,7 @@
         <v>2027</v>
       </c>
       <c r="AB63" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -7442,13 +7628,13 @@
         <v>2027</v>
       </c>
       <c r="V64" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="W64" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y64">
         <v>20</v>
@@ -7457,7 +7643,7 @@
         <v>2027</v>
       </c>
       <c r="AB64" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AC64">
         <v>20</v>
@@ -7471,13 +7657,13 @@
         <v>2027</v>
       </c>
       <c r="V65" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W65" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="X65" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y65">
         <v>13.46152</v>
@@ -7486,7 +7672,7 @@
         <v>2027</v>
       </c>
       <c r="AB65" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AC65">
         <v>13.461970000000001</v>
@@ -7500,13 +7686,13 @@
         <v>2027</v>
       </c>
       <c r="V66" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="W66" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X66" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y66">
         <v>4.6000000000000001E-4</v>
@@ -7515,7 +7701,7 @@
         <v>2028</v>
       </c>
       <c r="AB66" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -7529,13 +7715,13 @@
         <v>2027</v>
       </c>
       <c r="V67" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="W67" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X67" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y67">
         <v>2.9999999999999997E-4</v>
@@ -7544,7 +7730,7 @@
         <v>2028</v>
       </c>
       <c r="AB67" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AC67">
         <v>60.01296</v>
@@ -7558,13 +7744,13 @@
         <v>2027</v>
       </c>
       <c r="V68" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="W68" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y68">
         <v>16.000119999999999</v>
@@ -7573,7 +7759,7 @@
         <v>2028</v>
       </c>
       <c r="AB68" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AC68">
         <v>10</v>
@@ -7587,13 +7773,13 @@
         <v>2027</v>
       </c>
       <c r="V69" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="W69" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X69" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y69">
         <v>10</v>
@@ -7602,7 +7788,7 @@
         <v>2028</v>
       </c>
       <c r="AB69" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AC69">
         <v>60.01296</v>
@@ -7616,13 +7802,13 @@
         <v>2027</v>
       </c>
       <c r="V70" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="W70" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X70" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y70">
         <v>50.000300000000003</v>
@@ -7631,7 +7817,7 @@
         <v>2028</v>
       </c>
       <c r="AB70" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AC70">
         <v>24.00778</v>
@@ -7645,13 +7831,13 @@
         <v>2027</v>
       </c>
       <c r="V71" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="W71" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="X71" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y71">
         <v>60</v>
@@ -7660,7 +7846,7 @@
         <v>2028</v>
       </c>
       <c r="AB71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AC71">
         <v>16.005179999999999</v>
@@ -7674,13 +7860,13 @@
         <v>2027</v>
       </c>
       <c r="V72" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="W72" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X72" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y72">
         <v>24.00018</v>
@@ -7689,7 +7875,7 @@
         <v>2028</v>
       </c>
       <c r="AB72" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -7703,13 +7889,13 @@
         <v>2028</v>
       </c>
       <c r="V73" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="W73" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X73" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y73">
         <v>1.9439999999999999E-2</v>
@@ -7718,7 +7904,7 @@
         <v>2028</v>
       </c>
       <c r="AB73" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AC73">
         <v>20</v>
@@ -7732,13 +7918,13 @@
         <v>2028</v>
       </c>
       <c r="V74" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="W74" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y74">
         <v>20</v>
@@ -7747,7 +7933,7 @@
         <v>2028</v>
       </c>
       <c r="AB74" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AC74">
         <v>15.65544</v>
@@ -7761,13 +7947,13 @@
         <v>2028</v>
       </c>
       <c r="V75" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W75" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="X75" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y75">
         <v>15.635999999999999</v>
@@ -7776,7 +7962,7 @@
         <v>2029</v>
       </c>
       <c r="AB75" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -7790,13 +7976,13 @@
         <v>2028</v>
       </c>
       <c r="V76" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="W76" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="X76" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y76">
         <v>10</v>
@@ -7805,7 +7991,7 @@
         <v>2029</v>
       </c>
       <c r="AB76" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AC76">
         <v>60.218400000000003</v>
@@ -7819,13 +8005,13 @@
         <v>2028</v>
       </c>
       <c r="V77" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="W77" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X77" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y77">
         <v>1.2959999999999999E-2</v>
@@ -7834,7 +8020,7 @@
         <v>2029</v>
       </c>
       <c r="AB77" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AC77">
         <v>10</v>
@@ -7848,13 +8034,13 @@
         <v>2028</v>
       </c>
       <c r="V78" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="W78" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X78" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y78">
         <v>10</v>
@@ -7863,7 +8049,7 @@
         <v>2029</v>
       </c>
       <c r="AB78" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AC78">
         <v>60.218400000000003</v>
@@ -7877,13 +8063,13 @@
         <v>2028</v>
       </c>
       <c r="V79" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="W79" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X79" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y79">
         <v>24.00778</v>
@@ -7892,7 +8078,7 @@
         <v>2029</v>
       </c>
       <c r="AB79" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AC79">
         <v>24.131039999999999</v>
@@ -7906,13 +8092,13 @@
         <v>2028</v>
       </c>
       <c r="V80" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="W80" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X80" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y80">
         <v>50.01296</v>
@@ -7921,7 +8107,7 @@
         <v>2029</v>
       </c>
       <c r="AB80" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AC80">
         <v>16.08736</v>
@@ -7935,13 +8121,13 @@
         <v>2028</v>
       </c>
       <c r="V81" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="W81" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="X81" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y81">
         <v>60</v>
@@ -7950,7 +8136,7 @@
         <v>2029</v>
       </c>
       <c r="AB81" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -7964,13 +8150,13 @@
         <v>2028</v>
       </c>
       <c r="V82" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="W82" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X82" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y82">
         <v>16.005179999999999</v>
@@ -7979,7 +8165,7 @@
         <v>2029</v>
       </c>
       <c r="AB82" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AC82">
         <v>20</v>
@@ -7993,13 +8179,13 @@
         <v>2029</v>
       </c>
       <c r="V83" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="W83" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="X83" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y83">
         <v>10</v>
@@ -8008,7 +8194,7 @@
         <v>2029</v>
       </c>
       <c r="AB83" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AC83">
         <v>16.306000000000001</v>
@@ -8022,13 +8208,13 @@
         <v>2029</v>
       </c>
       <c r="V84" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="W84" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X84" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y84">
         <v>20</v>
@@ -8037,7 +8223,7 @@
         <v>2030</v>
       </c>
       <c r="AB84" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -8051,13 +8237,13 @@
         <v>2029</v>
       </c>
       <c r="V85" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="W85" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X85" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y85">
         <v>0.3276</v>
@@ -8066,7 +8252,7 @@
         <v>2030</v>
       </c>
       <c r="AB85" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AC85">
         <v>61.523090000000003</v>
@@ -8080,13 +8266,13 @@
         <v>2029</v>
       </c>
       <c r="V86" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="W86" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X86" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y86">
         <v>0.21840000000000001</v>
@@ -8095,7 +8281,7 @@
         <v>2030</v>
       </c>
       <c r="AB86" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AC86">
         <v>10</v>
@@ -8109,13 +8295,13 @@
         <v>2029</v>
       </c>
       <c r="V87" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W87" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="X87" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y87">
         <v>15.978400000000001</v>
@@ -8124,7 +8310,7 @@
         <v>2030</v>
       </c>
       <c r="AB87" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AC87">
         <v>61.523090000000003</v>
@@ -8138,13 +8324,13 @@
         <v>2029</v>
       </c>
       <c r="V88" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="W88" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X88" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y88">
         <v>24.131039999999999</v>
@@ -8153,7 +8339,7 @@
         <v>2030</v>
       </c>
       <c r="AB88" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AC88">
         <v>24.91385</v>
@@ -8167,13 +8353,13 @@
         <v>2029</v>
       </c>
       <c r="V89" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="W89" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X89" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y89">
         <v>10</v>
@@ -8182,7 +8368,7 @@
         <v>2030</v>
       </c>
       <c r="AB89" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AC89">
         <v>16.60924</v>
@@ -8196,13 +8382,13 @@
         <v>2029</v>
       </c>
       <c r="V90" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="W90" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X90" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y90">
         <v>50.218400000000003</v>
@@ -8211,7 +8397,7 @@
         <v>2030</v>
       </c>
       <c r="AB90" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -8225,13 +8411,13 @@
         <v>2029</v>
       </c>
       <c r="V91" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="W91" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="X91" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y91">
         <v>60</v>
@@ -8240,7 +8426,7 @@
         <v>2030</v>
       </c>
       <c r="AB91" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AC91">
         <v>20</v>
@@ -8254,13 +8440,13 @@
         <v>2029</v>
       </c>
       <c r="V92" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="W92" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X92" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y92">
         <v>16.08736</v>
@@ -8269,7 +8455,7 @@
         <v>2030</v>
       </c>
       <c r="AB92" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AC92">
         <v>18.284140000000001</v>
@@ -8283,13 +8469,13 @@
         <v>2030</v>
       </c>
       <c r="V93" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="W93" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X93" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y93">
         <v>20</v>
@@ -8300,13 +8486,13 @@
         <v>2030</v>
       </c>
       <c r="V94" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="W94" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="X94" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y94">
         <v>60</v>
@@ -8317,13 +8503,13 @@
         <v>2030</v>
       </c>
       <c r="V95" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="W95" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X95" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y95">
         <v>51.523090000000003</v>
@@ -8334,13 +8520,13 @@
         <v>2030</v>
       </c>
       <c r="V96" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="W96" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X96" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y96">
         <v>10</v>
@@ -8351,13 +8537,13 @@
         <v>2030</v>
       </c>
       <c r="V97" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="W97" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X97" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Y97">
         <v>24.91385</v>
@@ -8368,13 +8554,13 @@
         <v>2030</v>
       </c>
       <c r="V98" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="W98" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X98" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Y98">
         <v>16.60924</v>
@@ -8385,13 +8571,13 @@
         <v>2030</v>
       </c>
       <c r="V99" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="W99" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X99" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y99">
         <v>1.5230900000000001</v>
@@ -8402,13 +8588,13 @@
         <v>2030</v>
       </c>
       <c r="V100" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="W100" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X100" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y100">
         <v>2.28464</v>
@@ -8419,13 +8605,13 @@
         <v>2030</v>
       </c>
       <c r="V101" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W101" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="X101" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y101">
         <v>15.999510000000001</v>
@@ -8436,13 +8622,13 @@
         <v>2030</v>
       </c>
       <c r="V102" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="W102" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="X102" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Y102">
         <v>10</v>
@@ -8476,7 +8662,7 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C2">
         <v>0.48</v>

--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PythonProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764901BD-7DED-42A9-AED0-E3206316D288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730E94AA-1844-4B31-A320-70D5F6A9D0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Processes" sheetId="6" r:id="rId3"/>
     <sheet name="Flows" sheetId="1" r:id="rId4"/>
     <sheet name="Scenarios" sheetId="12" r:id="rId5"/>
-    <sheet name="Transformation stage colors" sheetId="13" r:id="rId6"/>
+    <sheet name="Colors" sheetId="13" r:id="rId6"/>
     <sheet name="Data validation parameters" sheetId="9" r:id="rId7"/>
     <sheet name="DMFA results (example)" sheetId="8" r:id="rId8"/>
     <sheet name="Carbon fraction (will be moved)" sheetId="7" r:id="rId9"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="262">
   <si>
     <t>Years</t>
   </si>
@@ -639,9 +639,6 @@
     <t>If using virtual flows, create virtual flow to process if process total inputs and outputs difference is greater than this value</t>
   </si>
   <si>
-    <t xml:space="preserve">The carbon fraction sheet is only temprorary here and it is being used by thee Flows sheet. In the next version of aiphoria this will be moved. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This is the input file of aiphoria where the user defines the processes/nodes and flows/arrows/edges within the preferred system. aiphoria supports both static and dynamic assessments (e.g from 2021 to 2050). If can be used to assess any system and both product or process based MFAs. </t>
   </si>
   <si>
@@ -927,31 +924,49 @@
     <t>Other</t>
   </si>
   <si>
-    <t>#7DDA60</t>
-  </si>
-  <si>
     <t>#eb5e34</t>
   </si>
   <si>
     <t>#8c76cf</t>
   </si>
   <si>
-    <t>#5BAA11</t>
-  </si>
-  <si>
     <t>#3281db</t>
   </si>
   <si>
     <t>#61b053</t>
   </si>
   <si>
-    <t>#EFC3CA</t>
-  </si>
-  <si>
-    <t>#DFC57B</t>
-  </si>
-  <si>
     <t>#707070</t>
+  </si>
+  <si>
+    <t>sheet_name_colors</t>
+  </si>
+  <si>
+    <t>Colors</t>
+  </si>
+  <si>
+    <t>Sheet name that contains data for transformation stage colors (e.g. Colors)</t>
+  </si>
+  <si>
+    <t>#808080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The carbon fraction sheet is only temporary here and it is being used by the Flows sheet. In the next version of aiphoria this will be moved. </t>
+  </si>
+  <si>
+    <t>#7dda60</t>
+  </si>
+  <si>
+    <t>#5baa11</t>
+  </si>
+  <si>
+    <t>#efc3ca</t>
+  </si>
+  <si>
+    <t>#fdc57b</t>
+  </si>
+  <si>
+    <t>NOTE: Virtual flows are assigned to this transformation stage by default</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1202,9 +1217,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1622,9 +1634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240816D1-B4FF-41BE-B292-8CF7D349FFB2}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1655,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="1"/>
@@ -1692,7 +1702,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="40"/>
     </row>
@@ -1716,7 +1726,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" s="40"/>
     </row>
@@ -1764,7 +1774,7 @@
         <v>110</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="D11" s="40"/>
     </row>
@@ -1789,16 +1799,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FFA668-DA1A-459B-BD42-D0D7F7709F0D}">
-  <dimension ref="B2:E26"/>
+  <dimension ref="B2:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="115.5703125" customWidth="1"/>
   </cols>
@@ -1843,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
         <v>156</v>
@@ -1857,7 +1867,7 @@
         <v>151</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
         <v>160</v>
@@ -1871,7 +1881,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
         <v>157</v>
@@ -1885,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s">
         <v>158</v>
@@ -1899,7 +1909,7 @@
         <v>162</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" t="s">
         <v>159</v>
@@ -1913,7 +1923,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" t="s">
         <v>157</v>
@@ -1927,7 +1937,7 @@
         <v>2021</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" t="s">
         <v>163</v>
@@ -1941,7 +1951,7 @@
         <v>2030</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E14" t="s">
         <v>172</v>
@@ -1955,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E15" t="s">
         <v>167</v>
@@ -1969,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E16" t="s">
         <v>169</v>
@@ -1983,7 +1993,7 @@
         <v>0.1</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E17" t="s">
         <v>177</v>
@@ -1997,7 +2007,7 @@
         <v>3.67</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E18" t="s">
         <v>171</v>
@@ -2005,114 +2015,128 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="30" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="30" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" t="s">
         <v>195</v>
       </c>
-      <c r="C21" t="s">
-        <v>196</v>
-      </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" t="s">
         <v>202</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" t="s">
         <v>203</v>
-      </c>
-      <c r="D22" t="s">
-        <v>191</v>
-      </c>
-      <c r="E22" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" t="s">
         <v>205</v>
-      </c>
-      <c r="C23" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E23" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" s="30" t="b">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" t="s">
         <v>227</v>
-      </c>
-      <c r="C25" t="s">
-        <v>230</v>
-      </c>
-      <c r="D25" t="s">
-        <v>229</v>
-      </c>
-      <c r="E25" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s">
         <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2167,7 +2191,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,8 +2211,7 @@
     <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2314,7 +2337,7 @@
       <c r="O3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="Q3" s="22" t="s">
@@ -2358,7 +2381,7 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="R4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
@@ -2395,7 +2418,7 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="R5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -2431,7 +2454,7 @@
         <v>0.05</v>
       </c>
       <c r="R6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -2467,7 +2490,7 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="R7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2503,7 +2526,7 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="R8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2539,7 +2562,7 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="R9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -2575,7 +2598,7 @@
         <v>0.9</v>
       </c>
       <c r="R10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -2611,7 +2634,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="R11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -2647,7 +2670,7 @@
         <v>0.48299999999999998</v>
       </c>
       <c r="R12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2691,7 +2714,7 @@
   <dimension ref="A1:U91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3474,7 +3497,7 @@
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="E35" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -3833,7 +3856,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3852,64 +3875,63 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="C1" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="J1" s="32" t="s">
-        <v>218</v>
-      </c>
       <c r="K1" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" s="46" t="s">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2">
         <v>-50</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2">
         <v>2025</v>
       </c>
-      <c r="H2" s="45">
+      <c r="H2">
         <v>2030</v>
       </c>
-      <c r="I2" s="45" t="s">
-        <v>224</v>
+      <c r="I2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3941,10 +3963,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA92C4F1-884F-4740-8793-4A0AB47EED3D}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3953,96 +3975,100 @@
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
       <c r="B9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>246</v>
       </c>
-      <c r="B10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>256</v>
+      <c r="B11" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4066,29 +4092,29 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>166</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -4099,13 +4125,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
         <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -4116,13 +4142,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -4130,10 +4156,10 @@
         <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -4141,10 +4167,10 @@
         <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -4154,7 +4180,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4206,10 +4232,10 @@
         <v>106</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AA1" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -4254,7 +4280,7 @@
         <v>95</v>
       </c>
       <c r="X2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y2" t="s">
         <v>96</v>
@@ -8677,27 +8703,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
-    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100806C55B750152A459818B636E97A41C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="74fd9cb75cef04cf26a1ff9ddef01b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xmlns:ns3="145cc194-9bea-4db6-b116-a042a4529fcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afbcbfdd38894bc2ff0644b00c8ec680" ns2:_="" ns3:_="">
     <xsd:import namespace="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
@@ -8960,7 +8965,47 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
+    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D60021C7-CA75-4673-96EA-55284BF81134}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
+    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557FAA9C-B184-448F-B58D-00E4D46BDD72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8977,29 +9022,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D60021C7-CA75-4673-96EA-55284BF81134}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
-    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PythonProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730E94AA-1844-4B31-A320-70D5F6A9D0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E09E6FB-417C-4B86-AA06-302D62C5F728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
@@ -1802,7 +1802,7 @@
   <dimension ref="B2:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E4" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PythonProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E09E6FB-417C-4B86-AA06-302D62C5F728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C908704-BA60-4E86-8D4F-3F0D62C1455A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <sheet name="Carbon fraction (will be moved)" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Flows!$A$3:$U$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Flows!$A$3:$T$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Processes!$D$3:$S$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Settings!$B$6:$E$6</definedName>
     <definedName name="Boolean">'Data validation parameters'!$C$6:$C$7</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="277">
   <si>
     <t>Years</t>
   </si>
@@ -95,21 +97,9 @@
     <t xml:space="preserve"> kg/m3</t>
   </si>
   <si>
-    <t>Lifetime_source</t>
-  </si>
-  <si>
-    <t>Wood_content</t>
-  </si>
-  <si>
-    <t>Wood_content_source</t>
-  </si>
-  <si>
     <t>Density</t>
   </si>
   <si>
-    <t>Density_source</t>
-  </si>
-  <si>
     <t>Modelling status</t>
   </si>
   <si>
@@ -128,9 +118,6 @@
     <t>RoW</t>
   </si>
   <si>
-    <t>Data_source</t>
-  </si>
-  <si>
     <t>Import</t>
   </si>
   <si>
@@ -203,22 +190,7 @@
     <t>m3, kg, %</t>
   </si>
   <si>
-    <t>2 columns needed for each indicator (value and comment)</t>
-  </si>
-  <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Data_source_comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conversion_factor_used </t>
-  </si>
-  <si>
-    <t>Indicator0</t>
-  </si>
-  <si>
-    <t>Indicator1</t>
   </si>
   <si>
     <t>FI</t>
@@ -480,9 +452,6 @@
     <t>j</t>
   </si>
   <si>
-    <t>Carbon_content_conversion_source</t>
-  </si>
-  <si>
     <t>SWE Mm3 SC</t>
   </si>
   <si>
@@ -498,54 +467,18 @@
     <t>FoldedNormal</t>
   </si>
   <si>
-    <t>Source_process</t>
-  </si>
-  <si>
-    <t>Transformation_Stage</t>
-  </si>
-  <si>
-    <t>Source_process_location</t>
-  </si>
-  <si>
-    <t>Target_process</t>
-  </si>
-  <si>
-    <t>Target_process_location</t>
-  </si>
-  <si>
-    <t>Source _ID</t>
-  </si>
-  <si>
-    <t>Target_ID</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
     <t>Process</t>
   </si>
   <si>
-    <t>Process_location</t>
-  </si>
-  <si>
-    <t>Process_ID</t>
-  </si>
-  <si>
     <t>Lifetime</t>
   </si>
   <si>
-    <t>Distribution_type</t>
-  </si>
-  <si>
-    <t>Carbon_content_conversion</t>
-  </si>
-  <si>
     <t xml:space="preserve">tuple </t>
   </si>
   <si>
-    <t xml:space="preserve">Distribution_parameters </t>
-  </si>
-  <si>
     <t>These are the settings for the scenario file</t>
   </si>
   <si>
@@ -555,21 +488,12 @@
     <t>sheet_name_processes</t>
   </si>
   <si>
-    <t>column_range_processes</t>
-  </si>
-  <si>
-    <t>B:R</t>
-  </si>
-  <si>
     <t>skip_num_rows_processes</t>
   </si>
   <si>
     <t>sheet_name_flows</t>
   </si>
   <si>
-    <t>column_range_flows</t>
-  </si>
-  <si>
     <t>skip_num_rows_flows</t>
   </si>
   <si>
@@ -582,16 +506,7 @@
     <t>Sheet name that contains data for Flows, (e.g. Flows)</t>
   </si>
   <si>
-    <t>Start column name and end column name separated by colon (e.g. B:R) that contain data for Flows</t>
-  </si>
-  <si>
-    <t>Start column name and end column name separated by colon (e.g. B:R) that contain data for Processes</t>
-  </si>
-  <si>
     <t>start_year</t>
-  </si>
-  <si>
-    <t>B:U</t>
   </si>
   <si>
     <t>Starting year of the model</t>
@@ -873,12 +788,6 @@
     <t>Incineration:FI, Sawmilling:FI</t>
   </si>
   <si>
-    <t>base_unit_name</t>
-  </si>
-  <si>
-    <t>Base unit name. This is used with relative flows when exporting flow data to CSVs.</t>
-  </si>
-  <si>
     <t xml:space="preserve">0 Roundwood </t>
   </si>
   <si>
@@ -912,18 +821,9 @@
     <t>Color (hex code)</t>
   </si>
   <si>
-    <t>Reduce sawmilling residues by 50% between 2025 and 2030</t>
-  </si>
-  <si>
-    <t>Third</t>
-  </si>
-  <si>
     <t>Virtual</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>#eb5e34</t>
   </si>
   <si>
@@ -936,9 +836,6 @@
     <t>#61b053</t>
   </si>
   <si>
-    <t>#707070</t>
-  </si>
-  <si>
     <t>sheet_name_colors</t>
   </si>
   <si>
@@ -957,9 +854,6 @@
     <t>#7dda60</t>
   </si>
   <si>
-    <t>#5baa11</t>
-  </si>
-  <si>
     <t>#efc3ca</t>
   </si>
   <si>
@@ -967,6 +861,181 @@
   </si>
   <si>
     <t>NOTE: Virtual flows are assigned to this transformation stage by default</t>
+  </si>
+  <si>
+    <t>ignore_columns_processes</t>
+  </si>
+  <si>
+    <t>ignore_columns_flows</t>
+  </si>
+  <si>
+    <t>Ignore Excel columns defined in the list when reading data from Processes sheet. Each column name must be separated by comma (',')</t>
+  </si>
+  <si>
+    <t>Ignore Excel columns defined in the list when reading data from Flows sheet. Each column name must be separated by comma (',')</t>
+  </si>
+  <si>
+    <t>Arbitrary extra metadata provided by user</t>
+  </si>
+  <si>
+    <t>User can add Excel column names parameter</t>
+  </si>
+  <si>
+    <t>Column names must be separated by comma</t>
+  </si>
+  <si>
+    <t>A,S</t>
+  </si>
+  <si>
+    <t>like this: A,S</t>
+  </si>
+  <si>
+    <t>All column names that are found on that list</t>
+  </si>
+  <si>
+    <t>are ignored when loading the data.</t>
+  </si>
+  <si>
+    <t>This column is ignored, check column S in this sheet for more details.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ignore_columns_processes</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Settings-sheet.</t>
+    </r>
+  </si>
+  <si>
+    <t>This allows to add extra columns for notes or</t>
+  </si>
+  <si>
+    <t>other metadata.</t>
+  </si>
+  <si>
+    <t>Process location</t>
+  </si>
+  <si>
+    <t>Transformation stage</t>
+  </si>
+  <si>
+    <t>Lifetime source</t>
+  </si>
+  <si>
+    <t>Distribution parameters</t>
+  </si>
+  <si>
+    <t>Wood content</t>
+  </si>
+  <si>
+    <t>Wood content source</t>
+  </si>
+  <si>
+    <t>Density source</t>
+  </si>
+  <si>
+    <t>ignore_columns_scenarios</t>
+  </si>
+  <si>
+    <t>ignore_columns_colors</t>
+  </si>
+  <si>
+    <t>Ignore Excel columns defined in the list when reading data from Scenarios. Each column name must be separated by comma (',')</t>
+  </si>
+  <si>
+    <t>Ignore Excel columns defined in the list when reading data from Colors sheet. Each column name must be separated by comma (',')</t>
+  </si>
+  <si>
+    <t>Source process</t>
+  </si>
+  <si>
+    <t>Source process location</t>
+  </si>
+  <si>
+    <t>Target process</t>
+  </si>
+  <si>
+    <t>Target process location</t>
+  </si>
+  <si>
+    <t>Source ID</t>
+  </si>
+  <si>
+    <t>Target ID</t>
+  </si>
+  <si>
+    <t>Data source</t>
+  </si>
+  <si>
+    <t>Data source comment</t>
+  </si>
+  <si>
+    <t>Conversion factor used</t>
+  </si>
+  <si>
+    <t>Carbon content conversion</t>
+  </si>
+  <si>
+    <t>Carbon content conversion source</t>
+  </si>
+  <si>
+    <t>Assumed density of a furniture product 450 kg/m3</t>
+  </si>
+  <si>
+    <t>Ignored column, indicators start after this column</t>
+  </si>
+  <si>
+    <t>Ignored column</t>
+  </si>
+  <si>
+    <t>A,R</t>
+  </si>
+  <si>
+    <t>baseline_value_name</t>
+  </si>
+  <si>
+    <t>baseline_unit_name</t>
+  </si>
+  <si>
+    <t>Baseline unit name. This is used with relative flows when exporting flow data to CSVs.</t>
+  </si>
+  <si>
+    <t>Baseline value name. Name of the value type that is used as baseline e.g. "Solid wood equivalent"</t>
+  </si>
+  <si>
+    <t>Mm3</t>
+  </si>
+  <si>
+    <t>Carbon (Mt)</t>
+  </si>
+  <si>
+    <t>2 columns needed for each indicator (name and comment)</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>New parameter</t>
+  </si>
+  <si>
+    <t>Reduce sawmilling residues by 50%</t>
   </si>
 </sst>
 </file>
@@ -978,7 +1047,7 @@
     <numFmt numFmtId="165" formatCode="0.0000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,8 +1112,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1072,6 +1150,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,7 +1214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1205,6 +1289,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1634,7 +1721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240816D1-B4FF-41BE-B292-8CF7D349FFB2}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1652,10 +1741,10 @@
       <c r="B1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="41"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:5" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -1664,10 +1753,10 @@
       <c r="B2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" s="40"/>
+      <c r="C2" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="43"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1677,106 +1766,106 @@
       <c r="B3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="40"/>
+      <c r="C3" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:5" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="43"/>
+        <v>31</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="46"/>
     </row>
     <row r="5" spans="1:5" s="11" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="40"/>
+        <v>40</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="43"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="42"/>
+        <v>29</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:5" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" s="40"/>
+        <v>34</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="42"/>
+        <v>36</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="45"/>
     </row>
     <row r="9" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="40"/>
+        <v>41</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="40"/>
+        <v>101</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="40"/>
+        <v>100</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1799,347 +1888,404 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FFA668-DA1A-459B-BD42-D0D7F7709F0D}">
-  <dimension ref="B2:E27"/>
+  <dimension ref="A2:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E3:E4"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="91.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="115.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="24" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="C9" s="28">
         <v>2</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C12" s="28">
         <v>2</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C13" s="28">
         <v>2021</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C14" s="28">
         <v>2030</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C15" s="30" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C16" s="30" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C17" s="17">
         <v>0.1</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="E17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="26">
+        <v>3.67</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="26">
-        <v>3.67</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="E18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="30" t="b">
+      <c r="C27" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D21" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" t="s">
-        <v>190</v>
-      </c>
-      <c r="E22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>226</v>
-      </c>
-      <c r="C25" t="s">
-        <v>229</v>
-      </c>
-      <c r="D25" t="s">
-        <v>228</v>
-      </c>
-      <c r="E25" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>230</v>
-      </c>
-      <c r="C26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>252</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="E27" t="s">
-        <v>254</v>
-      </c>
-    </row>
+      <c r="D29" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="B6:E6" xr:uid="{89FFA668-DA1A-459B-BD42-D0D7F7709F0D}"/>
   <conditionalFormatting sqref="C15:C16">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>TRUE</formula>
@@ -2148,7 +2294,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:C20">
+  <conditionalFormatting sqref="C21:C22">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -2156,7 +2302,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:C24">
+  <conditionalFormatting sqref="C26:C27">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -2165,7 +2311,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C16 C19:C20 C23:C24" xr:uid="{79A7E31C-3284-4405-9B5F-03E099B07563}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C16 C21:C22 C26:C27" xr:uid="{79A7E31C-3284-4405-9B5F-03E099B07563}">
       <formula1>Boolean</formula1>
     </dataValidation>
   </dataValidations>
@@ -2178,7 +2324,7 @@
           <x14:formula1>
             <xm:f>'Data validation parameters'!$D$6:$D$9</xm:f>
           </x14:formula1>
-          <xm:sqref>C21</xm:sqref>
+          <xm:sqref>C23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2188,34 +2334,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0D592-75C1-4AD1-84F0-2AAE25CA0097}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -2237,7 +2384,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>11</v>
@@ -2258,7 +2405,7 @@
         <v>9</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>11</v>
@@ -2266,8 +2413,11 @@
       <c r="R1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2292,83 +2442,89 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>237</v>
+      </c>
       <c r="B3" s="22" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="G3" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="L3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="J3" s="22" t="s">
+      <c r="M3" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="N3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="22" t="s">
+      <c r="O3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D12" si="0">_xlfn.CONCAT(B4,":",C4)</f>
+        <v>Industrial_roundwood:FI</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="str">
-        <f>_xlfn.CONCAT(B4,":",C4)</f>
-        <v>Industrial_roundwood:FI</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2381,31 +2537,34 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="R4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="S4" s="41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D12" si="0">_xlfn.CONCAT(B5,":",C5)</f>
+        <f t="shared" si="0"/>
         <v>Sawmilling:FI</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2418,31 +2577,34 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="R5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="S5" s="41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>Residues:FI</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2454,31 +2616,34 @@
         <v>0.05</v>
       </c>
       <c r="R6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="S6" s="41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7" si="1">_xlfn.CONCAT(B7,":",C7)</f>
+        <f t="shared" si="0"/>
         <v>Sawnwood:FI</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2490,31 +2655,34 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="R7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="S7" s="41" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>Construction:FI</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2526,31 +2694,32 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="R8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="S8" s="41"/>
+    </row>
+    <row r="9" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>Furniture:FI</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2562,31 +2731,34 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="R9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="S9" s="41" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>Sawnwood:Import</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2598,31 +2770,34 @@
         <v>0.9</v>
       </c>
       <c r="R10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="S10" s="41" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>Sawnwood:Export</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2634,31 +2809,34 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="R11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="S11" s="41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>Incineration:FI</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2670,7 +2848,10 @@
         <v>0.48299999999999998</v>
       </c>
       <c r="R12" t="s">
-        <v>239</v>
+        <v>208</v>
+      </c>
+      <c r="S12" s="41" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2711,15 +2892,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B692AEE8-68EE-4B81-A49D-50BF066DFFE7}">
-  <dimension ref="A1:U91"/>
+  <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
@@ -2733,13 +2914,15 @@
     <col min="12" max="12" width="12.85546875" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="28" customWidth="1"/>
+    <col min="15" max="15" width="26" style="6" customWidth="1"/>
+    <col min="16" max="16" width="29.28515625" customWidth="1"/>
     <col min="17" max="17" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="45.7109375" customWidth="1"/>
+    <col min="19" max="19" width="57.42578125" customWidth="1"/>
+    <col min="20" max="20" width="46.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2791,20 +2974,15 @@
       <c r="Q1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="3"/>
+      <c r="S1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2818,7 +2996,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -2826,99 +3004,97 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>273</v>
+      </c>
       <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="B3" s="12" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>53</v>
+        <v>259</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="R3" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C4" t="str">
         <f>+_xlfn.XLOOKUP(H4,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Source</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F4" t="str">
         <f>+_xlfn.XLOOKUP(I4,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" ref="H4:H13" si="0">_xlfn.CONCAT(B4,":",D4)</f>
@@ -2932,43 +3108,49 @@
         <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L4">
         <v>2021</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="P4">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q4" s="16"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R4" s="16"/>
+      <c r="S4">
+        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.20342399999999999</v>
+      </c>
+      <c r="T4" s="16"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C5" t="str">
         <f>+_xlfn.XLOOKUP(H5,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F5" t="str">
         <f>+_xlfn.XLOOKUP(I5,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2988,37 +3170,43 @@
         <v>2021</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="P5">
-        <f>0.4238*'Carbon fraction (will be moved)'!C2</f>
+        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
       <c r="Q5" s="16"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R5" s="16"/>
+      <c r="S5">
+        <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.20342399999999999</v>
+      </c>
+      <c r="T5" s="16"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C6" t="str">
         <f>+_xlfn.XLOOKUP(H6,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F6" t="str">
         <f>+_xlfn.XLOOKUP(I6,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>by_prod</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3032,43 +3220,49 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L6">
         <v>2021</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="P6">
-        <f>0.395*'Carbon fraction (will be moved)'!C2</f>
+        <f>0.395*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.18959999999999999</v>
       </c>
       <c r="Q6" s="16"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R6" s="16"/>
+      <c r="S6">
+        <f>0.395*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.18959999999999999</v>
+      </c>
+      <c r="T6" s="16"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C7" t="str">
         <f>+_xlfn.XLOOKUP(H7,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F7" t="str">
         <f>+_xlfn.XLOOKUP(I7,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3088,39 +3282,46 @@
         <v>2021</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="P7">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
       <c r="Q7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="S7">
+        <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="T7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C8" t="str">
         <f>+_xlfn.XLOOKUP(H8,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F8" t="str">
         <f>+_xlfn.XLOOKUP(I8,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H8" s="4" t="str">
         <f>_xlfn.CONCAT(B8,":",D8)</f>
@@ -3140,39 +3341,46 @@
         <v>2021</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="P8">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="S8">
+        <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.216</v>
+      </c>
+      <c r="T8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C9" t="str">
         <f>+_xlfn.XLOOKUP(H9,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F9" t="str">
         <f>+_xlfn.XLOOKUP(I9,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>First</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3192,39 +3400,46 @@
         <v>2021</v>
       </c>
       <c r="N9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="P9">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
       <c r="Q9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="S9">
+        <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="T9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C10" t="str">
         <f>+_xlfn.XLOOKUP(H10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>VAM</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F10" t="str">
         <f>+_xlfn.XLOOKUP(I10,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>EoL</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3244,38 +3459,45 @@
         <v>2021</v>
       </c>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="P10">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
       <c r="Q10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="S10">
+        <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
+        <v>0.216</v>
+      </c>
+      <c r="T10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F11" t="str">
         <f>+_xlfn.XLOOKUP(I11,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>EoL</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3295,33 +3517,35 @@
         <v>2021</v>
       </c>
       <c r="N11" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="16"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R11" s="16"/>
+      <c r="T11" s="16"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C12" t="str">
         <f>+_xlfn.XLOOKUP(H12,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F12" t="str">
         <f>+_xlfn.XLOOKUP(I12,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>RoW</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3335,39 +3559,41 @@
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L12">
         <v>2021</v>
       </c>
       <c r="N12" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R12" s="16"/>
+      <c r="T12" s="16"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C13" t="str">
         <f>+_xlfn.XLOOKUP(H13,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>RoW</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F13" t="str">
         <f>+_xlfn.XLOOKUP(I13,Processes!$D$4:$D$47,Processes!$E$4:$E$47)</f>
         <v>Second</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3381,109 +3607,119 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L13">
         <v>2021</v>
       </c>
       <c r="N13" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="16"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R13" s="16"/>
+      <c r="T13" s="16"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="N14"/>
       <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="N15"/>
       <c r="Q15" s="16"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R15" s="16"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="N16"/>
       <c r="Q16" s="16"/>
-    </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="16"/>
+    </row>
+    <row r="17" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="N17"/>
       <c r="Q17" s="16"/>
-    </row>
-    <row r="18" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="16"/>
+    </row>
+    <row r="18" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="N18"/>
       <c r="Q18" s="16"/>
-    </row>
-    <row r="19" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="16"/>
+    </row>
+    <row r="19" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="N19"/>
     </row>
-    <row r="20" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="N21"/>
       <c r="Q21" s="16"/>
-    </row>
-    <row r="22" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="16"/>
+    </row>
+    <row r="22" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="N22"/>
       <c r="Q22" s="16"/>
-    </row>
-    <row r="23" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="16"/>
+    </row>
+    <row r="23" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="N23"/>
       <c r="Q23" s="16"/>
-    </row>
-    <row r="24" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="16"/>
+    </row>
+    <row r="24" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
@@ -3497,7 +3733,7 @@
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="E35" s="16" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -3840,7 +4076,7 @@
       <c r="O91"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:U14" xr:uid="{B692AEE8-68EE-4B81-A49D-50BF066DFFE7}"/>
+  <autoFilter ref="A3:T3" xr:uid="{B692AEE8-68EE-4B81-A49D-50BF066DFFE7}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E35" r:id="rId1" location="json=TH95eCDBsN1pfqczsMf84,S3TGIZvZiI-AUl8oZJcUYg" xr:uid="{26F0F99B-4281-4D67-B3C8-B1BC12D732B7}"/>
@@ -3875,48 +4111,48 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>-50</v>
@@ -3931,7 +4167,7 @@
         <v>2030</v>
       </c>
       <c r="I2" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3963,10 +4199,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA92C4F1-884F-4740-8793-4A0AB47EED3D}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A5" sqref="A5:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3977,93 +4213,77 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>246</v>
-      </c>
-      <c r="B11" t="s">
-        <v>251</v>
+        <v>220</v>
+      </c>
+      <c r="C9" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4077,7 +4297,7 @@
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,95 +4312,95 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4193,7 +4413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E839B9F-9E6A-42D1-BF39-12023C14C5F8}">
   <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
@@ -4214,33 +4434,33 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="24" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="AA1" s="24" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2">
@@ -4274,28 +4494,28 @@
         <v>2030</v>
       </c>
       <c r="V2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="W2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="X2" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="Y2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="AA2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AB2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AC2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AD2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -4351,13 +4571,13 @@
         <v>2021</v>
       </c>
       <c r="V3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="W3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y3">
         <v>60</v>
@@ -4366,7 +4586,7 @@
         <v>2021</v>
       </c>
       <c r="AB3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -4428,13 +4648,13 @@
         <v>2021</v>
       </c>
       <c r="V4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="W4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y4">
         <v>50</v>
@@ -4443,7 +4663,7 @@
         <v>2021</v>
       </c>
       <c r="AB4" s="24" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AC4">
         <v>60</v>
@@ -4505,13 +4725,13 @@
         <v>2021</v>
       </c>
       <c r="V5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Y5">
         <v>10</v>
@@ -4520,7 +4740,7 @@
         <v>2021</v>
       </c>
       <c r="AB5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AC5">
         <v>10</v>
@@ -4582,13 +4802,13 @@
         <v>2021</v>
       </c>
       <c r="V6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Y6">
         <v>24</v>
@@ -4597,7 +4817,7 @@
         <v>2021</v>
       </c>
       <c r="AB6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AC6">
         <v>60</v>
@@ -4659,13 +4879,13 @@
         <v>2021</v>
       </c>
       <c r="V7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Y7">
         <v>16</v>
@@ -4674,7 +4894,7 @@
         <v>2021</v>
       </c>
       <c r="AB7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AC7">
         <v>24</v>
@@ -4736,13 +4956,13 @@
         <v>2021</v>
       </c>
       <c r="V8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -4751,7 +4971,7 @@
         <v>2021</v>
       </c>
       <c r="AB8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AC8">
         <v>16</v>
@@ -4813,13 +5033,13 @@
         <v>2021</v>
       </c>
       <c r="V9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -4828,7 +5048,7 @@
         <v>2021</v>
       </c>
       <c r="AB9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -4890,13 +5110,13 @@
         <v>2021</v>
       </c>
       <c r="V10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -4905,7 +5125,7 @@
         <v>2021</v>
       </c>
       <c r="AB10" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AC10">
         <v>20</v>
@@ -4967,13 +5187,13 @@
         <v>2021</v>
       </c>
       <c r="V11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Y11">
         <v>20</v>
@@ -4982,7 +5202,7 @@
         <v>2021</v>
       </c>
       <c r="AB11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -5044,13 +5264,13 @@
         <v>2021</v>
       </c>
       <c r="V12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W12" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="X12" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y12">
         <v>10</v>
@@ -5059,7 +5279,7 @@
         <v>2022</v>
       </c>
       <c r="AB12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -5070,19 +5290,19 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C13" s="24" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="U13">
         <v>2022</v>
       </c>
       <c r="V13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W13" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="X13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y13">
         <v>10</v>
@@ -5091,7 +5311,7 @@
         <v>2022</v>
       </c>
       <c r="AB13" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AC13">
         <v>60</v>
@@ -5136,13 +5356,13 @@
         <v>2022</v>
       </c>
       <c r="V14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Y14">
         <v>20</v>
@@ -5151,7 +5371,7 @@
         <v>2022</v>
       </c>
       <c r="AB14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AC14">
         <v>10</v>
@@ -5199,13 +5419,13 @@
         <v>2022</v>
       </c>
       <c r="V15" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y15">
         <v>5.1000000000000004E-4</v>
@@ -5214,7 +5434,7 @@
         <v>2022</v>
       </c>
       <c r="AB15" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AC15">
         <v>60</v>
@@ -5261,13 +5481,13 @@
         <v>2022</v>
       </c>
       <c r="V16" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -5276,7 +5496,7 @@
         <v>2022</v>
       </c>
       <c r="AB16" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AC16">
         <v>24</v>
@@ -5323,13 +5543,13 @@
         <v>2022</v>
       </c>
       <c r="V17" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -5338,7 +5558,7 @@
         <v>2022</v>
       </c>
       <c r="AB17" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AC17">
         <v>16</v>
@@ -5385,13 +5605,13 @@
         <v>2022</v>
       </c>
       <c r="V18" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="W18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X18" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Y18">
         <v>10</v>
@@ -5400,7 +5620,7 @@
         <v>2022</v>
       </c>
       <c r="AB18" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -5447,13 +5667,13 @@
         <v>2022</v>
       </c>
       <c r="V19" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="W19" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X19" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Y19">
         <v>24</v>
@@ -5462,7 +5682,7 @@
         <v>2022</v>
       </c>
       <c r="AB19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AC19">
         <v>20</v>
@@ -5509,13 +5729,13 @@
         <v>2022</v>
       </c>
       <c r="V20" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="W20" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X20" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y20">
         <v>50</v>
@@ -5524,7 +5744,7 @@
         <v>2022</v>
       </c>
       <c r="AB20" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AC20">
         <v>5.1000000000000004E-4</v>
@@ -5571,13 +5791,13 @@
         <v>2022</v>
       </c>
       <c r="V21" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="W21" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="X21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y21">
         <v>60</v>
@@ -5586,7 +5806,7 @@
         <v>2023</v>
       </c>
       <c r="AB21" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -5634,13 +5854,13 @@
         <v>2022</v>
       </c>
       <c r="V22" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X22" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Y22">
         <v>16</v>
@@ -5649,7 +5869,7 @@
         <v>2023</v>
       </c>
       <c r="AB22" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AC22">
         <v>60</v>
@@ -5696,13 +5916,13 @@
         <v>2023</v>
       </c>
       <c r="V23" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -5711,7 +5931,7 @@
         <v>2023</v>
       </c>
       <c r="AB23" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AC23">
         <v>10</v>
@@ -5758,13 +5978,13 @@
         <v>2023</v>
       </c>
       <c r="V24" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W24" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="X24" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y24">
         <v>10</v>
@@ -5773,7 +5993,7 @@
         <v>2023</v>
       </c>
       <c r="AB24" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AC24">
         <v>60</v>
@@ -5784,19 +6004,19 @@
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C25" s="24" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="U25">
         <v>2023</v>
       </c>
       <c r="V25" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X25" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Y25">
         <v>20</v>
@@ -5805,7 +6025,7 @@
         <v>2023</v>
       </c>
       <c r="AB25" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AC25">
         <v>24</v>
@@ -5850,13 +6070,13 @@
         <v>2023</v>
       </c>
       <c r="V26" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="X26" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y26">
         <v>2.1600000000000001E-2</v>
@@ -5865,7 +6085,7 @@
         <v>2023</v>
       </c>
       <c r="AB26" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AC26">
         <v>16</v>
@@ -5913,13 +6133,13 @@
         <v>2023</v>
       </c>
       <c r="V27" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X27" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -5928,7 +6148,7 @@
         <v>2023</v>
       </c>
       <c r="AB27" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -5976,13 +6196,13 @@
         <v>2023</v>
       </c>
       <c r="V28" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="W28" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X28" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y28">
         <v>50</v>
@@ -5991,7 +6211,7 @@
         <v>2023</v>
       </c>
       <c r="AB28" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AC28">
         <v>20</v>
@@ -6038,13 +6258,13 @@
         <v>2023</v>
       </c>
       <c r="V29" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="W29" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X29" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Y29">
         <v>24</v>
@@ -6053,7 +6273,7 @@
         <v>2023</v>
       </c>
       <c r="AB29" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AC29">
         <v>2.1600000000000001E-2</v>
@@ -6101,13 +6321,13 @@
         <v>2023</v>
       </c>
       <c r="V30" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="W30" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X30" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Y30">
         <v>10</v>
@@ -6116,7 +6336,7 @@
         <v>2024</v>
       </c>
       <c r="AB30" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -6164,13 +6384,13 @@
         <v>2023</v>
       </c>
       <c r="V31" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="W31" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="X31" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y31">
         <v>60</v>
@@ -6179,7 +6399,7 @@
         <v>2024</v>
       </c>
       <c r="AB31" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AC31">
         <v>60</v>
@@ -6226,13 +6446,13 @@
         <v>2023</v>
       </c>
       <c r="V32" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="W32" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X32" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Y32">
         <v>16</v>
@@ -6241,7 +6461,7 @@
         <v>2024</v>
       </c>
       <c r="AB32" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AC32">
         <v>10</v>
@@ -6289,13 +6509,13 @@
         <v>2024</v>
       </c>
       <c r="V33" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W33" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="X33" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y33">
         <v>10</v>
@@ -6304,7 +6524,7 @@
         <v>2024</v>
       </c>
       <c r="AB33" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AC33">
         <v>60</v>
@@ -6352,13 +6572,13 @@
         <v>2024</v>
       </c>
       <c r="V34" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="W34" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X34" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Y34">
         <v>20</v>
@@ -6367,7 +6587,7 @@
         <v>2024</v>
       </c>
       <c r="AB34" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AC34">
         <v>24</v>
@@ -6415,13 +6635,13 @@
         <v>2024</v>
       </c>
       <c r="V35" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="W35" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="X35" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y35">
         <v>0.36399999999999999</v>
@@ -6430,7 +6650,7 @@
         <v>2024</v>
       </c>
       <c r="AB35" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AC35">
         <v>16</v>
@@ -6478,13 +6698,13 @@
         <v>2024</v>
       </c>
       <c r="V36" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X36" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -6493,7 +6713,7 @@
         <v>2024</v>
       </c>
       <c r="AB36" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -6504,19 +6724,19 @@
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C37" s="24" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="U37">
         <v>2024</v>
       </c>
       <c r="V37" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="W37" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X37" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -6525,7 +6745,7 @@
         <v>2024</v>
       </c>
       <c r="AB37" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AC37">
         <v>20</v>
@@ -6570,13 +6790,13 @@
         <v>2024</v>
       </c>
       <c r="V38" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="W38" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X38" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Y38">
         <v>16</v>
@@ -6585,7 +6805,7 @@
         <v>2024</v>
       </c>
       <c r="AB38" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AC38">
         <v>0.36399999999999999</v>
@@ -6632,13 +6852,13 @@
         <v>2024</v>
       </c>
       <c r="V39" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="W39" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X39" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Y39">
         <v>10</v>
@@ -6647,7 +6867,7 @@
         <v>2025</v>
       </c>
       <c r="AB39" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -6694,13 +6914,13 @@
         <v>2024</v>
       </c>
       <c r="V40" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="W40" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X40" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y40">
         <v>50</v>
@@ -6709,7 +6929,7 @@
         <v>2025</v>
       </c>
       <c r="AB40" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AC40">
         <v>60</v>
@@ -6756,13 +6976,13 @@
         <v>2024</v>
       </c>
       <c r="V41" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="W41" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="X41" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y41">
         <v>60</v>
@@ -6771,7 +6991,7 @@
         <v>2025</v>
       </c>
       <c r="AB41" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AC41">
         <v>10</v>
@@ -6818,13 +7038,13 @@
         <v>2024</v>
       </c>
       <c r="V42" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="W42" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X42" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Y42">
         <v>24</v>
@@ -6833,7 +7053,7 @@
         <v>2025</v>
       </c>
       <c r="AB42" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AC42">
         <v>60</v>
@@ -6880,13 +7100,13 @@
         <v>2025</v>
       </c>
       <c r="V43" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="W43" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X43" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -6895,7 +7115,7 @@
         <v>2025</v>
       </c>
       <c r="AB43" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AC43">
         <v>24</v>
@@ -6942,13 +7162,13 @@
         <v>2025</v>
       </c>
       <c r="V44" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="W44" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X44" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Y44">
         <v>20</v>
@@ -6957,7 +7177,7 @@
         <v>2025</v>
       </c>
       <c r="AB44" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AC44">
         <v>16</v>
@@ -7004,13 +7224,13 @@
         <v>2025</v>
       </c>
       <c r="V45" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="W45" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="X45" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y45">
         <v>2.5384799999999998</v>
@@ -7019,7 +7239,7 @@
         <v>2025</v>
       </c>
       <c r="AB45" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -7066,13 +7286,13 @@
         <v>2025</v>
       </c>
       <c r="V46" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="W46" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X46" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -7081,7 +7301,7 @@
         <v>2025</v>
       </c>
       <c r="AB46" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AC46">
         <v>20</v>
@@ -7128,13 +7348,13 @@
         <v>2025</v>
       </c>
       <c r="V47" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W47" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="X47" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y47">
         <v>10</v>
@@ -7143,7 +7363,7 @@
         <v>2025</v>
       </c>
       <c r="AB47" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AC47">
         <v>2.5384799999999998</v>
@@ -7190,13 +7410,13 @@
         <v>2025</v>
       </c>
       <c r="V48" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="W48" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X48" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Y48">
         <v>24</v>
@@ -7205,7 +7425,7 @@
         <v>2026</v>
       </c>
       <c r="AB48" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -7219,13 +7439,13 @@
         <v>2025</v>
       </c>
       <c r="V49" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="W49" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X49" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Y49">
         <v>10</v>
@@ -7234,7 +7454,7 @@
         <v>2026</v>
       </c>
       <c r="AB49" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AC49">
         <v>60</v>
@@ -7248,13 +7468,13 @@
         <v>2025</v>
       </c>
       <c r="V50" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="W50" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X50" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y50">
         <v>50</v>
@@ -7263,7 +7483,7 @@
         <v>2026</v>
       </c>
       <c r="AB50" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AC50">
         <v>10</v>
@@ -7277,13 +7497,13 @@
         <v>2025</v>
       </c>
       <c r="V51" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="W51" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="X51" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y51">
         <v>60</v>
@@ -7292,7 +7512,7 @@
         <v>2026</v>
       </c>
       <c r="AB51" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AC51">
         <v>60</v>
@@ -7306,13 +7526,13 @@
         <v>2025</v>
       </c>
       <c r="V52" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="W52" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X52" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Y52">
         <v>16</v>
@@ -7321,7 +7541,7 @@
         <v>2026</v>
       </c>
       <c r="AB52" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AC52">
         <v>24</v>
@@ -7335,13 +7555,13 @@
         <v>2026</v>
       </c>
       <c r="V53" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="W53" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X53" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Y53">
         <v>20</v>
@@ -7350,7 +7570,7 @@
         <v>2026</v>
       </c>
       <c r="AB53" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AC53">
         <v>16</v>
@@ -7364,13 +7584,13 @@
         <v>2026</v>
       </c>
       <c r="V54" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="W54" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="X54" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y54">
         <v>8</v>
@@ -7379,7 +7599,7 @@
         <v>2026</v>
       </c>
       <c r="AB54" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -7393,13 +7613,13 @@
         <v>2026</v>
       </c>
       <c r="V55" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="W55" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X55" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -7408,7 +7628,7 @@
         <v>2026</v>
       </c>
       <c r="AB55" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AC55">
         <v>20</v>
@@ -7422,13 +7642,13 @@
         <v>2026</v>
       </c>
       <c r="V56" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="W56" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X56" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -7437,7 +7657,7 @@
         <v>2026</v>
       </c>
       <c r="AB56" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AC56">
         <v>8</v>
@@ -7451,13 +7671,13 @@
         <v>2026</v>
       </c>
       <c r="V57" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W57" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="X57" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y57">
         <v>10</v>
@@ -7466,7 +7686,7 @@
         <v>2027</v>
       </c>
       <c r="AB57" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -7480,13 +7700,13 @@
         <v>2026</v>
       </c>
       <c r="V58" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="W58" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X58" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Y58">
         <v>24</v>
@@ -7495,7 +7715,7 @@
         <v>2027</v>
       </c>
       <c r="AB58" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AC58">
         <v>60.000300000000003</v>
@@ -7509,13 +7729,13 @@
         <v>2026</v>
       </c>
       <c r="V59" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="W59" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X59" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Y59">
         <v>10</v>
@@ -7524,7 +7744,7 @@
         <v>2027</v>
       </c>
       <c r="AB59" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AC59">
         <v>10</v>
@@ -7538,13 +7758,13 @@
         <v>2026</v>
       </c>
       <c r="V60" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="W60" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X60" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y60">
         <v>50</v>
@@ -7553,7 +7773,7 @@
         <v>2027</v>
       </c>
       <c r="AB60" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AC60">
         <v>60.000300000000003</v>
@@ -7567,13 +7787,13 @@
         <v>2026</v>
       </c>
       <c r="V61" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="W61" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="X61" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y61">
         <v>60</v>
@@ -7582,7 +7802,7 @@
         <v>2027</v>
       </c>
       <c r="AB61" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AC61">
         <v>24.00018</v>
@@ -7596,13 +7816,13 @@
         <v>2026</v>
       </c>
       <c r="V62" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="W62" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X62" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Y62">
         <v>16</v>
@@ -7611,7 +7831,7 @@
         <v>2027</v>
       </c>
       <c r="AB62" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AC62">
         <v>16.000119999999999</v>
@@ -7625,13 +7845,13 @@
         <v>2027</v>
       </c>
       <c r="V63" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W63" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="X63" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y63">
         <v>10</v>
@@ -7640,7 +7860,7 @@
         <v>2027</v>
       </c>
       <c r="AB63" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -7654,13 +7874,13 @@
         <v>2027</v>
       </c>
       <c r="V64" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="W64" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X64" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Y64">
         <v>20</v>
@@ -7669,7 +7889,7 @@
         <v>2027</v>
       </c>
       <c r="AB64" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AC64">
         <v>20</v>
@@ -7683,13 +7903,13 @@
         <v>2027</v>
       </c>
       <c r="V65" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="W65" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="X65" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y65">
         <v>13.46152</v>
@@ -7698,7 +7918,7 @@
         <v>2027</v>
       </c>
       <c r="AB65" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AC65">
         <v>13.461970000000001</v>
@@ -7712,13 +7932,13 @@
         <v>2027</v>
       </c>
       <c r="V66" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="W66" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X66" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y66">
         <v>4.6000000000000001E-4</v>
@@ -7727,7 +7947,7 @@
         <v>2028</v>
       </c>
       <c r="AB66" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -7741,13 +7961,13 @@
         <v>2027</v>
       </c>
       <c r="V67" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="W67" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X67" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y67">
         <v>2.9999999999999997E-4</v>
@@ -7756,7 +7976,7 @@
         <v>2028</v>
       </c>
       <c r="AB67" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AC67">
         <v>60.01296</v>
@@ -7770,13 +7990,13 @@
         <v>2027</v>
       </c>
       <c r="V68" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="W68" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X68" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Y68">
         <v>16.000119999999999</v>
@@ -7785,7 +8005,7 @@
         <v>2028</v>
       </c>
       <c r="AB68" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AC68">
         <v>10</v>
@@ -7799,13 +8019,13 @@
         <v>2027</v>
       </c>
       <c r="V69" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="W69" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X69" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Y69">
         <v>10</v>
@@ -7814,7 +8034,7 @@
         <v>2028</v>
       </c>
       <c r="AB69" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AC69">
         <v>60.01296</v>
@@ -7828,13 +8048,13 @@
         <v>2027</v>
       </c>
       <c r="V70" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="W70" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X70" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y70">
         <v>50.000300000000003</v>
@@ -7843,7 +8063,7 @@
         <v>2028</v>
       </c>
       <c r="AB70" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AC70">
         <v>24.00778</v>
@@ -7857,13 +8077,13 @@
         <v>2027</v>
       </c>
       <c r="V71" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="W71" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="X71" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y71">
         <v>60</v>
@@ -7872,7 +8092,7 @@
         <v>2028</v>
       </c>
       <c r="AB71" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AC71">
         <v>16.005179999999999</v>
@@ -7886,13 +8106,13 @@
         <v>2027</v>
       </c>
       <c r="V72" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="W72" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X72" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Y72">
         <v>24.00018</v>
@@ -7901,7 +8121,7 @@
         <v>2028</v>
       </c>
       <c r="AB72" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -7915,13 +8135,13 @@
         <v>2028</v>
       </c>
       <c r="V73" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="W73" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X73" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y73">
         <v>1.9439999999999999E-2</v>
@@ -7930,7 +8150,7 @@
         <v>2028</v>
       </c>
       <c r="AB73" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AC73">
         <v>20</v>
@@ -7944,13 +8164,13 @@
         <v>2028</v>
       </c>
       <c r="V74" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="W74" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X74" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Y74">
         <v>20</v>
@@ -7959,7 +8179,7 @@
         <v>2028</v>
       </c>
       <c r="AB74" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AC74">
         <v>15.65544</v>
@@ -7973,13 +8193,13 @@
         <v>2028</v>
       </c>
       <c r="V75" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="W75" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="X75" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y75">
         <v>15.635999999999999</v>
@@ -7988,7 +8208,7 @@
         <v>2029</v>
       </c>
       <c r="AB75" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -8002,13 +8222,13 @@
         <v>2028</v>
       </c>
       <c r="V76" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W76" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="X76" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y76">
         <v>10</v>
@@ -8017,7 +8237,7 @@
         <v>2029</v>
       </c>
       <c r="AB76" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AC76">
         <v>60.218400000000003</v>
@@ -8031,13 +8251,13 @@
         <v>2028</v>
       </c>
       <c r="V77" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="W77" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X77" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y77">
         <v>1.2959999999999999E-2</v>
@@ -8046,7 +8266,7 @@
         <v>2029</v>
       </c>
       <c r="AB77" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AC77">
         <v>10</v>
@@ -8060,13 +8280,13 @@
         <v>2028</v>
       </c>
       <c r="V78" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="W78" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X78" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Y78">
         <v>10</v>
@@ -8075,7 +8295,7 @@
         <v>2029</v>
       </c>
       <c r="AB78" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AC78">
         <v>60.218400000000003</v>
@@ -8089,13 +8309,13 @@
         <v>2028</v>
       </c>
       <c r="V79" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="W79" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X79" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Y79">
         <v>24.00778</v>
@@ -8104,7 +8324,7 @@
         <v>2029</v>
       </c>
       <c r="AB79" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AC79">
         <v>24.131039999999999</v>
@@ -8118,13 +8338,13 @@
         <v>2028</v>
       </c>
       <c r="V80" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="W80" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X80" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y80">
         <v>50.01296</v>
@@ -8133,7 +8353,7 @@
         <v>2029</v>
       </c>
       <c r="AB80" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AC80">
         <v>16.08736</v>
@@ -8147,13 +8367,13 @@
         <v>2028</v>
       </c>
       <c r="V81" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="W81" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="X81" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y81">
         <v>60</v>
@@ -8162,7 +8382,7 @@
         <v>2029</v>
       </c>
       <c r="AB81" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -8176,13 +8396,13 @@
         <v>2028</v>
       </c>
       <c r="V82" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="W82" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X82" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Y82">
         <v>16.005179999999999</v>
@@ -8191,7 +8411,7 @@
         <v>2029</v>
       </c>
       <c r="AB82" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AC82">
         <v>20</v>
@@ -8205,13 +8425,13 @@
         <v>2029</v>
       </c>
       <c r="V83" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W83" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="X83" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y83">
         <v>10</v>
@@ -8220,7 +8440,7 @@
         <v>2029</v>
       </c>
       <c r="AB83" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AC83">
         <v>16.306000000000001</v>
@@ -8234,13 +8454,13 @@
         <v>2029</v>
       </c>
       <c r="V84" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="W84" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X84" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Y84">
         <v>20</v>
@@ -8249,7 +8469,7 @@
         <v>2030</v>
       </c>
       <c r="AB84" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -8263,13 +8483,13 @@
         <v>2029</v>
       </c>
       <c r="V85" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="W85" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X85" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y85">
         <v>0.3276</v>
@@ -8278,7 +8498,7 @@
         <v>2030</v>
       </c>
       <c r="AB85" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AC85">
         <v>61.523090000000003</v>
@@ -8292,13 +8512,13 @@
         <v>2029</v>
       </c>
       <c r="V86" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="W86" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X86" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y86">
         <v>0.21840000000000001</v>
@@ -8307,7 +8527,7 @@
         <v>2030</v>
       </c>
       <c r="AB86" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AC86">
         <v>10</v>
@@ -8321,13 +8541,13 @@
         <v>2029</v>
       </c>
       <c r="V87" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="W87" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="X87" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y87">
         <v>15.978400000000001</v>
@@ -8336,7 +8556,7 @@
         <v>2030</v>
       </c>
       <c r="AB87" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AC87">
         <v>61.523090000000003</v>
@@ -8350,13 +8570,13 @@
         <v>2029</v>
       </c>
       <c r="V88" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="W88" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X88" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Y88">
         <v>24.131039999999999</v>
@@ -8365,7 +8585,7 @@
         <v>2030</v>
       </c>
       <c r="AB88" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AC88">
         <v>24.91385</v>
@@ -8379,13 +8599,13 @@
         <v>2029</v>
       </c>
       <c r="V89" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="W89" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X89" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Y89">
         <v>10</v>
@@ -8394,7 +8614,7 @@
         <v>2030</v>
       </c>
       <c r="AB89" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AC89">
         <v>16.60924</v>
@@ -8408,13 +8628,13 @@
         <v>2029</v>
       </c>
       <c r="V90" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="W90" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X90" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y90">
         <v>50.218400000000003</v>
@@ -8423,7 +8643,7 @@
         <v>2030</v>
       </c>
       <c r="AB90" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -8437,13 +8657,13 @@
         <v>2029</v>
       </c>
       <c r="V91" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="W91" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="X91" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y91">
         <v>60</v>
@@ -8452,7 +8672,7 @@
         <v>2030</v>
       </c>
       <c r="AB91" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AC91">
         <v>20</v>
@@ -8466,13 +8686,13 @@
         <v>2029</v>
       </c>
       <c r="V92" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="W92" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X92" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Y92">
         <v>16.08736</v>
@@ -8481,7 +8701,7 @@
         <v>2030</v>
       </c>
       <c r="AB92" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AC92">
         <v>18.284140000000001</v>
@@ -8495,13 +8715,13 @@
         <v>2030</v>
       </c>
       <c r="V93" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="W93" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X93" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Y93">
         <v>20</v>
@@ -8512,13 +8732,13 @@
         <v>2030</v>
       </c>
       <c r="V94" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="W94" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="X94" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y94">
         <v>60</v>
@@ -8529,13 +8749,13 @@
         <v>2030</v>
       </c>
       <c r="V95" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="W95" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X95" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y95">
         <v>51.523090000000003</v>
@@ -8546,13 +8766,13 @@
         <v>2030</v>
       </c>
       <c r="V96" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="W96" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X96" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Y96">
         <v>10</v>
@@ -8563,13 +8783,13 @@
         <v>2030</v>
       </c>
       <c r="V97" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="W97" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X97" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Y97">
         <v>24.91385</v>
@@ -8580,13 +8800,13 @@
         <v>2030</v>
       </c>
       <c r="V98" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="W98" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X98" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Y98">
         <v>16.60924</v>
@@ -8597,13 +8817,13 @@
         <v>2030</v>
       </c>
       <c r="V99" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="W99" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X99" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y99">
         <v>1.5230900000000001</v>
@@ -8614,13 +8834,13 @@
         <v>2030</v>
       </c>
       <c r="V100" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="W100" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X100" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y100">
         <v>2.28464</v>
@@ -8631,13 +8851,13 @@
         <v>2030</v>
       </c>
       <c r="V101" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="W101" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="X101" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y101">
         <v>15.999510000000001</v>
@@ -8648,13 +8868,13 @@
         <v>2030</v>
       </c>
       <c r="V102" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W102" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="X102" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y102">
         <v>10</v>
@@ -8671,7 +8891,7 @@
   <dimension ref="B1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8683,18 +8903,18 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C2">
         <v>0.48</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -8703,6 +8923,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
+    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100806C55B750152A459818B636E97A41C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="74fd9cb75cef04cf26a1ff9ddef01b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xmlns:ns3="145cc194-9bea-4db6-b116-a042a4529fcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afbcbfdd38894bc2ff0644b00c8ec680" ns2:_="" ns3:_="">
     <xsd:import namespace="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
@@ -8965,42 +9206,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="145cc194-9bea-4db6-b116-a042a4529fcd" xsi:nil="true"/>
-    <Comment xmlns="7536dd80-7d39-48e8-9ae3-b4166f580a2d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D60021C7-CA75-4673-96EA-55284BF81134}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
-    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9023,9 +9232,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB3C6F0-DB35-46F0-8FEB-B5E57B48A727}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D60021C7-CA75-4673-96EA-55284BF81134}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7536dd80-7d39-48e8-9ae3-b4166f580a2d"/>
+    <ds:schemaRef ds:uri="145cc194-9bea-4db6-b116-a042a4529fcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PythonProjects\aiphoria\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C908704-BA60-4E86-8D4F-3F0D62C1455A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B11B4C-CC0E-4E7D-B81F-E8C366A6227C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1000A452-A98F-45C1-B843-91F7F67E097C}"/>
   </bookViews>
@@ -1029,13 +1029,13 @@
     <t>2 columns needed for each indicator (name and comment)</t>
   </si>
   <si>
-    <t>SWE</t>
-  </si>
-  <si>
     <t>New parameter</t>
   </si>
   <si>
     <t>Reduce sawmilling residues by 50%</t>
+  </si>
+  <si>
+    <t>Solid wood equivalent</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1156,6 +1156,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,7 +1220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1304,6 +1310,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1891,7 +1906,7 @@
   <dimension ref="A2:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,7 +1966,7 @@
     </row>
     <row r="8" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>226</v>
@@ -1996,7 +2011,7 @@
     </row>
     <row r="11" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>227</v>
@@ -2097,13 +2112,13 @@
     </row>
     <row r="18" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>267</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D18" s="40" t="s">
         <v>161</v>
@@ -2114,7 +2129,7 @@
     </row>
     <row r="19" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B19" s="40" t="s">
         <v>268</v>
@@ -2201,7 +2216,7 @@
     </row>
     <row r="25" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>248</v>
@@ -2232,7 +2247,7 @@
         <v>177</v>
       </c>
       <c r="C27" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>159</v>
@@ -2271,7 +2286,7 @@
     </row>
     <row r="30" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B30" s="40" t="s">
         <v>249</v>
@@ -2337,7 +2352,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2894,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B692AEE8-68EE-4B81-A49D-50BF066DFFE7}">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,9 +2929,9 @@
     <col min="12" max="12" width="12.85546875" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26" style="6" customWidth="1"/>
-    <col min="16" max="16" width="29.28515625" customWidth="1"/>
-    <col min="17" max="17" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26" style="49" customWidth="1"/>
+    <col min="16" max="16" width="29.28515625" style="50" customWidth="1"/>
+    <col min="17" max="17" width="45.7109375" style="50" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="45.7109375" customWidth="1"/>
     <col min="19" max="19" width="57.42578125" customWidth="1"/>
     <col min="20" max="20" width="46.28515625" bestFit="1" customWidth="1"/>
@@ -2965,13 +2980,13 @@
       <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="47" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="3"/>
@@ -3001,9 +3016,9 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3" t="s">
         <v>273</v>
@@ -3053,13 +3068,13 @@
       <c r="N3" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="48" t="s">
         <v>262</v>
       </c>
       <c r="R3" s="42" t="s">
@@ -3116,11 +3131,11 @@
       <c r="N4" t="s">
         <v>62</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="50">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="51"/>
       <c r="R4" s="16"/>
       <c r="S4">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
@@ -3172,11 +3187,11 @@
       <c r="N5" t="s">
         <v>62</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="50">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.20342399999999999</v>
       </c>
-      <c r="Q5" s="16"/>
+      <c r="Q5" s="51"/>
       <c r="R5" s="16"/>
       <c r="S5">
         <f>0.4238*'Carbon fraction (will be moved)'!$C$2</f>
@@ -3228,11 +3243,11 @@
       <c r="N6" t="s">
         <v>62</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="50">
         <f>0.395*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.18959999999999999</v>
       </c>
-      <c r="Q6" s="16"/>
+      <c r="Q6" s="51"/>
       <c r="R6" s="16"/>
       <c r="S6">
         <f>0.395*'Carbon fraction (will be moved)'!$C$2</f>
@@ -3284,11 +3299,11 @@
       <c r="N7" t="s">
         <v>62</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="50">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="50" t="s">
         <v>60</v>
       </c>
       <c r="S7">
@@ -3343,11 +3358,11 @@
       <c r="N8" t="s">
         <v>62</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="50">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="50" t="s">
         <v>61</v>
       </c>
       <c r="S8">
@@ -3402,11 +3417,11 @@
       <c r="N9" t="s">
         <v>62</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="50">
         <f>0.48*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.23039999999999999</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="50" t="s">
         <v>60</v>
       </c>
       <c r="S9">
@@ -3461,11 +3476,11 @@
       <c r="N10" t="s">
         <v>62</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="50">
         <f>0.45*'Carbon fraction (will be moved)'!$C$2</f>
         <v>0.216</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="50" t="s">
         <v>263</v>
       </c>
       <c r="S10">
@@ -3519,7 +3534,7 @@
       <c r="N11" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="16"/>
+      <c r="Q11" s="51"/>
       <c r="R11" s="16"/>
       <c r="T11" s="16"/>
     </row>
@@ -3567,7 +3582,7 @@
       <c r="N12" t="s">
         <v>62</v>
       </c>
-      <c r="Q12" s="16"/>
+      <c r="Q12" s="51"/>
       <c r="R12" s="16"/>
       <c r="T12" s="16"/>
     </row>
@@ -3615,7 +3630,7 @@
       <c r="N13" t="s">
         <v>62</v>
       </c>
-      <c r="Q13" s="16"/>
+      <c r="Q13" s="51"/>
       <c r="R13" s="16"/>
       <c r="T13" s="16"/>
     </row>
@@ -3623,35 +3638,35 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="N14"/>
-      <c r="Q14" s="9"/>
+      <c r="Q14" s="51"/>
       <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="N15"/>
-      <c r="Q15" s="16"/>
+      <c r="Q15" s="51"/>
       <c r="R15" s="16"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="N16"/>
-      <c r="Q16" s="16"/>
+      <c r="Q16" s="51"/>
       <c r="R16" s="16"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="N17"/>
-      <c r="Q17" s="16"/>
+      <c r="Q17" s="51"/>
       <c r="R17" s="16"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="N18"/>
-      <c r="Q18" s="16"/>
+      <c r="Q18" s="51"/>
       <c r="R18" s="16"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.25">
@@ -3668,21 +3683,21 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="N21"/>
-      <c r="Q21" s="16"/>
+      <c r="Q21" s="51"/>
       <c r="R21" s="16"/>
     </row>
     <row r="22" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="N22"/>
-      <c r="Q22" s="16"/>
+      <c r="Q22" s="51"/>
       <c r="R22" s="16"/>
     </row>
     <row r="23" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="N23"/>
-      <c r="Q23" s="16"/>
+      <c r="Q23" s="51"/>
       <c r="R23" s="16"/>
     </row>
     <row r="24" spans="8:18" x14ac:dyDescent="0.25">
@@ -3741,304 +3756,304 @@
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="O36"/>
+      <c r="O36" s="50"/>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="O37"/>
+      <c r="O37" s="50"/>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="O38"/>
+      <c r="O38" s="50"/>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="N39"/>
-      <c r="O39"/>
+      <c r="O39" s="50"/>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="N40"/>
-      <c r="O40"/>
+      <c r="O40" s="50"/>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="N41"/>
-      <c r="O41"/>
+      <c r="O41" s="50"/>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="N42"/>
-      <c r="O42"/>
+      <c r="O42" s="50"/>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="N43"/>
-      <c r="O43"/>
+      <c r="O43" s="50"/>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="N44"/>
-      <c r="O44"/>
+      <c r="O44" s="50"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="9"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="N45"/>
-      <c r="O45"/>
+      <c r="O45" s="50"/>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="N46"/>
-      <c r="O46"/>
+      <c r="O46" s="50"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="N47"/>
-      <c r="O47"/>
+      <c r="O47" s="50"/>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="N48"/>
-      <c r="O48"/>
+      <c r="O48" s="50"/>
     </row>
     <row r="49" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="N49"/>
-      <c r="O49"/>
+      <c r="O49" s="50"/>
     </row>
     <row r="50" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="N50"/>
-      <c r="O50"/>
+      <c r="O50" s="50"/>
     </row>
     <row r="51" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="N51"/>
-      <c r="O51"/>
+      <c r="O51" s="50"/>
     </row>
     <row r="52" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="N52"/>
-      <c r="O52"/>
+      <c r="O52" s="50"/>
     </row>
     <row r="53" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="N53"/>
-      <c r="O53"/>
+      <c r="O53" s="50"/>
     </row>
     <row r="54" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="N54"/>
-      <c r="O54"/>
+      <c r="O54" s="50"/>
     </row>
     <row r="55" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="N55"/>
-      <c r="O55"/>
+      <c r="O55" s="50"/>
     </row>
     <row r="56" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="N56"/>
-      <c r="O56"/>
+      <c r="O56" s="50"/>
     </row>
     <row r="57" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="N57"/>
-      <c r="O57"/>
+      <c r="O57" s="50"/>
     </row>
     <row r="58" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="N58"/>
-      <c r="O58"/>
+      <c r="O58" s="50"/>
     </row>
     <row r="59" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="N59"/>
-      <c r="O59"/>
+      <c r="O59" s="50"/>
     </row>
     <row r="60" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="N60"/>
-      <c r="O60"/>
+      <c r="O60" s="50"/>
     </row>
     <row r="61" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="N61"/>
-      <c r="O61"/>
+      <c r="O61" s="50"/>
     </row>
     <row r="62" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="N62"/>
-      <c r="O62"/>
+      <c r="O62" s="50"/>
     </row>
     <row r="63" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="N63"/>
-      <c r="O63"/>
+      <c r="O63" s="50"/>
     </row>
     <row r="64" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="N64"/>
-      <c r="O64"/>
+      <c r="O64" s="50"/>
     </row>
     <row r="65" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="N65"/>
-      <c r="O65"/>
+      <c r="O65" s="50"/>
     </row>
     <row r="66" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="N66"/>
-      <c r="O66"/>
+      <c r="O66" s="50"/>
     </row>
     <row r="67" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="N67"/>
-      <c r="O67"/>
+      <c r="O67" s="50"/>
     </row>
     <row r="68" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="N68"/>
-      <c r="O68"/>
+      <c r="O68" s="50"/>
     </row>
     <row r="69" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="N69"/>
-      <c r="O69"/>
+      <c r="O69" s="50"/>
     </row>
     <row r="70" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="N70"/>
-      <c r="O70"/>
+      <c r="O70" s="50"/>
     </row>
     <row r="71" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="N71"/>
-      <c r="O71"/>
+      <c r="O71" s="50"/>
     </row>
     <row r="72" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="N72"/>
-      <c r="O72"/>
+      <c r="O72" s="50"/>
     </row>
     <row r="73" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="N73"/>
-      <c r="O73"/>
+      <c r="O73" s="50"/>
     </row>
     <row r="74" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="N74"/>
-      <c r="O74"/>
+      <c r="O74" s="50"/>
     </row>
     <row r="75" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="N75"/>
-      <c r="O75"/>
+      <c r="O75" s="50"/>
     </row>
     <row r="76" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="N76"/>
-      <c r="O76"/>
+      <c r="O76" s="50"/>
     </row>
     <row r="77" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="N77"/>
-      <c r="O77"/>
+      <c r="O77" s="50"/>
     </row>
     <row r="78" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="N78"/>
-      <c r="O78"/>
+      <c r="O78" s="50"/>
     </row>
     <row r="79" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="N79"/>
-      <c r="O79"/>
+      <c r="O79" s="50"/>
     </row>
     <row r="80" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="N80"/>
-      <c r="O80"/>
+      <c r="O80" s="50"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="N81"/>
-      <c r="O81"/>
+      <c r="O81" s="50"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="N82"/>
-      <c r="O82"/>
+      <c r="O82" s="50"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="N83"/>
-      <c r="O83"/>
+      <c r="O83" s="50"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="N84"/>
-      <c r="O84"/>
+      <c r="O84" s="50"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="N85"/>
-      <c r="O85"/>
+      <c r="O85" s="50"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N86"/>
-      <c r="O86"/>
+      <c r="O86" s="50"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
@@ -4049,31 +4064,31 @@
       <c r="I87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87"/>
-      <c r="O87"/>
+      <c r="O87" s="50"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="N88"/>
-      <c r="O88"/>
+      <c r="O88" s="50"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="N89"/>
-      <c r="O89"/>
+      <c r="O89" s="50"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="N90"/>
-      <c r="O90"/>
+      <c r="O90" s="50"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="N91"/>
-      <c r="O91"/>
+      <c r="O91" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:T3" xr:uid="{B692AEE8-68EE-4B81-A49D-50BF066DFFE7}"/>
@@ -4146,7 +4161,7 @@
     </row>
     <r